--- a/New-Template-(01-17-24).xlsx
+++ b/New-Template-(01-17-24).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Trae\2023\AI Folder\Data-TJD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E5680C1-B852-4A53-9738-CBDE3FC01FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A58282B-45E2-4204-BDE9-93139EFAA692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="888" yWindow="-108" windowWidth="45300" windowHeight="26136" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17016" yWindow="1992" windowWidth="16512" windowHeight="20280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="juliabid" sheetId="1" r:id="rId1"/>
@@ -1338,7 +1338,7 @@
     <xf numFmtId="44" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="344">
+  <cellXfs count="339">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1726,10 +1726,80 @@
     <xf numFmtId="3" fontId="38" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="36" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="49" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="50" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="38" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="50" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="36" fillId="3" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="21" fillId="9" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -1737,143 +1807,232 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="168" fontId="37" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="36" fillId="3" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="8" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="36" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="37" fillId="8" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="49" fillId="6" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="21" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="37" fillId="8" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="26" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="44" fontId="36" fillId="3" borderId="62" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="40" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="17" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="1" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="21" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="50" fillId="6" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="180" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="21" fillId="3" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="48" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="44" fontId="21" fillId="3" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="25" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="3" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="44" fontId="36" fillId="3" borderId="62" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="38" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="21" fillId="3" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="53" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="54" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="54" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="21" fillId="8" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="52" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="3" fontId="37" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="9" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
+    <xf numFmtId="168" fontId="37" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="36" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="26" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="44" fontId="11" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="51" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="15" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="1" fontId="17" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="44" fontId="36" fillId="3" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="4" borderId="41" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="43" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="44" fontId="21" fillId="3" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="25" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="22" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="36" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="21" fillId="3" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="37" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="56" fillId="4" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="48" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="21" fillId="3" borderId="56" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="44" fontId="21" fillId="9" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="21" fillId="3" borderId="47" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1887,9 +2046,6 @@
     </xf>
     <xf numFmtId="3" fontId="23" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="36" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="3" fontId="21" fillId="3" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1913,7 +2069,6 @@
     <xf numFmtId="9" fontId="50" fillId="3" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -1921,255 +2076,93 @@
     <xf numFmtId="3" fontId="33" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="21" fillId="3" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="53" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="22" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="3" fontId="54" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="36" fillId="3" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="54" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="52" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="44" fontId="21" fillId="3" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="26" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="3" fontId="43" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="37" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="3" fontId="37" fillId="8" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="3" fontId="40" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="9" fontId="21" fillId="3" borderId="56" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="3" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="3" fontId="50" fillId="6" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="180" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="44" fontId="21" fillId="9" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="3" fontId="21" fillId="3" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="38" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="37" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="21" fillId="9" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="26" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="15" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="36" fillId="3" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="4" borderId="41" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="49" fillId="6" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="21" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="21" fillId="3" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="7" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="36" fillId="3" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="36" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="37" fillId="8" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="38" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="49" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="56" fillId="4" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2918,8 +2911,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>3061</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>269761</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>289560</xdr:rowOff>
     </xdr:to>
@@ -3577,7 +3570,7 @@
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.44140625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="0.109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="0.21875" style="4" customWidth="1"/>
     <col min="3" max="5" width="15.44140625" style="4" customWidth="1"/>
     <col min="6" max="6" width="3.77734375" style="6" customWidth="1"/>
     <col min="7" max="9" width="4" style="7" customWidth="1"/>
@@ -3683,25 +3676,25 @@
     </row>
     <row r="2" spans="2:107" s="18" customFormat="1" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="37"/>
-      <c r="C2" s="312"/>
-      <c r="D2" s="312"/>
-      <c r="E2" s="312"/>
-      <c r="F2" s="313"/>
-      <c r="G2" s="314"/>
-      <c r="H2" s="314"/>
-      <c r="I2" s="314"/>
-      <c r="J2" s="315"/>
-      <c r="K2" s="315"/>
-      <c r="L2" s="315"/>
-      <c r="M2" s="315"/>
-      <c r="N2" s="315"/>
-      <c r="O2" s="315"/>
-      <c r="P2" s="315"/>
-      <c r="Q2" s="315"/>
-      <c r="R2" s="315"/>
-      <c r="S2" s="315"/>
-      <c r="T2" s="315"/>
-      <c r="U2" s="315"/>
+      <c r="C2" s="173"/>
+      <c r="D2" s="173"/>
+      <c r="E2" s="173"/>
+      <c r="F2" s="174"/>
+      <c r="G2" s="175"/>
+      <c r="H2" s="175"/>
+      <c r="I2" s="175"/>
+      <c r="J2" s="176"/>
+      <c r="K2" s="176"/>
+      <c r="L2" s="176"/>
+      <c r="M2" s="176"/>
+      <c r="N2" s="176"/>
+      <c r="O2" s="176"/>
+      <c r="P2" s="176"/>
+      <c r="Q2" s="176"/>
+      <c r="R2" s="176"/>
+      <c r="S2" s="176"/>
+      <c r="T2" s="176"/>
+      <c r="U2" s="176"/>
       <c r="V2" s="27"/>
       <c r="W2" s="5"/>
       <c r="X2" s="5"/>
@@ -3758,34 +3751,34 @@
     </row>
     <row r="3" spans="2:107" s="18" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="37"/>
-      <c r="C3" s="312"/>
-      <c r="D3" s="312"/>
-      <c r="E3" s="312"/>
-      <c r="F3" s="313"/>
-      <c r="G3" s="314"/>
-      <c r="H3" s="314"/>
-      <c r="I3" s="314"/>
-      <c r="J3" s="315"/>
-      <c r="K3" s="315"/>
-      <c r="L3" s="315"/>
-      <c r="M3" s="315"/>
-      <c r="N3" s="315"/>
-      <c r="O3" s="315"/>
-      <c r="P3" s="315"/>
-      <c r="Q3" s="315"/>
-      <c r="R3" s="315"/>
-      <c r="S3" s="315"/>
-      <c r="T3" s="315"/>
-      <c r="U3" s="315"/>
+      <c r="C3" s="173"/>
+      <c r="D3" s="173"/>
+      <c r="E3" s="173"/>
+      <c r="F3" s="174"/>
+      <c r="G3" s="175"/>
+      <c r="H3" s="175"/>
+      <c r="I3" s="175"/>
+      <c r="J3" s="176"/>
+      <c r="K3" s="176"/>
+      <c r="L3" s="176"/>
+      <c r="M3" s="176"/>
+      <c r="N3" s="176"/>
+      <c r="O3" s="176"/>
+      <c r="P3" s="176"/>
+      <c r="Q3" s="176"/>
+      <c r="R3" s="176"/>
+      <c r="S3" s="176"/>
+      <c r="T3" s="176"/>
+      <c r="U3" s="176"/>
       <c r="V3" s="27"/>
       <c r="W3" s="5"/>
-      <c r="X3" s="281" t="s">
+      <c r="X3" s="223" t="s">
         <v>0</v>
       </c>
-      <c r="Y3" s="179"/>
-      <c r="Z3" s="179"/>
-      <c r="AA3" s="179"/>
-      <c r="AB3" s="179"/>
+      <c r="Y3" s="184"/>
+      <c r="Z3" s="184"/>
+      <c r="AA3" s="184"/>
+      <c r="AB3" s="184"/>
       <c r="AC3" s="151"/>
       <c r="AD3" s="30"/>
       <c r="AE3" s="30"/>
@@ -3856,11 +3849,11 @@
       <c r="U4" s="61"/>
       <c r="V4" s="62"/>
       <c r="W4" s="5"/>
-      <c r="X4" s="181"/>
-      <c r="Y4" s="182"/>
-      <c r="Z4" s="182"/>
-      <c r="AA4" s="182"/>
-      <c r="AB4" s="182"/>
+      <c r="X4" s="189"/>
+      <c r="Y4" s="190"/>
+      <c r="Z4" s="190"/>
+      <c r="AA4" s="190"/>
+      <c r="AB4" s="190"/>
       <c r="AC4" s="152"/>
       <c r="AD4" s="30"/>
       <c r="AE4" s="30"/>
@@ -3909,42 +3902,42 @@
       <c r="BV4" s="50"/>
     </row>
     <row r="5" spans="2:107" s="18" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="292" t="s">
+      <c r="B5" s="183" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="179"/>
-      <c r="D5" s="179"/>
-      <c r="E5" s="179"/>
-      <c r="F5" s="180"/>
-      <c r="G5" s="222" t="str">
+      <c r="C5" s="184"/>
+      <c r="D5" s="184"/>
+      <c r="E5" s="184"/>
+      <c r="F5" s="185"/>
+      <c r="G5" s="324" t="str">
         <f>Y5</f>
         <v>Test Company</v>
       </c>
-      <c r="H5" s="179"/>
-      <c r="I5" s="179"/>
-      <c r="J5" s="179"/>
-      <c r="K5" s="179"/>
-      <c r="L5" s="179"/>
-      <c r="M5" s="179"/>
-      <c r="N5" s="179"/>
-      <c r="O5" s="179"/>
-      <c r="P5" s="179"/>
-      <c r="Q5" s="179"/>
-      <c r="R5" s="179"/>
-      <c r="S5" s="179"/>
-      <c r="T5" s="179"/>
-      <c r="U5" s="179"/>
-      <c r="V5" s="180"/>
+      <c r="H5" s="184"/>
+      <c r="I5" s="184"/>
+      <c r="J5" s="184"/>
+      <c r="K5" s="184"/>
+      <c r="L5" s="184"/>
+      <c r="M5" s="184"/>
+      <c r="N5" s="184"/>
+      <c r="O5" s="184"/>
+      <c r="P5" s="184"/>
+      <c r="Q5" s="184"/>
+      <c r="R5" s="184"/>
+      <c r="S5" s="184"/>
+      <c r="T5" s="184"/>
+      <c r="U5" s="184"/>
+      <c r="V5" s="185"/>
       <c r="W5" s="5"/>
       <c r="X5" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="Y5" s="289" t="s">
+      <c r="Y5" s="238" t="s">
         <v>2</v>
       </c>
-      <c r="Z5" s="290"/>
-      <c r="AA5" s="290"/>
-      <c r="AB5" s="291"/>
+      <c r="Z5" s="239"/>
+      <c r="AA5" s="239"/>
+      <c r="AB5" s="240"/>
       <c r="AC5" s="159"/>
       <c r="AD5" s="30"/>
       <c r="AE5" s="30"/>
@@ -3993,39 +3986,39 @@
       <c r="BV5" s="50"/>
     </row>
     <row r="6" spans="2:107" s="18" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="202"/>
-      <c r="C6" s="316"/>
-      <c r="D6" s="316"/>
-      <c r="E6" s="316"/>
-      <c r="F6" s="201"/>
-      <c r="G6" s="202"/>
-      <c r="H6" s="316"/>
-      <c r="I6" s="316"/>
-      <c r="J6" s="316"/>
-      <c r="K6" s="316"/>
-      <c r="L6" s="316"/>
-      <c r="M6" s="316"/>
-      <c r="N6" s="316"/>
-      <c r="O6" s="316"/>
-      <c r="P6" s="316"/>
-      <c r="Q6" s="316"/>
-      <c r="R6" s="316"/>
-      <c r="S6" s="316"/>
-      <c r="T6" s="316"/>
-      <c r="U6" s="316"/>
-      <c r="V6" s="201"/>
+      <c r="B6" s="186"/>
+      <c r="C6" s="187"/>
+      <c r="D6" s="187"/>
+      <c r="E6" s="187"/>
+      <c r="F6" s="188"/>
+      <c r="G6" s="186"/>
+      <c r="H6" s="187"/>
+      <c r="I6" s="187"/>
+      <c r="J6" s="187"/>
+      <c r="K6" s="187"/>
+      <c r="L6" s="187"/>
+      <c r="M6" s="187"/>
+      <c r="N6" s="187"/>
+      <c r="O6" s="187"/>
+      <c r="P6" s="187"/>
+      <c r="Q6" s="187"/>
+      <c r="R6" s="187"/>
+      <c r="S6" s="187"/>
+      <c r="T6" s="187"/>
+      <c r="U6" s="187"/>
+      <c r="V6" s="188"/>
       <c r="W6" s="5"/>
       <c r="X6" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="Y6" s="230">
+      <c r="Y6" s="236">
         <v>0</v>
       </c>
-      <c r="Z6" s="174"/>
-      <c r="AA6" s="282" t="s">
+      <c r="Z6" s="206"/>
+      <c r="AA6" s="227" t="s">
         <v>4</v>
       </c>
-      <c r="AB6" s="177"/>
+      <c r="AB6" s="204"/>
       <c r="AC6" s="160"/>
       <c r="AD6" s="30"/>
       <c r="AE6" s="30"/>
@@ -4074,37 +4067,37 @@
       <c r="BV6" s="50"/>
     </row>
     <row r="7" spans="2:107" s="18" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="181"/>
-      <c r="C7" s="182"/>
-      <c r="D7" s="182"/>
-      <c r="E7" s="182"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="202"/>
-      <c r="H7" s="316"/>
-      <c r="I7" s="316"/>
-      <c r="J7" s="316"/>
-      <c r="K7" s="316"/>
-      <c r="L7" s="316"/>
-      <c r="M7" s="316"/>
-      <c r="N7" s="316"/>
-      <c r="O7" s="316"/>
-      <c r="P7" s="316"/>
-      <c r="Q7" s="316"/>
-      <c r="R7" s="316"/>
-      <c r="S7" s="316"/>
-      <c r="T7" s="316"/>
-      <c r="U7" s="316"/>
-      <c r="V7" s="201"/>
+      <c r="B7" s="189"/>
+      <c r="C7" s="190"/>
+      <c r="D7" s="190"/>
+      <c r="E7" s="190"/>
+      <c r="F7" s="191"/>
+      <c r="G7" s="186"/>
+      <c r="H7" s="187"/>
+      <c r="I7" s="187"/>
+      <c r="J7" s="187"/>
+      <c r="K7" s="187"/>
+      <c r="L7" s="187"/>
+      <c r="M7" s="187"/>
+      <c r="N7" s="187"/>
+      <c r="O7" s="187"/>
+      <c r="P7" s="187"/>
+      <c r="Q7" s="187"/>
+      <c r="R7" s="187"/>
+      <c r="S7" s="187"/>
+      <c r="T7" s="187"/>
+      <c r="U7" s="187"/>
+      <c r="V7" s="188"/>
       <c r="W7" s="5"/>
       <c r="X7" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="Y7" s="230">
+      <c r="Y7" s="236">
         <v>0</v>
       </c>
-      <c r="Z7" s="174"/>
-      <c r="AA7" s="204"/>
-      <c r="AB7" s="205"/>
+      <c r="Z7" s="206"/>
+      <c r="AA7" s="311"/>
+      <c r="AB7" s="312"/>
       <c r="AC7" s="153"/>
       <c r="AD7" s="30"/>
       <c r="AE7" s="30"/>
@@ -4153,14 +4146,14 @@
       <c r="BV7" s="50"/>
     </row>
     <row r="8" spans="2:107" s="18" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="294" t="str">
+      <c r="B8" s="193" t="str">
         <f>"  When we build your campaign, our team of humans collaborates internally to select the best media mix for reaching "&amp;AA7&amp;"s within your geofence. This is not a one size fits all approach either. From news feeds to television, we have a massive deck of tools from which to choose. Once you tell us the campaign level and approve the messaging\landing page, we go to work."</f>
         <v xml:space="preserve">  When we build your campaign, our team of humans collaborates internally to select the best media mix for reaching s within your geofence. This is not a one size fits all approach either. From news feeds to television, we have a massive deck of tools from which to choose. Once you tell us the campaign level and approve the messaging\landing page, we go to work.</v>
       </c>
-      <c r="C8" s="295"/>
-      <c r="D8" s="295"/>
-      <c r="E8" s="295"/>
-      <c r="F8" s="295"/>
+      <c r="C8" s="194"/>
+      <c r="D8" s="194"/>
+      <c r="E8" s="194"/>
+      <c r="F8" s="194"/>
       <c r="G8" s="47" t="s">
         <v>6</v>
       </c>
@@ -4178,19 +4171,19 @@
       <c r="S8" s="46"/>
       <c r="T8" s="46"/>
       <c r="U8" s="166"/>
-      <c r="V8" s="194" t="s">
+      <c r="V8" s="335" t="s">
         <v>7</v>
       </c>
       <c r="W8" s="5"/>
       <c r="X8" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="Y8" s="256">
+      <c r="Y8" s="272">
         <v>0</v>
       </c>
-      <c r="Z8" s="257"/>
-      <c r="AA8" s="206"/>
-      <c r="AB8" s="207"/>
+      <c r="Z8" s="273"/>
+      <c r="AA8" s="313"/>
+      <c r="AB8" s="213"/>
       <c r="AC8" s="153"/>
       <c r="AD8" s="30"/>
       <c r="AE8" s="30"/>
@@ -4239,37 +4232,37 @@
       <c r="BV8" s="50"/>
     </row>
     <row r="9" spans="2:107" s="18" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="296"/>
-      <c r="C9" s="317"/>
-      <c r="D9" s="317"/>
-      <c r="E9" s="317"/>
-      <c r="F9" s="318"/>
+      <c r="B9" s="195"/>
+      <c r="C9" s="196"/>
+      <c r="D9" s="196"/>
+      <c r="E9" s="196"/>
+      <c r="F9" s="197"/>
       <c r="G9" s="57"/>
-      <c r="H9" s="319"/>
-      <c r="I9" s="319"/>
-      <c r="J9" s="319"/>
-      <c r="K9" s="319"/>
-      <c r="L9" s="319"/>
-      <c r="M9" s="319"/>
-      <c r="N9" s="319"/>
-      <c r="O9" s="319"/>
-      <c r="P9" s="319"/>
-      <c r="Q9" s="319"/>
-      <c r="R9" s="319"/>
-      <c r="S9" s="319"/>
-      <c r="T9" s="319"/>
+      <c r="H9" s="177"/>
+      <c r="I9" s="177"/>
+      <c r="J9" s="177"/>
+      <c r="K9" s="177"/>
+      <c r="L9" s="177"/>
+      <c r="M9" s="177"/>
+      <c r="N9" s="177"/>
+      <c r="O9" s="177"/>
+      <c r="P9" s="177"/>
+      <c r="Q9" s="177"/>
+      <c r="R9" s="177"/>
+      <c r="S9" s="177"/>
+      <c r="T9" s="177"/>
       <c r="U9" s="167"/>
-      <c r="V9" s="195"/>
+      <c r="V9" s="336"/>
       <c r="W9" s="5"/>
-      <c r="X9" s="197" t="s">
+      <c r="X9" s="338" t="s">
         <v>9</v>
       </c>
-      <c r="Y9" s="179"/>
-      <c r="Z9" s="198"/>
-      <c r="AA9" s="261">
+      <c r="Y9" s="184"/>
+      <c r="Z9" s="235"/>
+      <c r="AA9" s="289">
         <v>1</v>
       </c>
-      <c r="AB9" s="262"/>
+      <c r="AB9" s="290"/>
       <c r="AC9" s="153"/>
       <c r="AD9" s="30"/>
       <c r="AE9" s="30"/>
@@ -4318,39 +4311,39 @@
       <c r="BV9" s="50"/>
     </row>
     <row r="10" spans="2:107" s="18" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="296"/>
-      <c r="C10" s="317"/>
-      <c r="D10" s="317"/>
-      <c r="E10" s="317"/>
-      <c r="F10" s="318"/>
+      <c r="B10" s="195"/>
+      <c r="C10" s="196"/>
+      <c r="D10" s="196"/>
+      <c r="E10" s="196"/>
+      <c r="F10" s="197"/>
       <c r="G10" s="57"/>
-      <c r="H10" s="319"/>
-      <c r="I10" s="319"/>
-      <c r="J10" s="319"/>
-      <c r="K10" s="319"/>
-      <c r="L10" s="319"/>
-      <c r="M10" s="319"/>
-      <c r="N10" s="319"/>
-      <c r="O10" s="319"/>
-      <c r="P10" s="319"/>
-      <c r="Q10" s="319"/>
-      <c r="R10" s="319"/>
-      <c r="S10" s="319"/>
-      <c r="T10" s="319"/>
+      <c r="H10" s="177"/>
+      <c r="I10" s="177"/>
+      <c r="J10" s="177"/>
+      <c r="K10" s="177"/>
+      <c r="L10" s="177"/>
+      <c r="M10" s="177"/>
+      <c r="N10" s="177"/>
+      <c r="O10" s="177"/>
+      <c r="P10" s="177"/>
+      <c r="Q10" s="177"/>
+      <c r="R10" s="177"/>
+      <c r="S10" s="177"/>
+      <c r="T10" s="177"/>
       <c r="U10" s="167"/>
-      <c r="V10" s="195"/>
+      <c r="V10" s="336"/>
       <c r="W10" s="5"/>
       <c r="X10" s="150" t="s">
         <v>10</v>
       </c>
-      <c r="Y10" s="287" t="s">
+      <c r="Y10" s="234" t="s">
         <v>11</v>
       </c>
-      <c r="Z10" s="198"/>
-      <c r="AA10" s="259" t="s">
+      <c r="Z10" s="235"/>
+      <c r="AA10" s="286" t="s">
         <v>12</v>
       </c>
-      <c r="AB10" s="180"/>
+      <c r="AB10" s="185"/>
       <c r="AC10" s="154"/>
       <c r="AD10" s="30"/>
       <c r="AE10" s="30"/>
@@ -4399,37 +4392,37 @@
       <c r="BV10" s="50"/>
     </row>
     <row r="11" spans="2:107" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="296"/>
-      <c r="C11" s="320"/>
-      <c r="D11" s="320"/>
-      <c r="E11" s="320"/>
-      <c r="F11" s="318"/>
+      <c r="B11" s="195"/>
+      <c r="C11" s="198"/>
+      <c r="D11" s="198"/>
+      <c r="E11" s="198"/>
+      <c r="F11" s="197"/>
       <c r="G11" s="57"/>
-      <c r="H11" s="319"/>
-      <c r="I11" s="319"/>
-      <c r="J11" s="319"/>
-      <c r="K11" s="319"/>
-      <c r="L11" s="319"/>
-      <c r="M11" s="319"/>
-      <c r="N11" s="319"/>
-      <c r="O11" s="319"/>
-      <c r="P11" s="319"/>
-      <c r="Q11" s="319"/>
-      <c r="R11" s="319"/>
-      <c r="S11" s="319"/>
-      <c r="T11" s="319"/>
+      <c r="H11" s="177"/>
+      <c r="I11" s="177"/>
+      <c r="J11" s="177"/>
+      <c r="K11" s="177"/>
+      <c r="L11" s="177"/>
+      <c r="M11" s="177"/>
+      <c r="N11" s="177"/>
+      <c r="O11" s="177"/>
+      <c r="P11" s="177"/>
+      <c r="Q11" s="177"/>
+      <c r="R11" s="177"/>
+      <c r="S11" s="177"/>
+      <c r="T11" s="177"/>
       <c r="U11" s="167"/>
-      <c r="V11" s="195"/>
+      <c r="V11" s="336"/>
       <c r="W11" s="9"/>
       <c r="X11" s="161"/>
-      <c r="Y11" s="173">
+      <c r="Y11" s="205">
         <v>0</v>
       </c>
-      <c r="Z11" s="174"/>
-      <c r="AA11" s="176">
+      <c r="Z11" s="206"/>
+      <c r="AA11" s="203">
         <v>0</v>
       </c>
-      <c r="AB11" s="177"/>
+      <c r="AB11" s="204"/>
       <c r="AC11" s="153"/>
       <c r="AD11" s="65"/>
       <c r="AE11" s="65"/>
@@ -4501,37 +4494,37 @@
       <c r="DC11" s="18"/>
     </row>
     <row r="12" spans="2:107" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="296"/>
-      <c r="C12" s="320"/>
-      <c r="D12" s="320"/>
-      <c r="E12" s="320"/>
-      <c r="F12" s="318"/>
+      <c r="B12" s="195"/>
+      <c r="C12" s="198"/>
+      <c r="D12" s="198"/>
+      <c r="E12" s="198"/>
+      <c r="F12" s="197"/>
       <c r="G12" s="57"/>
-      <c r="H12" s="319"/>
-      <c r="I12" s="319"/>
-      <c r="J12" s="319"/>
-      <c r="K12" s="319"/>
-      <c r="L12" s="319"/>
-      <c r="M12" s="319"/>
-      <c r="N12" s="319"/>
-      <c r="O12" s="319"/>
-      <c r="P12" s="319"/>
-      <c r="Q12" s="319"/>
-      <c r="R12" s="319"/>
-      <c r="S12" s="319"/>
-      <c r="T12" s="319"/>
+      <c r="H12" s="177"/>
+      <c r="I12" s="177"/>
+      <c r="J12" s="177"/>
+      <c r="K12" s="177"/>
+      <c r="L12" s="177"/>
+      <c r="M12" s="177"/>
+      <c r="N12" s="177"/>
+      <c r="O12" s="177"/>
+      <c r="P12" s="177"/>
+      <c r="Q12" s="177"/>
+      <c r="R12" s="177"/>
+      <c r="S12" s="177"/>
+      <c r="T12" s="177"/>
       <c r="U12" s="167"/>
-      <c r="V12" s="195"/>
+      <c r="V12" s="336"/>
       <c r="W12" s="9"/>
       <c r="X12" s="162"/>
-      <c r="Y12" s="173">
+      <c r="Y12" s="205">
         <v>0</v>
       </c>
-      <c r="Z12" s="174"/>
-      <c r="AA12" s="176">
+      <c r="Z12" s="206"/>
+      <c r="AA12" s="203">
         <v>0</v>
       </c>
-      <c r="AB12" s="177"/>
+      <c r="AB12" s="204"/>
       <c r="AC12" s="153"/>
       <c r="AD12" s="65"/>
       <c r="AE12" s="65"/>
@@ -4603,37 +4596,37 @@
       <c r="DC12" s="18"/>
     </row>
     <row r="13" spans="2:107" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="296"/>
-      <c r="C13" s="320"/>
-      <c r="D13" s="320"/>
-      <c r="E13" s="320"/>
-      <c r="F13" s="318"/>
+      <c r="B13" s="195"/>
+      <c r="C13" s="198"/>
+      <c r="D13" s="198"/>
+      <c r="E13" s="198"/>
+      <c r="F13" s="197"/>
       <c r="G13" s="57"/>
-      <c r="H13" s="319"/>
-      <c r="I13" s="319"/>
-      <c r="J13" s="319"/>
-      <c r="K13" s="319"/>
-      <c r="L13" s="319"/>
-      <c r="M13" s="319"/>
-      <c r="N13" s="319"/>
-      <c r="O13" s="319"/>
-      <c r="P13" s="319"/>
-      <c r="Q13" s="319"/>
-      <c r="R13" s="319"/>
-      <c r="S13" s="319"/>
-      <c r="T13" s="319"/>
+      <c r="H13" s="177"/>
+      <c r="I13" s="177"/>
+      <c r="J13" s="177"/>
+      <c r="K13" s="177"/>
+      <c r="L13" s="177"/>
+      <c r="M13" s="177"/>
+      <c r="N13" s="177"/>
+      <c r="O13" s="177"/>
+      <c r="P13" s="177"/>
+      <c r="Q13" s="177"/>
+      <c r="R13" s="177"/>
+      <c r="S13" s="177"/>
+      <c r="T13" s="177"/>
       <c r="U13" s="167"/>
-      <c r="V13" s="195"/>
+      <c r="V13" s="336"/>
       <c r="W13" s="2"/>
       <c r="X13" s="162"/>
-      <c r="Y13" s="173">
+      <c r="Y13" s="205">
         <v>0</v>
       </c>
-      <c r="Z13" s="174"/>
-      <c r="AA13" s="176">
+      <c r="Z13" s="206"/>
+      <c r="AA13" s="203">
         <v>0</v>
       </c>
-      <c r="AB13" s="177"/>
+      <c r="AB13" s="204"/>
       <c r="AC13" s="153"/>
       <c r="AD13" s="67"/>
       <c r="AE13" s="67"/>
@@ -4647,9 +4640,9 @@
       <c r="AM13" s="67"/>
       <c r="AN13" s="67"/>
       <c r="AO13" s="67"/>
-      <c r="AP13" s="218"/>
-      <c r="AQ13" s="179"/>
-      <c r="AR13" s="180"/>
+      <c r="AP13" s="323"/>
+      <c r="AQ13" s="184"/>
+      <c r="AR13" s="185"/>
       <c r="AS13" s="50"/>
       <c r="AT13" s="50"/>
       <c r="AU13" s="50"/>
@@ -4657,29 +4650,29 @@
       <c r="AW13" s="50"/>
       <c r="AX13" s="68"/>
       <c r="AY13" s="69"/>
-      <c r="AZ13" s="269"/>
-      <c r="BA13" s="179"/>
-      <c r="BB13" s="179"/>
-      <c r="BC13" s="179"/>
-      <c r="BD13" s="180"/>
+      <c r="AZ13" s="244"/>
+      <c r="BA13" s="184"/>
+      <c r="BB13" s="184"/>
+      <c r="BC13" s="184"/>
+      <c r="BD13" s="185"/>
       <c r="BE13" s="70"/>
       <c r="BF13" s="71"/>
-      <c r="BG13" s="227"/>
-      <c r="BH13" s="172"/>
-      <c r="BI13" s="172"/>
-      <c r="BJ13" s="172"/>
-      <c r="BK13" s="172"/>
-      <c r="BL13" s="172"/>
-      <c r="BM13" s="172"/>
-      <c r="BN13" s="172"/>
-      <c r="BO13" s="172"/>
-      <c r="BP13" s="172"/>
-      <c r="BQ13" s="172"/>
-      <c r="BR13" s="172"/>
-      <c r="BS13" s="172"/>
-      <c r="BT13" s="172"/>
-      <c r="BU13" s="172"/>
-      <c r="BV13" s="172"/>
+      <c r="BG13" s="328"/>
+      <c r="BH13" s="187"/>
+      <c r="BI13" s="187"/>
+      <c r="BJ13" s="187"/>
+      <c r="BK13" s="187"/>
+      <c r="BL13" s="187"/>
+      <c r="BM13" s="187"/>
+      <c r="BN13" s="187"/>
+      <c r="BO13" s="187"/>
+      <c r="BP13" s="187"/>
+      <c r="BQ13" s="187"/>
+      <c r="BR13" s="187"/>
+      <c r="BS13" s="187"/>
+      <c r="BT13" s="187"/>
+      <c r="BU13" s="187"/>
+      <c r="BV13" s="187"/>
       <c r="CG13" s="18"/>
       <c r="CH13" s="18"/>
       <c r="CI13" s="18"/>
@@ -4705,40 +4698,40 @@
       <c r="DC13" s="18"/>
     </row>
     <row r="14" spans="2:107" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B14" s="297" t="str">
+      <c r="B14" s="199" t="str">
         <f>"  Our team continuously manages the media and algorithms to drive high-quality leads to your recruiters via our innovative funneling system. After all, you come to us because you need "&amp;AA7&amp;"s, not ads or impressions. TheJobsDriver is not about ads or impressions. We are about one thing, generating potential hires, interested in working for you!"</f>
         <v xml:space="preserve">  Our team continuously manages the media and algorithms to drive high-quality leads to your recruiters via our innovative funneling system. After all, you come to us because you need s, not ads or impressions. TheJobsDriver is not about ads or impressions. We are about one thing, generating potential hires, interested in working for you!</v>
       </c>
-      <c r="C14" s="321"/>
-      <c r="D14" s="321"/>
-      <c r="E14" s="321"/>
-      <c r="F14" s="322"/>
+      <c r="C14" s="200"/>
+      <c r="D14" s="200"/>
+      <c r="E14" s="200"/>
+      <c r="F14" s="201"/>
       <c r="G14" s="57"/>
-      <c r="H14" s="319"/>
-      <c r="I14" s="319"/>
-      <c r="J14" s="319"/>
-      <c r="K14" s="319"/>
-      <c r="L14" s="319"/>
-      <c r="M14" s="319"/>
-      <c r="N14" s="319"/>
-      <c r="O14" s="319"/>
-      <c r="P14" s="319"/>
-      <c r="Q14" s="319"/>
-      <c r="R14" s="319"/>
-      <c r="S14" s="319"/>
-      <c r="T14" s="319"/>
+      <c r="H14" s="177"/>
+      <c r="I14" s="177"/>
+      <c r="J14" s="177"/>
+      <c r="K14" s="177"/>
+      <c r="L14" s="177"/>
+      <c r="M14" s="177"/>
+      <c r="N14" s="177"/>
+      <c r="O14" s="177"/>
+      <c r="P14" s="177"/>
+      <c r="Q14" s="177"/>
+      <c r="R14" s="177"/>
+      <c r="S14" s="177"/>
+      <c r="T14" s="177"/>
       <c r="U14" s="167"/>
-      <c r="V14" s="195"/>
+      <c r="V14" s="336"/>
       <c r="W14" s="10"/>
       <c r="X14" s="162"/>
-      <c r="Y14" s="173">
+      <c r="Y14" s="205">
         <v>0</v>
       </c>
-      <c r="Z14" s="174"/>
-      <c r="AA14" s="176">
+      <c r="Z14" s="206"/>
+      <c r="AA14" s="203">
         <v>0</v>
       </c>
-      <c r="AB14" s="177"/>
+      <c r="AB14" s="204"/>
       <c r="AC14" s="153"/>
       <c r="AD14" s="72"/>
       <c r="AE14" s="72"/>
@@ -4752,9 +4745,9 @@
       <c r="AM14" s="72"/>
       <c r="AN14" s="72"/>
       <c r="AO14" s="72"/>
-      <c r="AP14" s="219"/>
-      <c r="AQ14" s="220"/>
-      <c r="AR14" s="221"/>
+      <c r="AP14" s="245"/>
+      <c r="AQ14" s="246"/>
+      <c r="AR14" s="247"/>
       <c r="AS14" s="50"/>
       <c r="AT14" s="50"/>
       <c r="AU14" s="50"/>
@@ -4762,11 +4755,11 @@
       <c r="AW14" s="50"/>
       <c r="AX14" s="50"/>
       <c r="AY14" s="50"/>
-      <c r="AZ14" s="202"/>
-      <c r="BA14" s="185"/>
-      <c r="BB14" s="185"/>
-      <c r="BC14" s="185"/>
-      <c r="BD14" s="201"/>
+      <c r="AZ14" s="186"/>
+      <c r="BA14" s="232"/>
+      <c r="BB14" s="232"/>
+      <c r="BC14" s="232"/>
+      <c r="BD14" s="188"/>
       <c r="BE14" s="73"/>
       <c r="BF14" s="50"/>
       <c r="BG14" s="28"/>
@@ -4810,37 +4803,37 @@
       <c r="DC14" s="18"/>
     </row>
     <row r="15" spans="2:107" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="202"/>
-      <c r="C15" s="321"/>
-      <c r="D15" s="321"/>
-      <c r="E15" s="321"/>
-      <c r="F15" s="322"/>
+      <c r="B15" s="186"/>
+      <c r="C15" s="200"/>
+      <c r="D15" s="200"/>
+      <c r="E15" s="200"/>
+      <c r="F15" s="201"/>
       <c r="G15" s="57"/>
-      <c r="H15" s="319"/>
-      <c r="I15" s="319"/>
-      <c r="J15" s="319"/>
-      <c r="K15" s="319"/>
-      <c r="L15" s="319"/>
-      <c r="M15" s="319"/>
-      <c r="N15" s="319"/>
-      <c r="O15" s="319"/>
-      <c r="P15" s="319"/>
-      <c r="Q15" s="319"/>
-      <c r="R15" s="319"/>
-      <c r="S15" s="319"/>
-      <c r="T15" s="319"/>
+      <c r="H15" s="177"/>
+      <c r="I15" s="177"/>
+      <c r="J15" s="177"/>
+      <c r="K15" s="177"/>
+      <c r="L15" s="177"/>
+      <c r="M15" s="177"/>
+      <c r="N15" s="177"/>
+      <c r="O15" s="177"/>
+      <c r="P15" s="177"/>
+      <c r="Q15" s="177"/>
+      <c r="R15" s="177"/>
+      <c r="S15" s="177"/>
+      <c r="T15" s="177"/>
       <c r="U15" s="167"/>
-      <c r="V15" s="195"/>
+      <c r="V15" s="336"/>
       <c r="W15" s="11"/>
       <c r="X15" s="162"/>
-      <c r="Y15" s="173">
+      <c r="Y15" s="205">
         <v>0</v>
       </c>
-      <c r="Z15" s="174"/>
-      <c r="AA15" s="176">
+      <c r="Z15" s="206"/>
+      <c r="AA15" s="203">
         <v>0</v>
       </c>
-      <c r="AB15" s="177"/>
+      <c r="AB15" s="204"/>
       <c r="AC15" s="153"/>
       <c r="AD15" s="74"/>
       <c r="AE15" s="74"/>
@@ -4855,8 +4848,8 @@
       <c r="AN15" s="74"/>
       <c r="AO15" s="74"/>
       <c r="AP15" s="75"/>
-      <c r="AQ15" s="246"/>
-      <c r="AR15" s="192"/>
+      <c r="AQ15" s="307"/>
+      <c r="AR15" s="226"/>
       <c r="AS15" s="76"/>
       <c r="AT15" s="76"/>
       <c r="AU15" s="76"/>
@@ -4864,27 +4857,27 @@
       <c r="AW15" s="76"/>
       <c r="AX15" s="76"/>
       <c r="AY15" s="50"/>
-      <c r="AZ15" s="219"/>
-      <c r="BA15" s="220"/>
-      <c r="BB15" s="220"/>
-      <c r="BC15" s="220"/>
-      <c r="BD15" s="221"/>
+      <c r="AZ15" s="245"/>
+      <c r="BA15" s="246"/>
+      <c r="BB15" s="246"/>
+      <c r="BC15" s="246"/>
+      <c r="BD15" s="247"/>
       <c r="BE15" s="73"/>
       <c r="BF15" s="50"/>
       <c r="BG15" s="28"/>
-      <c r="BH15" s="247"/>
-      <c r="BI15" s="172"/>
-      <c r="BJ15" s="172"/>
-      <c r="BK15" s="172"/>
-      <c r="BL15" s="172"/>
-      <c r="BM15" s="172"/>
-      <c r="BN15" s="172"/>
-      <c r="BO15" s="172"/>
-      <c r="BP15" s="172"/>
-      <c r="BQ15" s="172"/>
-      <c r="BR15" s="172"/>
-      <c r="BS15" s="172"/>
-      <c r="BT15" s="172"/>
+      <c r="BH15" s="308"/>
+      <c r="BI15" s="187"/>
+      <c r="BJ15" s="187"/>
+      <c r="BK15" s="187"/>
+      <c r="BL15" s="187"/>
+      <c r="BM15" s="187"/>
+      <c r="BN15" s="187"/>
+      <c r="BO15" s="187"/>
+      <c r="BP15" s="187"/>
+      <c r="BQ15" s="187"/>
+      <c r="BR15" s="187"/>
+      <c r="BS15" s="187"/>
+      <c r="BT15" s="187"/>
       <c r="BU15" s="30"/>
       <c r="BV15" s="30"/>
       <c r="CG15" s="18"/>
@@ -4912,37 +4905,37 @@
       <c r="DC15" s="18"/>
     </row>
     <row r="16" spans="2:107" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="202"/>
-      <c r="C16" s="321"/>
-      <c r="D16" s="321"/>
-      <c r="E16" s="321"/>
-      <c r="F16" s="322"/>
+      <c r="B16" s="186"/>
+      <c r="C16" s="200"/>
+      <c r="D16" s="200"/>
+      <c r="E16" s="200"/>
+      <c r="F16" s="201"/>
       <c r="G16" s="57"/>
-      <c r="H16" s="319"/>
-      <c r="I16" s="319"/>
-      <c r="J16" s="319"/>
-      <c r="K16" s="319"/>
-      <c r="L16" s="319"/>
-      <c r="M16" s="319"/>
-      <c r="N16" s="319"/>
-      <c r="O16" s="319"/>
-      <c r="P16" s="319"/>
-      <c r="Q16" s="319"/>
-      <c r="R16" s="319"/>
-      <c r="S16" s="319"/>
-      <c r="T16" s="319"/>
+      <c r="H16" s="177"/>
+      <c r="I16" s="177"/>
+      <c r="J16" s="177"/>
+      <c r="K16" s="177"/>
+      <c r="L16" s="177"/>
+      <c r="M16" s="177"/>
+      <c r="N16" s="177"/>
+      <c r="O16" s="177"/>
+      <c r="P16" s="177"/>
+      <c r="Q16" s="177"/>
+      <c r="R16" s="177"/>
+      <c r="S16" s="177"/>
+      <c r="T16" s="177"/>
       <c r="U16" s="167"/>
-      <c r="V16" s="195"/>
+      <c r="V16" s="336"/>
       <c r="W16" s="11"/>
       <c r="X16" s="162"/>
-      <c r="Y16" s="173">
+      <c r="Y16" s="205">
         <v>0</v>
       </c>
-      <c r="Z16" s="174"/>
-      <c r="AA16" s="176">
+      <c r="Z16" s="206"/>
+      <c r="AA16" s="203">
         <v>0</v>
       </c>
-      <c r="AB16" s="177"/>
+      <c r="AB16" s="204"/>
       <c r="AC16" s="153"/>
       <c r="AD16" s="74"/>
       <c r="AE16" s="74"/>
@@ -4956,7 +4949,7 @@
       <c r="AM16" s="74"/>
       <c r="AN16" s="74"/>
       <c r="AO16" s="74"/>
-      <c r="AP16" s="283"/>
+      <c r="AP16" s="228"/>
       <c r="AQ16" s="77"/>
       <c r="AR16" s="78"/>
       <c r="AS16" s="79"/>
@@ -4966,27 +4959,27 @@
       <c r="AW16" s="79"/>
       <c r="AX16" s="79"/>
       <c r="AY16" s="50"/>
-      <c r="AZ16" s="265"/>
-      <c r="BA16" s="252"/>
-      <c r="BB16" s="186"/>
-      <c r="BC16" s="186"/>
-      <c r="BD16" s="274"/>
+      <c r="AZ16" s="293"/>
+      <c r="BA16" s="268"/>
+      <c r="BB16" s="325"/>
+      <c r="BC16" s="325"/>
+      <c r="BD16" s="253"/>
       <c r="BE16" s="73"/>
       <c r="BF16" s="50"/>
       <c r="BG16" s="28"/>
-      <c r="BH16" s="172"/>
-      <c r="BI16" s="172"/>
-      <c r="BJ16" s="172"/>
-      <c r="BK16" s="172"/>
-      <c r="BL16" s="172"/>
-      <c r="BM16" s="172"/>
-      <c r="BN16" s="172"/>
-      <c r="BO16" s="172"/>
-      <c r="BP16" s="172"/>
-      <c r="BQ16" s="172"/>
-      <c r="BR16" s="172"/>
-      <c r="BS16" s="172"/>
-      <c r="BT16" s="172"/>
+      <c r="BH16" s="187"/>
+      <c r="BI16" s="187"/>
+      <c r="BJ16" s="187"/>
+      <c r="BK16" s="187"/>
+      <c r="BL16" s="187"/>
+      <c r="BM16" s="187"/>
+      <c r="BN16" s="187"/>
+      <c r="BO16" s="187"/>
+      <c r="BP16" s="187"/>
+      <c r="BQ16" s="187"/>
+      <c r="BR16" s="187"/>
+      <c r="BS16" s="187"/>
+      <c r="BT16" s="187"/>
       <c r="BU16" s="30"/>
       <c r="BV16" s="30"/>
       <c r="CG16" s="18"/>
@@ -5014,37 +5007,37 @@
       <c r="DC16" s="18"/>
     </row>
     <row r="17" spans="1:107" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="202"/>
-      <c r="C17" s="321"/>
-      <c r="D17" s="321"/>
-      <c r="E17" s="321"/>
-      <c r="F17" s="322"/>
+      <c r="B17" s="186"/>
+      <c r="C17" s="200"/>
+      <c r="D17" s="200"/>
+      <c r="E17" s="200"/>
+      <c r="F17" s="201"/>
       <c r="G17" s="57"/>
-      <c r="H17" s="319"/>
-      <c r="I17" s="319"/>
-      <c r="J17" s="319"/>
-      <c r="K17" s="319"/>
-      <c r="L17" s="319"/>
-      <c r="M17" s="319"/>
-      <c r="N17" s="319"/>
-      <c r="O17" s="319"/>
-      <c r="P17" s="319"/>
-      <c r="Q17" s="319"/>
-      <c r="R17" s="319"/>
-      <c r="S17" s="319"/>
-      <c r="T17" s="319"/>
+      <c r="H17" s="177"/>
+      <c r="I17" s="177"/>
+      <c r="J17" s="177"/>
+      <c r="K17" s="177"/>
+      <c r="L17" s="177"/>
+      <c r="M17" s="177"/>
+      <c r="N17" s="177"/>
+      <c r="O17" s="177"/>
+      <c r="P17" s="177"/>
+      <c r="Q17" s="177"/>
+      <c r="R17" s="177"/>
+      <c r="S17" s="177"/>
+      <c r="T17" s="177"/>
       <c r="U17" s="167"/>
-      <c r="V17" s="195"/>
+      <c r="V17" s="336"/>
       <c r="W17" s="12"/>
       <c r="X17" s="162"/>
-      <c r="Y17" s="173">
+      <c r="Y17" s="205">
         <v>0</v>
       </c>
-      <c r="Z17" s="174"/>
-      <c r="AA17" s="176">
+      <c r="Z17" s="206"/>
+      <c r="AA17" s="203">
         <v>0</v>
       </c>
-      <c r="AB17" s="177"/>
+      <c r="AB17" s="204"/>
       <c r="AC17" s="153"/>
       <c r="AD17" s="56"/>
       <c r="AE17" s="56"/>
@@ -5058,7 +5051,7 @@
       <c r="AM17" s="56"/>
       <c r="AN17" s="56"/>
       <c r="AO17" s="56"/>
-      <c r="AP17" s="284"/>
+      <c r="AP17" s="229"/>
       <c r="AQ17" s="80"/>
       <c r="AR17" s="78"/>
       <c r="AS17" s="50"/>
@@ -5068,27 +5061,27 @@
       <c r="AW17" s="50"/>
       <c r="AX17" s="50"/>
       <c r="AY17" s="50"/>
-      <c r="AZ17" s="266"/>
-      <c r="BA17" s="253"/>
-      <c r="BB17" s="187"/>
-      <c r="BC17" s="187"/>
-      <c r="BD17" s="275"/>
+      <c r="AZ17" s="294"/>
+      <c r="BA17" s="269"/>
+      <c r="BB17" s="326"/>
+      <c r="BC17" s="326"/>
+      <c r="BD17" s="254"/>
       <c r="BE17" s="73"/>
       <c r="BF17" s="50"/>
       <c r="BG17" s="28"/>
-      <c r="BH17" s="268"/>
-      <c r="BI17" s="172"/>
-      <c r="BJ17" s="172"/>
-      <c r="BK17" s="172"/>
-      <c r="BL17" s="172"/>
-      <c r="BM17" s="172"/>
-      <c r="BN17" s="172"/>
-      <c r="BO17" s="172"/>
-      <c r="BP17" s="172"/>
-      <c r="BQ17" s="267"/>
-      <c r="BR17" s="172"/>
-      <c r="BS17" s="172"/>
-      <c r="BT17" s="172"/>
+      <c r="BH17" s="243"/>
+      <c r="BI17" s="187"/>
+      <c r="BJ17" s="187"/>
+      <c r="BK17" s="187"/>
+      <c r="BL17" s="187"/>
+      <c r="BM17" s="187"/>
+      <c r="BN17" s="187"/>
+      <c r="BO17" s="187"/>
+      <c r="BP17" s="187"/>
+      <c r="BQ17" s="242"/>
+      <c r="BR17" s="187"/>
+      <c r="BS17" s="187"/>
+      <c r="BT17" s="187"/>
       <c r="BU17" s="30"/>
       <c r="BV17" s="30"/>
       <c r="CG17" s="18"/>
@@ -5116,37 +5109,37 @@
       <c r="DC17" s="18"/>
     </row>
     <row r="18" spans="1:107" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="181"/>
-      <c r="C18" s="182"/>
-      <c r="D18" s="182"/>
-      <c r="E18" s="182"/>
-      <c r="F18" s="182"/>
+      <c r="B18" s="189"/>
+      <c r="C18" s="190"/>
+      <c r="D18" s="190"/>
+      <c r="E18" s="190"/>
+      <c r="F18" s="190"/>
       <c r="G18" s="57"/>
-      <c r="H18" s="319"/>
-      <c r="I18" s="319"/>
-      <c r="J18" s="319"/>
-      <c r="K18" s="319"/>
-      <c r="L18" s="319"/>
-      <c r="M18" s="319"/>
-      <c r="N18" s="319"/>
-      <c r="O18" s="319"/>
-      <c r="P18" s="319"/>
-      <c r="Q18" s="319"/>
-      <c r="R18" s="319"/>
-      <c r="S18" s="319"/>
-      <c r="T18" s="319"/>
+      <c r="H18" s="177"/>
+      <c r="I18" s="177"/>
+      <c r="J18" s="177"/>
+      <c r="K18" s="177"/>
+      <c r="L18" s="177"/>
+      <c r="M18" s="177"/>
+      <c r="N18" s="177"/>
+      <c r="O18" s="177"/>
+      <c r="P18" s="177"/>
+      <c r="Q18" s="177"/>
+      <c r="R18" s="177"/>
+      <c r="S18" s="177"/>
+      <c r="T18" s="177"/>
       <c r="U18" s="167"/>
-      <c r="V18" s="195"/>
+      <c r="V18" s="336"/>
       <c r="W18" s="13"/>
       <c r="X18" s="162"/>
-      <c r="Y18" s="173">
+      <c r="Y18" s="205">
         <v>0</v>
       </c>
-      <c r="Z18" s="174"/>
-      <c r="AA18" s="176">
+      <c r="Z18" s="206"/>
+      <c r="AA18" s="203">
         <v>0</v>
       </c>
-      <c r="AB18" s="177"/>
+      <c r="AB18" s="204"/>
       <c r="AC18" s="153"/>
       <c r="AD18" s="81"/>
       <c r="AE18" s="81"/>
@@ -5160,7 +5153,7 @@
       <c r="AM18" s="81"/>
       <c r="AN18" s="81"/>
       <c r="AO18" s="81"/>
-      <c r="AP18" s="285"/>
+      <c r="AP18" s="230"/>
       <c r="AQ18" s="80"/>
       <c r="AR18" s="78"/>
       <c r="AS18" s="50"/>
@@ -5178,19 +5171,19 @@
       <c r="BE18" s="73"/>
       <c r="BF18" s="50"/>
       <c r="BG18" s="28"/>
-      <c r="BH18" s="171"/>
-      <c r="BI18" s="172"/>
-      <c r="BJ18" s="172"/>
-      <c r="BK18" s="172"/>
-      <c r="BL18" s="172"/>
-      <c r="BM18" s="172"/>
-      <c r="BN18" s="172"/>
-      <c r="BO18" s="172"/>
-      <c r="BP18" s="172"/>
-      <c r="BQ18" s="175"/>
-      <c r="BR18" s="172"/>
-      <c r="BS18" s="172"/>
-      <c r="BT18" s="172"/>
+      <c r="BH18" s="252"/>
+      <c r="BI18" s="187"/>
+      <c r="BJ18" s="187"/>
+      <c r="BK18" s="187"/>
+      <c r="BL18" s="187"/>
+      <c r="BM18" s="187"/>
+      <c r="BN18" s="187"/>
+      <c r="BO18" s="187"/>
+      <c r="BP18" s="187"/>
+      <c r="BQ18" s="251"/>
+      <c r="BR18" s="187"/>
+      <c r="BS18" s="187"/>
+      <c r="BT18" s="187"/>
       <c r="BU18" s="30"/>
       <c r="BV18" s="30"/>
       <c r="CG18" s="18"/>
@@ -5219,39 +5212,39 @@
     </row>
     <row r="19" spans="1:107" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="50"/>
-      <c r="B19" s="293" t="s">
+      <c r="B19" s="192" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="311"/>
-      <c r="D19" s="311"/>
-      <c r="E19" s="311"/>
-      <c r="F19" s="311"/>
+      <c r="C19" s="207"/>
+      <c r="D19" s="207"/>
+      <c r="E19" s="207"/>
+      <c r="F19" s="207"/>
       <c r="G19" s="57"/>
-      <c r="H19" s="319"/>
-      <c r="I19" s="319"/>
-      <c r="J19" s="319"/>
-      <c r="K19" s="319"/>
-      <c r="L19" s="319"/>
-      <c r="M19" s="319"/>
-      <c r="N19" s="319"/>
-      <c r="O19" s="319"/>
-      <c r="P19" s="319"/>
-      <c r="Q19" s="319"/>
-      <c r="R19" s="319"/>
-      <c r="S19" s="319"/>
-      <c r="T19" s="319"/>
+      <c r="H19" s="177"/>
+      <c r="I19" s="177"/>
+      <c r="J19" s="177"/>
+      <c r="K19" s="177"/>
+      <c r="L19" s="177"/>
+      <c r="M19" s="177"/>
+      <c r="N19" s="177"/>
+      <c r="O19" s="177"/>
+      <c r="P19" s="177"/>
+      <c r="Q19" s="177"/>
+      <c r="R19" s="177"/>
+      <c r="S19" s="177"/>
+      <c r="T19" s="177"/>
       <c r="U19" s="167"/>
-      <c r="V19" s="195"/>
+      <c r="V19" s="336"/>
       <c r="W19" s="13"/>
       <c r="X19" s="162"/>
-      <c r="Y19" s="173">
+      <c r="Y19" s="205">
         <v>0</v>
       </c>
-      <c r="Z19" s="174"/>
-      <c r="AA19" s="176">
+      <c r="Z19" s="206"/>
+      <c r="AA19" s="203">
         <v>0</v>
       </c>
-      <c r="AB19" s="177"/>
+      <c r="AB19" s="204"/>
       <c r="AC19" s="153"/>
       <c r="AD19" s="81"/>
       <c r="AE19" s="81"/>
@@ -5266,8 +5259,8 @@
       <c r="AN19" s="81"/>
       <c r="AO19" s="81"/>
       <c r="AP19" s="87"/>
-      <c r="AQ19" s="249"/>
-      <c r="AR19" s="192"/>
+      <c r="AQ19" s="309"/>
+      <c r="AR19" s="226"/>
       <c r="AS19" s="50"/>
       <c r="AT19" s="50"/>
       <c r="AU19" s="50"/>
@@ -5283,19 +5276,19 @@
       <c r="BE19" s="73"/>
       <c r="BF19" s="50"/>
       <c r="BG19" s="28"/>
-      <c r="BH19" s="171"/>
-      <c r="BI19" s="172"/>
-      <c r="BJ19" s="172"/>
-      <c r="BK19" s="172"/>
-      <c r="BL19" s="172"/>
-      <c r="BM19" s="172"/>
-      <c r="BN19" s="172"/>
-      <c r="BO19" s="172"/>
-      <c r="BP19" s="172"/>
-      <c r="BQ19" s="175"/>
-      <c r="BR19" s="172"/>
-      <c r="BS19" s="172"/>
-      <c r="BT19" s="172"/>
+      <c r="BH19" s="252"/>
+      <c r="BI19" s="187"/>
+      <c r="BJ19" s="187"/>
+      <c r="BK19" s="187"/>
+      <c r="BL19" s="187"/>
+      <c r="BM19" s="187"/>
+      <c r="BN19" s="187"/>
+      <c r="BO19" s="187"/>
+      <c r="BP19" s="187"/>
+      <c r="BQ19" s="251"/>
+      <c r="BR19" s="187"/>
+      <c r="BS19" s="187"/>
+      <c r="BT19" s="187"/>
       <c r="BU19" s="30"/>
       <c r="BV19" s="30"/>
       <c r="CG19" s="18"/>
@@ -5323,37 +5316,37 @@
       <c r="DC19" s="18"/>
     </row>
     <row r="20" spans="1:107" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="309"/>
-      <c r="C20" s="323"/>
-      <c r="D20" s="323"/>
-      <c r="E20" s="323"/>
-      <c r="F20" s="323"/>
+      <c r="B20" s="171"/>
+      <c r="C20" s="178"/>
+      <c r="D20" s="178"/>
+      <c r="E20" s="178"/>
+      <c r="F20" s="178"/>
       <c r="G20" s="57"/>
-      <c r="H20" s="319"/>
-      <c r="I20" s="319"/>
-      <c r="J20" s="319"/>
-      <c r="K20" s="319"/>
-      <c r="L20" s="319"/>
-      <c r="M20" s="319"/>
-      <c r="N20" s="319"/>
-      <c r="O20" s="319"/>
-      <c r="P20" s="319"/>
-      <c r="Q20" s="319"/>
-      <c r="R20" s="319"/>
-      <c r="S20" s="319"/>
-      <c r="T20" s="319"/>
+      <c r="H20" s="177"/>
+      <c r="I20" s="177"/>
+      <c r="J20" s="177"/>
+      <c r="K20" s="177"/>
+      <c r="L20" s="177"/>
+      <c r="M20" s="177"/>
+      <c r="N20" s="177"/>
+      <c r="O20" s="177"/>
+      <c r="P20" s="177"/>
+      <c r="Q20" s="177"/>
+      <c r="R20" s="177"/>
+      <c r="S20" s="177"/>
+      <c r="T20" s="177"/>
       <c r="U20" s="167"/>
-      <c r="V20" s="195"/>
+      <c r="V20" s="336"/>
       <c r="W20" s="13"/>
       <c r="X20" s="162"/>
-      <c r="Y20" s="173">
+      <c r="Y20" s="205">
         <v>0</v>
       </c>
-      <c r="Z20" s="174"/>
-      <c r="AA20" s="176">
+      <c r="Z20" s="206"/>
+      <c r="AA20" s="203">
         <v>0</v>
       </c>
-      <c r="AB20" s="177"/>
+      <c r="AB20" s="204"/>
       <c r="AC20" s="153"/>
       <c r="AD20" s="81"/>
       <c r="AE20" s="81"/>
@@ -5368,8 +5361,8 @@
       <c r="AN20" s="81"/>
       <c r="AO20" s="81"/>
       <c r="AP20" s="93"/>
-      <c r="AQ20" s="193"/>
-      <c r="AR20" s="192"/>
+      <c r="AQ20" s="288"/>
+      <c r="AR20" s="226"/>
       <c r="AS20" s="50"/>
       <c r="AT20" s="50"/>
       <c r="AU20" s="50"/>
@@ -5385,19 +5378,19 @@
       <c r="BE20" s="73"/>
       <c r="BF20" s="50"/>
       <c r="BG20" s="28"/>
-      <c r="BH20" s="240"/>
-      <c r="BI20" s="172"/>
-      <c r="BJ20" s="172"/>
-      <c r="BK20" s="172"/>
-      <c r="BL20" s="172"/>
-      <c r="BM20" s="172"/>
-      <c r="BN20" s="172"/>
-      <c r="BO20" s="172"/>
-      <c r="BP20" s="172"/>
-      <c r="BQ20" s="239"/>
-      <c r="BR20" s="172"/>
-      <c r="BS20" s="172"/>
-      <c r="BT20" s="172"/>
+      <c r="BH20" s="302"/>
+      <c r="BI20" s="187"/>
+      <c r="BJ20" s="187"/>
+      <c r="BK20" s="187"/>
+      <c r="BL20" s="187"/>
+      <c r="BM20" s="187"/>
+      <c r="BN20" s="187"/>
+      <c r="BO20" s="187"/>
+      <c r="BP20" s="187"/>
+      <c r="BQ20" s="301"/>
+      <c r="BR20" s="187"/>
+      <c r="BS20" s="187"/>
+      <c r="BT20" s="187"/>
       <c r="BU20" s="30"/>
       <c r="BV20" s="30"/>
       <c r="CG20" s="18"/>
@@ -5426,36 +5419,36 @@
     </row>
     <row r="21" spans="1:107" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="37"/>
-      <c r="C21" s="324"/>
-      <c r="D21" s="324"/>
-      <c r="E21" s="324"/>
-      <c r="F21" s="324"/>
+      <c r="C21" s="179"/>
+      <c r="D21" s="179"/>
+      <c r="E21" s="179"/>
+      <c r="F21" s="179"/>
       <c r="G21" s="57"/>
-      <c r="H21" s="319"/>
-      <c r="I21" s="319"/>
-      <c r="J21" s="319"/>
-      <c r="K21" s="319"/>
-      <c r="L21" s="319"/>
-      <c r="M21" s="319"/>
-      <c r="N21" s="319"/>
-      <c r="O21" s="319"/>
-      <c r="P21" s="319"/>
-      <c r="Q21" s="319"/>
-      <c r="R21" s="319"/>
-      <c r="S21" s="319"/>
-      <c r="T21" s="319"/>
+      <c r="H21" s="177"/>
+      <c r="I21" s="177"/>
+      <c r="J21" s="177"/>
+      <c r="K21" s="177"/>
+      <c r="L21" s="177"/>
+      <c r="M21" s="177"/>
+      <c r="N21" s="177"/>
+      <c r="O21" s="177"/>
+      <c r="P21" s="177"/>
+      <c r="Q21" s="177"/>
+      <c r="R21" s="177"/>
+      <c r="S21" s="177"/>
+      <c r="T21" s="177"/>
       <c r="U21" s="167"/>
-      <c r="V21" s="195"/>
+      <c r="V21" s="336"/>
       <c r="W21" s="13"/>
       <c r="X21" s="162"/>
-      <c r="Y21" s="173">
+      <c r="Y21" s="205">
         <v>0</v>
       </c>
-      <c r="Z21" s="174"/>
-      <c r="AA21" s="176">
+      <c r="Z21" s="206"/>
+      <c r="AA21" s="203">
         <v>0</v>
       </c>
-      <c r="AB21" s="177"/>
+      <c r="AB21" s="204"/>
       <c r="AC21" s="153"/>
       <c r="AD21" s="81"/>
       <c r="AE21" s="81"/>
@@ -5470,8 +5463,8 @@
       <c r="AN21" s="81"/>
       <c r="AO21" s="81"/>
       <c r="AP21" s="87"/>
-      <c r="AQ21" s="273"/>
-      <c r="AR21" s="192"/>
+      <c r="AQ21" s="233"/>
+      <c r="AR21" s="226"/>
       <c r="AS21" s="50"/>
       <c r="AT21" s="50"/>
       <c r="AU21" s="50"/>
@@ -5487,19 +5480,19 @@
       <c r="BE21" s="73"/>
       <c r="BF21" s="50"/>
       <c r="BG21" s="28"/>
-      <c r="BH21" s="171"/>
-      <c r="BI21" s="172"/>
-      <c r="BJ21" s="172"/>
-      <c r="BK21" s="172"/>
-      <c r="BL21" s="172"/>
-      <c r="BM21" s="172"/>
-      <c r="BN21" s="172"/>
-      <c r="BO21" s="172"/>
-      <c r="BP21" s="172"/>
-      <c r="BQ21" s="175"/>
-      <c r="BR21" s="172"/>
-      <c r="BS21" s="172"/>
-      <c r="BT21" s="172"/>
+      <c r="BH21" s="252"/>
+      <c r="BI21" s="187"/>
+      <c r="BJ21" s="187"/>
+      <c r="BK21" s="187"/>
+      <c r="BL21" s="187"/>
+      <c r="BM21" s="187"/>
+      <c r="BN21" s="187"/>
+      <c r="BO21" s="187"/>
+      <c r="BP21" s="187"/>
+      <c r="BQ21" s="251"/>
+      <c r="BR21" s="187"/>
+      <c r="BS21" s="187"/>
+      <c r="BT21" s="187"/>
       <c r="BU21" s="30"/>
       <c r="BV21" s="30"/>
       <c r="CG21" s="18"/>
@@ -5528,36 +5521,36 @@
     </row>
     <row r="22" spans="1:107" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B22" s="37"/>
-      <c r="C22" s="324"/>
-      <c r="D22" s="324"/>
-      <c r="E22" s="324"/>
-      <c r="F22" s="324"/>
+      <c r="C22" s="179"/>
+      <c r="D22" s="179"/>
+      <c r="E22" s="179"/>
+      <c r="F22" s="179"/>
       <c r="G22" s="57"/>
-      <c r="H22" s="319"/>
-      <c r="I22" s="319"/>
-      <c r="J22" s="319"/>
-      <c r="K22" s="319"/>
-      <c r="L22" s="319"/>
-      <c r="M22" s="319"/>
-      <c r="N22" s="319"/>
-      <c r="O22" s="319"/>
-      <c r="P22" s="319"/>
-      <c r="Q22" s="319"/>
-      <c r="R22" s="319"/>
-      <c r="S22" s="319"/>
-      <c r="T22" s="319"/>
+      <c r="H22" s="177"/>
+      <c r="I22" s="177"/>
+      <c r="J22" s="177"/>
+      <c r="K22" s="177"/>
+      <c r="L22" s="177"/>
+      <c r="M22" s="177"/>
+      <c r="N22" s="177"/>
+      <c r="O22" s="177"/>
+      <c r="P22" s="177"/>
+      <c r="Q22" s="177"/>
+      <c r="R22" s="177"/>
+      <c r="S22" s="177"/>
+      <c r="T22" s="177"/>
       <c r="U22" s="167"/>
-      <c r="V22" s="195"/>
+      <c r="V22" s="336"/>
       <c r="W22" s="22"/>
       <c r="X22" s="163"/>
-      <c r="Y22" s="173">
+      <c r="Y22" s="205">
         <v>0</v>
       </c>
-      <c r="Z22" s="174"/>
-      <c r="AA22" s="176">
+      <c r="Z22" s="206"/>
+      <c r="AA22" s="203">
         <v>0</v>
       </c>
-      <c r="AB22" s="177"/>
+      <c r="AB22" s="204"/>
       <c r="AC22" s="153"/>
       <c r="AD22" s="99"/>
       <c r="AE22" s="99"/>
@@ -5572,8 +5565,8 @@
       <c r="AN22" s="99"/>
       <c r="AO22" s="99"/>
       <c r="AP22" s="93"/>
-      <c r="AQ22" s="248"/>
-      <c r="AR22" s="192"/>
+      <c r="AQ22" s="225"/>
+      <c r="AR22" s="226"/>
       <c r="AS22" s="50"/>
       <c r="AT22" s="50"/>
       <c r="AU22" s="50"/>
@@ -5589,19 +5582,19 @@
       <c r="BE22" s="73"/>
       <c r="BF22" s="50"/>
       <c r="BG22" s="28"/>
-      <c r="BH22" s="240"/>
-      <c r="BI22" s="172"/>
-      <c r="BJ22" s="172"/>
-      <c r="BK22" s="172"/>
-      <c r="BL22" s="172"/>
-      <c r="BM22" s="172"/>
-      <c r="BN22" s="172"/>
-      <c r="BO22" s="172"/>
-      <c r="BP22" s="172"/>
-      <c r="BQ22" s="239"/>
-      <c r="BR22" s="172"/>
-      <c r="BS22" s="172"/>
-      <c r="BT22" s="172"/>
+      <c r="BH22" s="302"/>
+      <c r="BI22" s="187"/>
+      <c r="BJ22" s="187"/>
+      <c r="BK22" s="187"/>
+      <c r="BL22" s="187"/>
+      <c r="BM22" s="187"/>
+      <c r="BN22" s="187"/>
+      <c r="BO22" s="187"/>
+      <c r="BP22" s="187"/>
+      <c r="BQ22" s="301"/>
+      <c r="BR22" s="187"/>
+      <c r="BS22" s="187"/>
+      <c r="BT22" s="187"/>
       <c r="BU22" s="30"/>
       <c r="BV22" s="30"/>
       <c r="CG22" s="18"/>
@@ -5631,36 +5624,33 @@
     <row r="23" spans="1:107" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="45"/>
       <c r="B23" s="37"/>
-      <c r="C23" s="325"/>
-      <c r="D23" s="325"/>
-      <c r="E23" s="325"/>
-      <c r="F23" s="326"/>
+      <c r="F23"/>
       <c r="G23" s="57"/>
-      <c r="H23" s="319"/>
-      <c r="I23" s="319"/>
-      <c r="J23" s="319"/>
-      <c r="K23" s="319"/>
-      <c r="L23" s="319"/>
-      <c r="M23" s="319"/>
-      <c r="N23" s="319"/>
-      <c r="O23" s="319"/>
-      <c r="P23" s="319"/>
-      <c r="Q23" s="319"/>
-      <c r="R23" s="319"/>
-      <c r="S23" s="319"/>
-      <c r="T23" s="319"/>
+      <c r="H23" s="177"/>
+      <c r="I23" s="177"/>
+      <c r="J23" s="177"/>
+      <c r="K23" s="177"/>
+      <c r="L23" s="177"/>
+      <c r="M23" s="177"/>
+      <c r="N23" s="177"/>
+      <c r="O23" s="177"/>
+      <c r="P23" s="177"/>
+      <c r="Q23" s="177"/>
+      <c r="R23" s="177"/>
+      <c r="S23" s="177"/>
+      <c r="T23" s="177"/>
       <c r="U23" s="167"/>
-      <c r="V23" s="195"/>
+      <c r="V23" s="336"/>
       <c r="W23" s="45"/>
       <c r="X23" s="163"/>
-      <c r="Y23" s="173">
+      <c r="Y23" s="205">
         <v>0</v>
       </c>
-      <c r="Z23" s="174"/>
-      <c r="AA23" s="176">
+      <c r="Z23" s="206"/>
+      <c r="AA23" s="203">
         <v>0</v>
       </c>
-      <c r="AB23" s="177"/>
+      <c r="AB23" s="204"/>
       <c r="AC23" s="153"/>
       <c r="AD23" s="45"/>
       <c r="AE23" s="45"/>
@@ -5710,36 +5700,36 @@
     </row>
     <row r="24" spans="1:107" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="37"/>
-      <c r="C24" s="324"/>
-      <c r="D24" s="324"/>
-      <c r="E24" s="324"/>
-      <c r="F24" s="324"/>
+      <c r="C24" s="179"/>
+      <c r="D24" s="179"/>
+      <c r="E24" s="179"/>
+      <c r="F24" s="179"/>
       <c r="G24" s="57"/>
-      <c r="H24" s="319"/>
-      <c r="I24" s="319"/>
-      <c r="J24" s="319"/>
-      <c r="K24" s="319"/>
-      <c r="L24" s="319"/>
-      <c r="M24" s="319"/>
-      <c r="N24" s="319"/>
-      <c r="O24" s="319"/>
-      <c r="P24" s="319"/>
-      <c r="Q24" s="319"/>
-      <c r="R24" s="319"/>
-      <c r="S24" s="319"/>
-      <c r="T24" s="319"/>
+      <c r="H24" s="177"/>
+      <c r="I24" s="177"/>
+      <c r="J24" s="177"/>
+      <c r="K24" s="177"/>
+      <c r="L24" s="177"/>
+      <c r="M24" s="177"/>
+      <c r="N24" s="177"/>
+      <c r="O24" s="177"/>
+      <c r="P24" s="177"/>
+      <c r="Q24" s="177"/>
+      <c r="R24" s="177"/>
+      <c r="S24" s="177"/>
+      <c r="T24" s="177"/>
       <c r="U24" s="167"/>
-      <c r="V24" s="195"/>
+      <c r="V24" s="336"/>
       <c r="W24" s="26"/>
       <c r="X24" s="163"/>
-      <c r="Y24" s="173">
+      <c r="Y24" s="205">
         <v>0</v>
       </c>
-      <c r="Z24" s="174"/>
-      <c r="AA24" s="176">
+      <c r="Z24" s="206"/>
+      <c r="AA24" s="203">
         <v>0</v>
       </c>
-      <c r="AB24" s="177"/>
+      <c r="AB24" s="204"/>
       <c r="AC24" s="153"/>
       <c r="AD24" s="99"/>
       <c r="AE24" s="99"/>
@@ -5754,8 +5744,8 @@
       <c r="AN24" s="99"/>
       <c r="AO24" s="99"/>
       <c r="AP24" s="93"/>
-      <c r="AQ24" s="248"/>
-      <c r="AR24" s="192"/>
+      <c r="AQ24" s="225"/>
+      <c r="AR24" s="226"/>
       <c r="AS24" s="50"/>
       <c r="AT24" s="50"/>
       <c r="AU24" s="50"/>
@@ -5771,19 +5761,19 @@
       <c r="BE24" s="73"/>
       <c r="BF24" s="50"/>
       <c r="BG24" s="28"/>
-      <c r="BH24" s="171"/>
-      <c r="BI24" s="172"/>
-      <c r="BJ24" s="172"/>
-      <c r="BK24" s="172"/>
-      <c r="BL24" s="172"/>
-      <c r="BM24" s="172"/>
-      <c r="BN24" s="172"/>
-      <c r="BO24" s="172"/>
-      <c r="BP24" s="172"/>
-      <c r="BQ24" s="175"/>
-      <c r="BR24" s="172"/>
-      <c r="BS24" s="172"/>
-      <c r="BT24" s="172"/>
+      <c r="BH24" s="252"/>
+      <c r="BI24" s="187"/>
+      <c r="BJ24" s="187"/>
+      <c r="BK24" s="187"/>
+      <c r="BL24" s="187"/>
+      <c r="BM24" s="187"/>
+      <c r="BN24" s="187"/>
+      <c r="BO24" s="187"/>
+      <c r="BP24" s="187"/>
+      <c r="BQ24" s="251"/>
+      <c r="BR24" s="187"/>
+      <c r="BS24" s="187"/>
+      <c r="BT24" s="187"/>
       <c r="BU24" s="30"/>
       <c r="BV24" s="30"/>
       <c r="CG24" s="18"/>
@@ -5812,36 +5802,32 @@
     </row>
     <row r="25" spans="1:107" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="37"/>
-      <c r="C25" s="325"/>
-      <c r="D25" s="325"/>
-      <c r="E25" s="325"/>
-      <c r="F25" s="327"/>
       <c r="G25" s="57"/>
-      <c r="H25" s="319"/>
-      <c r="I25" s="319"/>
-      <c r="J25" s="319"/>
-      <c r="K25" s="319"/>
-      <c r="L25" s="319"/>
-      <c r="M25" s="319"/>
-      <c r="N25" s="319"/>
-      <c r="O25" s="319"/>
-      <c r="P25" s="319"/>
-      <c r="Q25" s="319"/>
-      <c r="R25" s="319"/>
-      <c r="S25" s="319"/>
-      <c r="T25" s="319"/>
+      <c r="H25" s="177"/>
+      <c r="I25" s="177"/>
+      <c r="J25" s="177"/>
+      <c r="K25" s="177"/>
+      <c r="L25" s="177"/>
+      <c r="M25" s="177"/>
+      <c r="N25" s="177"/>
+      <c r="O25" s="177"/>
+      <c r="P25" s="177"/>
+      <c r="Q25" s="177"/>
+      <c r="R25" s="177"/>
+      <c r="S25" s="177"/>
+      <c r="T25" s="177"/>
       <c r="U25" s="167"/>
-      <c r="V25" s="195"/>
+      <c r="V25" s="336"/>
       <c r="W25" s="26"/>
       <c r="X25" s="164"/>
-      <c r="Y25" s="173">
+      <c r="Y25" s="205">
         <v>0</v>
       </c>
-      <c r="Z25" s="174"/>
-      <c r="AA25" s="176">
+      <c r="Z25" s="206"/>
+      <c r="AA25" s="203">
         <v>0</v>
       </c>
-      <c r="AB25" s="177"/>
+      <c r="AB25" s="204"/>
       <c r="AC25" s="153"/>
       <c r="AD25" s="99"/>
       <c r="AE25" s="99"/>
@@ -5856,8 +5842,8 @@
       <c r="AN25" s="99"/>
       <c r="AO25" s="99"/>
       <c r="AP25" s="93"/>
-      <c r="AQ25" s="193"/>
-      <c r="AR25" s="192"/>
+      <c r="AQ25" s="288"/>
+      <c r="AR25" s="226"/>
       <c r="AS25" s="50"/>
       <c r="AT25" s="50"/>
       <c r="AU25" s="50"/>
@@ -5873,19 +5859,19 @@
       <c r="BE25" s="73"/>
       <c r="BF25" s="50"/>
       <c r="BG25" s="28"/>
-      <c r="BH25" s="171"/>
-      <c r="BI25" s="172"/>
-      <c r="BJ25" s="172"/>
-      <c r="BK25" s="172"/>
-      <c r="BL25" s="172"/>
-      <c r="BM25" s="172"/>
-      <c r="BN25" s="172"/>
-      <c r="BO25" s="172"/>
-      <c r="BP25" s="172"/>
-      <c r="BQ25" s="175"/>
-      <c r="BR25" s="172"/>
-      <c r="BS25" s="172"/>
-      <c r="BT25" s="172"/>
+      <c r="BH25" s="252"/>
+      <c r="BI25" s="187"/>
+      <c r="BJ25" s="187"/>
+      <c r="BK25" s="187"/>
+      <c r="BL25" s="187"/>
+      <c r="BM25" s="187"/>
+      <c r="BN25" s="187"/>
+      <c r="BO25" s="187"/>
+      <c r="BP25" s="187"/>
+      <c r="BQ25" s="251"/>
+      <c r="BR25" s="187"/>
+      <c r="BS25" s="187"/>
+      <c r="BT25" s="187"/>
       <c r="BU25" s="30"/>
       <c r="BV25" s="30"/>
       <c r="CG25" s="18"/>
@@ -5914,36 +5900,36 @@
     </row>
     <row r="26" spans="1:107" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="37"/>
-      <c r="C26" s="328"/>
-      <c r="D26" s="328"/>
-      <c r="E26" s="328"/>
-      <c r="F26" s="328"/>
+      <c r="C26" s="180"/>
+      <c r="D26" s="180"/>
+      <c r="E26" s="180"/>
+      <c r="F26" s="180"/>
       <c r="G26" s="57"/>
-      <c r="H26" s="319"/>
-      <c r="I26" s="319"/>
-      <c r="J26" s="319"/>
-      <c r="K26" s="319"/>
-      <c r="L26" s="319"/>
-      <c r="M26" s="319"/>
-      <c r="N26" s="319"/>
-      <c r="O26" s="319"/>
-      <c r="P26" s="319"/>
-      <c r="Q26" s="319"/>
-      <c r="R26" s="319"/>
-      <c r="S26" s="319"/>
-      <c r="T26" s="319"/>
+      <c r="H26" s="177"/>
+      <c r="I26" s="177"/>
+      <c r="J26" s="177"/>
+      <c r="K26" s="177"/>
+      <c r="L26" s="177"/>
+      <c r="M26" s="177"/>
+      <c r="N26" s="177"/>
+      <c r="O26" s="177"/>
+      <c r="P26" s="177"/>
+      <c r="Q26" s="177"/>
+      <c r="R26" s="177"/>
+      <c r="S26" s="177"/>
+      <c r="T26" s="177"/>
       <c r="U26" s="167"/>
-      <c r="V26" s="195"/>
+      <c r="V26" s="336"/>
       <c r="W26" s="23"/>
       <c r="X26" s="164"/>
-      <c r="Y26" s="173">
+      <c r="Y26" s="205">
         <v>0</v>
       </c>
-      <c r="Z26" s="174"/>
-      <c r="AA26" s="176">
+      <c r="Z26" s="206"/>
+      <c r="AA26" s="203">
         <v>0</v>
       </c>
-      <c r="AB26" s="177"/>
+      <c r="AB26" s="204"/>
       <c r="AC26" s="153"/>
       <c r="AD26" s="102"/>
       <c r="AE26" s="102"/>
@@ -5958,8 +5944,8 @@
       <c r="AN26" s="102"/>
       <c r="AO26" s="102"/>
       <c r="AP26" s="93"/>
-      <c r="AQ26" s="193"/>
-      <c r="AR26" s="192"/>
+      <c r="AQ26" s="288"/>
+      <c r="AR26" s="226"/>
       <c r="AS26" s="50"/>
       <c r="AT26" s="50"/>
       <c r="AU26" s="50"/>
@@ -5975,19 +5961,19 @@
       <c r="BE26" s="73"/>
       <c r="BF26" s="50"/>
       <c r="BG26" s="28"/>
-      <c r="BH26" s="171"/>
-      <c r="BI26" s="172"/>
-      <c r="BJ26" s="172"/>
-      <c r="BK26" s="172"/>
-      <c r="BL26" s="172"/>
-      <c r="BM26" s="172"/>
-      <c r="BN26" s="172"/>
-      <c r="BO26" s="172"/>
-      <c r="BP26" s="172"/>
-      <c r="BQ26" s="175"/>
-      <c r="BR26" s="172"/>
-      <c r="BS26" s="172"/>
-      <c r="BT26" s="172"/>
+      <c r="BH26" s="252"/>
+      <c r="BI26" s="187"/>
+      <c r="BJ26" s="187"/>
+      <c r="BK26" s="187"/>
+      <c r="BL26" s="187"/>
+      <c r="BM26" s="187"/>
+      <c r="BN26" s="187"/>
+      <c r="BO26" s="187"/>
+      <c r="BP26" s="187"/>
+      <c r="BQ26" s="251"/>
+      <c r="BR26" s="187"/>
+      <c r="BS26" s="187"/>
+      <c r="BT26" s="187"/>
       <c r="BU26" s="30"/>
       <c r="BV26" s="30"/>
       <c r="CG26" s="18"/>
@@ -6016,36 +6002,32 @@
     </row>
     <row r="27" spans="1:107" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="37"/>
-      <c r="C27" s="325"/>
-      <c r="D27" s="325"/>
-      <c r="E27" s="325"/>
-      <c r="F27" s="327"/>
       <c r="G27" s="57"/>
-      <c r="H27" s="319"/>
-      <c r="I27" s="319"/>
-      <c r="J27" s="319"/>
-      <c r="K27" s="319"/>
-      <c r="L27" s="319"/>
-      <c r="M27" s="319"/>
-      <c r="N27" s="319"/>
-      <c r="O27" s="319"/>
-      <c r="P27" s="319"/>
-      <c r="Q27" s="319"/>
-      <c r="R27" s="319"/>
-      <c r="S27" s="319"/>
-      <c r="T27" s="319"/>
+      <c r="H27" s="177"/>
+      <c r="I27" s="177"/>
+      <c r="J27" s="177"/>
+      <c r="K27" s="177"/>
+      <c r="L27" s="177"/>
+      <c r="M27" s="177"/>
+      <c r="N27" s="177"/>
+      <c r="O27" s="177"/>
+      <c r="P27" s="177"/>
+      <c r="Q27" s="177"/>
+      <c r="R27" s="177"/>
+      <c r="S27" s="177"/>
+      <c r="T27" s="177"/>
       <c r="U27" s="167"/>
-      <c r="V27" s="195"/>
+      <c r="V27" s="336"/>
       <c r="W27" s="23"/>
       <c r="X27" s="164"/>
-      <c r="Y27" s="173">
+      <c r="Y27" s="205">
         <v>0</v>
       </c>
-      <c r="Z27" s="174"/>
-      <c r="AA27" s="176">
+      <c r="Z27" s="206"/>
+      <c r="AA27" s="203">
         <v>0</v>
       </c>
-      <c r="AB27" s="177"/>
+      <c r="AB27" s="204"/>
       <c r="AC27" s="153"/>
       <c r="AD27" s="102"/>
       <c r="AE27" s="102"/>
@@ -6060,8 +6042,8 @@
       <c r="AN27" s="102"/>
       <c r="AO27" s="102"/>
       <c r="AP27" s="93"/>
-      <c r="AQ27" s="248"/>
-      <c r="AR27" s="192"/>
+      <c r="AQ27" s="225"/>
+      <c r="AR27" s="226"/>
       <c r="AS27" s="50"/>
       <c r="AT27" s="50"/>
       <c r="AU27" s="50"/>
@@ -6077,19 +6059,19 @@
       <c r="BE27" s="73"/>
       <c r="BF27" s="50"/>
       <c r="BG27" s="28"/>
-      <c r="BH27" s="280"/>
-      <c r="BI27" s="172"/>
-      <c r="BJ27" s="172"/>
-      <c r="BK27" s="172"/>
-      <c r="BL27" s="172"/>
-      <c r="BM27" s="172"/>
-      <c r="BN27" s="172"/>
-      <c r="BO27" s="172"/>
-      <c r="BP27" s="172"/>
-      <c r="BQ27" s="172"/>
-      <c r="BR27" s="172"/>
-      <c r="BS27" s="172"/>
-      <c r="BT27" s="172"/>
+      <c r="BH27" s="263"/>
+      <c r="BI27" s="187"/>
+      <c r="BJ27" s="187"/>
+      <c r="BK27" s="187"/>
+      <c r="BL27" s="187"/>
+      <c r="BM27" s="187"/>
+      <c r="BN27" s="187"/>
+      <c r="BO27" s="187"/>
+      <c r="BP27" s="187"/>
+      <c r="BQ27" s="187"/>
+      <c r="BR27" s="187"/>
+      <c r="BS27" s="187"/>
+      <c r="BT27" s="187"/>
       <c r="BU27" s="30"/>
       <c r="BV27" s="30"/>
       <c r="CG27" s="18"/>
@@ -6117,37 +6099,34 @@
       <c r="DC27" s="18"/>
     </row>
     <row r="28" spans="1:107" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="310"/>
-      <c r="C28" s="325"/>
-      <c r="D28" s="325"/>
-      <c r="E28" s="325"/>
-      <c r="F28" s="326"/>
+      <c r="B28" s="172"/>
+      <c r="F28"/>
       <c r="G28" s="57"/>
-      <c r="H28" s="319"/>
-      <c r="I28" s="319"/>
-      <c r="J28" s="319"/>
-      <c r="K28" s="319"/>
-      <c r="L28" s="319"/>
-      <c r="M28" s="319"/>
-      <c r="N28" s="319"/>
-      <c r="O28" s="319"/>
-      <c r="P28" s="319"/>
-      <c r="Q28" s="319"/>
-      <c r="R28" s="319"/>
-      <c r="S28" s="319"/>
-      <c r="T28" s="319"/>
+      <c r="H28" s="177"/>
+      <c r="I28" s="177"/>
+      <c r="J28" s="177"/>
+      <c r="K28" s="177"/>
+      <c r="L28" s="177"/>
+      <c r="M28" s="177"/>
+      <c r="N28" s="177"/>
+      <c r="O28" s="177"/>
+      <c r="P28" s="177"/>
+      <c r="Q28" s="177"/>
+      <c r="R28" s="177"/>
+      <c r="S28" s="177"/>
+      <c r="T28" s="177"/>
       <c r="U28" s="167"/>
-      <c r="V28" s="195"/>
+      <c r="V28" s="336"/>
       <c r="W28" s="16"/>
       <c r="X28" s="164"/>
-      <c r="Y28" s="173">
+      <c r="Y28" s="205">
         <v>0</v>
       </c>
-      <c r="Z28" s="174"/>
-      <c r="AA28" s="176">
+      <c r="Z28" s="206"/>
+      <c r="AA28" s="203">
         <v>0</v>
       </c>
-      <c r="AB28" s="177"/>
+      <c r="AB28" s="204"/>
       <c r="AC28" s="153"/>
       <c r="AD28" s="103"/>
       <c r="AE28" s="103"/>
@@ -6162,8 +6141,8 @@
       <c r="AN28" s="103"/>
       <c r="AO28" s="103"/>
       <c r="AP28" s="87"/>
-      <c r="AQ28" s="273"/>
-      <c r="AR28" s="192"/>
+      <c r="AQ28" s="233"/>
+      <c r="AR28" s="226"/>
       <c r="AS28" s="50"/>
       <c r="AT28" s="50"/>
       <c r="AU28" s="50"/>
@@ -6178,22 +6157,22 @@
       <c r="BD28" s="106"/>
       <c r="BE28" s="73"/>
       <c r="BF28" s="50"/>
-      <c r="BG28" s="258"/>
-      <c r="BH28" s="172"/>
-      <c r="BI28" s="172"/>
-      <c r="BJ28" s="172"/>
-      <c r="BK28" s="172"/>
-      <c r="BL28" s="172"/>
-      <c r="BM28" s="172"/>
-      <c r="BN28" s="172"/>
-      <c r="BO28" s="172"/>
-      <c r="BP28" s="172"/>
-      <c r="BQ28" s="172"/>
-      <c r="BR28" s="172"/>
-      <c r="BS28" s="172"/>
-      <c r="BT28" s="172"/>
-      <c r="BU28" s="172"/>
-      <c r="BV28" s="172"/>
+      <c r="BG28" s="274"/>
+      <c r="BH28" s="187"/>
+      <c r="BI28" s="187"/>
+      <c r="BJ28" s="187"/>
+      <c r="BK28" s="187"/>
+      <c r="BL28" s="187"/>
+      <c r="BM28" s="187"/>
+      <c r="BN28" s="187"/>
+      <c r="BO28" s="187"/>
+      <c r="BP28" s="187"/>
+      <c r="BQ28" s="187"/>
+      <c r="BR28" s="187"/>
+      <c r="BS28" s="187"/>
+      <c r="BT28" s="187"/>
+      <c r="BU28" s="187"/>
+      <c r="BV28" s="187"/>
       <c r="CG28" s="18"/>
       <c r="CH28" s="18"/>
       <c r="CI28" s="18"/>
@@ -6220,36 +6199,36 @@
     </row>
     <row r="29" spans="1:107" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="37"/>
-      <c r="C29" s="324"/>
-      <c r="D29" s="324"/>
-      <c r="E29" s="324"/>
-      <c r="F29" s="324"/>
+      <c r="C29" s="179"/>
+      <c r="D29" s="179"/>
+      <c r="E29" s="179"/>
+      <c r="F29" s="179"/>
       <c r="G29" s="57"/>
-      <c r="H29" s="319"/>
-      <c r="I29" s="319"/>
-      <c r="J29" s="319"/>
-      <c r="K29" s="319"/>
-      <c r="L29" s="319"/>
-      <c r="M29" s="319"/>
-      <c r="N29" s="319"/>
-      <c r="O29" s="319"/>
-      <c r="P29" s="319"/>
-      <c r="Q29" s="319"/>
-      <c r="R29" s="319"/>
-      <c r="S29" s="319"/>
-      <c r="T29" s="319"/>
+      <c r="H29" s="177"/>
+      <c r="I29" s="177"/>
+      <c r="J29" s="177"/>
+      <c r="K29" s="177"/>
+      <c r="L29" s="177"/>
+      <c r="M29" s="177"/>
+      <c r="N29" s="177"/>
+      <c r="O29" s="177"/>
+      <c r="P29" s="177"/>
+      <c r="Q29" s="177"/>
+      <c r="R29" s="177"/>
+      <c r="S29" s="177"/>
+      <c r="T29" s="177"/>
       <c r="U29" s="167"/>
-      <c r="V29" s="195"/>
+      <c r="V29" s="336"/>
       <c r="W29" s="24"/>
       <c r="X29" s="164"/>
-      <c r="Y29" s="173">
+      <c r="Y29" s="205">
         <v>0</v>
       </c>
-      <c r="Z29" s="174"/>
-      <c r="AA29" s="176">
+      <c r="Z29" s="206"/>
+      <c r="AA29" s="203">
         <v>0</v>
       </c>
-      <c r="AB29" s="177"/>
+      <c r="AB29" s="204"/>
       <c r="AC29" s="153"/>
       <c r="AD29" s="107"/>
       <c r="AE29" s="107"/>
@@ -6264,8 +6243,8 @@
       <c r="AN29" s="107"/>
       <c r="AO29" s="107"/>
       <c r="AP29" s="87"/>
-      <c r="AQ29" s="235"/>
-      <c r="AR29" s="192"/>
+      <c r="AQ29" s="298"/>
+      <c r="AR29" s="226"/>
       <c r="AS29" s="50"/>
       <c r="AT29" s="50"/>
       <c r="AU29" s="50"/>
@@ -6280,22 +6259,22 @@
       <c r="BD29" s="113"/>
       <c r="BE29" s="73"/>
       <c r="BF29" s="50"/>
-      <c r="BG29" s="172"/>
-      <c r="BH29" s="172"/>
-      <c r="BI29" s="172"/>
-      <c r="BJ29" s="172"/>
-      <c r="BK29" s="172"/>
-      <c r="BL29" s="172"/>
-      <c r="BM29" s="172"/>
-      <c r="BN29" s="172"/>
-      <c r="BO29" s="172"/>
-      <c r="BP29" s="172"/>
-      <c r="BQ29" s="172"/>
-      <c r="BR29" s="172"/>
-      <c r="BS29" s="172"/>
-      <c r="BT29" s="172"/>
-      <c r="BU29" s="172"/>
-      <c r="BV29" s="172"/>
+      <c r="BG29" s="187"/>
+      <c r="BH29" s="187"/>
+      <c r="BI29" s="187"/>
+      <c r="BJ29" s="187"/>
+      <c r="BK29" s="187"/>
+      <c r="BL29" s="187"/>
+      <c r="BM29" s="187"/>
+      <c r="BN29" s="187"/>
+      <c r="BO29" s="187"/>
+      <c r="BP29" s="187"/>
+      <c r="BQ29" s="187"/>
+      <c r="BR29" s="187"/>
+      <c r="BS29" s="187"/>
+      <c r="BT29" s="187"/>
+      <c r="BU29" s="187"/>
+      <c r="BV29" s="187"/>
       <c r="CG29" s="18"/>
       <c r="CH29" s="18"/>
       <c r="CI29" s="18"/>
@@ -6322,36 +6301,36 @@
     </row>
     <row r="30" spans="1:107" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="37"/>
-      <c r="C30" s="324"/>
-      <c r="D30" s="324"/>
-      <c r="E30" s="324"/>
-      <c r="F30" s="324"/>
+      <c r="C30" s="179"/>
+      <c r="D30" s="179"/>
+      <c r="E30" s="179"/>
+      <c r="F30" s="179"/>
       <c r="G30" s="57"/>
-      <c r="H30" s="319"/>
-      <c r="I30" s="319"/>
-      <c r="J30" s="319"/>
-      <c r="K30" s="319"/>
-      <c r="L30" s="319"/>
-      <c r="M30" s="319"/>
-      <c r="N30" s="319"/>
-      <c r="O30" s="319"/>
-      <c r="P30" s="319"/>
-      <c r="Q30" s="319"/>
-      <c r="R30" s="319"/>
-      <c r="S30" s="319"/>
-      <c r="T30" s="319"/>
+      <c r="H30" s="177"/>
+      <c r="I30" s="177"/>
+      <c r="J30" s="177"/>
+      <c r="K30" s="177"/>
+      <c r="L30" s="177"/>
+      <c r="M30" s="177"/>
+      <c r="N30" s="177"/>
+      <c r="O30" s="177"/>
+      <c r="P30" s="177"/>
+      <c r="Q30" s="177"/>
+      <c r="R30" s="177"/>
+      <c r="S30" s="177"/>
+      <c r="T30" s="177"/>
       <c r="U30" s="167"/>
-      <c r="V30" s="195"/>
+      <c r="V30" s="336"/>
       <c r="W30" s="25"/>
       <c r="X30" s="165"/>
-      <c r="Y30" s="263">
+      <c r="Y30" s="291">
         <v>0</v>
       </c>
-      <c r="Z30" s="264"/>
-      <c r="AA30" s="271">
+      <c r="Z30" s="292"/>
+      <c r="AA30" s="249">
         <v>0</v>
       </c>
-      <c r="AB30" s="272"/>
+      <c r="AB30" s="250"/>
       <c r="AC30" s="155"/>
       <c r="AD30" s="114"/>
       <c r="AE30" s="114"/>
@@ -6366,15 +6345,15 @@
       <c r="AN30" s="114"/>
       <c r="AO30" s="114"/>
       <c r="AP30" s="87"/>
-      <c r="AQ30" s="191"/>
-      <c r="AR30" s="192"/>
+      <c r="AQ30" s="334"/>
+      <c r="AR30" s="226"/>
       <c r="AS30" s="50"/>
       <c r="AT30" s="50"/>
       <c r="AU30" s="50"/>
       <c r="AV30" s="50"/>
       <c r="AW30" s="50"/>
       <c r="AX30" s="50"/>
-      <c r="AY30" s="286"/>
+      <c r="AY30" s="231"/>
       <c r="AZ30" s="109"/>
       <c r="BA30" s="110"/>
       <c r="BB30" s="111"/>
@@ -6382,22 +6361,22 @@
       <c r="BD30" s="113"/>
       <c r="BE30" s="73"/>
       <c r="BF30" s="50"/>
-      <c r="BG30" s="258"/>
-      <c r="BH30" s="172"/>
-      <c r="BI30" s="172"/>
-      <c r="BJ30" s="172"/>
-      <c r="BK30" s="172"/>
-      <c r="BL30" s="172"/>
-      <c r="BM30" s="172"/>
-      <c r="BN30" s="172"/>
-      <c r="BO30" s="172"/>
-      <c r="BP30" s="172"/>
-      <c r="BQ30" s="172"/>
-      <c r="BR30" s="172"/>
-      <c r="BS30" s="172"/>
-      <c r="BT30" s="172"/>
-      <c r="BU30" s="172"/>
-      <c r="BV30" s="172"/>
+      <c r="BG30" s="274"/>
+      <c r="BH30" s="187"/>
+      <c r="BI30" s="187"/>
+      <c r="BJ30" s="187"/>
+      <c r="BK30" s="187"/>
+      <c r="BL30" s="187"/>
+      <c r="BM30" s="187"/>
+      <c r="BN30" s="187"/>
+      <c r="BO30" s="187"/>
+      <c r="BP30" s="187"/>
+      <c r="BQ30" s="187"/>
+      <c r="BR30" s="187"/>
+      <c r="BS30" s="187"/>
+      <c r="BT30" s="187"/>
+      <c r="BU30" s="187"/>
+      <c r="BV30" s="187"/>
       <c r="CG30" s="18"/>
       <c r="CH30" s="18"/>
       <c r="CI30" s="18"/>
@@ -6424,40 +6403,40 @@
     </row>
     <row r="31" spans="1:107" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B31" s="37"/>
-      <c r="C31" s="324"/>
-      <c r="D31" s="324"/>
-      <c r="E31" s="324"/>
-      <c r="F31" s="324"/>
+      <c r="C31" s="179"/>
+      <c r="D31" s="179"/>
+      <c r="E31" s="179"/>
+      <c r="F31" s="179"/>
       <c r="G31" s="57"/>
-      <c r="H31" s="319"/>
-      <c r="I31" s="319"/>
-      <c r="J31" s="319"/>
-      <c r="K31" s="319"/>
-      <c r="L31" s="319"/>
-      <c r="M31" s="319"/>
-      <c r="N31" s="319"/>
-      <c r="O31" s="319"/>
-      <c r="P31" s="319"/>
-      <c r="Q31" s="319"/>
-      <c r="R31" s="319"/>
-      <c r="S31" s="319"/>
-      <c r="T31" s="319"/>
+      <c r="H31" s="177"/>
+      <c r="I31" s="177"/>
+      <c r="J31" s="177"/>
+      <c r="K31" s="177"/>
+      <c r="L31" s="177"/>
+      <c r="M31" s="177"/>
+      <c r="N31" s="177"/>
+      <c r="O31" s="177"/>
+      <c r="P31" s="177"/>
+      <c r="Q31" s="177"/>
+      <c r="R31" s="177"/>
+      <c r="S31" s="177"/>
+      <c r="T31" s="177"/>
       <c r="U31" s="167"/>
-      <c r="V31" s="195"/>
+      <c r="V31" s="336"/>
       <c r="W31" s="14"/>
       <c r="X31" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="Y31" s="232">
+      <c r="Y31" s="295">
         <f>SUM(Y11:Z30)</f>
         <v>0</v>
       </c>
-      <c r="Z31" s="233"/>
-      <c r="AA31" s="238">
+      <c r="Z31" s="296"/>
+      <c r="AA31" s="300">
         <f>SUM(AA11:AB30)*AA9</f>
         <v>0</v>
       </c>
-      <c r="AB31" s="233"/>
+      <c r="AB31" s="296"/>
       <c r="AC31" s="156"/>
       <c r="AD31" s="55"/>
       <c r="AE31" s="55"/>
@@ -6472,15 +6451,15 @@
       <c r="AN31" s="55"/>
       <c r="AO31" s="55"/>
       <c r="AP31" s="87"/>
-      <c r="AQ31" s="242"/>
-      <c r="AR31" s="174"/>
+      <c r="AQ31" s="304"/>
+      <c r="AR31" s="206"/>
       <c r="AS31" s="50"/>
       <c r="AT31" s="50"/>
       <c r="AU31" s="50"/>
       <c r="AV31" s="50"/>
       <c r="AW31" s="50"/>
       <c r="AX31" s="50"/>
-      <c r="AY31" s="185"/>
+      <c r="AY31" s="232"/>
       <c r="AZ31" s="115"/>
       <c r="BA31" s="116"/>
       <c r="BB31" s="117"/>
@@ -6488,22 +6467,22 @@
       <c r="BD31" s="119"/>
       <c r="BE31" s="73"/>
       <c r="BF31" s="50"/>
-      <c r="BG31" s="229"/>
-      <c r="BH31" s="172"/>
-      <c r="BI31" s="172"/>
-      <c r="BJ31" s="172"/>
-      <c r="BK31" s="172"/>
-      <c r="BL31" s="172"/>
-      <c r="BM31" s="172"/>
-      <c r="BN31" s="172"/>
-      <c r="BO31" s="172"/>
-      <c r="BP31" s="172"/>
-      <c r="BQ31" s="172"/>
-      <c r="BR31" s="172"/>
-      <c r="BS31" s="172"/>
-      <c r="BT31" s="172"/>
-      <c r="BU31" s="172"/>
-      <c r="BV31" s="172"/>
+      <c r="BG31" s="330"/>
+      <c r="BH31" s="187"/>
+      <c r="BI31" s="187"/>
+      <c r="BJ31" s="187"/>
+      <c r="BK31" s="187"/>
+      <c r="BL31" s="187"/>
+      <c r="BM31" s="187"/>
+      <c r="BN31" s="187"/>
+      <c r="BO31" s="187"/>
+      <c r="BP31" s="187"/>
+      <c r="BQ31" s="187"/>
+      <c r="BR31" s="187"/>
+      <c r="BS31" s="187"/>
+      <c r="BT31" s="187"/>
+      <c r="BU31" s="187"/>
+      <c r="BV31" s="187"/>
       <c r="CG31" s="18"/>
       <c r="CH31" s="18"/>
       <c r="CI31" s="18"/>
@@ -6530,35 +6509,31 @@
     </row>
     <row r="32" spans="1:107" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="37"/>
-      <c r="C32" s="325"/>
-      <c r="D32" s="325"/>
-      <c r="E32" s="325"/>
-      <c r="F32" s="327"/>
       <c r="G32" s="57"/>
-      <c r="H32" s="319"/>
-      <c r="I32" s="319"/>
-      <c r="J32" s="319"/>
-      <c r="K32" s="319"/>
-      <c r="L32" s="319"/>
-      <c r="M32" s="319"/>
-      <c r="N32" s="319"/>
-      <c r="O32" s="319"/>
-      <c r="P32" s="319"/>
-      <c r="Q32" s="319"/>
-      <c r="R32" s="319"/>
-      <c r="S32" s="319"/>
-      <c r="T32" s="319"/>
+      <c r="H32" s="177"/>
+      <c r="I32" s="177"/>
+      <c r="J32" s="177"/>
+      <c r="K32" s="177"/>
+      <c r="L32" s="177"/>
+      <c r="M32" s="177"/>
+      <c r="N32" s="177"/>
+      <c r="O32" s="177"/>
+      <c r="P32" s="177"/>
+      <c r="Q32" s="177"/>
+      <c r="R32" s="177"/>
+      <c r="S32" s="177"/>
+      <c r="T32" s="177"/>
       <c r="U32" s="167"/>
-      <c r="V32" s="195"/>
+      <c r="V32" s="336"/>
       <c r="W32" s="15"/>
-      <c r="X32" s="244" t="e">
+      <c r="X32" s="306" t="e">
         <f>Y31/Y6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y32" s="179"/>
-      <c r="Z32" s="179"/>
-      <c r="AA32" s="179"/>
-      <c r="AB32" s="179"/>
+      <c r="Y32" s="184"/>
+      <c r="Z32" s="184"/>
+      <c r="AA32" s="184"/>
+      <c r="AB32" s="184"/>
       <c r="AC32" s="157"/>
       <c r="AD32" s="120"/>
       <c r="AE32" s="120"/>
@@ -6573,15 +6548,15 @@
       <c r="AN32" s="120"/>
       <c r="AO32" s="120"/>
       <c r="AP32" s="87"/>
-      <c r="AQ32" s="288"/>
-      <c r="AR32" s="192"/>
+      <c r="AQ32" s="237"/>
+      <c r="AR32" s="226"/>
       <c r="AS32" s="50"/>
       <c r="AT32" s="50"/>
       <c r="AU32" s="50"/>
       <c r="AV32" s="50"/>
       <c r="AW32" s="50"/>
       <c r="AX32" s="50"/>
-      <c r="AY32" s="185"/>
+      <c r="AY32" s="232"/>
       <c r="AZ32" s="121"/>
       <c r="BA32" s="122"/>
       <c r="BB32" s="123"/>
@@ -6589,22 +6564,22 @@
       <c r="BD32" s="125"/>
       <c r="BE32" s="73"/>
       <c r="BF32" s="50"/>
-      <c r="BG32" s="172"/>
-      <c r="BH32" s="172"/>
-      <c r="BI32" s="172"/>
-      <c r="BJ32" s="172"/>
-      <c r="BK32" s="172"/>
-      <c r="BL32" s="172"/>
-      <c r="BM32" s="172"/>
-      <c r="BN32" s="172"/>
-      <c r="BO32" s="172"/>
-      <c r="BP32" s="172"/>
-      <c r="BQ32" s="172"/>
-      <c r="BR32" s="172"/>
-      <c r="BS32" s="172"/>
-      <c r="BT32" s="172"/>
-      <c r="BU32" s="172"/>
-      <c r="BV32" s="172"/>
+      <c r="BG32" s="187"/>
+      <c r="BH32" s="187"/>
+      <c r="BI32" s="187"/>
+      <c r="BJ32" s="187"/>
+      <c r="BK32" s="187"/>
+      <c r="BL32" s="187"/>
+      <c r="BM32" s="187"/>
+      <c r="BN32" s="187"/>
+      <c r="BO32" s="187"/>
+      <c r="BP32" s="187"/>
+      <c r="BQ32" s="187"/>
+      <c r="BR32" s="187"/>
+      <c r="BS32" s="187"/>
+      <c r="BT32" s="187"/>
+      <c r="BU32" s="187"/>
+      <c r="BV32" s="187"/>
       <c r="CG32" s="18"/>
       <c r="CH32" s="18"/>
       <c r="CI32" s="18"/>
@@ -6631,32 +6606,32 @@
     </row>
     <row r="33" spans="2:107" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="37"/>
-      <c r="C33" s="324"/>
-      <c r="D33" s="324"/>
-      <c r="E33" s="324"/>
-      <c r="F33" s="324"/>
+      <c r="C33" s="179"/>
+      <c r="D33" s="179"/>
+      <c r="E33" s="179"/>
+      <c r="F33" s="179"/>
       <c r="G33" s="57"/>
-      <c r="H33" s="319"/>
-      <c r="I33" s="319"/>
-      <c r="J33" s="319"/>
-      <c r="K33" s="319"/>
-      <c r="L33" s="319"/>
-      <c r="M33" s="319"/>
-      <c r="N33" s="319"/>
-      <c r="O33" s="319"/>
-      <c r="P33" s="319"/>
-      <c r="Q33" s="319"/>
-      <c r="R33" s="319"/>
-      <c r="S33" s="319"/>
-      <c r="T33" s="319"/>
+      <c r="H33" s="177"/>
+      <c r="I33" s="177"/>
+      <c r="J33" s="177"/>
+      <c r="K33" s="177"/>
+      <c r="L33" s="177"/>
+      <c r="M33" s="177"/>
+      <c r="N33" s="177"/>
+      <c r="O33" s="177"/>
+      <c r="P33" s="177"/>
+      <c r="Q33" s="177"/>
+      <c r="R33" s="177"/>
+      <c r="S33" s="177"/>
+      <c r="T33" s="177"/>
       <c r="U33" s="167"/>
-      <c r="V33" s="195"/>
+      <c r="V33" s="336"/>
       <c r="W33" s="14"/>
-      <c r="X33" s="245"/>
-      <c r="Y33" s="245"/>
-      <c r="Z33" s="245"/>
-      <c r="AA33" s="245"/>
-      <c r="AB33" s="245"/>
+      <c r="X33" s="266"/>
+      <c r="Y33" s="266"/>
+      <c r="Z33" s="266"/>
+      <c r="AA33" s="266"/>
+      <c r="AB33" s="266"/>
       <c r="AC33" s="55"/>
       <c r="AD33" s="158"/>
       <c r="AE33" s="55"/>
@@ -6671,15 +6646,15 @@
       <c r="AN33" s="55"/>
       <c r="AO33" s="55"/>
       <c r="AP33" s="87"/>
-      <c r="AQ33" s="228"/>
-      <c r="AR33" s="192"/>
+      <c r="AQ33" s="329"/>
+      <c r="AR33" s="226"/>
       <c r="AS33" s="50"/>
       <c r="AT33" s="50"/>
       <c r="AU33" s="50"/>
       <c r="AV33" s="50"/>
       <c r="AW33" s="50"/>
       <c r="AX33" s="50"/>
-      <c r="AY33" s="260"/>
+      <c r="AY33" s="287"/>
       <c r="AZ33" s="126"/>
       <c r="BA33" s="127"/>
       <c r="BB33" s="128"/>
@@ -6687,22 +6662,22 @@
       <c r="BD33" s="130"/>
       <c r="BE33" s="73"/>
       <c r="BF33" s="50"/>
-      <c r="BG33" s="243"/>
-      <c r="BH33" s="172"/>
-      <c r="BI33" s="172"/>
-      <c r="BJ33" s="172"/>
-      <c r="BK33" s="172"/>
-      <c r="BL33" s="172"/>
-      <c r="BM33" s="172"/>
-      <c r="BN33" s="172"/>
-      <c r="BO33" s="172"/>
-      <c r="BP33" s="241"/>
-      <c r="BQ33" s="172"/>
-      <c r="BR33" s="172"/>
-      <c r="BS33" s="172"/>
-      <c r="BT33" s="216"/>
-      <c r="BU33" s="172"/>
-      <c r="BV33" s="172"/>
+      <c r="BG33" s="305"/>
+      <c r="BH33" s="187"/>
+      <c r="BI33" s="187"/>
+      <c r="BJ33" s="187"/>
+      <c r="BK33" s="187"/>
+      <c r="BL33" s="187"/>
+      <c r="BM33" s="187"/>
+      <c r="BN33" s="187"/>
+      <c r="BO33" s="187"/>
+      <c r="BP33" s="303"/>
+      <c r="BQ33" s="187"/>
+      <c r="BR33" s="187"/>
+      <c r="BS33" s="187"/>
+      <c r="BT33" s="322"/>
+      <c r="BU33" s="187"/>
+      <c r="BV33" s="187"/>
       <c r="CG33" s="18"/>
       <c r="CH33" s="18"/>
       <c r="CI33" s="18"/>
@@ -6729,34 +6704,34 @@
     </row>
     <row r="34" spans="2:107" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B34" s="37"/>
-      <c r="C34" s="329"/>
-      <c r="D34" s="329"/>
-      <c r="E34" s="329"/>
-      <c r="F34" s="329"/>
+      <c r="C34" s="181"/>
+      <c r="D34" s="181"/>
+      <c r="E34" s="181"/>
+      <c r="F34" s="181"/>
       <c r="G34" s="57"/>
-      <c r="H34" s="319"/>
-      <c r="I34" s="319"/>
-      <c r="J34" s="319"/>
-      <c r="K34" s="319"/>
-      <c r="L34" s="319"/>
-      <c r="M34" s="319"/>
-      <c r="N34" s="319"/>
-      <c r="O34" s="319"/>
-      <c r="P34" s="319"/>
-      <c r="Q34" s="319"/>
-      <c r="R34" s="319"/>
-      <c r="S34" s="319"/>
-      <c r="T34" s="319"/>
+      <c r="H34" s="177"/>
+      <c r="I34" s="177"/>
+      <c r="J34" s="177"/>
+      <c r="K34" s="177"/>
+      <c r="L34" s="177"/>
+      <c r="M34" s="177"/>
+      <c r="N34" s="177"/>
+      <c r="O34" s="177"/>
+      <c r="P34" s="177"/>
+      <c r="Q34" s="177"/>
+      <c r="R34" s="177"/>
+      <c r="S34" s="177"/>
+      <c r="T34" s="177"/>
       <c r="U34" s="167"/>
-      <c r="V34" s="195"/>
+      <c r="V34" s="336"/>
       <c r="W34" s="12"/>
-      <c r="X34" s="226" t="s">
+      <c r="X34" s="327" t="s">
         <v>15</v>
       </c>
-      <c r="Y34" s="179"/>
-      <c r="Z34" s="179"/>
-      <c r="AA34" s="179"/>
-      <c r="AB34" s="180"/>
+      <c r="Y34" s="184"/>
+      <c r="Z34" s="184"/>
+      <c r="AA34" s="184"/>
+      <c r="AB34" s="185"/>
       <c r="AC34" s="56"/>
       <c r="AD34" s="56"/>
       <c r="AE34" s="56"/>
@@ -6771,15 +6746,15 @@
       <c r="AN34" s="56"/>
       <c r="AO34" s="56"/>
       <c r="AP34" s="131"/>
-      <c r="AQ34" s="278"/>
-      <c r="AR34" s="279"/>
+      <c r="AQ34" s="261"/>
+      <c r="AR34" s="262"/>
       <c r="AS34" s="50"/>
       <c r="AT34" s="50"/>
       <c r="AU34" s="50"/>
       <c r="AV34" s="50"/>
       <c r="AW34" s="50"/>
       <c r="AX34" s="50"/>
-      <c r="AY34" s="185"/>
+      <c r="AY34" s="232"/>
       <c r="AZ34" s="132"/>
       <c r="BA34" s="133"/>
       <c r="BB34" s="134"/>
@@ -6787,22 +6762,22 @@
       <c r="BD34" s="136"/>
       <c r="BE34" s="73"/>
       <c r="BF34" s="50"/>
-      <c r="BG34" s="254"/>
-      <c r="BH34" s="172"/>
-      <c r="BI34" s="172"/>
-      <c r="BJ34" s="172"/>
-      <c r="BK34" s="172"/>
-      <c r="BL34" s="172"/>
-      <c r="BM34" s="236"/>
-      <c r="BN34" s="172"/>
-      <c r="BO34" s="172"/>
-      <c r="BP34" s="172"/>
-      <c r="BQ34" s="172"/>
-      <c r="BR34" s="234"/>
-      <c r="BS34" s="189"/>
-      <c r="BT34" s="172"/>
-      <c r="BU34" s="172"/>
-      <c r="BV34" s="172"/>
+      <c r="BG34" s="270"/>
+      <c r="BH34" s="187"/>
+      <c r="BI34" s="187"/>
+      <c r="BJ34" s="187"/>
+      <c r="BK34" s="187"/>
+      <c r="BL34" s="187"/>
+      <c r="BM34" s="299"/>
+      <c r="BN34" s="187"/>
+      <c r="BO34" s="187"/>
+      <c r="BP34" s="187"/>
+      <c r="BQ34" s="187"/>
+      <c r="BR34" s="297"/>
+      <c r="BS34" s="333"/>
+      <c r="BT34" s="187"/>
+      <c r="BU34" s="187"/>
+      <c r="BV34" s="187"/>
       <c r="CG34" s="18"/>
       <c r="CH34" s="18"/>
       <c r="CI34" s="18"/>
@@ -6828,13 +6803,13 @@
       <c r="DC34" s="18"/>
     </row>
     <row r="35" spans="2:107" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="293" t="s">
+      <c r="B35" s="192" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="179"/>
-      <c r="D35" s="179"/>
-      <c r="E35" s="179"/>
-      <c r="F35" s="179"/>
+      <c r="C35" s="184"/>
+      <c r="D35" s="184"/>
+      <c r="E35" s="184"/>
+      <c r="F35" s="184"/>
       <c r="G35" s="168"/>
       <c r="H35" s="169"/>
       <c r="I35" s="169"/>
@@ -6850,13 +6825,13 @@
       <c r="S35" s="169"/>
       <c r="T35" s="169"/>
       <c r="U35" s="170"/>
-      <c r="V35" s="196"/>
+      <c r="V35" s="337"/>
       <c r="W35" s="16"/>
-      <c r="X35" s="298"/>
-      <c r="Y35" s="299"/>
-      <c r="Z35" s="299"/>
-      <c r="AA35" s="299"/>
-      <c r="AB35" s="300"/>
+      <c r="X35" s="208"/>
+      <c r="Y35" s="209"/>
+      <c r="Z35" s="209"/>
+      <c r="AA35" s="209"/>
+      <c r="AB35" s="210"/>
       <c r="AC35" s="56"/>
       <c r="AD35" s="56"/>
       <c r="AE35" s="56"/>
@@ -6871,8 +6846,8 @@
       <c r="AN35" s="56"/>
       <c r="AO35" s="56"/>
       <c r="AP35" s="137"/>
-      <c r="AQ35" s="190"/>
-      <c r="AR35" s="185"/>
+      <c r="AQ35" s="259"/>
+      <c r="AR35" s="232"/>
       <c r="AS35" s="69"/>
       <c r="AT35" s="69"/>
       <c r="AU35" s="69"/>
@@ -6880,29 +6855,29 @@
       <c r="AW35" s="69"/>
       <c r="AX35" s="69"/>
       <c r="AY35" s="69"/>
-      <c r="AZ35" s="223"/>
-      <c r="BA35" s="224"/>
-      <c r="BB35" s="224"/>
-      <c r="BC35" s="224"/>
-      <c r="BD35" s="225"/>
+      <c r="AZ35" s="255"/>
+      <c r="BA35" s="256"/>
+      <c r="BB35" s="256"/>
+      <c r="BC35" s="256"/>
+      <c r="BD35" s="257"/>
       <c r="BE35" s="73"/>
       <c r="BF35" s="50"/>
-      <c r="BG35" s="172"/>
-      <c r="BH35" s="172"/>
-      <c r="BI35" s="172"/>
-      <c r="BJ35" s="172"/>
-      <c r="BK35" s="172"/>
-      <c r="BL35" s="172"/>
-      <c r="BM35" s="203"/>
-      <c r="BN35" s="172"/>
-      <c r="BO35" s="172"/>
-      <c r="BP35" s="172"/>
-      <c r="BQ35" s="172"/>
-      <c r="BR35" s="172"/>
-      <c r="BS35" s="203"/>
-      <c r="BT35" s="172"/>
-      <c r="BU35" s="172"/>
-      <c r="BV35" s="172"/>
+      <c r="BG35" s="187"/>
+      <c r="BH35" s="187"/>
+      <c r="BI35" s="187"/>
+      <c r="BJ35" s="187"/>
+      <c r="BK35" s="187"/>
+      <c r="BL35" s="187"/>
+      <c r="BM35" s="264"/>
+      <c r="BN35" s="187"/>
+      <c r="BO35" s="187"/>
+      <c r="BP35" s="187"/>
+      <c r="BQ35" s="187"/>
+      <c r="BR35" s="187"/>
+      <c r="BS35" s="264"/>
+      <c r="BT35" s="187"/>
+      <c r="BU35" s="187"/>
+      <c r="BV35" s="187"/>
       <c r="CG35" s="18"/>
       <c r="CH35" s="18"/>
       <c r="CI35" s="18"/>
@@ -6929,35 +6904,31 @@
     </row>
     <row r="36" spans="2:107" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="63"/>
-      <c r="C36" s="325"/>
-      <c r="D36" s="325"/>
-      <c r="E36" s="325"/>
-      <c r="F36" s="327"/>
-      <c r="G36" s="208" t="str">
+      <c r="G36" s="314" t="str">
         <f>"Estimates Based on Geofence and "&amp;AA7&amp;" Role"</f>
         <v>Estimates Based on Geofence and  Role</v>
       </c>
-      <c r="H36" s="209"/>
-      <c r="I36" s="209"/>
-      <c r="J36" s="210"/>
-      <c r="K36" s="210"/>
-      <c r="L36" s="210"/>
-      <c r="M36" s="210"/>
-      <c r="N36" s="210"/>
-      <c r="O36" s="210"/>
-      <c r="P36" s="210"/>
-      <c r="Q36" s="210"/>
-      <c r="R36" s="210"/>
-      <c r="S36" s="210"/>
-      <c r="T36" s="210"/>
-      <c r="U36" s="210"/>
-      <c r="V36" s="211"/>
+      <c r="H36" s="315"/>
+      <c r="I36" s="315"/>
+      <c r="J36" s="316"/>
+      <c r="K36" s="316"/>
+      <c r="L36" s="316"/>
+      <c r="M36" s="316"/>
+      <c r="N36" s="316"/>
+      <c r="O36" s="316"/>
+      <c r="P36" s="316"/>
+      <c r="Q36" s="316"/>
+      <c r="R36" s="316"/>
+      <c r="S36" s="316"/>
+      <c r="T36" s="316"/>
+      <c r="U36" s="316"/>
+      <c r="V36" s="317"/>
       <c r="W36" s="17"/>
-      <c r="X36" s="301"/>
-      <c r="Y36" s="302"/>
-      <c r="Z36" s="302"/>
-      <c r="AA36" s="302"/>
-      <c r="AB36" s="207"/>
+      <c r="X36" s="211"/>
+      <c r="Y36" s="212"/>
+      <c r="Z36" s="212"/>
+      <c r="AA36" s="212"/>
+      <c r="AB36" s="213"/>
       <c r="AC36" s="138"/>
       <c r="AD36" s="138"/>
       <c r="AE36" s="138"/>
@@ -6972,8 +6943,8 @@
       <c r="AN36" s="138"/>
       <c r="AO36" s="138"/>
       <c r="AP36" s="137"/>
-      <c r="AQ36" s="190"/>
-      <c r="AR36" s="185"/>
+      <c r="AQ36" s="259"/>
+      <c r="AR36" s="232"/>
       <c r="AS36" s="69"/>
       <c r="AT36" s="69"/>
       <c r="AU36" s="69"/>
@@ -6981,11 +6952,11 @@
       <c r="AW36" s="69"/>
       <c r="AX36" s="69"/>
       <c r="AY36" s="69"/>
-      <c r="AZ36" s="223"/>
-      <c r="BA36" s="224"/>
-      <c r="BB36" s="224"/>
-      <c r="BC36" s="224"/>
-      <c r="BD36" s="225"/>
+      <c r="AZ36" s="255"/>
+      <c r="BA36" s="256"/>
+      <c r="BB36" s="256"/>
+      <c r="BC36" s="256"/>
+      <c r="BD36" s="257"/>
       <c r="BE36" s="73"/>
       <c r="BF36" s="50"/>
       <c r="BG36" s="50"/>
@@ -7030,31 +7001,31 @@
     </row>
     <row r="37" spans="2:107" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="38"/>
-      <c r="C37" s="330"/>
-      <c r="D37" s="330"/>
-      <c r="E37" s="330"/>
-      <c r="F37" s="330"/>
-      <c r="G37" s="212"/>
-      <c r="H37" s="213"/>
-      <c r="I37" s="213"/>
-      <c r="J37" s="214"/>
-      <c r="K37" s="214"/>
-      <c r="L37" s="214"/>
-      <c r="M37" s="214"/>
-      <c r="N37" s="214"/>
-      <c r="O37" s="214"/>
-      <c r="P37" s="214"/>
-      <c r="Q37" s="214"/>
-      <c r="R37" s="214"/>
-      <c r="S37" s="214"/>
-      <c r="T37" s="214"/>
-      <c r="U37" s="214"/>
-      <c r="V37" s="215"/>
-      <c r="X37" s="301"/>
-      <c r="Y37" s="302"/>
-      <c r="Z37" s="302"/>
-      <c r="AA37" s="302"/>
-      <c r="AB37" s="207"/>
+      <c r="C37" s="182"/>
+      <c r="D37" s="182"/>
+      <c r="E37" s="182"/>
+      <c r="F37" s="182"/>
+      <c r="G37" s="318"/>
+      <c r="H37" s="319"/>
+      <c r="I37" s="319"/>
+      <c r="J37" s="320"/>
+      <c r="K37" s="320"/>
+      <c r="L37" s="320"/>
+      <c r="M37" s="320"/>
+      <c r="N37" s="320"/>
+      <c r="O37" s="320"/>
+      <c r="P37" s="320"/>
+      <c r="Q37" s="320"/>
+      <c r="R37" s="320"/>
+      <c r="S37" s="320"/>
+      <c r="T37" s="320"/>
+      <c r="U37" s="320"/>
+      <c r="V37" s="321"/>
+      <c r="X37" s="211"/>
+      <c r="Y37" s="212"/>
+      <c r="Z37" s="212"/>
+      <c r="AA37" s="212"/>
+      <c r="AB37" s="213"/>
       <c r="AD37" s="30"/>
       <c r="AE37" s="30"/>
       <c r="AF37" s="30"/>
@@ -7126,37 +7097,37 @@
     </row>
     <row r="38" spans="2:107" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B38" s="38"/>
-      <c r="C38" s="330"/>
-      <c r="D38" s="330"/>
-      <c r="E38" s="330"/>
+      <c r="C38" s="182"/>
+      <c r="D38" s="182"/>
+      <c r="E38" s="182"/>
       <c r="F38" s="39"/>
-      <c r="G38" s="308" t="s">
+      <c r="G38" s="222" t="s">
         <v>16</v>
       </c>
-      <c r="H38" s="179"/>
-      <c r="I38" s="179"/>
-      <c r="J38" s="179"/>
-      <c r="K38" s="180"/>
-      <c r="L38" s="270" t="s">
+      <c r="H38" s="184"/>
+      <c r="I38" s="184"/>
+      <c r="J38" s="184"/>
+      <c r="K38" s="185"/>
+      <c r="L38" s="248" t="s">
         <v>17</v>
       </c>
-      <c r="M38" s="179"/>
-      <c r="N38" s="179"/>
-      <c r="O38" s="179"/>
-      <c r="P38" s="179"/>
-      <c r="Q38" s="180"/>
-      <c r="R38" s="178" t="s">
+      <c r="M38" s="184"/>
+      <c r="N38" s="184"/>
+      <c r="O38" s="184"/>
+      <c r="P38" s="184"/>
+      <c r="Q38" s="185"/>
+      <c r="R38" s="331" t="s">
         <v>18</v>
       </c>
-      <c r="S38" s="179"/>
-      <c r="T38" s="179"/>
-      <c r="U38" s="179"/>
-      <c r="V38" s="180"/>
-      <c r="X38" s="301"/>
-      <c r="Y38" s="302"/>
-      <c r="Z38" s="302"/>
-      <c r="AA38" s="302"/>
-      <c r="AB38" s="207"/>
+      <c r="S38" s="184"/>
+      <c r="T38" s="184"/>
+      <c r="U38" s="184"/>
+      <c r="V38" s="185"/>
+      <c r="X38" s="211"/>
+      <c r="Y38" s="212"/>
+      <c r="Z38" s="212"/>
+      <c r="AA38" s="212"/>
+      <c r="AB38" s="213"/>
       <c r="AD38" s="30"/>
       <c r="AE38" s="30"/>
       <c r="AF38" s="30"/>
@@ -7228,36 +7199,36 @@
     </row>
     <row r="39" spans="2:107" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B39" s="38"/>
-      <c r="C39" s="330"/>
-      <c r="D39" s="330"/>
-      <c r="E39" s="330"/>
+      <c r="C39" s="182"/>
+      <c r="D39" s="182"/>
+      <c r="E39" s="182"/>
       <c r="F39" s="39"/>
-      <c r="G39" s="181"/>
-      <c r="H39" s="182"/>
-      <c r="I39" s="182"/>
-      <c r="J39" s="182"/>
-      <c r="K39" s="183"/>
-      <c r="L39" s="217" t="s">
+      <c r="G39" s="189"/>
+      <c r="H39" s="190"/>
+      <c r="I39" s="190"/>
+      <c r="J39" s="190"/>
+      <c r="K39" s="191"/>
+      <c r="L39" s="218" t="s">
         <v>19</v>
       </c>
-      <c r="M39" s="182"/>
-      <c r="N39" s="183"/>
-      <c r="O39" s="217" t="s">
+      <c r="M39" s="190"/>
+      <c r="N39" s="191"/>
+      <c r="O39" s="218" t="s">
         <v>20</v>
       </c>
-      <c r="P39" s="182"/>
-      <c r="Q39" s="183"/>
-      <c r="R39" s="181"/>
-      <c r="S39" s="182"/>
-      <c r="T39" s="182"/>
-      <c r="U39" s="182"/>
-      <c r="V39" s="183"/>
+      <c r="P39" s="190"/>
+      <c r="Q39" s="191"/>
+      <c r="R39" s="189"/>
+      <c r="S39" s="190"/>
+      <c r="T39" s="190"/>
+      <c r="U39" s="190"/>
+      <c r="V39" s="191"/>
       <c r="W39" s="1"/>
-      <c r="X39" s="301"/>
-      <c r="Y39" s="302"/>
-      <c r="Z39" s="302"/>
-      <c r="AA39" s="302"/>
-      <c r="AB39" s="207"/>
+      <c r="X39" s="211"/>
+      <c r="Y39" s="212"/>
+      <c r="Z39" s="212"/>
+      <c r="AA39" s="212"/>
+      <c r="AB39" s="213"/>
       <c r="AC39" s="51"/>
       <c r="AD39" s="51"/>
       <c r="AE39" s="51"/>
@@ -7330,43 +7301,43 @@
     </row>
     <row r="40" spans="2:107" ht="11.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="38"/>
-      <c r="C40" s="330"/>
-      <c r="D40" s="330"/>
-      <c r="E40" s="330"/>
+      <c r="C40" s="182"/>
+      <c r="D40" s="182"/>
+      <c r="E40" s="182"/>
       <c r="F40" s="39"/>
-      <c r="G40" s="306" t="s">
+      <c r="G40" s="217" t="s">
         <v>21</v>
       </c>
-      <c r="H40" s="179"/>
-      <c r="I40" s="179"/>
-      <c r="J40" s="179"/>
-      <c r="K40" s="180"/>
-      <c r="L40" s="255">
+      <c r="H40" s="184"/>
+      <c r="I40" s="184"/>
+      <c r="J40" s="184"/>
+      <c r="K40" s="185"/>
+      <c r="L40" s="202">
         <f>AA31</f>
         <v>0</v>
       </c>
-      <c r="M40" s="179"/>
-      <c r="N40" s="180"/>
-      <c r="O40" s="255">
+      <c r="M40" s="184"/>
+      <c r="N40" s="185"/>
+      <c r="O40" s="202">
         <f>L40*2</f>
         <v>0</v>
       </c>
-      <c r="P40" s="179"/>
-      <c r="Q40" s="180"/>
-      <c r="R40" s="188">
+      <c r="P40" s="184"/>
+      <c r="Q40" s="185"/>
+      <c r="R40" s="241">
         <f>Y$6</f>
         <v>0</v>
       </c>
-      <c r="S40" s="179"/>
-      <c r="T40" s="179"/>
-      <c r="U40" s="179"/>
-      <c r="V40" s="180"/>
+      <c r="S40" s="184"/>
+      <c r="T40" s="184"/>
+      <c r="U40" s="184"/>
+      <c r="V40" s="185"/>
       <c r="W40" s="1"/>
-      <c r="X40" s="301"/>
-      <c r="Y40" s="302"/>
-      <c r="Z40" s="302"/>
-      <c r="AA40" s="302"/>
-      <c r="AB40" s="207"/>
+      <c r="X40" s="211"/>
+      <c r="Y40" s="212"/>
+      <c r="Z40" s="212"/>
+      <c r="AA40" s="212"/>
+      <c r="AB40" s="213"/>
       <c r="AC40" s="51"/>
       <c r="AD40" s="51"/>
       <c r="AE40" s="51"/>
@@ -7439,32 +7410,32 @@
     </row>
     <row r="41" spans="2:107" ht="11.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B41" s="38"/>
-      <c r="C41" s="330"/>
-      <c r="D41" s="330"/>
-      <c r="E41" s="330"/>
+      <c r="C41" s="182"/>
+      <c r="D41" s="182"/>
+      <c r="E41" s="182"/>
       <c r="F41" s="39"/>
-      <c r="G41" s="182"/>
-      <c r="H41" s="182"/>
-      <c r="I41" s="182"/>
-      <c r="J41" s="182"/>
-      <c r="K41" s="183"/>
-      <c r="L41" s="181"/>
-      <c r="M41" s="182"/>
-      <c r="N41" s="183"/>
-      <c r="O41" s="181"/>
-      <c r="P41" s="182"/>
-      <c r="Q41" s="183"/>
-      <c r="R41" s="181"/>
-      <c r="S41" s="182"/>
-      <c r="T41" s="182"/>
-      <c r="U41" s="182"/>
-      <c r="V41" s="183"/>
+      <c r="G41" s="190"/>
+      <c r="H41" s="190"/>
+      <c r="I41" s="190"/>
+      <c r="J41" s="190"/>
+      <c r="K41" s="191"/>
+      <c r="L41" s="189"/>
+      <c r="M41" s="190"/>
+      <c r="N41" s="191"/>
+      <c r="O41" s="189"/>
+      <c r="P41" s="190"/>
+      <c r="Q41" s="191"/>
+      <c r="R41" s="189"/>
+      <c r="S41" s="190"/>
+      <c r="T41" s="190"/>
+      <c r="U41" s="190"/>
+      <c r="V41" s="191"/>
       <c r="W41" s="1"/>
-      <c r="X41" s="301"/>
-      <c r="Y41" s="302"/>
-      <c r="Z41" s="302"/>
-      <c r="AA41" s="302"/>
-      <c r="AB41" s="207"/>
+      <c r="X41" s="211"/>
+      <c r="Y41" s="212"/>
+      <c r="Z41" s="212"/>
+      <c r="AA41" s="212"/>
+      <c r="AB41" s="213"/>
       <c r="AC41" s="51"/>
       <c r="AD41" s="51"/>
       <c r="AE41" s="51"/>
@@ -7537,43 +7508,43 @@
     </row>
     <row r="42" spans="2:107" ht="11.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="38"/>
-      <c r="C42" s="330"/>
-      <c r="D42" s="330"/>
-      <c r="E42" s="330"/>
+      <c r="C42" s="182"/>
+      <c r="D42" s="182"/>
+      <c r="E42" s="182"/>
       <c r="F42" s="39"/>
-      <c r="G42" s="306" t="s">
+      <c r="G42" s="217" t="s">
         <v>22</v>
       </c>
-      <c r="H42" s="179"/>
-      <c r="I42" s="179"/>
-      <c r="J42" s="179"/>
-      <c r="K42" s="180"/>
-      <c r="L42" s="255">
+      <c r="H42" s="184"/>
+      <c r="I42" s="184"/>
+      <c r="J42" s="184"/>
+      <c r="K42" s="185"/>
+      <c r="L42" s="202">
         <f>L40/2</f>
         <v>0</v>
       </c>
-      <c r="M42" s="179"/>
-      <c r="N42" s="180"/>
-      <c r="O42" s="255">
+      <c r="M42" s="184"/>
+      <c r="N42" s="185"/>
+      <c r="O42" s="202">
         <f>L42*2.333</f>
         <v>0</v>
       </c>
-      <c r="P42" s="179"/>
-      <c r="Q42" s="180"/>
-      <c r="R42" s="188">
+      <c r="P42" s="184"/>
+      <c r="Q42" s="185"/>
+      <c r="R42" s="241">
         <f>Y$7</f>
         <v>0</v>
       </c>
-      <c r="S42" s="179"/>
-      <c r="T42" s="179"/>
-      <c r="U42" s="179"/>
-      <c r="V42" s="180"/>
+      <c r="S42" s="184"/>
+      <c r="T42" s="184"/>
+      <c r="U42" s="184"/>
+      <c r="V42" s="185"/>
       <c r="W42" s="1"/>
-      <c r="X42" s="301"/>
-      <c r="Y42" s="302"/>
-      <c r="Z42" s="302"/>
-      <c r="AA42" s="302"/>
-      <c r="AB42" s="207"/>
+      <c r="X42" s="211"/>
+      <c r="Y42" s="212"/>
+      <c r="Z42" s="212"/>
+      <c r="AA42" s="212"/>
+      <c r="AB42" s="213"/>
       <c r="AC42" s="51"/>
       <c r="AD42" s="51"/>
       <c r="AE42" s="51"/>
@@ -7589,7 +7560,7 @@
       <c r="AO42" s="51"/>
       <c r="AP42" s="52"/>
       <c r="AQ42" s="52"/>
-      <c r="AR42" s="276"/>
+      <c r="AR42" s="258"/>
       <c r="AS42" s="69"/>
       <c r="AT42" s="69"/>
       <c r="AU42" s="69"/>
@@ -7646,32 +7617,32 @@
     </row>
     <row r="43" spans="2:107" ht="11.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B43" s="38"/>
-      <c r="C43" s="330"/>
-      <c r="D43" s="330"/>
-      <c r="E43" s="330"/>
+      <c r="C43" s="182"/>
+      <c r="D43" s="182"/>
+      <c r="E43" s="182"/>
       <c r="F43" s="39"/>
-      <c r="G43" s="182"/>
-      <c r="H43" s="182"/>
-      <c r="I43" s="182"/>
-      <c r="J43" s="182"/>
-      <c r="K43" s="183"/>
-      <c r="L43" s="181"/>
-      <c r="M43" s="182"/>
-      <c r="N43" s="183"/>
-      <c r="O43" s="181"/>
-      <c r="P43" s="182"/>
-      <c r="Q43" s="183"/>
-      <c r="R43" s="181"/>
-      <c r="S43" s="182"/>
-      <c r="T43" s="182"/>
-      <c r="U43" s="182"/>
-      <c r="V43" s="183"/>
+      <c r="G43" s="190"/>
+      <c r="H43" s="190"/>
+      <c r="I43" s="190"/>
+      <c r="J43" s="190"/>
+      <c r="K43" s="191"/>
+      <c r="L43" s="189"/>
+      <c r="M43" s="190"/>
+      <c r="N43" s="191"/>
+      <c r="O43" s="189"/>
+      <c r="P43" s="190"/>
+      <c r="Q43" s="191"/>
+      <c r="R43" s="189"/>
+      <c r="S43" s="190"/>
+      <c r="T43" s="190"/>
+      <c r="U43" s="190"/>
+      <c r="V43" s="191"/>
       <c r="W43" s="1"/>
-      <c r="X43" s="301"/>
-      <c r="Y43" s="302"/>
-      <c r="Z43" s="302"/>
-      <c r="AA43" s="302"/>
-      <c r="AB43" s="207"/>
+      <c r="X43" s="211"/>
+      <c r="Y43" s="212"/>
+      <c r="Z43" s="212"/>
+      <c r="AA43" s="212"/>
+      <c r="AB43" s="213"/>
       <c r="AC43" s="51"/>
       <c r="AD43" s="51"/>
       <c r="AE43" s="51"/>
@@ -7687,7 +7658,7 @@
       <c r="AO43" s="51"/>
       <c r="AP43" s="52"/>
       <c r="AQ43" s="52"/>
-      <c r="AR43" s="185"/>
+      <c r="AR43" s="232"/>
       <c r="AS43" s="69"/>
       <c r="AT43" s="69"/>
       <c r="AU43" s="69"/>
@@ -7744,43 +7715,43 @@
     </row>
     <row r="44" spans="2:107" ht="11.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44" s="38"/>
-      <c r="C44" s="330"/>
-      <c r="D44" s="330"/>
-      <c r="E44" s="330"/>
+      <c r="C44" s="182"/>
+      <c r="D44" s="182"/>
+      <c r="E44" s="182"/>
       <c r="F44" s="39"/>
-      <c r="G44" s="307" t="s">
+      <c r="G44" s="219" t="s">
         <v>23</v>
       </c>
-      <c r="H44" s="179"/>
-      <c r="I44" s="179"/>
-      <c r="J44" s="179"/>
-      <c r="K44" s="180"/>
-      <c r="L44" s="237">
+      <c r="H44" s="184"/>
+      <c r="I44" s="184"/>
+      <c r="J44" s="184"/>
+      <c r="K44" s="185"/>
+      <c r="L44" s="271">
         <f>L42/2</f>
         <v>0</v>
       </c>
-      <c r="M44" s="179"/>
-      <c r="N44" s="180"/>
-      <c r="O44" s="237">
+      <c r="M44" s="184"/>
+      <c r="N44" s="185"/>
+      <c r="O44" s="271">
         <f>L44*2.333</f>
         <v>0</v>
       </c>
-      <c r="P44" s="179"/>
-      <c r="Q44" s="180"/>
-      <c r="R44" s="277">
+      <c r="P44" s="184"/>
+      <c r="Q44" s="185"/>
+      <c r="R44" s="260">
         <f>Y$8</f>
         <v>0</v>
       </c>
-      <c r="S44" s="179"/>
-      <c r="T44" s="179"/>
-      <c r="U44" s="179"/>
-      <c r="V44" s="180"/>
+      <c r="S44" s="184"/>
+      <c r="T44" s="184"/>
+      <c r="U44" s="184"/>
+      <c r="V44" s="185"/>
       <c r="W44" s="1"/>
-      <c r="X44" s="301"/>
-      <c r="Y44" s="302"/>
-      <c r="Z44" s="302"/>
-      <c r="AA44" s="302"/>
-      <c r="AB44" s="207"/>
+      <c r="X44" s="211"/>
+      <c r="Y44" s="212"/>
+      <c r="Z44" s="212"/>
+      <c r="AA44" s="212"/>
+      <c r="AB44" s="213"/>
       <c r="AC44" s="51"/>
       <c r="AD44" s="51"/>
       <c r="AE44" s="51"/>
@@ -7857,28 +7828,28 @@
       <c r="D45" s="41"/>
       <c r="E45" s="41"/>
       <c r="F45" s="42"/>
-      <c r="G45" s="331"/>
-      <c r="H45" s="331"/>
-      <c r="I45" s="331"/>
-      <c r="J45" s="332"/>
-      <c r="K45" s="201"/>
-      <c r="L45" s="202"/>
-      <c r="M45" s="332"/>
-      <c r="N45" s="201"/>
-      <c r="O45" s="202"/>
-      <c r="P45" s="332"/>
-      <c r="Q45" s="201"/>
-      <c r="R45" s="202"/>
-      <c r="S45" s="332"/>
-      <c r="T45" s="332"/>
-      <c r="U45" s="332"/>
-      <c r="V45" s="201"/>
+      <c r="G45" s="220"/>
+      <c r="H45" s="220"/>
+      <c r="I45" s="220"/>
+      <c r="J45" s="221"/>
+      <c r="K45" s="188"/>
+      <c r="L45" s="186"/>
+      <c r="M45" s="221"/>
+      <c r="N45" s="188"/>
+      <c r="O45" s="186"/>
+      <c r="P45" s="221"/>
+      <c r="Q45" s="188"/>
+      <c r="R45" s="186"/>
+      <c r="S45" s="221"/>
+      <c r="T45" s="221"/>
+      <c r="U45" s="221"/>
+      <c r="V45" s="188"/>
       <c r="W45" s="1"/>
-      <c r="X45" s="301"/>
-      <c r="Y45" s="302"/>
-      <c r="Z45" s="302"/>
-      <c r="AA45" s="302"/>
-      <c r="AB45" s="207"/>
+      <c r="X45" s="211"/>
+      <c r="Y45" s="212"/>
+      <c r="Z45" s="212"/>
+      <c r="AA45" s="212"/>
+      <c r="AB45" s="213"/>
       <c r="AC45" s="51"/>
       <c r="AD45" s="51"/>
       <c r="AE45" s="51"/>
@@ -7950,35 +7921,35 @@
       <c r="DC45" s="18"/>
     </row>
     <row r="46" spans="2:107" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="333" t="s">
+      <c r="B46" s="275" t="s">
         <v>24</v>
       </c>
-      <c r="C46" s="334"/>
-      <c r="D46" s="334"/>
-      <c r="E46" s="334"/>
-      <c r="F46" s="334"/>
-      <c r="G46" s="334"/>
-      <c r="H46" s="334"/>
-      <c r="I46" s="334"/>
-      <c r="J46" s="334"/>
-      <c r="K46" s="334"/>
-      <c r="L46" s="334"/>
-      <c r="M46" s="334"/>
-      <c r="N46" s="334"/>
-      <c r="O46" s="334"/>
-      <c r="P46" s="334"/>
-      <c r="Q46" s="334"/>
-      <c r="R46" s="334"/>
-      <c r="S46" s="334"/>
-      <c r="T46" s="334"/>
-      <c r="U46" s="334"/>
-      <c r="V46" s="335"/>
+      <c r="C46" s="276"/>
+      <c r="D46" s="276"/>
+      <c r="E46" s="276"/>
+      <c r="F46" s="276"/>
+      <c r="G46" s="276"/>
+      <c r="H46" s="276"/>
+      <c r="I46" s="276"/>
+      <c r="J46" s="276"/>
+      <c r="K46" s="276"/>
+      <c r="L46" s="276"/>
+      <c r="M46" s="276"/>
+      <c r="N46" s="276"/>
+      <c r="O46" s="276"/>
+      <c r="P46" s="276"/>
+      <c r="Q46" s="276"/>
+      <c r="R46" s="276"/>
+      <c r="S46" s="276"/>
+      <c r="T46" s="276"/>
+      <c r="U46" s="276"/>
+      <c r="V46" s="277"/>
       <c r="W46" s="1"/>
-      <c r="X46" s="301"/>
-      <c r="Y46" s="302"/>
-      <c r="Z46" s="302"/>
-      <c r="AA46" s="302"/>
-      <c r="AB46" s="207"/>
+      <c r="X46" s="211"/>
+      <c r="Y46" s="212"/>
+      <c r="Z46" s="212"/>
+      <c r="AA46" s="212"/>
+      <c r="AB46" s="213"/>
       <c r="AC46" s="51"/>
       <c r="AD46" s="51"/>
       <c r="AE46" s="51"/>
@@ -7992,9 +7963,9 @@
       <c r="AM46" s="51"/>
       <c r="AN46" s="51"/>
       <c r="AO46" s="51"/>
-      <c r="AP46" s="184"/>
-      <c r="AQ46" s="185"/>
-      <c r="AR46" s="185"/>
+      <c r="AP46" s="332"/>
+      <c r="AQ46" s="232"/>
+      <c r="AR46" s="232"/>
       <c r="AS46" s="69"/>
       <c r="AT46" s="69"/>
       <c r="AU46" s="69"/>
@@ -8050,33 +8021,33 @@
       <c r="DC46" s="18"/>
     </row>
     <row r="47" spans="2:107" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B47" s="336"/>
-      <c r="C47" s="337"/>
-      <c r="D47" s="337"/>
-      <c r="E47" s="337"/>
-      <c r="F47" s="338"/>
-      <c r="G47" s="338"/>
-      <c r="H47" s="338"/>
-      <c r="I47" s="338"/>
-      <c r="J47" s="339"/>
-      <c r="K47" s="339"/>
-      <c r="L47" s="339"/>
-      <c r="M47" s="339"/>
-      <c r="N47" s="339"/>
-      <c r="O47" s="339"/>
-      <c r="P47" s="339"/>
-      <c r="Q47" s="339"/>
-      <c r="R47" s="339"/>
-      <c r="S47" s="339"/>
-      <c r="T47" s="339"/>
-      <c r="U47" s="339"/>
-      <c r="V47" s="340"/>
+      <c r="B47" s="278"/>
+      <c r="C47" s="279"/>
+      <c r="D47" s="279"/>
+      <c r="E47" s="279"/>
+      <c r="F47" s="280"/>
+      <c r="G47" s="280"/>
+      <c r="H47" s="280"/>
+      <c r="I47" s="280"/>
+      <c r="J47" s="281"/>
+      <c r="K47" s="281"/>
+      <c r="L47" s="281"/>
+      <c r="M47" s="281"/>
+      <c r="N47" s="281"/>
+      <c r="O47" s="281"/>
+      <c r="P47" s="281"/>
+      <c r="Q47" s="281"/>
+      <c r="R47" s="281"/>
+      <c r="S47" s="281"/>
+      <c r="T47" s="281"/>
+      <c r="U47" s="281"/>
+      <c r="V47" s="282"/>
       <c r="W47" s="1"/>
-      <c r="X47" s="303"/>
-      <c r="Y47" s="304"/>
-      <c r="Z47" s="304"/>
-      <c r="AA47" s="304"/>
-      <c r="AB47" s="305"/>
+      <c r="X47" s="214"/>
+      <c r="Y47" s="215"/>
+      <c r="Z47" s="215"/>
+      <c r="AA47" s="215"/>
+      <c r="AB47" s="216"/>
       <c r="AC47" s="51"/>
       <c r="AD47" s="51"/>
       <c r="AE47" s="51"/>
@@ -8090,9 +8061,9 @@
       <c r="AM47" s="51"/>
       <c r="AN47" s="51"/>
       <c r="AO47" s="51"/>
-      <c r="AP47" s="185"/>
-      <c r="AQ47" s="185"/>
-      <c r="AR47" s="185"/>
+      <c r="AP47" s="232"/>
+      <c r="AQ47" s="232"/>
+      <c r="AR47" s="232"/>
       <c r="AS47" s="69"/>
       <c r="AT47" s="69"/>
       <c r="AU47" s="69"/>
@@ -8148,27 +8119,27 @@
       <c r="DC47" s="18"/>
     </row>
     <row r="48" spans="2:107" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B48" s="341"/>
-      <c r="C48" s="342"/>
-      <c r="D48" s="342"/>
-      <c r="E48" s="342"/>
-      <c r="F48" s="342"/>
-      <c r="G48" s="342"/>
-      <c r="H48" s="342"/>
-      <c r="I48" s="342"/>
-      <c r="J48" s="342"/>
-      <c r="K48" s="342"/>
-      <c r="L48" s="342"/>
-      <c r="M48" s="342"/>
-      <c r="N48" s="342"/>
-      <c r="O48" s="342"/>
-      <c r="P48" s="342"/>
-      <c r="Q48" s="342"/>
-      <c r="R48" s="342"/>
-      <c r="S48" s="342"/>
-      <c r="T48" s="342"/>
-      <c r="U48" s="342"/>
-      <c r="V48" s="343"/>
+      <c r="B48" s="283"/>
+      <c r="C48" s="284"/>
+      <c r="D48" s="284"/>
+      <c r="E48" s="284"/>
+      <c r="F48" s="284"/>
+      <c r="G48" s="284"/>
+      <c r="H48" s="284"/>
+      <c r="I48" s="284"/>
+      <c r="J48" s="284"/>
+      <c r="K48" s="284"/>
+      <c r="L48" s="284"/>
+      <c r="M48" s="284"/>
+      <c r="N48" s="284"/>
+      <c r="O48" s="284"/>
+      <c r="P48" s="284"/>
+      <c r="Q48" s="284"/>
+      <c r="R48" s="284"/>
+      <c r="S48" s="284"/>
+      <c r="T48" s="284"/>
+      <c r="U48" s="284"/>
+      <c r="V48" s="285"/>
       <c r="W48" s="1"/>
       <c r="X48" s="1"/>
       <c r="Y48" s="1"/>
@@ -8604,10 +8575,10 @@
       <c r="O55" s="30"/>
       <c r="P55" s="30"/>
       <c r="Q55" s="30"/>
-      <c r="R55" s="231"/>
-      <c r="S55" s="200"/>
-      <c r="T55" s="200"/>
-      <c r="U55" s="200"/>
+      <c r="R55" s="224"/>
+      <c r="S55" s="221"/>
+      <c r="T55" s="221"/>
+      <c r="U55" s="221"/>
       <c r="V55" s="30"/>
       <c r="W55" s="30"/>
       <c r="X55" s="30"/>
@@ -8685,10 +8656,10 @@
       <c r="O56" s="30"/>
       <c r="P56" s="30"/>
       <c r="Q56" s="30"/>
-      <c r="R56" s="231"/>
-      <c r="S56" s="200"/>
-      <c r="T56" s="200"/>
-      <c r="U56" s="200"/>
+      <c r="R56" s="224"/>
+      <c r="S56" s="221"/>
+      <c r="T56" s="221"/>
+      <c r="U56" s="221"/>
       <c r="V56" s="30"/>
       <c r="W56" s="30"/>
       <c r="X56" s="30"/>
@@ -8766,10 +8737,10 @@
       <c r="O57" s="30"/>
       <c r="P57" s="30"/>
       <c r="Q57" s="30"/>
-      <c r="R57" s="231"/>
-      <c r="S57" s="200"/>
-      <c r="T57" s="200"/>
-      <c r="U57" s="200"/>
+      <c r="R57" s="224"/>
+      <c r="S57" s="221"/>
+      <c r="T57" s="221"/>
+      <c r="U57" s="221"/>
       <c r="V57" s="30"/>
       <c r="W57" s="30"/>
       <c r="X57" s="30"/>
@@ -9011,29 +8982,29 @@
       <c r="Q60" s="30"/>
       <c r="R60" s="30"/>
       <c r="S60" s="30"/>
-      <c r="T60" s="250"/>
-      <c r="U60" s="200"/>
-      <c r="V60" s="200"/>
-      <c r="W60" s="245"/>
-      <c r="X60" s="245"/>
-      <c r="Y60" s="245"/>
-      <c r="Z60" s="245"/>
-      <c r="AA60" s="245"/>
-      <c r="AB60" s="245"/>
-      <c r="AC60" s="251"/>
-      <c r="AD60" s="245"/>
-      <c r="AE60" s="245"/>
-      <c r="AF60" s="245"/>
-      <c r="AG60" s="245"/>
-      <c r="AH60" s="245"/>
-      <c r="AI60" s="245"/>
-      <c r="AJ60" s="245"/>
-      <c r="AK60" s="245"/>
-      <c r="AL60" s="245"/>
-      <c r="AM60" s="245"/>
-      <c r="AN60" s="245"/>
-      <c r="AO60" s="245"/>
-      <c r="AP60" s="201"/>
+      <c r="T60" s="265"/>
+      <c r="U60" s="221"/>
+      <c r="V60" s="221"/>
+      <c r="W60" s="266"/>
+      <c r="X60" s="266"/>
+      <c r="Y60" s="266"/>
+      <c r="Z60" s="266"/>
+      <c r="AA60" s="266"/>
+      <c r="AB60" s="266"/>
+      <c r="AC60" s="267"/>
+      <c r="AD60" s="266"/>
+      <c r="AE60" s="266"/>
+      <c r="AF60" s="266"/>
+      <c r="AG60" s="266"/>
+      <c r="AH60" s="266"/>
+      <c r="AI60" s="266"/>
+      <c r="AJ60" s="266"/>
+      <c r="AK60" s="266"/>
+      <c r="AL60" s="266"/>
+      <c r="AM60" s="266"/>
+      <c r="AN60" s="266"/>
+      <c r="AO60" s="266"/>
+      <c r="AP60" s="188"/>
       <c r="AQ60" s="18"/>
       <c r="AR60" s="18"/>
       <c r="AS60" s="18"/>
@@ -9087,35 +9058,35 @@
       <c r="K61" s="30"/>
       <c r="L61" s="30"/>
       <c r="M61" s="30"/>
-      <c r="N61" s="199"/>
-      <c r="O61" s="200"/>
-      <c r="P61" s="200"/>
-      <c r="Q61" s="200"/>
-      <c r="R61" s="201"/>
+      <c r="N61" s="310"/>
+      <c r="O61" s="221"/>
+      <c r="P61" s="221"/>
+      <c r="Q61" s="221"/>
+      <c r="R61" s="188"/>
       <c r="S61" s="30"/>
-      <c r="T61" s="202"/>
-      <c r="U61" s="200"/>
-      <c r="V61" s="200"/>
-      <c r="W61" s="245"/>
-      <c r="X61" s="245"/>
-      <c r="Y61" s="245"/>
-      <c r="Z61" s="245"/>
-      <c r="AA61" s="245"/>
-      <c r="AB61" s="245"/>
-      <c r="AC61" s="251"/>
-      <c r="AD61" s="245"/>
-      <c r="AE61" s="245"/>
-      <c r="AF61" s="245"/>
-      <c r="AG61" s="245"/>
-      <c r="AH61" s="245"/>
-      <c r="AI61" s="245"/>
-      <c r="AJ61" s="245"/>
-      <c r="AK61" s="245"/>
-      <c r="AL61" s="245"/>
-      <c r="AM61" s="245"/>
-      <c r="AN61" s="245"/>
-      <c r="AO61" s="245"/>
-      <c r="AP61" s="201"/>
+      <c r="T61" s="186"/>
+      <c r="U61" s="221"/>
+      <c r="V61" s="221"/>
+      <c r="W61" s="266"/>
+      <c r="X61" s="266"/>
+      <c r="Y61" s="266"/>
+      <c r="Z61" s="266"/>
+      <c r="AA61" s="266"/>
+      <c r="AB61" s="266"/>
+      <c r="AC61" s="267"/>
+      <c r="AD61" s="266"/>
+      <c r="AE61" s="266"/>
+      <c r="AF61" s="266"/>
+      <c r="AG61" s="266"/>
+      <c r="AH61" s="266"/>
+      <c r="AI61" s="266"/>
+      <c r="AJ61" s="266"/>
+      <c r="AK61" s="266"/>
+      <c r="AL61" s="266"/>
+      <c r="AM61" s="266"/>
+      <c r="AN61" s="266"/>
+      <c r="AO61" s="266"/>
+      <c r="AP61" s="188"/>
       <c r="AQ61" s="18"/>
       <c r="AR61" s="18"/>
       <c r="AS61" s="18"/>
@@ -9169,35 +9140,35 @@
       <c r="K62" s="30"/>
       <c r="L62" s="30"/>
       <c r="M62" s="30"/>
-      <c r="N62" s="202"/>
-      <c r="O62" s="200"/>
-      <c r="P62" s="200"/>
-      <c r="Q62" s="200"/>
-      <c r="R62" s="201"/>
+      <c r="N62" s="186"/>
+      <c r="O62" s="221"/>
+      <c r="P62" s="221"/>
+      <c r="Q62" s="221"/>
+      <c r="R62" s="188"/>
       <c r="S62" s="30"/>
-      <c r="T62" s="202"/>
-      <c r="U62" s="200"/>
-      <c r="V62" s="200"/>
-      <c r="W62" s="245"/>
-      <c r="X62" s="245"/>
-      <c r="Y62" s="245"/>
-      <c r="Z62" s="245"/>
-      <c r="AA62" s="245"/>
-      <c r="AB62" s="245"/>
-      <c r="AC62" s="251"/>
-      <c r="AD62" s="245"/>
-      <c r="AE62" s="245"/>
-      <c r="AF62" s="245"/>
-      <c r="AG62" s="245"/>
-      <c r="AH62" s="245"/>
-      <c r="AI62" s="245"/>
-      <c r="AJ62" s="245"/>
-      <c r="AK62" s="245"/>
-      <c r="AL62" s="245"/>
-      <c r="AM62" s="245"/>
-      <c r="AN62" s="245"/>
-      <c r="AO62" s="245"/>
-      <c r="AP62" s="201"/>
+      <c r="T62" s="186"/>
+      <c r="U62" s="221"/>
+      <c r="V62" s="221"/>
+      <c r="W62" s="266"/>
+      <c r="X62" s="266"/>
+      <c r="Y62" s="266"/>
+      <c r="Z62" s="266"/>
+      <c r="AA62" s="266"/>
+      <c r="AB62" s="266"/>
+      <c r="AC62" s="267"/>
+      <c r="AD62" s="266"/>
+      <c r="AE62" s="266"/>
+      <c r="AF62" s="266"/>
+      <c r="AG62" s="266"/>
+      <c r="AH62" s="266"/>
+      <c r="AI62" s="266"/>
+      <c r="AJ62" s="266"/>
+      <c r="AK62" s="266"/>
+      <c r="AL62" s="266"/>
+      <c r="AM62" s="266"/>
+      <c r="AN62" s="266"/>
+      <c r="AO62" s="266"/>
+      <c r="AP62" s="188"/>
       <c r="AQ62" s="18"/>
       <c r="AR62" s="18"/>
       <c r="AS62" s="18"/>
@@ -9251,11 +9222,11 @@
       <c r="K63" s="30"/>
       <c r="L63" s="30"/>
       <c r="M63" s="30"/>
-      <c r="N63" s="202"/>
-      <c r="O63" s="200"/>
-      <c r="P63" s="200"/>
-      <c r="Q63" s="200"/>
-      <c r="R63" s="201"/>
+      <c r="N63" s="186"/>
+      <c r="O63" s="221"/>
+      <c r="P63" s="221"/>
+      <c r="Q63" s="221"/>
+      <c r="R63" s="188"/>
       <c r="S63" s="30"/>
       <c r="T63" s="30"/>
       <c r="U63" s="30"/>
@@ -9332,11 +9303,11 @@
       <c r="K64" s="30"/>
       <c r="L64" s="30"/>
       <c r="M64" s="30"/>
-      <c r="N64" s="202"/>
-      <c r="O64" s="200"/>
-      <c r="P64" s="200"/>
-      <c r="Q64" s="200"/>
-      <c r="R64" s="201"/>
+      <c r="N64" s="186"/>
+      <c r="O64" s="221"/>
+      <c r="P64" s="221"/>
+      <c r="Q64" s="221"/>
+      <c r="R64" s="188"/>
       <c r="S64" s="30"/>
       <c r="T64" s="30"/>
       <c r="U64" s="30"/>
@@ -9413,11 +9384,11 @@
       <c r="K65" s="30"/>
       <c r="L65" s="30"/>
       <c r="M65" s="30"/>
-      <c r="N65" s="202"/>
-      <c r="O65" s="200"/>
-      <c r="P65" s="200"/>
-      <c r="Q65" s="200"/>
-      <c r="R65" s="201"/>
+      <c r="N65" s="186"/>
+      <c r="O65" s="221"/>
+      <c r="P65" s="221"/>
+      <c r="Q65" s="221"/>
+      <c r="R65" s="188"/>
       <c r="S65" s="30"/>
       <c r="T65" s="30"/>
       <c r="U65" s="30"/>
@@ -9494,11 +9465,11 @@
       <c r="K66" s="30"/>
       <c r="L66" s="30"/>
       <c r="M66" s="30"/>
-      <c r="N66" s="202"/>
-      <c r="O66" s="200"/>
-      <c r="P66" s="200"/>
-      <c r="Q66" s="200"/>
-      <c r="R66" s="201"/>
+      <c r="N66" s="186"/>
+      <c r="O66" s="221"/>
+      <c r="P66" s="221"/>
+      <c r="Q66" s="221"/>
+      <c r="R66" s="188"/>
       <c r="S66" s="30"/>
       <c r="T66" s="30"/>
       <c r="U66" s="30"/>
@@ -9575,11 +9546,11 @@
       <c r="K67" s="30"/>
       <c r="L67" s="30"/>
       <c r="M67" s="30"/>
-      <c r="N67" s="202"/>
-      <c r="O67" s="200"/>
-      <c r="P67" s="200"/>
-      <c r="Q67" s="200"/>
-      <c r="R67" s="201"/>
+      <c r="N67" s="186"/>
+      <c r="O67" s="221"/>
+      <c r="P67" s="221"/>
+      <c r="Q67" s="221"/>
+      <c r="R67" s="188"/>
       <c r="S67" s="30"/>
       <c r="T67" s="30"/>
       <c r="U67" s="30"/>
@@ -9656,11 +9627,11 @@
       <c r="K68" s="30"/>
       <c r="L68" s="30"/>
       <c r="M68" s="30"/>
-      <c r="N68" s="202"/>
-      <c r="O68" s="200"/>
-      <c r="P68" s="200"/>
-      <c r="Q68" s="200"/>
-      <c r="R68" s="201"/>
+      <c r="N68" s="186"/>
+      <c r="O68" s="221"/>
+      <c r="P68" s="221"/>
+      <c r="Q68" s="221"/>
+      <c r="R68" s="188"/>
       <c r="S68" s="30"/>
       <c r="T68" s="30"/>
       <c r="U68" s="30"/>
@@ -9737,11 +9708,11 @@
       <c r="K69" s="30"/>
       <c r="L69" s="30"/>
       <c r="M69" s="30"/>
-      <c r="N69" s="202"/>
-      <c r="O69" s="200"/>
-      <c r="P69" s="200"/>
-      <c r="Q69" s="200"/>
-      <c r="R69" s="201"/>
+      <c r="N69" s="186"/>
+      <c r="O69" s="221"/>
+      <c r="P69" s="221"/>
+      <c r="Q69" s="221"/>
+      <c r="R69" s="188"/>
       <c r="S69" s="30"/>
       <c r="T69" s="30"/>
       <c r="U69" s="30"/>
@@ -9818,11 +9789,11 @@
       <c r="K70" s="30"/>
       <c r="L70" s="30"/>
       <c r="M70" s="30"/>
-      <c r="N70" s="202"/>
-      <c r="O70" s="200"/>
-      <c r="P70" s="200"/>
-      <c r="Q70" s="200"/>
-      <c r="R70" s="201"/>
+      <c r="N70" s="186"/>
+      <c r="O70" s="221"/>
+      <c r="P70" s="221"/>
+      <c r="Q70" s="221"/>
+      <c r="R70" s="188"/>
       <c r="S70" s="30"/>
       <c r="T70" s="30"/>
       <c r="U70" s="30"/>
@@ -9899,11 +9870,11 @@
       <c r="K71" s="30"/>
       <c r="L71" s="30"/>
       <c r="M71" s="30"/>
-      <c r="N71" s="181"/>
-      <c r="O71" s="182"/>
-      <c r="P71" s="182"/>
-      <c r="Q71" s="182"/>
-      <c r="R71" s="183"/>
+      <c r="N71" s="189"/>
+      <c r="O71" s="190"/>
+      <c r="P71" s="190"/>
+      <c r="Q71" s="190"/>
+      <c r="R71" s="191"/>
       <c r="S71" s="30"/>
       <c r="T71" s="30"/>
       <c r="U71" s="30"/>
@@ -59145,44 +59116,96 @@
     </row>
   </sheetData>
   <mergeCells count="152">
-    <mergeCell ref="B5:F7"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B8:F13"/>
-    <mergeCell ref="B14:F18"/>
-    <mergeCell ref="O42:Q43"/>
-    <mergeCell ref="AA29:AB29"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="Y24:Z24"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="X35:AB47"/>
-    <mergeCell ref="Y21:Z21"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="AA24:AB24"/>
-    <mergeCell ref="G40:K41"/>
-    <mergeCell ref="O39:Q39"/>
-    <mergeCell ref="G44:K45"/>
-    <mergeCell ref="G42:K43"/>
-    <mergeCell ref="G38:K39"/>
-    <mergeCell ref="L40:N41"/>
-    <mergeCell ref="X3:AB4"/>
-    <mergeCell ref="R55:U55"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="AQ27:AR27"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AP16:AP18"/>
-    <mergeCell ref="AY30:AY32"/>
-    <mergeCell ref="Y22:Z22"/>
-    <mergeCell ref="AQ28:AR28"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="AA26:AB26"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="Y16:Z16"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="Y25:Z25"/>
-    <mergeCell ref="AQ32:AR32"/>
-    <mergeCell ref="Y5:AB5"/>
-    <mergeCell ref="AA25:AB25"/>
+    <mergeCell ref="BH26:BP26"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="BQ25:BT25"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="R38:V39"/>
+    <mergeCell ref="AP46:AR47"/>
+    <mergeCell ref="BH25:BP25"/>
+    <mergeCell ref="BB16:BB17"/>
+    <mergeCell ref="R40:V41"/>
+    <mergeCell ref="BH18:BP18"/>
+    <mergeCell ref="BS34:BV34"/>
+    <mergeCell ref="AQ36:AR36"/>
+    <mergeCell ref="AA22:AB22"/>
+    <mergeCell ref="AQ30:AR30"/>
+    <mergeCell ref="BQ18:BT18"/>
+    <mergeCell ref="AQ20:AR20"/>
+    <mergeCell ref="V8:V35"/>
+    <mergeCell ref="X9:Z9"/>
+    <mergeCell ref="N61:R71"/>
+    <mergeCell ref="BM35:BQ35"/>
+    <mergeCell ref="BH21:BP21"/>
+    <mergeCell ref="AQ26:AR26"/>
+    <mergeCell ref="AA7:AB8"/>
+    <mergeCell ref="G36:V37"/>
+    <mergeCell ref="BT33:BV33"/>
+    <mergeCell ref="L39:N39"/>
+    <mergeCell ref="AA27:AB27"/>
+    <mergeCell ref="AP13:AR14"/>
+    <mergeCell ref="G5:V7"/>
+    <mergeCell ref="AZ36:BD36"/>
+    <mergeCell ref="BC16:BC17"/>
+    <mergeCell ref="X34:AB34"/>
+    <mergeCell ref="BG13:BV13"/>
+    <mergeCell ref="Y19:Z19"/>
+    <mergeCell ref="AQ33:AR33"/>
+    <mergeCell ref="Y17:Z17"/>
+    <mergeCell ref="BQ24:BT24"/>
+    <mergeCell ref="AA20:AB20"/>
+    <mergeCell ref="BH24:BP24"/>
+    <mergeCell ref="BG31:BV32"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="BQ26:BT26"/>
+    <mergeCell ref="R57:U57"/>
+    <mergeCell ref="Y31:Z31"/>
+    <mergeCell ref="BR34:BR35"/>
+    <mergeCell ref="Y28:Z28"/>
+    <mergeCell ref="AQ29:AR29"/>
+    <mergeCell ref="BM34:BQ34"/>
+    <mergeCell ref="O44:Q45"/>
+    <mergeCell ref="AA31:AB31"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="BQ20:BT20"/>
+    <mergeCell ref="AA21:AB21"/>
+    <mergeCell ref="BH20:BP20"/>
+    <mergeCell ref="BP33:BS33"/>
+    <mergeCell ref="AQ31:AR31"/>
+    <mergeCell ref="BG33:BO33"/>
+    <mergeCell ref="X32:AB33"/>
+    <mergeCell ref="BQ22:BT22"/>
+    <mergeCell ref="AQ15:AR15"/>
+    <mergeCell ref="Y23:Z23"/>
+    <mergeCell ref="BH15:BT16"/>
+    <mergeCell ref="AQ24:AR24"/>
+    <mergeCell ref="BH22:BP22"/>
+    <mergeCell ref="AA23:AB23"/>
+    <mergeCell ref="AQ19:AR19"/>
+    <mergeCell ref="T60:AP62"/>
+    <mergeCell ref="BA16:BA17"/>
+    <mergeCell ref="Y27:Z27"/>
+    <mergeCell ref="BG34:BL35"/>
+    <mergeCell ref="L42:N43"/>
+    <mergeCell ref="O40:Q41"/>
+    <mergeCell ref="L44:N45"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="BQ21:BT21"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="BG28:BV29"/>
+    <mergeCell ref="B46:V48"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="BG30:BV30"/>
+    <mergeCell ref="AY33:AY34"/>
+    <mergeCell ref="AA19:AB19"/>
+    <mergeCell ref="AQ25:AR25"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="Y30:Z30"/>
+    <mergeCell ref="AZ16:AZ17"/>
+    <mergeCell ref="Y20:Z20"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="Y29:Z29"/>
+    <mergeCell ref="Y11:Z11"/>
     <mergeCell ref="R56:U56"/>
     <mergeCell ref="AA28:AB28"/>
     <mergeCell ref="R42:V43"/>
@@ -59207,96 +59230,44 @@
     <mergeCell ref="AQ34:AR34"/>
     <mergeCell ref="BH27:BT27"/>
     <mergeCell ref="BS35:BV35"/>
-    <mergeCell ref="T60:AP62"/>
-    <mergeCell ref="BA16:BA17"/>
-    <mergeCell ref="Y27:Z27"/>
-    <mergeCell ref="BG34:BL35"/>
-    <mergeCell ref="L42:N43"/>
-    <mergeCell ref="O40:Q41"/>
-    <mergeCell ref="L44:N45"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="BQ21:BT21"/>
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="BG28:BV29"/>
-    <mergeCell ref="B46:V48"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="BG30:BV30"/>
-    <mergeCell ref="AY33:AY34"/>
-    <mergeCell ref="AA19:AB19"/>
-    <mergeCell ref="AQ25:AR25"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="Y30:Z30"/>
-    <mergeCell ref="AZ16:AZ17"/>
-    <mergeCell ref="Y20:Z20"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="Y29:Z29"/>
-    <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="R57:U57"/>
-    <mergeCell ref="Y31:Z31"/>
-    <mergeCell ref="BR34:BR35"/>
-    <mergeCell ref="Y28:Z28"/>
-    <mergeCell ref="AQ29:AR29"/>
-    <mergeCell ref="BM34:BQ34"/>
-    <mergeCell ref="O44:Q45"/>
-    <mergeCell ref="AA31:AB31"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="BQ20:BT20"/>
-    <mergeCell ref="AA21:AB21"/>
-    <mergeCell ref="BH20:BP20"/>
-    <mergeCell ref="BP33:BS33"/>
-    <mergeCell ref="AQ31:AR31"/>
-    <mergeCell ref="BG33:BO33"/>
-    <mergeCell ref="X32:AB33"/>
-    <mergeCell ref="BQ22:BT22"/>
-    <mergeCell ref="AQ15:AR15"/>
-    <mergeCell ref="Y23:Z23"/>
-    <mergeCell ref="BH15:BT16"/>
-    <mergeCell ref="AQ24:AR24"/>
-    <mergeCell ref="BH22:BP22"/>
-    <mergeCell ref="AA23:AB23"/>
-    <mergeCell ref="AQ19:AR19"/>
-    <mergeCell ref="N61:R71"/>
-    <mergeCell ref="BM35:BQ35"/>
-    <mergeCell ref="BH21:BP21"/>
-    <mergeCell ref="AQ26:AR26"/>
-    <mergeCell ref="AA7:AB8"/>
-    <mergeCell ref="G36:V37"/>
-    <mergeCell ref="BT33:BV33"/>
-    <mergeCell ref="L39:N39"/>
-    <mergeCell ref="AA27:AB27"/>
-    <mergeCell ref="AP13:AR14"/>
-    <mergeCell ref="G5:V7"/>
-    <mergeCell ref="AZ36:BD36"/>
-    <mergeCell ref="BC16:BC17"/>
-    <mergeCell ref="X34:AB34"/>
-    <mergeCell ref="BG13:BV13"/>
-    <mergeCell ref="Y19:Z19"/>
-    <mergeCell ref="AQ33:AR33"/>
-    <mergeCell ref="Y17:Z17"/>
-    <mergeCell ref="BQ24:BT24"/>
-    <mergeCell ref="AA20:AB20"/>
-    <mergeCell ref="BH24:BP24"/>
-    <mergeCell ref="BG31:BV32"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="BQ26:BT26"/>
-    <mergeCell ref="BH26:BP26"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="BQ25:BT25"/>
-    <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="R38:V39"/>
-    <mergeCell ref="AP46:AR47"/>
-    <mergeCell ref="BH25:BP25"/>
-    <mergeCell ref="BB16:BB17"/>
-    <mergeCell ref="R40:V41"/>
-    <mergeCell ref="BH18:BP18"/>
-    <mergeCell ref="BS34:BV34"/>
-    <mergeCell ref="AQ36:AR36"/>
-    <mergeCell ref="AA22:AB22"/>
-    <mergeCell ref="AQ30:AR30"/>
-    <mergeCell ref="BQ18:BT18"/>
-    <mergeCell ref="AQ20:AR20"/>
-    <mergeCell ref="V8:V35"/>
-    <mergeCell ref="X9:Z9"/>
+    <mergeCell ref="X3:AB4"/>
+    <mergeCell ref="R55:U55"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="AQ27:AR27"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AP16:AP18"/>
+    <mergeCell ref="AY30:AY32"/>
+    <mergeCell ref="Y22:Z22"/>
+    <mergeCell ref="AQ28:AR28"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="AA26:AB26"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="Y25:Z25"/>
+    <mergeCell ref="AQ32:AR32"/>
+    <mergeCell ref="Y5:AB5"/>
+    <mergeCell ref="AA25:AB25"/>
+    <mergeCell ref="B5:F7"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B8:F13"/>
+    <mergeCell ref="B14:F18"/>
+    <mergeCell ref="O42:Q43"/>
+    <mergeCell ref="AA29:AB29"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="Y24:Z24"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="X35:AB47"/>
+    <mergeCell ref="Y21:Z21"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="AA24:AB24"/>
+    <mergeCell ref="G40:K41"/>
+    <mergeCell ref="O39:Q39"/>
+    <mergeCell ref="G44:K45"/>
+    <mergeCell ref="G42:K43"/>
+    <mergeCell ref="G38:K39"/>
+    <mergeCell ref="L40:N41"/>
   </mergeCells>
   <conditionalFormatting sqref="X32">
     <cfRule type="cellIs" dxfId="3" priority="21" stopIfTrue="1" operator="greaterThan">

--- a/New-Template-(01-17-24).xlsx
+++ b/New-Template-(01-17-24).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Trae\2023\AI Folder\Data-TJD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A58282B-45E2-4204-BDE9-93139EFAA692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2FD4D1A-EE48-4CA9-97B2-F692C9F6B856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17016" yWindow="1992" windowWidth="16512" windowHeight="20280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11904" yWindow="4608" windowWidth="16512" windowHeight="20280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="juliabid" sheetId="1" r:id="rId1"/>
@@ -1338,7 +1338,7 @@
     <xf numFmtId="44" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="339">
+  <cellXfs count="340">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1726,12 +1726,6 @@
     <xf numFmtId="3" fontId="38" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1756,50 +1750,10 @@
     <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="7" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="3" fontId="36" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="50" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="36" fillId="3" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="21" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="21" fillId="9" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -1807,168 +1761,201 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="168" fontId="37" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="37" fillId="8" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="26" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="44" fontId="36" fillId="3" borderId="62" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="3" fontId="40" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="36" fillId="3" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="21" fillId="8" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="36" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="17" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="37" fillId="8" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="49" fillId="6" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="3" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="21" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="11" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="50" fillId="6" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="180" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="3" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="25" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
-    <xf numFmtId="44" fontId="21" fillId="3" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="3" fontId="21" fillId="3" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="21" fillId="3" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="3" fontId="53" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="44" fontId="36" fillId="3" borderId="62" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="38" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="54" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="54" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="8" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="37" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="21" fillId="9" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
-    <xf numFmtId="168" fontId="37" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="36" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="26" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="3" fontId="52" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="44" fontId="11" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="15" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="17" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="42" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="36" fillId="3" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="4" borderId="41" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="3" fontId="43" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="21" fillId="3" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
+    <xf numFmtId="44" fontId="1" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="25" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="21" fillId="3" borderId="47" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="22" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="23" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="36" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="3" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="37" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="24" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="50" fillId="3" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="33" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="26" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1977,7 +1964,7 @@
     <xf numFmtId="3" fontId="22" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="36" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="36" fillId="3" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="44" fontId="21" fillId="3" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2011,10 +1998,6 @@
     <xf numFmtId="44" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="9" fontId="21" fillId="3" borderId="56" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -2033,135 +2016,153 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
-    <xf numFmtId="44" fontId="21" fillId="3" borderId="47" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="3" fontId="38" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="22" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="37" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="9" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="23" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="26" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="21" fillId="3" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="44" fontId="36" fillId="3" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="168" fontId="37" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="24" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="14" fillId="4" borderId="41" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="50" fillId="3" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="49" fillId="6" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="33" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="48" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="3" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="21" fillId="3" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="53" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="54" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="54" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="52" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="26" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="21" fillId="3" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="43" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="36" fillId="3" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="36" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="37" fillId="8" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="40" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="50" fillId="6" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="180" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="21" fillId="3" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="50" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2912,7 +2913,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>269761</xdr:colOff>
+      <xdr:colOff>262141</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>289560</xdr:rowOff>
     </xdr:to>
@@ -3564,13 +3565,13 @@
   <dimension ref="A1:DC1083"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH24" sqref="AH24"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.44140625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="0.21875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="0.33203125" style="4" customWidth="1"/>
     <col min="3" max="5" width="15.44140625" style="4" customWidth="1"/>
     <col min="6" max="6" width="3.77734375" style="6" customWidth="1"/>
     <col min="7" max="9" width="4" style="7" customWidth="1"/>
@@ -3676,25 +3677,25 @@
     </row>
     <row r="2" spans="2:107" s="18" customFormat="1" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="37"/>
-      <c r="C2" s="173"/>
-      <c r="D2" s="173"/>
-      <c r="E2" s="173"/>
-      <c r="F2" s="174"/>
-      <c r="G2" s="175"/>
-      <c r="H2" s="175"/>
-      <c r="I2" s="175"/>
-      <c r="J2" s="176"/>
-      <c r="K2" s="176"/>
-      <c r="L2" s="176"/>
-      <c r="M2" s="176"/>
-      <c r="N2" s="176"/>
-      <c r="O2" s="176"/>
-      <c r="P2" s="176"/>
-      <c r="Q2" s="176"/>
-      <c r="R2" s="176"/>
-      <c r="S2" s="176"/>
-      <c r="T2" s="176"/>
-      <c r="U2" s="176"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="172"/>
+      <c r="G2" s="173"/>
+      <c r="H2" s="173"/>
+      <c r="I2" s="173"/>
+      <c r="J2" s="174"/>
+      <c r="K2" s="174"/>
+      <c r="L2" s="174"/>
+      <c r="M2" s="174"/>
+      <c r="N2" s="174"/>
+      <c r="O2" s="174"/>
+      <c r="P2" s="174"/>
+      <c r="Q2" s="174"/>
+      <c r="R2" s="174"/>
+      <c r="S2" s="174"/>
+      <c r="T2" s="174"/>
+      <c r="U2" s="174"/>
       <c r="V2" s="27"/>
       <c r="W2" s="5"/>
       <c r="X2" s="5"/>
@@ -3751,34 +3752,34 @@
     </row>
     <row r="3" spans="2:107" s="18" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="37"/>
-      <c r="C3" s="173"/>
-      <c r="D3" s="173"/>
-      <c r="E3" s="173"/>
-      <c r="F3" s="174"/>
-      <c r="G3" s="175"/>
-      <c r="H3" s="175"/>
-      <c r="I3" s="175"/>
-      <c r="J3" s="176"/>
-      <c r="K3" s="176"/>
-      <c r="L3" s="176"/>
-      <c r="M3" s="176"/>
-      <c r="N3" s="176"/>
-      <c r="O3" s="176"/>
-      <c r="P3" s="176"/>
-      <c r="Q3" s="176"/>
-      <c r="R3" s="176"/>
-      <c r="S3" s="176"/>
-      <c r="T3" s="176"/>
-      <c r="U3" s="176"/>
+      <c r="C3" s="171"/>
+      <c r="D3" s="171"/>
+      <c r="E3" s="171"/>
+      <c r="F3" s="172"/>
+      <c r="G3" s="173"/>
+      <c r="H3" s="173"/>
+      <c r="I3" s="173"/>
+      <c r="J3" s="174"/>
+      <c r="K3" s="174"/>
+      <c r="L3" s="174"/>
+      <c r="M3" s="174"/>
+      <c r="N3" s="174"/>
+      <c r="O3" s="174"/>
+      <c r="P3" s="174"/>
+      <c r="Q3" s="174"/>
+      <c r="R3" s="174"/>
+      <c r="S3" s="174"/>
+      <c r="T3" s="174"/>
+      <c r="U3" s="174"/>
       <c r="V3" s="27"/>
       <c r="W3" s="5"/>
-      <c r="X3" s="223" t="s">
+      <c r="X3" s="302" t="s">
         <v>0</v>
       </c>
-      <c r="Y3" s="184"/>
-      <c r="Z3" s="184"/>
-      <c r="AA3" s="184"/>
-      <c r="AB3" s="184"/>
+      <c r="Y3" s="189"/>
+      <c r="Z3" s="189"/>
+      <c r="AA3" s="189"/>
+      <c r="AB3" s="189"/>
       <c r="AC3" s="151"/>
       <c r="AD3" s="30"/>
       <c r="AE3" s="30"/>
@@ -3849,11 +3850,11 @@
       <c r="U4" s="61"/>
       <c r="V4" s="62"/>
       <c r="W4" s="5"/>
-      <c r="X4" s="189"/>
-      <c r="Y4" s="190"/>
-      <c r="Z4" s="190"/>
-      <c r="AA4" s="190"/>
-      <c r="AB4" s="190"/>
+      <c r="X4" s="191"/>
+      <c r="Y4" s="192"/>
+      <c r="Z4" s="192"/>
+      <c r="AA4" s="192"/>
+      <c r="AB4" s="192"/>
       <c r="AC4" s="152"/>
       <c r="AD4" s="30"/>
       <c r="AE4" s="30"/>
@@ -3902,42 +3903,42 @@
       <c r="BV4" s="50"/>
     </row>
     <row r="5" spans="2:107" s="18" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="183" t="s">
+      <c r="B5" s="313" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="184"/>
-      <c r="D5" s="184"/>
-      <c r="E5" s="184"/>
-      <c r="F5" s="185"/>
-      <c r="G5" s="324" t="str">
+      <c r="C5" s="189"/>
+      <c r="D5" s="189"/>
+      <c r="E5" s="189"/>
+      <c r="F5" s="190"/>
+      <c r="G5" s="232" t="str">
         <f>Y5</f>
         <v>Test Company</v>
       </c>
-      <c r="H5" s="184"/>
-      <c r="I5" s="184"/>
-      <c r="J5" s="184"/>
-      <c r="K5" s="184"/>
-      <c r="L5" s="184"/>
-      <c r="M5" s="184"/>
-      <c r="N5" s="184"/>
-      <c r="O5" s="184"/>
-      <c r="P5" s="184"/>
-      <c r="Q5" s="184"/>
-      <c r="R5" s="184"/>
-      <c r="S5" s="184"/>
-      <c r="T5" s="184"/>
-      <c r="U5" s="184"/>
-      <c r="V5" s="185"/>
+      <c r="H5" s="189"/>
+      <c r="I5" s="189"/>
+      <c r="J5" s="189"/>
+      <c r="K5" s="189"/>
+      <c r="L5" s="189"/>
+      <c r="M5" s="189"/>
+      <c r="N5" s="189"/>
+      <c r="O5" s="189"/>
+      <c r="P5" s="189"/>
+      <c r="Q5" s="189"/>
+      <c r="R5" s="189"/>
+      <c r="S5" s="189"/>
+      <c r="T5" s="189"/>
+      <c r="U5" s="189"/>
+      <c r="V5" s="190"/>
       <c r="W5" s="5"/>
       <c r="X5" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="Y5" s="238" t="s">
+      <c r="Y5" s="310" t="s">
         <v>2</v>
       </c>
-      <c r="Z5" s="239"/>
-      <c r="AA5" s="239"/>
-      <c r="AB5" s="240"/>
+      <c r="Z5" s="311"/>
+      <c r="AA5" s="311"/>
+      <c r="AB5" s="312"/>
       <c r="AC5" s="159"/>
       <c r="AD5" s="30"/>
       <c r="AE5" s="30"/>
@@ -3986,39 +3987,39 @@
       <c r="BV5" s="50"/>
     </row>
     <row r="6" spans="2:107" s="18" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="186"/>
-      <c r="C6" s="187"/>
-      <c r="D6" s="187"/>
-      <c r="E6" s="187"/>
-      <c r="F6" s="188"/>
-      <c r="G6" s="186"/>
-      <c r="H6" s="187"/>
-      <c r="I6" s="187"/>
-      <c r="J6" s="187"/>
-      <c r="K6" s="187"/>
-      <c r="L6" s="187"/>
-      <c r="M6" s="187"/>
-      <c r="N6" s="187"/>
-      <c r="O6" s="187"/>
-      <c r="P6" s="187"/>
-      <c r="Q6" s="187"/>
-      <c r="R6" s="187"/>
-      <c r="S6" s="187"/>
-      <c r="T6" s="187"/>
-      <c r="U6" s="187"/>
-      <c r="V6" s="188"/>
+      <c r="B6" s="212"/>
+      <c r="C6" s="182"/>
+      <c r="D6" s="182"/>
+      <c r="E6" s="182"/>
+      <c r="F6" s="211"/>
+      <c r="G6" s="212"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="182"/>
+      <c r="J6" s="182"/>
+      <c r="K6" s="182"/>
+      <c r="L6" s="182"/>
+      <c r="M6" s="182"/>
+      <c r="N6" s="182"/>
+      <c r="O6" s="182"/>
+      <c r="P6" s="182"/>
+      <c r="Q6" s="182"/>
+      <c r="R6" s="182"/>
+      <c r="S6" s="182"/>
+      <c r="T6" s="182"/>
+      <c r="U6" s="182"/>
+      <c r="V6" s="211"/>
       <c r="W6" s="5"/>
       <c r="X6" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="Y6" s="236">
+      <c r="Y6" s="240">
         <v>0</v>
       </c>
-      <c r="Z6" s="206"/>
-      <c r="AA6" s="227" t="s">
+      <c r="Z6" s="184"/>
+      <c r="AA6" s="303" t="s">
         <v>4</v>
       </c>
-      <c r="AB6" s="204"/>
+      <c r="AB6" s="187"/>
       <c r="AC6" s="160"/>
       <c r="AD6" s="30"/>
       <c r="AE6" s="30"/>
@@ -4067,37 +4068,37 @@
       <c r="BV6" s="50"/>
     </row>
     <row r="7" spans="2:107" s="18" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="189"/>
-      <c r="C7" s="190"/>
-      <c r="D7" s="190"/>
-      <c r="E7" s="190"/>
-      <c r="F7" s="191"/>
-      <c r="G7" s="186"/>
-      <c r="H7" s="187"/>
-      <c r="I7" s="187"/>
-      <c r="J7" s="187"/>
-      <c r="K7" s="187"/>
-      <c r="L7" s="187"/>
-      <c r="M7" s="187"/>
-      <c r="N7" s="187"/>
-      <c r="O7" s="187"/>
-      <c r="P7" s="187"/>
-      <c r="Q7" s="187"/>
-      <c r="R7" s="187"/>
-      <c r="S7" s="187"/>
-      <c r="T7" s="187"/>
-      <c r="U7" s="187"/>
-      <c r="V7" s="188"/>
+      <c r="B7" s="191"/>
+      <c r="C7" s="192"/>
+      <c r="D7" s="192"/>
+      <c r="E7" s="192"/>
+      <c r="F7" s="193"/>
+      <c r="G7" s="212"/>
+      <c r="H7" s="182"/>
+      <c r="I7" s="182"/>
+      <c r="J7" s="182"/>
+      <c r="K7" s="182"/>
+      <c r="L7" s="182"/>
+      <c r="M7" s="182"/>
+      <c r="N7" s="182"/>
+      <c r="O7" s="182"/>
+      <c r="P7" s="182"/>
+      <c r="Q7" s="182"/>
+      <c r="R7" s="182"/>
+      <c r="S7" s="182"/>
+      <c r="T7" s="182"/>
+      <c r="U7" s="182"/>
+      <c r="V7" s="211"/>
       <c r="W7" s="5"/>
       <c r="X7" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="Y7" s="236">
+      <c r="Y7" s="240">
         <v>0</v>
       </c>
-      <c r="Z7" s="206"/>
-      <c r="AA7" s="311"/>
-      <c r="AB7" s="312"/>
+      <c r="Z7" s="184"/>
+      <c r="AA7" s="214"/>
+      <c r="AB7" s="215"/>
       <c r="AC7" s="153"/>
       <c r="AD7" s="30"/>
       <c r="AE7" s="30"/>
@@ -4146,14 +4147,14 @@
       <c r="BV7" s="50"/>
     </row>
     <row r="8" spans="2:107" s="18" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="193" t="str">
+      <c r="B8" s="315" t="str">
         <f>"  When we build your campaign, our team of humans collaborates internally to select the best media mix for reaching "&amp;AA7&amp;"s within your geofence. This is not a one size fits all approach either. From news feeds to television, we have a massive deck of tools from which to choose. Once you tell us the campaign level and approve the messaging\landing page, we go to work."</f>
         <v xml:space="preserve">  When we build your campaign, our team of humans collaborates internally to select the best media mix for reaching s within your geofence. This is not a one size fits all approach either. From news feeds to television, we have a massive deck of tools from which to choose. Once you tell us the campaign level and approve the messaging\landing page, we go to work.</v>
       </c>
-      <c r="C8" s="194"/>
-      <c r="D8" s="194"/>
-      <c r="E8" s="194"/>
-      <c r="F8" s="194"/>
+      <c r="C8" s="316"/>
+      <c r="D8" s="316"/>
+      <c r="E8" s="316"/>
+      <c r="F8" s="316"/>
       <c r="G8" s="47" t="s">
         <v>6</v>
       </c>
@@ -4171,19 +4172,19 @@
       <c r="S8" s="46"/>
       <c r="T8" s="46"/>
       <c r="U8" s="166"/>
-      <c r="V8" s="335" t="s">
+      <c r="V8" s="204" t="s">
         <v>7</v>
       </c>
       <c r="W8" s="5"/>
       <c r="X8" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="Y8" s="272">
+      <c r="Y8" s="266">
         <v>0</v>
       </c>
-      <c r="Z8" s="273"/>
-      <c r="AA8" s="313"/>
-      <c r="AB8" s="213"/>
+      <c r="Z8" s="267"/>
+      <c r="AA8" s="216"/>
+      <c r="AB8" s="217"/>
       <c r="AC8" s="153"/>
       <c r="AD8" s="30"/>
       <c r="AE8" s="30"/>
@@ -4232,37 +4233,37 @@
       <c r="BV8" s="50"/>
     </row>
     <row r="9" spans="2:107" s="18" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="195"/>
-      <c r="C9" s="196"/>
-      <c r="D9" s="196"/>
-      <c r="E9" s="196"/>
-      <c r="F9" s="197"/>
+      <c r="B9" s="317"/>
+      <c r="C9" s="318"/>
+      <c r="D9" s="318"/>
+      <c r="E9" s="318"/>
+      <c r="F9" s="319"/>
       <c r="G9" s="57"/>
-      <c r="H9" s="177"/>
-      <c r="I9" s="177"/>
-      <c r="J9" s="177"/>
-      <c r="K9" s="177"/>
-      <c r="L9" s="177"/>
-      <c r="M9" s="177"/>
-      <c r="N9" s="177"/>
-      <c r="O9" s="177"/>
-      <c r="P9" s="177"/>
-      <c r="Q9" s="177"/>
-      <c r="R9" s="177"/>
-      <c r="S9" s="177"/>
-      <c r="T9" s="177"/>
+      <c r="H9" s="175"/>
+      <c r="I9" s="175"/>
+      <c r="J9" s="175"/>
+      <c r="K9" s="175"/>
+      <c r="L9" s="175"/>
+      <c r="M9" s="175"/>
+      <c r="N9" s="175"/>
+      <c r="O9" s="175"/>
+      <c r="P9" s="175"/>
+      <c r="Q9" s="175"/>
+      <c r="R9" s="175"/>
+      <c r="S9" s="175"/>
+      <c r="T9" s="175"/>
       <c r="U9" s="167"/>
-      <c r="V9" s="336"/>
+      <c r="V9" s="205"/>
       <c r="W9" s="5"/>
-      <c r="X9" s="338" t="s">
+      <c r="X9" s="207" t="s">
         <v>9</v>
       </c>
-      <c r="Y9" s="184"/>
-      <c r="Z9" s="235"/>
-      <c r="AA9" s="289">
+      <c r="Y9" s="189"/>
+      <c r="Z9" s="208"/>
+      <c r="AA9" s="282">
         <v>1</v>
       </c>
-      <c r="AB9" s="290"/>
+      <c r="AB9" s="283"/>
       <c r="AC9" s="153"/>
       <c r="AD9" s="30"/>
       <c r="AE9" s="30"/>
@@ -4311,39 +4312,39 @@
       <c r="BV9" s="50"/>
     </row>
     <row r="10" spans="2:107" s="18" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="195"/>
-      <c r="C10" s="196"/>
-      <c r="D10" s="196"/>
-      <c r="E10" s="196"/>
-      <c r="F10" s="197"/>
+      <c r="B10" s="317"/>
+      <c r="C10" s="318"/>
+      <c r="D10" s="318"/>
+      <c r="E10" s="318"/>
+      <c r="F10" s="319"/>
       <c r="G10" s="57"/>
-      <c r="H10" s="177"/>
-      <c r="I10" s="177"/>
-      <c r="J10" s="177"/>
-      <c r="K10" s="177"/>
-      <c r="L10" s="177"/>
-      <c r="M10" s="177"/>
-      <c r="N10" s="177"/>
-      <c r="O10" s="177"/>
-      <c r="P10" s="177"/>
-      <c r="Q10" s="177"/>
-      <c r="R10" s="177"/>
-      <c r="S10" s="177"/>
-      <c r="T10" s="177"/>
+      <c r="H10" s="175"/>
+      <c r="I10" s="175"/>
+      <c r="J10" s="175"/>
+      <c r="K10" s="175"/>
+      <c r="L10" s="175"/>
+      <c r="M10" s="175"/>
+      <c r="N10" s="175"/>
+      <c r="O10" s="175"/>
+      <c r="P10" s="175"/>
+      <c r="Q10" s="175"/>
+      <c r="R10" s="175"/>
+      <c r="S10" s="175"/>
+      <c r="T10" s="175"/>
       <c r="U10" s="167"/>
-      <c r="V10" s="336"/>
+      <c r="V10" s="205"/>
       <c r="W10" s="5"/>
       <c r="X10" s="150" t="s">
         <v>10</v>
       </c>
-      <c r="Y10" s="234" t="s">
+      <c r="Y10" s="308" t="s">
         <v>11</v>
       </c>
-      <c r="Z10" s="235"/>
-      <c r="AA10" s="286" t="s">
+      <c r="Z10" s="208"/>
+      <c r="AA10" s="280" t="s">
         <v>12</v>
       </c>
-      <c r="AB10" s="185"/>
+      <c r="AB10" s="190"/>
       <c r="AC10" s="154"/>
       <c r="AD10" s="30"/>
       <c r="AE10" s="30"/>
@@ -4392,37 +4393,37 @@
       <c r="BV10" s="50"/>
     </row>
     <row r="11" spans="2:107" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="195"/>
-      <c r="C11" s="198"/>
-      <c r="D11" s="198"/>
-      <c r="E11" s="198"/>
-      <c r="F11" s="197"/>
+      <c r="B11" s="317"/>
+      <c r="C11" s="320"/>
+      <c r="D11" s="320"/>
+      <c r="E11" s="320"/>
+      <c r="F11" s="319"/>
       <c r="G11" s="57"/>
-      <c r="H11" s="177"/>
-      <c r="I11" s="177"/>
-      <c r="J11" s="177"/>
-      <c r="K11" s="177"/>
-      <c r="L11" s="177"/>
-      <c r="M11" s="177"/>
-      <c r="N11" s="177"/>
-      <c r="O11" s="177"/>
-      <c r="P11" s="177"/>
-      <c r="Q11" s="177"/>
-      <c r="R11" s="177"/>
-      <c r="S11" s="177"/>
-      <c r="T11" s="177"/>
+      <c r="H11" s="175"/>
+      <c r="I11" s="175"/>
+      <c r="J11" s="175"/>
+      <c r="K11" s="175"/>
+      <c r="L11" s="175"/>
+      <c r="M11" s="175"/>
+      <c r="N11" s="175"/>
+      <c r="O11" s="175"/>
+      <c r="P11" s="175"/>
+      <c r="Q11" s="175"/>
+      <c r="R11" s="175"/>
+      <c r="S11" s="175"/>
+      <c r="T11" s="175"/>
       <c r="U11" s="167"/>
-      <c r="V11" s="336"/>
+      <c r="V11" s="205"/>
       <c r="W11" s="9"/>
       <c r="X11" s="161"/>
-      <c r="Y11" s="205">
+      <c r="Y11" s="183">
         <v>0</v>
       </c>
-      <c r="Z11" s="206"/>
-      <c r="AA11" s="203">
+      <c r="Z11" s="184"/>
+      <c r="AA11" s="186">
         <v>0</v>
       </c>
-      <c r="AB11" s="204"/>
+      <c r="AB11" s="187"/>
       <c r="AC11" s="153"/>
       <c r="AD11" s="65"/>
       <c r="AE11" s="65"/>
@@ -4494,37 +4495,37 @@
       <c r="DC11" s="18"/>
     </row>
     <row r="12" spans="2:107" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="195"/>
-      <c r="C12" s="198"/>
-      <c r="D12" s="198"/>
-      <c r="E12" s="198"/>
-      <c r="F12" s="197"/>
+      <c r="B12" s="317"/>
+      <c r="C12" s="320"/>
+      <c r="D12" s="320"/>
+      <c r="E12" s="320"/>
+      <c r="F12" s="319"/>
       <c r="G12" s="57"/>
-      <c r="H12" s="177"/>
-      <c r="I12" s="177"/>
-      <c r="J12" s="177"/>
-      <c r="K12" s="177"/>
-      <c r="L12" s="177"/>
-      <c r="M12" s="177"/>
-      <c r="N12" s="177"/>
-      <c r="O12" s="177"/>
-      <c r="P12" s="177"/>
-      <c r="Q12" s="177"/>
-      <c r="R12" s="177"/>
-      <c r="S12" s="177"/>
-      <c r="T12" s="177"/>
+      <c r="H12" s="175"/>
+      <c r="I12" s="175"/>
+      <c r="J12" s="175"/>
+      <c r="K12" s="175"/>
+      <c r="L12" s="175"/>
+      <c r="M12" s="175"/>
+      <c r="N12" s="175"/>
+      <c r="O12" s="175"/>
+      <c r="P12" s="175"/>
+      <c r="Q12" s="175"/>
+      <c r="R12" s="175"/>
+      <c r="S12" s="175"/>
+      <c r="T12" s="175"/>
       <c r="U12" s="167"/>
-      <c r="V12" s="336"/>
+      <c r="V12" s="205"/>
       <c r="W12" s="9"/>
       <c r="X12" s="162"/>
-      <c r="Y12" s="205">
+      <c r="Y12" s="183">
         <v>0</v>
       </c>
-      <c r="Z12" s="206"/>
-      <c r="AA12" s="203">
+      <c r="Z12" s="184"/>
+      <c r="AA12" s="186">
         <v>0</v>
       </c>
-      <c r="AB12" s="204"/>
+      <c r="AB12" s="187"/>
       <c r="AC12" s="153"/>
       <c r="AD12" s="65"/>
       <c r="AE12" s="65"/>
@@ -4596,37 +4597,37 @@
       <c r="DC12" s="18"/>
     </row>
     <row r="13" spans="2:107" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="195"/>
-      <c r="C13" s="198"/>
-      <c r="D13" s="198"/>
-      <c r="E13" s="198"/>
-      <c r="F13" s="197"/>
+      <c r="B13" s="317"/>
+      <c r="C13" s="320"/>
+      <c r="D13" s="320"/>
+      <c r="E13" s="320"/>
+      <c r="F13" s="319"/>
       <c r="G13" s="57"/>
-      <c r="H13" s="177"/>
-      <c r="I13" s="177"/>
-      <c r="J13" s="177"/>
-      <c r="K13" s="177"/>
-      <c r="L13" s="177"/>
-      <c r="M13" s="177"/>
-      <c r="N13" s="177"/>
-      <c r="O13" s="177"/>
-      <c r="P13" s="177"/>
-      <c r="Q13" s="177"/>
-      <c r="R13" s="177"/>
-      <c r="S13" s="177"/>
-      <c r="T13" s="177"/>
+      <c r="H13" s="175"/>
+      <c r="I13" s="175"/>
+      <c r="J13" s="175"/>
+      <c r="K13" s="175"/>
+      <c r="L13" s="175"/>
+      <c r="M13" s="175"/>
+      <c r="N13" s="175"/>
+      <c r="O13" s="175"/>
+      <c r="P13" s="175"/>
+      <c r="Q13" s="175"/>
+      <c r="R13" s="175"/>
+      <c r="S13" s="175"/>
+      <c r="T13" s="175"/>
       <c r="U13" s="167"/>
-      <c r="V13" s="336"/>
+      <c r="V13" s="205"/>
       <c r="W13" s="2"/>
       <c r="X13" s="162"/>
-      <c r="Y13" s="205">
+      <c r="Y13" s="183">
         <v>0</v>
       </c>
-      <c r="Z13" s="206"/>
-      <c r="AA13" s="203">
+      <c r="Z13" s="184"/>
+      <c r="AA13" s="186">
         <v>0</v>
       </c>
-      <c r="AB13" s="204"/>
+      <c r="AB13" s="187"/>
       <c r="AC13" s="153"/>
       <c r="AD13" s="67"/>
       <c r="AE13" s="67"/>
@@ -4640,9 +4641,9 @@
       <c r="AM13" s="67"/>
       <c r="AN13" s="67"/>
       <c r="AO13" s="67"/>
-      <c r="AP13" s="323"/>
-      <c r="AQ13" s="184"/>
-      <c r="AR13" s="185"/>
+      <c r="AP13" s="228"/>
+      <c r="AQ13" s="189"/>
+      <c r="AR13" s="190"/>
       <c r="AS13" s="50"/>
       <c r="AT13" s="50"/>
       <c r="AU13" s="50"/>
@@ -4650,29 +4651,29 @@
       <c r="AW13" s="50"/>
       <c r="AX13" s="68"/>
       <c r="AY13" s="69"/>
-      <c r="AZ13" s="244"/>
-      <c r="BA13" s="184"/>
-      <c r="BB13" s="184"/>
-      <c r="BC13" s="184"/>
-      <c r="BD13" s="185"/>
+      <c r="AZ13" s="290"/>
+      <c r="BA13" s="189"/>
+      <c r="BB13" s="189"/>
+      <c r="BC13" s="189"/>
+      <c r="BD13" s="190"/>
       <c r="BE13" s="70"/>
       <c r="BF13" s="71"/>
-      <c r="BG13" s="328"/>
-      <c r="BH13" s="187"/>
-      <c r="BI13" s="187"/>
-      <c r="BJ13" s="187"/>
-      <c r="BK13" s="187"/>
-      <c r="BL13" s="187"/>
-      <c r="BM13" s="187"/>
-      <c r="BN13" s="187"/>
-      <c r="BO13" s="187"/>
-      <c r="BP13" s="187"/>
-      <c r="BQ13" s="187"/>
-      <c r="BR13" s="187"/>
-      <c r="BS13" s="187"/>
-      <c r="BT13" s="187"/>
-      <c r="BU13" s="187"/>
-      <c r="BV13" s="187"/>
+      <c r="BG13" s="237"/>
+      <c r="BH13" s="182"/>
+      <c r="BI13" s="182"/>
+      <c r="BJ13" s="182"/>
+      <c r="BK13" s="182"/>
+      <c r="BL13" s="182"/>
+      <c r="BM13" s="182"/>
+      <c r="BN13" s="182"/>
+      <c r="BO13" s="182"/>
+      <c r="BP13" s="182"/>
+      <c r="BQ13" s="182"/>
+      <c r="BR13" s="182"/>
+      <c r="BS13" s="182"/>
+      <c r="BT13" s="182"/>
+      <c r="BU13" s="182"/>
+      <c r="BV13" s="182"/>
       <c r="CG13" s="18"/>
       <c r="CH13" s="18"/>
       <c r="CI13" s="18"/>
@@ -4698,40 +4699,40 @@
       <c r="DC13" s="18"/>
     </row>
     <row r="14" spans="2:107" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B14" s="199" t="str">
+      <c r="B14" s="321" t="str">
         <f>"  Our team continuously manages the media and algorithms to drive high-quality leads to your recruiters via our innovative funneling system. After all, you come to us because you need "&amp;AA7&amp;"s, not ads or impressions. TheJobsDriver is not about ads or impressions. We are about one thing, generating potential hires, interested in working for you!"</f>
         <v xml:space="preserve">  Our team continuously manages the media and algorithms to drive high-quality leads to your recruiters via our innovative funneling system. After all, you come to us because you need s, not ads or impressions. TheJobsDriver is not about ads or impressions. We are about one thing, generating potential hires, interested in working for you!</v>
       </c>
-      <c r="C14" s="200"/>
-      <c r="D14" s="200"/>
-      <c r="E14" s="200"/>
-      <c r="F14" s="201"/>
+      <c r="C14" s="322"/>
+      <c r="D14" s="322"/>
+      <c r="E14" s="322"/>
+      <c r="F14" s="323"/>
       <c r="G14" s="57"/>
-      <c r="H14" s="177"/>
-      <c r="I14" s="177"/>
-      <c r="J14" s="177"/>
-      <c r="K14" s="177"/>
-      <c r="L14" s="177"/>
-      <c r="M14" s="177"/>
-      <c r="N14" s="177"/>
-      <c r="O14" s="177"/>
-      <c r="P14" s="177"/>
-      <c r="Q14" s="177"/>
-      <c r="R14" s="177"/>
-      <c r="S14" s="177"/>
-      <c r="T14" s="177"/>
+      <c r="H14" s="175"/>
+      <c r="I14" s="175"/>
+      <c r="J14" s="175"/>
+      <c r="K14" s="175"/>
+      <c r="L14" s="175"/>
+      <c r="M14" s="175"/>
+      <c r="N14" s="175"/>
+      <c r="O14" s="175"/>
+      <c r="P14" s="175"/>
+      <c r="Q14" s="175"/>
+      <c r="R14" s="175"/>
+      <c r="S14" s="175"/>
+      <c r="T14" s="175"/>
       <c r="U14" s="167"/>
-      <c r="V14" s="336"/>
+      <c r="V14" s="205"/>
       <c r="W14" s="10"/>
       <c r="X14" s="162"/>
-      <c r="Y14" s="205">
+      <c r="Y14" s="183">
         <v>0</v>
       </c>
-      <c r="Z14" s="206"/>
-      <c r="AA14" s="203">
+      <c r="Z14" s="184"/>
+      <c r="AA14" s="186">
         <v>0</v>
       </c>
-      <c r="AB14" s="204"/>
+      <c r="AB14" s="187"/>
       <c r="AC14" s="153"/>
       <c r="AD14" s="72"/>
       <c r="AE14" s="72"/>
@@ -4745,9 +4746,9 @@
       <c r="AM14" s="72"/>
       <c r="AN14" s="72"/>
       <c r="AO14" s="72"/>
-      <c r="AP14" s="245"/>
-      <c r="AQ14" s="246"/>
-      <c r="AR14" s="247"/>
+      <c r="AP14" s="229"/>
+      <c r="AQ14" s="230"/>
+      <c r="AR14" s="231"/>
       <c r="AS14" s="50"/>
       <c r="AT14" s="50"/>
       <c r="AU14" s="50"/>
@@ -4755,11 +4756,11 @@
       <c r="AW14" s="50"/>
       <c r="AX14" s="50"/>
       <c r="AY14" s="50"/>
-      <c r="AZ14" s="186"/>
-      <c r="BA14" s="232"/>
-      <c r="BB14" s="232"/>
-      <c r="BC14" s="232"/>
-      <c r="BD14" s="188"/>
+      <c r="AZ14" s="212"/>
+      <c r="BA14" s="195"/>
+      <c r="BB14" s="195"/>
+      <c r="BC14" s="195"/>
+      <c r="BD14" s="211"/>
       <c r="BE14" s="73"/>
       <c r="BF14" s="50"/>
       <c r="BG14" s="28"/>
@@ -4803,37 +4804,37 @@
       <c r="DC14" s="18"/>
     </row>
     <row r="15" spans="2:107" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="186"/>
-      <c r="C15" s="200"/>
-      <c r="D15" s="200"/>
-      <c r="E15" s="200"/>
-      <c r="F15" s="201"/>
+      <c r="B15" s="212"/>
+      <c r="C15" s="322"/>
+      <c r="D15" s="322"/>
+      <c r="E15" s="322"/>
+      <c r="F15" s="323"/>
       <c r="G15" s="57"/>
-      <c r="H15" s="177"/>
-      <c r="I15" s="177"/>
-      <c r="J15" s="177"/>
-      <c r="K15" s="177"/>
-      <c r="L15" s="177"/>
-      <c r="M15" s="177"/>
-      <c r="N15" s="177"/>
-      <c r="O15" s="177"/>
-      <c r="P15" s="177"/>
-      <c r="Q15" s="177"/>
-      <c r="R15" s="177"/>
-      <c r="S15" s="177"/>
-      <c r="T15" s="177"/>
+      <c r="H15" s="175"/>
+      <c r="I15" s="175"/>
+      <c r="J15" s="175"/>
+      <c r="K15" s="175"/>
+      <c r="L15" s="175"/>
+      <c r="M15" s="175"/>
+      <c r="N15" s="175"/>
+      <c r="O15" s="175"/>
+      <c r="P15" s="175"/>
+      <c r="Q15" s="175"/>
+      <c r="R15" s="175"/>
+      <c r="S15" s="175"/>
+      <c r="T15" s="175"/>
       <c r="U15" s="167"/>
-      <c r="V15" s="336"/>
+      <c r="V15" s="205"/>
       <c r="W15" s="11"/>
       <c r="X15" s="162"/>
-      <c r="Y15" s="205">
+      <c r="Y15" s="183">
         <v>0</v>
       </c>
-      <c r="Z15" s="206"/>
-      <c r="AA15" s="203">
+      <c r="Z15" s="184"/>
+      <c r="AA15" s="186">
         <v>0</v>
       </c>
-      <c r="AB15" s="204"/>
+      <c r="AB15" s="187"/>
       <c r="AC15" s="153"/>
       <c r="AD15" s="74"/>
       <c r="AE15" s="74"/>
@@ -4848,8 +4849,8 @@
       <c r="AN15" s="74"/>
       <c r="AO15" s="74"/>
       <c r="AP15" s="75"/>
-      <c r="AQ15" s="307"/>
-      <c r="AR15" s="226"/>
+      <c r="AQ15" s="256"/>
+      <c r="AR15" s="202"/>
       <c r="AS15" s="76"/>
       <c r="AT15" s="76"/>
       <c r="AU15" s="76"/>
@@ -4857,27 +4858,27 @@
       <c r="AW15" s="76"/>
       <c r="AX15" s="76"/>
       <c r="AY15" s="50"/>
-      <c r="AZ15" s="245"/>
-      <c r="BA15" s="246"/>
-      <c r="BB15" s="246"/>
-      <c r="BC15" s="246"/>
-      <c r="BD15" s="247"/>
+      <c r="AZ15" s="229"/>
+      <c r="BA15" s="230"/>
+      <c r="BB15" s="230"/>
+      <c r="BC15" s="230"/>
+      <c r="BD15" s="231"/>
       <c r="BE15" s="73"/>
       <c r="BF15" s="50"/>
       <c r="BG15" s="28"/>
-      <c r="BH15" s="308"/>
-      <c r="BI15" s="187"/>
-      <c r="BJ15" s="187"/>
-      <c r="BK15" s="187"/>
-      <c r="BL15" s="187"/>
-      <c r="BM15" s="187"/>
-      <c r="BN15" s="187"/>
-      <c r="BO15" s="187"/>
-      <c r="BP15" s="187"/>
-      <c r="BQ15" s="187"/>
-      <c r="BR15" s="187"/>
-      <c r="BS15" s="187"/>
-      <c r="BT15" s="187"/>
+      <c r="BH15" s="257"/>
+      <c r="BI15" s="182"/>
+      <c r="BJ15" s="182"/>
+      <c r="BK15" s="182"/>
+      <c r="BL15" s="182"/>
+      <c r="BM15" s="182"/>
+      <c r="BN15" s="182"/>
+      <c r="BO15" s="182"/>
+      <c r="BP15" s="182"/>
+      <c r="BQ15" s="182"/>
+      <c r="BR15" s="182"/>
+      <c r="BS15" s="182"/>
+      <c r="BT15" s="182"/>
       <c r="BU15" s="30"/>
       <c r="BV15" s="30"/>
       <c r="CG15" s="18"/>
@@ -4905,37 +4906,37 @@
       <c r="DC15" s="18"/>
     </row>
     <row r="16" spans="2:107" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="186"/>
-      <c r="C16" s="200"/>
-      <c r="D16" s="200"/>
-      <c r="E16" s="200"/>
-      <c r="F16" s="201"/>
+      <c r="B16" s="212"/>
+      <c r="C16" s="322"/>
+      <c r="D16" s="322"/>
+      <c r="E16" s="322"/>
+      <c r="F16" s="323"/>
       <c r="G16" s="57"/>
-      <c r="H16" s="177"/>
-      <c r="I16" s="177"/>
-      <c r="J16" s="177"/>
-      <c r="K16" s="177"/>
-      <c r="L16" s="177"/>
-      <c r="M16" s="177"/>
-      <c r="N16" s="177"/>
-      <c r="O16" s="177"/>
-      <c r="P16" s="177"/>
-      <c r="Q16" s="177"/>
-      <c r="R16" s="177"/>
-      <c r="S16" s="177"/>
-      <c r="T16" s="177"/>
+      <c r="H16" s="175"/>
+      <c r="I16" s="175"/>
+      <c r="J16" s="175"/>
+      <c r="K16" s="175"/>
+      <c r="L16" s="175"/>
+      <c r="M16" s="175"/>
+      <c r="N16" s="175"/>
+      <c r="O16" s="175"/>
+      <c r="P16" s="175"/>
+      <c r="Q16" s="175"/>
+      <c r="R16" s="175"/>
+      <c r="S16" s="175"/>
+      <c r="T16" s="175"/>
       <c r="U16" s="167"/>
-      <c r="V16" s="336"/>
+      <c r="V16" s="205"/>
       <c r="W16" s="11"/>
       <c r="X16" s="162"/>
-      <c r="Y16" s="205">
+      <c r="Y16" s="183">
         <v>0</v>
       </c>
-      <c r="Z16" s="206"/>
-      <c r="AA16" s="203">
+      <c r="Z16" s="184"/>
+      <c r="AA16" s="186">
         <v>0</v>
       </c>
-      <c r="AB16" s="204"/>
+      <c r="AB16" s="187"/>
       <c r="AC16" s="153"/>
       <c r="AD16" s="74"/>
       <c r="AE16" s="74"/>
@@ -4949,7 +4950,7 @@
       <c r="AM16" s="74"/>
       <c r="AN16" s="74"/>
       <c r="AO16" s="74"/>
-      <c r="AP16" s="228"/>
+      <c r="AP16" s="304"/>
       <c r="AQ16" s="77"/>
       <c r="AR16" s="78"/>
       <c r="AS16" s="79"/>
@@ -4959,27 +4960,27 @@
       <c r="AW16" s="79"/>
       <c r="AX16" s="79"/>
       <c r="AY16" s="50"/>
-      <c r="AZ16" s="293"/>
-      <c r="BA16" s="268"/>
-      <c r="BB16" s="325"/>
-      <c r="BC16" s="325"/>
-      <c r="BD16" s="253"/>
+      <c r="AZ16" s="286"/>
+      <c r="BA16" s="262"/>
+      <c r="BB16" s="196"/>
+      <c r="BC16" s="196"/>
+      <c r="BD16" s="295"/>
       <c r="BE16" s="73"/>
       <c r="BF16" s="50"/>
       <c r="BG16" s="28"/>
-      <c r="BH16" s="187"/>
-      <c r="BI16" s="187"/>
-      <c r="BJ16" s="187"/>
-      <c r="BK16" s="187"/>
-      <c r="BL16" s="187"/>
-      <c r="BM16" s="187"/>
-      <c r="BN16" s="187"/>
-      <c r="BO16" s="187"/>
-      <c r="BP16" s="187"/>
-      <c r="BQ16" s="187"/>
-      <c r="BR16" s="187"/>
-      <c r="BS16" s="187"/>
-      <c r="BT16" s="187"/>
+      <c r="BH16" s="182"/>
+      <c r="BI16" s="182"/>
+      <c r="BJ16" s="182"/>
+      <c r="BK16" s="182"/>
+      <c r="BL16" s="182"/>
+      <c r="BM16" s="182"/>
+      <c r="BN16" s="182"/>
+      <c r="BO16" s="182"/>
+      <c r="BP16" s="182"/>
+      <c r="BQ16" s="182"/>
+      <c r="BR16" s="182"/>
+      <c r="BS16" s="182"/>
+      <c r="BT16" s="182"/>
       <c r="BU16" s="30"/>
       <c r="BV16" s="30"/>
       <c r="CG16" s="18"/>
@@ -5007,37 +5008,37 @@
       <c r="DC16" s="18"/>
     </row>
     <row r="17" spans="1:107" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="186"/>
-      <c r="C17" s="200"/>
-      <c r="D17" s="200"/>
-      <c r="E17" s="200"/>
-      <c r="F17" s="201"/>
+      <c r="B17" s="212"/>
+      <c r="C17" s="322"/>
+      <c r="D17" s="322"/>
+      <c r="E17" s="322"/>
+      <c r="F17" s="323"/>
       <c r="G17" s="57"/>
-      <c r="H17" s="177"/>
-      <c r="I17" s="177"/>
-      <c r="J17" s="177"/>
-      <c r="K17" s="177"/>
-      <c r="L17" s="177"/>
-      <c r="M17" s="177"/>
-      <c r="N17" s="177"/>
-      <c r="O17" s="177"/>
-      <c r="P17" s="177"/>
-      <c r="Q17" s="177"/>
-      <c r="R17" s="177"/>
-      <c r="S17" s="177"/>
-      <c r="T17" s="177"/>
+      <c r="H17" s="175"/>
+      <c r="I17" s="175"/>
+      <c r="J17" s="175"/>
+      <c r="K17" s="175"/>
+      <c r="L17" s="175"/>
+      <c r="M17" s="175"/>
+      <c r="N17" s="175"/>
+      <c r="O17" s="175"/>
+      <c r="P17" s="175"/>
+      <c r="Q17" s="175"/>
+      <c r="R17" s="175"/>
+      <c r="S17" s="175"/>
+      <c r="T17" s="175"/>
       <c r="U17" s="167"/>
-      <c r="V17" s="336"/>
+      <c r="V17" s="205"/>
       <c r="W17" s="12"/>
       <c r="X17" s="162"/>
-      <c r="Y17" s="205">
+      <c r="Y17" s="183">
         <v>0</v>
       </c>
-      <c r="Z17" s="206"/>
-      <c r="AA17" s="203">
+      <c r="Z17" s="184"/>
+      <c r="AA17" s="186">
         <v>0</v>
       </c>
-      <c r="AB17" s="204"/>
+      <c r="AB17" s="187"/>
       <c r="AC17" s="153"/>
       <c r="AD17" s="56"/>
       <c r="AE17" s="56"/>
@@ -5051,7 +5052,7 @@
       <c r="AM17" s="56"/>
       <c r="AN17" s="56"/>
       <c r="AO17" s="56"/>
-      <c r="AP17" s="229"/>
+      <c r="AP17" s="305"/>
       <c r="AQ17" s="80"/>
       <c r="AR17" s="78"/>
       <c r="AS17" s="50"/>
@@ -5061,27 +5062,27 @@
       <c r="AW17" s="50"/>
       <c r="AX17" s="50"/>
       <c r="AY17" s="50"/>
-      <c r="AZ17" s="294"/>
-      <c r="BA17" s="269"/>
-      <c r="BB17" s="326"/>
-      <c r="BC17" s="326"/>
-      <c r="BD17" s="254"/>
+      <c r="AZ17" s="287"/>
+      <c r="BA17" s="263"/>
+      <c r="BB17" s="197"/>
+      <c r="BC17" s="197"/>
+      <c r="BD17" s="296"/>
       <c r="BE17" s="73"/>
       <c r="BF17" s="50"/>
       <c r="BG17" s="28"/>
-      <c r="BH17" s="243"/>
-      <c r="BI17" s="187"/>
-      <c r="BJ17" s="187"/>
-      <c r="BK17" s="187"/>
-      <c r="BL17" s="187"/>
-      <c r="BM17" s="187"/>
-      <c r="BN17" s="187"/>
-      <c r="BO17" s="187"/>
-      <c r="BP17" s="187"/>
-      <c r="BQ17" s="242"/>
-      <c r="BR17" s="187"/>
-      <c r="BS17" s="187"/>
-      <c r="BT17" s="187"/>
+      <c r="BH17" s="289"/>
+      <c r="BI17" s="182"/>
+      <c r="BJ17" s="182"/>
+      <c r="BK17" s="182"/>
+      <c r="BL17" s="182"/>
+      <c r="BM17" s="182"/>
+      <c r="BN17" s="182"/>
+      <c r="BO17" s="182"/>
+      <c r="BP17" s="182"/>
+      <c r="BQ17" s="288"/>
+      <c r="BR17" s="182"/>
+      <c r="BS17" s="182"/>
+      <c r="BT17" s="182"/>
       <c r="BU17" s="30"/>
       <c r="BV17" s="30"/>
       <c r="CG17" s="18"/>
@@ -5109,37 +5110,37 @@
       <c r="DC17" s="18"/>
     </row>
     <row r="18" spans="1:107" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="189"/>
-      <c r="C18" s="190"/>
-      <c r="D18" s="190"/>
-      <c r="E18" s="190"/>
-      <c r="F18" s="190"/>
+      <c r="B18" s="191"/>
+      <c r="C18" s="192"/>
+      <c r="D18" s="192"/>
+      <c r="E18" s="192"/>
+      <c r="F18" s="192"/>
       <c r="G18" s="57"/>
-      <c r="H18" s="177"/>
-      <c r="I18" s="177"/>
-      <c r="J18" s="177"/>
-      <c r="K18" s="177"/>
-      <c r="L18" s="177"/>
-      <c r="M18" s="177"/>
-      <c r="N18" s="177"/>
-      <c r="O18" s="177"/>
-      <c r="P18" s="177"/>
-      <c r="Q18" s="177"/>
-      <c r="R18" s="177"/>
-      <c r="S18" s="177"/>
-      <c r="T18" s="177"/>
+      <c r="H18" s="175"/>
+      <c r="I18" s="175"/>
+      <c r="J18" s="175"/>
+      <c r="K18" s="175"/>
+      <c r="L18" s="175"/>
+      <c r="M18" s="175"/>
+      <c r="N18" s="175"/>
+      <c r="O18" s="175"/>
+      <c r="P18" s="175"/>
+      <c r="Q18" s="175"/>
+      <c r="R18" s="175"/>
+      <c r="S18" s="175"/>
+      <c r="T18" s="175"/>
       <c r="U18" s="167"/>
-      <c r="V18" s="336"/>
+      <c r="V18" s="205"/>
       <c r="W18" s="13"/>
       <c r="X18" s="162"/>
-      <c r="Y18" s="205">
+      <c r="Y18" s="183">
         <v>0</v>
       </c>
-      <c r="Z18" s="206"/>
-      <c r="AA18" s="203">
+      <c r="Z18" s="184"/>
+      <c r="AA18" s="186">
         <v>0</v>
       </c>
-      <c r="AB18" s="204"/>
+      <c r="AB18" s="187"/>
       <c r="AC18" s="153"/>
       <c r="AD18" s="81"/>
       <c r="AE18" s="81"/>
@@ -5153,7 +5154,7 @@
       <c r="AM18" s="81"/>
       <c r="AN18" s="81"/>
       <c r="AO18" s="81"/>
-      <c r="AP18" s="230"/>
+      <c r="AP18" s="306"/>
       <c r="AQ18" s="80"/>
       <c r="AR18" s="78"/>
       <c r="AS18" s="50"/>
@@ -5171,19 +5172,19 @@
       <c r="BE18" s="73"/>
       <c r="BF18" s="50"/>
       <c r="BG18" s="28"/>
-      <c r="BH18" s="252"/>
-      <c r="BI18" s="187"/>
-      <c r="BJ18" s="187"/>
-      <c r="BK18" s="187"/>
-      <c r="BL18" s="187"/>
-      <c r="BM18" s="187"/>
-      <c r="BN18" s="187"/>
-      <c r="BO18" s="187"/>
-      <c r="BP18" s="187"/>
-      <c r="BQ18" s="251"/>
-      <c r="BR18" s="187"/>
-      <c r="BS18" s="187"/>
-      <c r="BT18" s="187"/>
+      <c r="BH18" s="181"/>
+      <c r="BI18" s="182"/>
+      <c r="BJ18" s="182"/>
+      <c r="BK18" s="182"/>
+      <c r="BL18" s="182"/>
+      <c r="BM18" s="182"/>
+      <c r="BN18" s="182"/>
+      <c r="BO18" s="182"/>
+      <c r="BP18" s="182"/>
+      <c r="BQ18" s="185"/>
+      <c r="BR18" s="182"/>
+      <c r="BS18" s="182"/>
+      <c r="BT18" s="182"/>
       <c r="BU18" s="30"/>
       <c r="BV18" s="30"/>
       <c r="CG18" s="18"/>
@@ -5212,39 +5213,39 @@
     </row>
     <row r="19" spans="1:107" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="50"/>
-      <c r="B19" s="192" t="s">
+      <c r="B19" s="314" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="207"/>
-      <c r="D19" s="207"/>
-      <c r="E19" s="207"/>
-      <c r="F19" s="207"/>
+      <c r="C19" s="324"/>
+      <c r="D19" s="324"/>
+      <c r="E19" s="324"/>
+      <c r="F19" s="324"/>
       <c r="G19" s="57"/>
-      <c r="H19" s="177"/>
-      <c r="I19" s="177"/>
-      <c r="J19" s="177"/>
-      <c r="K19" s="177"/>
-      <c r="L19" s="177"/>
-      <c r="M19" s="177"/>
-      <c r="N19" s="177"/>
-      <c r="O19" s="177"/>
-      <c r="P19" s="177"/>
-      <c r="Q19" s="177"/>
-      <c r="R19" s="177"/>
-      <c r="S19" s="177"/>
-      <c r="T19" s="177"/>
+      <c r="H19" s="175"/>
+      <c r="I19" s="175"/>
+      <c r="J19" s="175"/>
+      <c r="K19" s="175"/>
+      <c r="L19" s="175"/>
+      <c r="M19" s="175"/>
+      <c r="N19" s="175"/>
+      <c r="O19" s="175"/>
+      <c r="P19" s="175"/>
+      <c r="Q19" s="175"/>
+      <c r="R19" s="175"/>
+      <c r="S19" s="175"/>
+      <c r="T19" s="175"/>
       <c r="U19" s="167"/>
-      <c r="V19" s="336"/>
+      <c r="V19" s="205"/>
       <c r="W19" s="13"/>
       <c r="X19" s="162"/>
-      <c r="Y19" s="205">
+      <c r="Y19" s="183">
         <v>0</v>
       </c>
-      <c r="Z19" s="206"/>
-      <c r="AA19" s="203">
+      <c r="Z19" s="184"/>
+      <c r="AA19" s="186">
         <v>0</v>
       </c>
-      <c r="AB19" s="204"/>
+      <c r="AB19" s="187"/>
       <c r="AC19" s="153"/>
       <c r="AD19" s="81"/>
       <c r="AE19" s="81"/>
@@ -5259,8 +5260,8 @@
       <c r="AN19" s="81"/>
       <c r="AO19" s="81"/>
       <c r="AP19" s="87"/>
-      <c r="AQ19" s="309"/>
-      <c r="AR19" s="226"/>
+      <c r="AQ19" s="259"/>
+      <c r="AR19" s="202"/>
       <c r="AS19" s="50"/>
       <c r="AT19" s="50"/>
       <c r="AU19" s="50"/>
@@ -5276,19 +5277,19 @@
       <c r="BE19" s="73"/>
       <c r="BF19" s="50"/>
       <c r="BG19" s="28"/>
-      <c r="BH19" s="252"/>
-      <c r="BI19" s="187"/>
-      <c r="BJ19" s="187"/>
-      <c r="BK19" s="187"/>
-      <c r="BL19" s="187"/>
-      <c r="BM19" s="187"/>
-      <c r="BN19" s="187"/>
-      <c r="BO19" s="187"/>
-      <c r="BP19" s="187"/>
-      <c r="BQ19" s="251"/>
-      <c r="BR19" s="187"/>
-      <c r="BS19" s="187"/>
-      <c r="BT19" s="187"/>
+      <c r="BH19" s="181"/>
+      <c r="BI19" s="182"/>
+      <c r="BJ19" s="182"/>
+      <c r="BK19" s="182"/>
+      <c r="BL19" s="182"/>
+      <c r="BM19" s="182"/>
+      <c r="BN19" s="182"/>
+      <c r="BO19" s="182"/>
+      <c r="BP19" s="182"/>
+      <c r="BQ19" s="185"/>
+      <c r="BR19" s="182"/>
+      <c r="BS19" s="182"/>
+      <c r="BT19" s="182"/>
       <c r="BU19" s="30"/>
       <c r="BV19" s="30"/>
       <c r="CG19" s="18"/>
@@ -5316,37 +5317,38 @@
       <c r="DC19" s="18"/>
     </row>
     <row r="20" spans="1:107" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="171"/>
-      <c r="C20" s="178"/>
-      <c r="D20" s="178"/>
-      <c r="E20" s="178"/>
-      <c r="F20" s="178"/>
+      <c r="A20" s="50"/>
+      <c r="B20" s="337"/>
+      <c r="C20" s="176"/>
+      <c r="D20" s="176"/>
+      <c r="E20" s="176"/>
+      <c r="F20" s="176"/>
       <c r="G20" s="57"/>
-      <c r="H20" s="177"/>
-      <c r="I20" s="177"/>
-      <c r="J20" s="177"/>
-      <c r="K20" s="177"/>
-      <c r="L20" s="177"/>
-      <c r="M20" s="177"/>
-      <c r="N20" s="177"/>
-      <c r="O20" s="177"/>
-      <c r="P20" s="177"/>
-      <c r="Q20" s="177"/>
-      <c r="R20" s="177"/>
-      <c r="S20" s="177"/>
-      <c r="T20" s="177"/>
+      <c r="H20" s="175"/>
+      <c r="I20" s="175"/>
+      <c r="J20" s="175"/>
+      <c r="K20" s="175"/>
+      <c r="L20" s="175"/>
+      <c r="M20" s="175"/>
+      <c r="N20" s="175"/>
+      <c r="O20" s="175"/>
+      <c r="P20" s="175"/>
+      <c r="Q20" s="175"/>
+      <c r="R20" s="175"/>
+      <c r="S20" s="175"/>
+      <c r="T20" s="175"/>
       <c r="U20" s="167"/>
-      <c r="V20" s="336"/>
+      <c r="V20" s="205"/>
       <c r="W20" s="13"/>
       <c r="X20" s="162"/>
-      <c r="Y20" s="205">
+      <c r="Y20" s="183">
         <v>0</v>
       </c>
-      <c r="Z20" s="206"/>
-      <c r="AA20" s="203">
+      <c r="Z20" s="184"/>
+      <c r="AA20" s="186">
         <v>0</v>
       </c>
-      <c r="AB20" s="204"/>
+      <c r="AB20" s="187"/>
       <c r="AC20" s="153"/>
       <c r="AD20" s="81"/>
       <c r="AE20" s="81"/>
@@ -5361,8 +5363,8 @@
       <c r="AN20" s="81"/>
       <c r="AO20" s="81"/>
       <c r="AP20" s="93"/>
-      <c r="AQ20" s="288"/>
-      <c r="AR20" s="226"/>
+      <c r="AQ20" s="203"/>
+      <c r="AR20" s="202"/>
       <c r="AS20" s="50"/>
       <c r="AT20" s="50"/>
       <c r="AU20" s="50"/>
@@ -5378,19 +5380,19 @@
       <c r="BE20" s="73"/>
       <c r="BF20" s="50"/>
       <c r="BG20" s="28"/>
-      <c r="BH20" s="302"/>
-      <c r="BI20" s="187"/>
-      <c r="BJ20" s="187"/>
-      <c r="BK20" s="187"/>
-      <c r="BL20" s="187"/>
-      <c r="BM20" s="187"/>
-      <c r="BN20" s="187"/>
-      <c r="BO20" s="187"/>
-      <c r="BP20" s="187"/>
-      <c r="BQ20" s="301"/>
-      <c r="BR20" s="187"/>
-      <c r="BS20" s="187"/>
-      <c r="BT20" s="187"/>
+      <c r="BH20" s="250"/>
+      <c r="BI20" s="182"/>
+      <c r="BJ20" s="182"/>
+      <c r="BK20" s="182"/>
+      <c r="BL20" s="182"/>
+      <c r="BM20" s="182"/>
+      <c r="BN20" s="182"/>
+      <c r="BO20" s="182"/>
+      <c r="BP20" s="182"/>
+      <c r="BQ20" s="249"/>
+      <c r="BR20" s="182"/>
+      <c r="BS20" s="182"/>
+      <c r="BT20" s="182"/>
       <c r="BU20" s="30"/>
       <c r="BV20" s="30"/>
       <c r="CG20" s="18"/>
@@ -5418,37 +5420,38 @@
       <c r="DC20" s="18"/>
     </row>
     <row r="21" spans="1:107" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="37"/>
-      <c r="C21" s="179"/>
-      <c r="D21" s="179"/>
-      <c r="E21" s="179"/>
-      <c r="F21" s="179"/>
+      <c r="A21" s="50"/>
+      <c r="B21" s="338"/>
+      <c r="C21" s="177"/>
+      <c r="D21" s="177"/>
+      <c r="E21" s="177"/>
+      <c r="F21" s="177"/>
       <c r="G21" s="57"/>
-      <c r="H21" s="177"/>
-      <c r="I21" s="177"/>
-      <c r="J21" s="177"/>
-      <c r="K21" s="177"/>
-      <c r="L21" s="177"/>
-      <c r="M21" s="177"/>
-      <c r="N21" s="177"/>
-      <c r="O21" s="177"/>
-      <c r="P21" s="177"/>
-      <c r="Q21" s="177"/>
-      <c r="R21" s="177"/>
-      <c r="S21" s="177"/>
-      <c r="T21" s="177"/>
+      <c r="H21" s="175"/>
+      <c r="I21" s="175"/>
+      <c r="J21" s="175"/>
+      <c r="K21" s="175"/>
+      <c r="L21" s="175"/>
+      <c r="M21" s="175"/>
+      <c r="N21" s="175"/>
+      <c r="O21" s="175"/>
+      <c r="P21" s="175"/>
+      <c r="Q21" s="175"/>
+      <c r="R21" s="175"/>
+      <c r="S21" s="175"/>
+      <c r="T21" s="175"/>
       <c r="U21" s="167"/>
-      <c r="V21" s="336"/>
+      <c r="V21" s="205"/>
       <c r="W21" s="13"/>
       <c r="X21" s="162"/>
-      <c r="Y21" s="205">
+      <c r="Y21" s="183">
         <v>0</v>
       </c>
-      <c r="Z21" s="206"/>
-      <c r="AA21" s="203">
+      <c r="Z21" s="184"/>
+      <c r="AA21" s="186">
         <v>0</v>
       </c>
-      <c r="AB21" s="204"/>
+      <c r="AB21" s="187"/>
       <c r="AC21" s="153"/>
       <c r="AD21" s="81"/>
       <c r="AE21" s="81"/>
@@ -5463,8 +5466,8 @@
       <c r="AN21" s="81"/>
       <c r="AO21" s="81"/>
       <c r="AP21" s="87"/>
-      <c r="AQ21" s="233"/>
-      <c r="AR21" s="226"/>
+      <c r="AQ21" s="294"/>
+      <c r="AR21" s="202"/>
       <c r="AS21" s="50"/>
       <c r="AT21" s="50"/>
       <c r="AU21" s="50"/>
@@ -5480,19 +5483,19 @@
       <c r="BE21" s="73"/>
       <c r="BF21" s="50"/>
       <c r="BG21" s="28"/>
-      <c r="BH21" s="252"/>
-      <c r="BI21" s="187"/>
-      <c r="BJ21" s="187"/>
-      <c r="BK21" s="187"/>
-      <c r="BL21" s="187"/>
-      <c r="BM21" s="187"/>
-      <c r="BN21" s="187"/>
-      <c r="BO21" s="187"/>
-      <c r="BP21" s="187"/>
-      <c r="BQ21" s="251"/>
-      <c r="BR21" s="187"/>
-      <c r="BS21" s="187"/>
-      <c r="BT21" s="187"/>
+      <c r="BH21" s="181"/>
+      <c r="BI21" s="182"/>
+      <c r="BJ21" s="182"/>
+      <c r="BK21" s="182"/>
+      <c r="BL21" s="182"/>
+      <c r="BM21" s="182"/>
+      <c r="BN21" s="182"/>
+      <c r="BO21" s="182"/>
+      <c r="BP21" s="182"/>
+      <c r="BQ21" s="185"/>
+      <c r="BR21" s="182"/>
+      <c r="BS21" s="182"/>
+      <c r="BT21" s="182"/>
       <c r="BU21" s="30"/>
       <c r="BV21" s="30"/>
       <c r="CG21" s="18"/>
@@ -5520,37 +5523,38 @@
       <c r="DC21" s="18"/>
     </row>
     <row r="22" spans="1:107" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="37"/>
-      <c r="C22" s="179"/>
-      <c r="D22" s="179"/>
-      <c r="E22" s="179"/>
-      <c r="F22" s="179"/>
+      <c r="A22" s="50"/>
+      <c r="B22" s="338"/>
+      <c r="C22" s="177"/>
+      <c r="D22" s="177"/>
+      <c r="E22" s="177"/>
+      <c r="F22" s="177"/>
       <c r="G22" s="57"/>
-      <c r="H22" s="177"/>
-      <c r="I22" s="177"/>
-      <c r="J22" s="177"/>
-      <c r="K22" s="177"/>
-      <c r="L22" s="177"/>
-      <c r="M22" s="177"/>
-      <c r="N22" s="177"/>
-      <c r="O22" s="177"/>
-      <c r="P22" s="177"/>
-      <c r="Q22" s="177"/>
-      <c r="R22" s="177"/>
-      <c r="S22" s="177"/>
-      <c r="T22" s="177"/>
+      <c r="H22" s="175"/>
+      <c r="I22" s="175"/>
+      <c r="J22" s="175"/>
+      <c r="K22" s="175"/>
+      <c r="L22" s="175"/>
+      <c r="M22" s="175"/>
+      <c r="N22" s="175"/>
+      <c r="O22" s="175"/>
+      <c r="P22" s="175"/>
+      <c r="Q22" s="175"/>
+      <c r="R22" s="175"/>
+      <c r="S22" s="175"/>
+      <c r="T22" s="175"/>
       <c r="U22" s="167"/>
-      <c r="V22" s="336"/>
+      <c r="V22" s="205"/>
       <c r="W22" s="22"/>
       <c r="X22" s="163"/>
-      <c r="Y22" s="205">
+      <c r="Y22" s="183">
         <v>0</v>
       </c>
-      <c r="Z22" s="206"/>
-      <c r="AA22" s="203">
+      <c r="Z22" s="184"/>
+      <c r="AA22" s="186">
         <v>0</v>
       </c>
-      <c r="AB22" s="204"/>
+      <c r="AB22" s="187"/>
       <c r="AC22" s="153"/>
       <c r="AD22" s="99"/>
       <c r="AE22" s="99"/>
@@ -5565,8 +5569,8 @@
       <c r="AN22" s="99"/>
       <c r="AO22" s="99"/>
       <c r="AP22" s="93"/>
-      <c r="AQ22" s="225"/>
-      <c r="AR22" s="226"/>
+      <c r="AQ22" s="258"/>
+      <c r="AR22" s="202"/>
       <c r="AS22" s="50"/>
       <c r="AT22" s="50"/>
       <c r="AU22" s="50"/>
@@ -5582,19 +5586,19 @@
       <c r="BE22" s="73"/>
       <c r="BF22" s="50"/>
       <c r="BG22" s="28"/>
-      <c r="BH22" s="302"/>
-      <c r="BI22" s="187"/>
-      <c r="BJ22" s="187"/>
-      <c r="BK22" s="187"/>
-      <c r="BL22" s="187"/>
-      <c r="BM22" s="187"/>
-      <c r="BN22" s="187"/>
-      <c r="BO22" s="187"/>
-      <c r="BP22" s="187"/>
-      <c r="BQ22" s="301"/>
-      <c r="BR22" s="187"/>
-      <c r="BS22" s="187"/>
-      <c r="BT22" s="187"/>
+      <c r="BH22" s="250"/>
+      <c r="BI22" s="182"/>
+      <c r="BJ22" s="182"/>
+      <c r="BK22" s="182"/>
+      <c r="BL22" s="182"/>
+      <c r="BM22" s="182"/>
+      <c r="BN22" s="182"/>
+      <c r="BO22" s="182"/>
+      <c r="BP22" s="182"/>
+      <c r="BQ22" s="249"/>
+      <c r="BR22" s="182"/>
+      <c r="BS22" s="182"/>
+      <c r="BT22" s="182"/>
       <c r="BU22" s="30"/>
       <c r="BV22" s="30"/>
       <c r="CG22" s="18"/>
@@ -5623,34 +5627,34 @@
     </row>
     <row r="23" spans="1:107" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="45"/>
-      <c r="B23" s="37"/>
+      <c r="B23" s="338"/>
       <c r="F23"/>
       <c r="G23" s="57"/>
-      <c r="H23" s="177"/>
-      <c r="I23" s="177"/>
-      <c r="J23" s="177"/>
-      <c r="K23" s="177"/>
-      <c r="L23" s="177"/>
-      <c r="M23" s="177"/>
-      <c r="N23" s="177"/>
-      <c r="O23" s="177"/>
-      <c r="P23" s="177"/>
-      <c r="Q23" s="177"/>
-      <c r="R23" s="177"/>
-      <c r="S23" s="177"/>
-      <c r="T23" s="177"/>
+      <c r="H23" s="175"/>
+      <c r="I23" s="175"/>
+      <c r="J23" s="175"/>
+      <c r="K23" s="175"/>
+      <c r="L23" s="175"/>
+      <c r="M23" s="175"/>
+      <c r="N23" s="175"/>
+      <c r="O23" s="175"/>
+      <c r="P23" s="175"/>
+      <c r="Q23" s="175"/>
+      <c r="R23" s="175"/>
+      <c r="S23" s="175"/>
+      <c r="T23" s="175"/>
       <c r="U23" s="167"/>
-      <c r="V23" s="336"/>
+      <c r="V23" s="205"/>
       <c r="W23" s="45"/>
       <c r="X23" s="163"/>
-      <c r="Y23" s="205">
+      <c r="Y23" s="183">
         <v>0</v>
       </c>
-      <c r="Z23" s="206"/>
-      <c r="AA23" s="203">
+      <c r="Z23" s="184"/>
+      <c r="AA23" s="186">
         <v>0</v>
       </c>
-      <c r="AB23" s="204"/>
+      <c r="AB23" s="187"/>
       <c r="AC23" s="153"/>
       <c r="AD23" s="45"/>
       <c r="AE23" s="45"/>
@@ -5699,37 +5703,38 @@
       <c r="BV23" s="45"/>
     </row>
     <row r="24" spans="1:107" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="37"/>
-      <c r="C24" s="179"/>
-      <c r="D24" s="179"/>
-      <c r="E24" s="179"/>
-      <c r="F24" s="179"/>
+      <c r="A24" s="50"/>
+      <c r="B24" s="338"/>
+      <c r="C24" s="177"/>
+      <c r="D24" s="177"/>
+      <c r="E24" s="177"/>
+      <c r="F24" s="177"/>
       <c r="G24" s="57"/>
-      <c r="H24" s="177"/>
-      <c r="I24" s="177"/>
-      <c r="J24" s="177"/>
-      <c r="K24" s="177"/>
-      <c r="L24" s="177"/>
-      <c r="M24" s="177"/>
-      <c r="N24" s="177"/>
-      <c r="O24" s="177"/>
-      <c r="P24" s="177"/>
-      <c r="Q24" s="177"/>
-      <c r="R24" s="177"/>
-      <c r="S24" s="177"/>
-      <c r="T24" s="177"/>
+      <c r="H24" s="175"/>
+      <c r="I24" s="175"/>
+      <c r="J24" s="175"/>
+      <c r="K24" s="175"/>
+      <c r="L24" s="175"/>
+      <c r="M24" s="175"/>
+      <c r="N24" s="175"/>
+      <c r="O24" s="175"/>
+      <c r="P24" s="175"/>
+      <c r="Q24" s="175"/>
+      <c r="R24" s="175"/>
+      <c r="S24" s="175"/>
+      <c r="T24" s="175"/>
       <c r="U24" s="167"/>
-      <c r="V24" s="336"/>
+      <c r="V24" s="205"/>
       <c r="W24" s="26"/>
       <c r="X24" s="163"/>
-      <c r="Y24" s="205">
+      <c r="Y24" s="183">
         <v>0</v>
       </c>
-      <c r="Z24" s="206"/>
-      <c r="AA24" s="203">
+      <c r="Z24" s="184"/>
+      <c r="AA24" s="186">
         <v>0</v>
       </c>
-      <c r="AB24" s="204"/>
+      <c r="AB24" s="187"/>
       <c r="AC24" s="153"/>
       <c r="AD24" s="99"/>
       <c r="AE24" s="99"/>
@@ -5744,8 +5749,8 @@
       <c r="AN24" s="99"/>
       <c r="AO24" s="99"/>
       <c r="AP24" s="93"/>
-      <c r="AQ24" s="225"/>
-      <c r="AR24" s="226"/>
+      <c r="AQ24" s="258"/>
+      <c r="AR24" s="202"/>
       <c r="AS24" s="50"/>
       <c r="AT24" s="50"/>
       <c r="AU24" s="50"/>
@@ -5761,19 +5766,19 @@
       <c r="BE24" s="73"/>
       <c r="BF24" s="50"/>
       <c r="BG24" s="28"/>
-      <c r="BH24" s="252"/>
-      <c r="BI24" s="187"/>
-      <c r="BJ24" s="187"/>
-      <c r="BK24" s="187"/>
-      <c r="BL24" s="187"/>
-      <c r="BM24" s="187"/>
-      <c r="BN24" s="187"/>
-      <c r="BO24" s="187"/>
-      <c r="BP24" s="187"/>
-      <c r="BQ24" s="251"/>
-      <c r="BR24" s="187"/>
-      <c r="BS24" s="187"/>
-      <c r="BT24" s="187"/>
+      <c r="BH24" s="181"/>
+      <c r="BI24" s="182"/>
+      <c r="BJ24" s="182"/>
+      <c r="BK24" s="182"/>
+      <c r="BL24" s="182"/>
+      <c r="BM24" s="182"/>
+      <c r="BN24" s="182"/>
+      <c r="BO24" s="182"/>
+      <c r="BP24" s="182"/>
+      <c r="BQ24" s="185"/>
+      <c r="BR24" s="182"/>
+      <c r="BS24" s="182"/>
+      <c r="BT24" s="182"/>
       <c r="BU24" s="30"/>
       <c r="BV24" s="30"/>
       <c r="CG24" s="18"/>
@@ -5801,33 +5806,34 @@
       <c r="DC24" s="18"/>
     </row>
     <row r="25" spans="1:107" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="37"/>
+      <c r="A25" s="50"/>
+      <c r="B25" s="338"/>
       <c r="G25" s="57"/>
-      <c r="H25" s="177"/>
-      <c r="I25" s="177"/>
-      <c r="J25" s="177"/>
-      <c r="K25" s="177"/>
-      <c r="L25" s="177"/>
-      <c r="M25" s="177"/>
-      <c r="N25" s="177"/>
-      <c r="O25" s="177"/>
-      <c r="P25" s="177"/>
-      <c r="Q25" s="177"/>
-      <c r="R25" s="177"/>
-      <c r="S25" s="177"/>
-      <c r="T25" s="177"/>
+      <c r="H25" s="175"/>
+      <c r="I25" s="175"/>
+      <c r="J25" s="175"/>
+      <c r="K25" s="175"/>
+      <c r="L25" s="175"/>
+      <c r="M25" s="175"/>
+      <c r="N25" s="175"/>
+      <c r="O25" s="175"/>
+      <c r="P25" s="175"/>
+      <c r="Q25" s="175"/>
+      <c r="R25" s="175"/>
+      <c r="S25" s="175"/>
+      <c r="T25" s="175"/>
       <c r="U25" s="167"/>
-      <c r="V25" s="336"/>
+      <c r="V25" s="205"/>
       <c r="W25" s="26"/>
       <c r="X25" s="164"/>
-      <c r="Y25" s="205">
+      <c r="Y25" s="183">
         <v>0</v>
       </c>
-      <c r="Z25" s="206"/>
-      <c r="AA25" s="203">
+      <c r="Z25" s="184"/>
+      <c r="AA25" s="186">
         <v>0</v>
       </c>
-      <c r="AB25" s="204"/>
+      <c r="AB25" s="187"/>
       <c r="AC25" s="153"/>
       <c r="AD25" s="99"/>
       <c r="AE25" s="99"/>
@@ -5842,8 +5848,8 @@
       <c r="AN25" s="99"/>
       <c r="AO25" s="99"/>
       <c r="AP25" s="93"/>
-      <c r="AQ25" s="288"/>
-      <c r="AR25" s="226"/>
+      <c r="AQ25" s="203"/>
+      <c r="AR25" s="202"/>
       <c r="AS25" s="50"/>
       <c r="AT25" s="50"/>
       <c r="AU25" s="50"/>
@@ -5859,19 +5865,19 @@
       <c r="BE25" s="73"/>
       <c r="BF25" s="50"/>
       <c r="BG25" s="28"/>
-      <c r="BH25" s="252"/>
-      <c r="BI25" s="187"/>
-      <c r="BJ25" s="187"/>
-      <c r="BK25" s="187"/>
-      <c r="BL25" s="187"/>
-      <c r="BM25" s="187"/>
-      <c r="BN25" s="187"/>
-      <c r="BO25" s="187"/>
-      <c r="BP25" s="187"/>
-      <c r="BQ25" s="251"/>
-      <c r="BR25" s="187"/>
-      <c r="BS25" s="187"/>
-      <c r="BT25" s="187"/>
+      <c r="BH25" s="181"/>
+      <c r="BI25" s="182"/>
+      <c r="BJ25" s="182"/>
+      <c r="BK25" s="182"/>
+      <c r="BL25" s="182"/>
+      <c r="BM25" s="182"/>
+      <c r="BN25" s="182"/>
+      <c r="BO25" s="182"/>
+      <c r="BP25" s="182"/>
+      <c r="BQ25" s="185"/>
+      <c r="BR25" s="182"/>
+      <c r="BS25" s="182"/>
+      <c r="BT25" s="182"/>
       <c r="BU25" s="30"/>
       <c r="BV25" s="30"/>
       <c r="CG25" s="18"/>
@@ -5899,37 +5905,38 @@
       <c r="DC25" s="18"/>
     </row>
     <row r="26" spans="1:107" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="37"/>
-      <c r="C26" s="180"/>
-      <c r="D26" s="180"/>
-      <c r="E26" s="180"/>
-      <c r="F26" s="180"/>
+      <c r="A26" s="50"/>
+      <c r="B26" s="338"/>
+      <c r="C26" s="178"/>
+      <c r="D26" s="178"/>
+      <c r="E26" s="178"/>
+      <c r="F26" s="178"/>
       <c r="G26" s="57"/>
-      <c r="H26" s="177"/>
-      <c r="I26" s="177"/>
-      <c r="J26" s="177"/>
-      <c r="K26" s="177"/>
-      <c r="L26" s="177"/>
-      <c r="M26" s="177"/>
-      <c r="N26" s="177"/>
-      <c r="O26" s="177"/>
-      <c r="P26" s="177"/>
-      <c r="Q26" s="177"/>
-      <c r="R26" s="177"/>
-      <c r="S26" s="177"/>
-      <c r="T26" s="177"/>
+      <c r="H26" s="175"/>
+      <c r="I26" s="175"/>
+      <c r="J26" s="175"/>
+      <c r="K26" s="175"/>
+      <c r="L26" s="175"/>
+      <c r="M26" s="175"/>
+      <c r="N26" s="175"/>
+      <c r="O26" s="175"/>
+      <c r="P26" s="175"/>
+      <c r="Q26" s="175"/>
+      <c r="R26" s="175"/>
+      <c r="S26" s="175"/>
+      <c r="T26" s="175"/>
       <c r="U26" s="167"/>
-      <c r="V26" s="336"/>
+      <c r="V26" s="205"/>
       <c r="W26" s="23"/>
       <c r="X26" s="164"/>
-      <c r="Y26" s="205">
+      <c r="Y26" s="183">
         <v>0</v>
       </c>
-      <c r="Z26" s="206"/>
-      <c r="AA26" s="203">
+      <c r="Z26" s="184"/>
+      <c r="AA26" s="186">
         <v>0</v>
       </c>
-      <c r="AB26" s="204"/>
+      <c r="AB26" s="187"/>
       <c r="AC26" s="153"/>
       <c r="AD26" s="102"/>
       <c r="AE26" s="102"/>
@@ -5944,8 +5951,8 @@
       <c r="AN26" s="102"/>
       <c r="AO26" s="102"/>
       <c r="AP26" s="93"/>
-      <c r="AQ26" s="288"/>
-      <c r="AR26" s="226"/>
+      <c r="AQ26" s="203"/>
+      <c r="AR26" s="202"/>
       <c r="AS26" s="50"/>
       <c r="AT26" s="50"/>
       <c r="AU26" s="50"/>
@@ -5961,19 +5968,19 @@
       <c r="BE26" s="73"/>
       <c r="BF26" s="50"/>
       <c r="BG26" s="28"/>
-      <c r="BH26" s="252"/>
-      <c r="BI26" s="187"/>
-      <c r="BJ26" s="187"/>
-      <c r="BK26" s="187"/>
-      <c r="BL26" s="187"/>
-      <c r="BM26" s="187"/>
-      <c r="BN26" s="187"/>
-      <c r="BO26" s="187"/>
-      <c r="BP26" s="187"/>
-      <c r="BQ26" s="251"/>
-      <c r="BR26" s="187"/>
-      <c r="BS26" s="187"/>
-      <c r="BT26" s="187"/>
+      <c r="BH26" s="181"/>
+      <c r="BI26" s="182"/>
+      <c r="BJ26" s="182"/>
+      <c r="BK26" s="182"/>
+      <c r="BL26" s="182"/>
+      <c r="BM26" s="182"/>
+      <c r="BN26" s="182"/>
+      <c r="BO26" s="182"/>
+      <c r="BP26" s="182"/>
+      <c r="BQ26" s="185"/>
+      <c r="BR26" s="182"/>
+      <c r="BS26" s="182"/>
+      <c r="BT26" s="182"/>
       <c r="BU26" s="30"/>
       <c r="BV26" s="30"/>
       <c r="CG26" s="18"/>
@@ -6001,33 +6008,34 @@
       <c r="DC26" s="18"/>
     </row>
     <row r="27" spans="1:107" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="37"/>
+      <c r="A27" s="50"/>
+      <c r="B27" s="338"/>
       <c r="G27" s="57"/>
-      <c r="H27" s="177"/>
-      <c r="I27" s="177"/>
-      <c r="J27" s="177"/>
-      <c r="K27" s="177"/>
-      <c r="L27" s="177"/>
-      <c r="M27" s="177"/>
-      <c r="N27" s="177"/>
-      <c r="O27" s="177"/>
-      <c r="P27" s="177"/>
-      <c r="Q27" s="177"/>
-      <c r="R27" s="177"/>
-      <c r="S27" s="177"/>
-      <c r="T27" s="177"/>
+      <c r="H27" s="175"/>
+      <c r="I27" s="175"/>
+      <c r="J27" s="175"/>
+      <c r="K27" s="175"/>
+      <c r="L27" s="175"/>
+      <c r="M27" s="175"/>
+      <c r="N27" s="175"/>
+      <c r="O27" s="175"/>
+      <c r="P27" s="175"/>
+      <c r="Q27" s="175"/>
+      <c r="R27" s="175"/>
+      <c r="S27" s="175"/>
+      <c r="T27" s="175"/>
       <c r="U27" s="167"/>
-      <c r="V27" s="336"/>
+      <c r="V27" s="205"/>
       <c r="W27" s="23"/>
       <c r="X27" s="164"/>
-      <c r="Y27" s="205">
+      <c r="Y27" s="183">
         <v>0</v>
       </c>
-      <c r="Z27" s="206"/>
-      <c r="AA27" s="203">
+      <c r="Z27" s="184"/>
+      <c r="AA27" s="186">
         <v>0</v>
       </c>
-      <c r="AB27" s="204"/>
+      <c r="AB27" s="187"/>
       <c r="AC27" s="153"/>
       <c r="AD27" s="102"/>
       <c r="AE27" s="102"/>
@@ -6042,8 +6050,8 @@
       <c r="AN27" s="102"/>
       <c r="AO27" s="102"/>
       <c r="AP27" s="93"/>
-      <c r="AQ27" s="225"/>
-      <c r="AR27" s="226"/>
+      <c r="AQ27" s="258"/>
+      <c r="AR27" s="202"/>
       <c r="AS27" s="50"/>
       <c r="AT27" s="50"/>
       <c r="AU27" s="50"/>
@@ -6059,19 +6067,19 @@
       <c r="BE27" s="73"/>
       <c r="BF27" s="50"/>
       <c r="BG27" s="28"/>
-      <c r="BH27" s="263"/>
-      <c r="BI27" s="187"/>
-      <c r="BJ27" s="187"/>
-      <c r="BK27" s="187"/>
-      <c r="BL27" s="187"/>
-      <c r="BM27" s="187"/>
-      <c r="BN27" s="187"/>
-      <c r="BO27" s="187"/>
-      <c r="BP27" s="187"/>
-      <c r="BQ27" s="187"/>
-      <c r="BR27" s="187"/>
-      <c r="BS27" s="187"/>
-      <c r="BT27" s="187"/>
+      <c r="BH27" s="301"/>
+      <c r="BI27" s="182"/>
+      <c r="BJ27" s="182"/>
+      <c r="BK27" s="182"/>
+      <c r="BL27" s="182"/>
+      <c r="BM27" s="182"/>
+      <c r="BN27" s="182"/>
+      <c r="BO27" s="182"/>
+      <c r="BP27" s="182"/>
+      <c r="BQ27" s="182"/>
+      <c r="BR27" s="182"/>
+      <c r="BS27" s="182"/>
+      <c r="BT27" s="182"/>
       <c r="BU27" s="30"/>
       <c r="BV27" s="30"/>
       <c r="CG27" s="18"/>
@@ -6099,34 +6107,35 @@
       <c r="DC27" s="18"/>
     </row>
     <row r="28" spans="1:107" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="172"/>
+      <c r="A28" s="50"/>
+      <c r="B28" s="339"/>
       <c r="F28"/>
       <c r="G28" s="57"/>
-      <c r="H28" s="177"/>
-      <c r="I28" s="177"/>
-      <c r="J28" s="177"/>
-      <c r="K28" s="177"/>
-      <c r="L28" s="177"/>
-      <c r="M28" s="177"/>
-      <c r="N28" s="177"/>
-      <c r="O28" s="177"/>
-      <c r="P28" s="177"/>
-      <c r="Q28" s="177"/>
-      <c r="R28" s="177"/>
-      <c r="S28" s="177"/>
-      <c r="T28" s="177"/>
+      <c r="H28" s="175"/>
+      <c r="I28" s="175"/>
+      <c r="J28" s="175"/>
+      <c r="K28" s="175"/>
+      <c r="L28" s="175"/>
+      <c r="M28" s="175"/>
+      <c r="N28" s="175"/>
+      <c r="O28" s="175"/>
+      <c r="P28" s="175"/>
+      <c r="Q28" s="175"/>
+      <c r="R28" s="175"/>
+      <c r="S28" s="175"/>
+      <c r="T28" s="175"/>
       <c r="U28" s="167"/>
-      <c r="V28" s="336"/>
+      <c r="V28" s="205"/>
       <c r="W28" s="16"/>
       <c r="X28" s="164"/>
-      <c r="Y28" s="205">
+      <c r="Y28" s="183">
         <v>0</v>
       </c>
-      <c r="Z28" s="206"/>
-      <c r="AA28" s="203">
+      <c r="Z28" s="184"/>
+      <c r="AA28" s="186">
         <v>0</v>
       </c>
-      <c r="AB28" s="204"/>
+      <c r="AB28" s="187"/>
       <c r="AC28" s="153"/>
       <c r="AD28" s="103"/>
       <c r="AE28" s="103"/>
@@ -6141,8 +6150,8 @@
       <c r="AN28" s="103"/>
       <c r="AO28" s="103"/>
       <c r="AP28" s="87"/>
-      <c r="AQ28" s="233"/>
-      <c r="AR28" s="226"/>
+      <c r="AQ28" s="294"/>
+      <c r="AR28" s="202"/>
       <c r="AS28" s="50"/>
       <c r="AT28" s="50"/>
       <c r="AU28" s="50"/>
@@ -6157,22 +6166,22 @@
       <c r="BD28" s="106"/>
       <c r="BE28" s="73"/>
       <c r="BF28" s="50"/>
-      <c r="BG28" s="274"/>
-      <c r="BH28" s="187"/>
-      <c r="BI28" s="187"/>
-      <c r="BJ28" s="187"/>
-      <c r="BK28" s="187"/>
-      <c r="BL28" s="187"/>
-      <c r="BM28" s="187"/>
-      <c r="BN28" s="187"/>
-      <c r="BO28" s="187"/>
-      <c r="BP28" s="187"/>
-      <c r="BQ28" s="187"/>
-      <c r="BR28" s="187"/>
-      <c r="BS28" s="187"/>
-      <c r="BT28" s="187"/>
-      <c r="BU28" s="187"/>
-      <c r="BV28" s="187"/>
+      <c r="BG28" s="268"/>
+      <c r="BH28" s="182"/>
+      <c r="BI28" s="182"/>
+      <c r="BJ28" s="182"/>
+      <c r="BK28" s="182"/>
+      <c r="BL28" s="182"/>
+      <c r="BM28" s="182"/>
+      <c r="BN28" s="182"/>
+      <c r="BO28" s="182"/>
+      <c r="BP28" s="182"/>
+      <c r="BQ28" s="182"/>
+      <c r="BR28" s="182"/>
+      <c r="BS28" s="182"/>
+      <c r="BT28" s="182"/>
+      <c r="BU28" s="182"/>
+      <c r="BV28" s="182"/>
       <c r="CG28" s="18"/>
       <c r="CH28" s="18"/>
       <c r="CI28" s="18"/>
@@ -6198,37 +6207,38 @@
       <c r="DC28" s="18"/>
     </row>
     <row r="29" spans="1:107" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="37"/>
-      <c r="C29" s="179"/>
-      <c r="D29" s="179"/>
-      <c r="E29" s="179"/>
-      <c r="F29" s="179"/>
+      <c r="A29" s="50"/>
+      <c r="B29" s="338"/>
+      <c r="C29" s="177"/>
+      <c r="D29" s="177"/>
+      <c r="E29" s="177"/>
+      <c r="F29" s="177"/>
       <c r="G29" s="57"/>
-      <c r="H29" s="177"/>
-      <c r="I29" s="177"/>
-      <c r="J29" s="177"/>
-      <c r="K29" s="177"/>
-      <c r="L29" s="177"/>
-      <c r="M29" s="177"/>
-      <c r="N29" s="177"/>
-      <c r="O29" s="177"/>
-      <c r="P29" s="177"/>
-      <c r="Q29" s="177"/>
-      <c r="R29" s="177"/>
-      <c r="S29" s="177"/>
-      <c r="T29" s="177"/>
+      <c r="H29" s="175"/>
+      <c r="I29" s="175"/>
+      <c r="J29" s="175"/>
+      <c r="K29" s="175"/>
+      <c r="L29" s="175"/>
+      <c r="M29" s="175"/>
+      <c r="N29" s="175"/>
+      <c r="O29" s="175"/>
+      <c r="P29" s="175"/>
+      <c r="Q29" s="175"/>
+      <c r="R29" s="175"/>
+      <c r="S29" s="175"/>
+      <c r="T29" s="175"/>
       <c r="U29" s="167"/>
-      <c r="V29" s="336"/>
+      <c r="V29" s="205"/>
       <c r="W29" s="24"/>
       <c r="X29" s="164"/>
-      <c r="Y29" s="205">
+      <c r="Y29" s="183">
         <v>0</v>
       </c>
-      <c r="Z29" s="206"/>
-      <c r="AA29" s="203">
+      <c r="Z29" s="184"/>
+      <c r="AA29" s="186">
         <v>0</v>
       </c>
-      <c r="AB29" s="204"/>
+      <c r="AB29" s="187"/>
       <c r="AC29" s="153"/>
       <c r="AD29" s="107"/>
       <c r="AE29" s="107"/>
@@ -6243,8 +6253,8 @@
       <c r="AN29" s="107"/>
       <c r="AO29" s="107"/>
       <c r="AP29" s="87"/>
-      <c r="AQ29" s="298"/>
-      <c r="AR29" s="226"/>
+      <c r="AQ29" s="245"/>
+      <c r="AR29" s="202"/>
       <c r="AS29" s="50"/>
       <c r="AT29" s="50"/>
       <c r="AU29" s="50"/>
@@ -6259,22 +6269,22 @@
       <c r="BD29" s="113"/>
       <c r="BE29" s="73"/>
       <c r="BF29" s="50"/>
-      <c r="BG29" s="187"/>
-      <c r="BH29" s="187"/>
-      <c r="BI29" s="187"/>
-      <c r="BJ29" s="187"/>
-      <c r="BK29" s="187"/>
-      <c r="BL29" s="187"/>
-      <c r="BM29" s="187"/>
-      <c r="BN29" s="187"/>
-      <c r="BO29" s="187"/>
-      <c r="BP29" s="187"/>
-      <c r="BQ29" s="187"/>
-      <c r="BR29" s="187"/>
-      <c r="BS29" s="187"/>
-      <c r="BT29" s="187"/>
-      <c r="BU29" s="187"/>
-      <c r="BV29" s="187"/>
+      <c r="BG29" s="182"/>
+      <c r="BH29" s="182"/>
+      <c r="BI29" s="182"/>
+      <c r="BJ29" s="182"/>
+      <c r="BK29" s="182"/>
+      <c r="BL29" s="182"/>
+      <c r="BM29" s="182"/>
+      <c r="BN29" s="182"/>
+      <c r="BO29" s="182"/>
+      <c r="BP29" s="182"/>
+      <c r="BQ29" s="182"/>
+      <c r="BR29" s="182"/>
+      <c r="BS29" s="182"/>
+      <c r="BT29" s="182"/>
+      <c r="BU29" s="182"/>
+      <c r="BV29" s="182"/>
       <c r="CG29" s="18"/>
       <c r="CH29" s="18"/>
       <c r="CI29" s="18"/>
@@ -6300,37 +6310,38 @@
       <c r="DC29" s="18"/>
     </row>
     <row r="30" spans="1:107" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="37"/>
-      <c r="C30" s="179"/>
-      <c r="D30" s="179"/>
-      <c r="E30" s="179"/>
-      <c r="F30" s="179"/>
+      <c r="A30" s="50"/>
+      <c r="B30" s="338"/>
+      <c r="C30" s="177"/>
+      <c r="D30" s="177"/>
+      <c r="E30" s="177"/>
+      <c r="F30" s="177"/>
       <c r="G30" s="57"/>
-      <c r="H30" s="177"/>
-      <c r="I30" s="177"/>
-      <c r="J30" s="177"/>
-      <c r="K30" s="177"/>
-      <c r="L30" s="177"/>
-      <c r="M30" s="177"/>
-      <c r="N30" s="177"/>
-      <c r="O30" s="177"/>
-      <c r="P30" s="177"/>
-      <c r="Q30" s="177"/>
-      <c r="R30" s="177"/>
-      <c r="S30" s="177"/>
-      <c r="T30" s="177"/>
+      <c r="H30" s="175"/>
+      <c r="I30" s="175"/>
+      <c r="J30" s="175"/>
+      <c r="K30" s="175"/>
+      <c r="L30" s="175"/>
+      <c r="M30" s="175"/>
+      <c r="N30" s="175"/>
+      <c r="O30" s="175"/>
+      <c r="P30" s="175"/>
+      <c r="Q30" s="175"/>
+      <c r="R30" s="175"/>
+      <c r="S30" s="175"/>
+      <c r="T30" s="175"/>
       <c r="U30" s="167"/>
-      <c r="V30" s="336"/>
+      <c r="V30" s="205"/>
       <c r="W30" s="25"/>
       <c r="X30" s="165"/>
-      <c r="Y30" s="291">
+      <c r="Y30" s="284">
         <v>0</v>
       </c>
-      <c r="Z30" s="292"/>
-      <c r="AA30" s="249">
+      <c r="Z30" s="285"/>
+      <c r="AA30" s="292">
         <v>0</v>
       </c>
-      <c r="AB30" s="250"/>
+      <c r="AB30" s="293"/>
       <c r="AC30" s="155"/>
       <c r="AD30" s="114"/>
       <c r="AE30" s="114"/>
@@ -6345,15 +6356,15 @@
       <c r="AN30" s="114"/>
       <c r="AO30" s="114"/>
       <c r="AP30" s="87"/>
-      <c r="AQ30" s="334"/>
-      <c r="AR30" s="226"/>
+      <c r="AQ30" s="201"/>
+      <c r="AR30" s="202"/>
       <c r="AS30" s="50"/>
       <c r="AT30" s="50"/>
       <c r="AU30" s="50"/>
       <c r="AV30" s="50"/>
       <c r="AW30" s="50"/>
       <c r="AX30" s="50"/>
-      <c r="AY30" s="231"/>
+      <c r="AY30" s="307"/>
       <c r="AZ30" s="109"/>
       <c r="BA30" s="110"/>
       <c r="BB30" s="111"/>
@@ -6361,22 +6372,22 @@
       <c r="BD30" s="113"/>
       <c r="BE30" s="73"/>
       <c r="BF30" s="50"/>
-      <c r="BG30" s="274"/>
-      <c r="BH30" s="187"/>
-      <c r="BI30" s="187"/>
-      <c r="BJ30" s="187"/>
-      <c r="BK30" s="187"/>
-      <c r="BL30" s="187"/>
-      <c r="BM30" s="187"/>
-      <c r="BN30" s="187"/>
-      <c r="BO30" s="187"/>
-      <c r="BP30" s="187"/>
-      <c r="BQ30" s="187"/>
-      <c r="BR30" s="187"/>
-      <c r="BS30" s="187"/>
-      <c r="BT30" s="187"/>
-      <c r="BU30" s="187"/>
-      <c r="BV30" s="187"/>
+      <c r="BG30" s="268"/>
+      <c r="BH30" s="182"/>
+      <c r="BI30" s="182"/>
+      <c r="BJ30" s="182"/>
+      <c r="BK30" s="182"/>
+      <c r="BL30" s="182"/>
+      <c r="BM30" s="182"/>
+      <c r="BN30" s="182"/>
+      <c r="BO30" s="182"/>
+      <c r="BP30" s="182"/>
+      <c r="BQ30" s="182"/>
+      <c r="BR30" s="182"/>
+      <c r="BS30" s="182"/>
+      <c r="BT30" s="182"/>
+      <c r="BU30" s="182"/>
+      <c r="BV30" s="182"/>
       <c r="CG30" s="18"/>
       <c r="CH30" s="18"/>
       <c r="CI30" s="18"/>
@@ -6402,41 +6413,42 @@
       <c r="DC30" s="18"/>
     </row>
     <row r="31" spans="1:107" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="37"/>
-      <c r="C31" s="179"/>
-      <c r="D31" s="179"/>
-      <c r="E31" s="179"/>
-      <c r="F31" s="179"/>
+      <c r="A31" s="50"/>
+      <c r="B31" s="338"/>
+      <c r="C31" s="177"/>
+      <c r="D31" s="177"/>
+      <c r="E31" s="177"/>
+      <c r="F31" s="177"/>
       <c r="G31" s="57"/>
-      <c r="H31" s="177"/>
-      <c r="I31" s="177"/>
-      <c r="J31" s="177"/>
-      <c r="K31" s="177"/>
-      <c r="L31" s="177"/>
-      <c r="M31" s="177"/>
-      <c r="N31" s="177"/>
-      <c r="O31" s="177"/>
-      <c r="P31" s="177"/>
-      <c r="Q31" s="177"/>
-      <c r="R31" s="177"/>
-      <c r="S31" s="177"/>
-      <c r="T31" s="177"/>
+      <c r="H31" s="175"/>
+      <c r="I31" s="175"/>
+      <c r="J31" s="175"/>
+      <c r="K31" s="175"/>
+      <c r="L31" s="175"/>
+      <c r="M31" s="175"/>
+      <c r="N31" s="175"/>
+      <c r="O31" s="175"/>
+      <c r="P31" s="175"/>
+      <c r="Q31" s="175"/>
+      <c r="R31" s="175"/>
+      <c r="S31" s="175"/>
+      <c r="T31" s="175"/>
       <c r="U31" s="167"/>
-      <c r="V31" s="336"/>
+      <c r="V31" s="205"/>
       <c r="W31" s="14"/>
       <c r="X31" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="Y31" s="295">
+      <c r="Y31" s="242">
         <f>SUM(Y11:Z30)</f>
         <v>0</v>
       </c>
-      <c r="Z31" s="296"/>
-      <c r="AA31" s="300">
+      <c r="Z31" s="243"/>
+      <c r="AA31" s="248">
         <f>SUM(AA11:AB30)*AA9</f>
         <v>0</v>
       </c>
-      <c r="AB31" s="296"/>
+      <c r="AB31" s="243"/>
       <c r="AC31" s="156"/>
       <c r="AD31" s="55"/>
       <c r="AE31" s="55"/>
@@ -6451,15 +6463,15 @@
       <c r="AN31" s="55"/>
       <c r="AO31" s="55"/>
       <c r="AP31" s="87"/>
-      <c r="AQ31" s="304"/>
-      <c r="AR31" s="206"/>
+      <c r="AQ31" s="252"/>
+      <c r="AR31" s="184"/>
       <c r="AS31" s="50"/>
       <c r="AT31" s="50"/>
       <c r="AU31" s="50"/>
       <c r="AV31" s="50"/>
       <c r="AW31" s="50"/>
       <c r="AX31" s="50"/>
-      <c r="AY31" s="232"/>
+      <c r="AY31" s="195"/>
       <c r="AZ31" s="115"/>
       <c r="BA31" s="116"/>
       <c r="BB31" s="117"/>
@@ -6467,22 +6479,22 @@
       <c r="BD31" s="119"/>
       <c r="BE31" s="73"/>
       <c r="BF31" s="50"/>
-      <c r="BG31" s="330"/>
-      <c r="BH31" s="187"/>
-      <c r="BI31" s="187"/>
-      <c r="BJ31" s="187"/>
-      <c r="BK31" s="187"/>
-      <c r="BL31" s="187"/>
-      <c r="BM31" s="187"/>
-      <c r="BN31" s="187"/>
-      <c r="BO31" s="187"/>
-      <c r="BP31" s="187"/>
-      <c r="BQ31" s="187"/>
-      <c r="BR31" s="187"/>
-      <c r="BS31" s="187"/>
-      <c r="BT31" s="187"/>
-      <c r="BU31" s="187"/>
-      <c r="BV31" s="187"/>
+      <c r="BG31" s="239"/>
+      <c r="BH31" s="182"/>
+      <c r="BI31" s="182"/>
+      <c r="BJ31" s="182"/>
+      <c r="BK31" s="182"/>
+      <c r="BL31" s="182"/>
+      <c r="BM31" s="182"/>
+      <c r="BN31" s="182"/>
+      <c r="BO31" s="182"/>
+      <c r="BP31" s="182"/>
+      <c r="BQ31" s="182"/>
+      <c r="BR31" s="182"/>
+      <c r="BS31" s="182"/>
+      <c r="BT31" s="182"/>
+      <c r="BU31" s="182"/>
+      <c r="BV31" s="182"/>
       <c r="CG31" s="18"/>
       <c r="CH31" s="18"/>
       <c r="CI31" s="18"/>
@@ -6508,32 +6520,33 @@
       <c r="DC31" s="18"/>
     </row>
     <row r="32" spans="1:107" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="37"/>
+      <c r="A32" s="50"/>
+      <c r="B32" s="338"/>
       <c r="G32" s="57"/>
-      <c r="H32" s="177"/>
-      <c r="I32" s="177"/>
-      <c r="J32" s="177"/>
-      <c r="K32" s="177"/>
-      <c r="L32" s="177"/>
-      <c r="M32" s="177"/>
-      <c r="N32" s="177"/>
-      <c r="O32" s="177"/>
-      <c r="P32" s="177"/>
-      <c r="Q32" s="177"/>
-      <c r="R32" s="177"/>
-      <c r="S32" s="177"/>
-      <c r="T32" s="177"/>
+      <c r="H32" s="175"/>
+      <c r="I32" s="175"/>
+      <c r="J32" s="175"/>
+      <c r="K32" s="175"/>
+      <c r="L32" s="175"/>
+      <c r="M32" s="175"/>
+      <c r="N32" s="175"/>
+      <c r="O32" s="175"/>
+      <c r="P32" s="175"/>
+      <c r="Q32" s="175"/>
+      <c r="R32" s="175"/>
+      <c r="S32" s="175"/>
+      <c r="T32" s="175"/>
       <c r="U32" s="167"/>
-      <c r="V32" s="336"/>
+      <c r="V32" s="205"/>
       <c r="W32" s="15"/>
-      <c r="X32" s="306" t="e">
+      <c r="X32" s="254" t="e">
         <f>Y31/Y6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y32" s="184"/>
-      <c r="Z32" s="184"/>
-      <c r="AA32" s="184"/>
-      <c r="AB32" s="184"/>
+      <c r="Y32" s="189"/>
+      <c r="Z32" s="189"/>
+      <c r="AA32" s="189"/>
+      <c r="AB32" s="189"/>
       <c r="AC32" s="157"/>
       <c r="AD32" s="120"/>
       <c r="AE32" s="120"/>
@@ -6548,15 +6561,15 @@
       <c r="AN32" s="120"/>
       <c r="AO32" s="120"/>
       <c r="AP32" s="87"/>
-      <c r="AQ32" s="237"/>
-      <c r="AR32" s="226"/>
+      <c r="AQ32" s="309"/>
+      <c r="AR32" s="202"/>
       <c r="AS32" s="50"/>
       <c r="AT32" s="50"/>
       <c r="AU32" s="50"/>
       <c r="AV32" s="50"/>
       <c r="AW32" s="50"/>
       <c r="AX32" s="50"/>
-      <c r="AY32" s="232"/>
+      <c r="AY32" s="195"/>
       <c r="AZ32" s="121"/>
       <c r="BA32" s="122"/>
       <c r="BB32" s="123"/>
@@ -6564,22 +6577,22 @@
       <c r="BD32" s="125"/>
       <c r="BE32" s="73"/>
       <c r="BF32" s="50"/>
-      <c r="BG32" s="187"/>
-      <c r="BH32" s="187"/>
-      <c r="BI32" s="187"/>
-      <c r="BJ32" s="187"/>
-      <c r="BK32" s="187"/>
-      <c r="BL32" s="187"/>
-      <c r="BM32" s="187"/>
-      <c r="BN32" s="187"/>
-      <c r="BO32" s="187"/>
-      <c r="BP32" s="187"/>
-      <c r="BQ32" s="187"/>
-      <c r="BR32" s="187"/>
-      <c r="BS32" s="187"/>
-      <c r="BT32" s="187"/>
-      <c r="BU32" s="187"/>
-      <c r="BV32" s="187"/>
+      <c r="BG32" s="182"/>
+      <c r="BH32" s="182"/>
+      <c r="BI32" s="182"/>
+      <c r="BJ32" s="182"/>
+      <c r="BK32" s="182"/>
+      <c r="BL32" s="182"/>
+      <c r="BM32" s="182"/>
+      <c r="BN32" s="182"/>
+      <c r="BO32" s="182"/>
+      <c r="BP32" s="182"/>
+      <c r="BQ32" s="182"/>
+      <c r="BR32" s="182"/>
+      <c r="BS32" s="182"/>
+      <c r="BT32" s="182"/>
+      <c r="BU32" s="182"/>
+      <c r="BV32" s="182"/>
       <c r="CG32" s="18"/>
       <c r="CH32" s="18"/>
       <c r="CI32" s="18"/>
@@ -6604,34 +6617,35 @@
       <c r="DB32" s="18"/>
       <c r="DC32" s="18"/>
     </row>
-    <row r="33" spans="2:107" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="37"/>
-      <c r="C33" s="179"/>
-      <c r="D33" s="179"/>
-      <c r="E33" s="179"/>
-      <c r="F33" s="179"/>
+    <row r="33" spans="1:107" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="50"/>
+      <c r="B33" s="338"/>
+      <c r="C33" s="177"/>
+      <c r="D33" s="177"/>
+      <c r="E33" s="177"/>
+      <c r="F33" s="177"/>
       <c r="G33" s="57"/>
-      <c r="H33" s="177"/>
-      <c r="I33" s="177"/>
-      <c r="J33" s="177"/>
-      <c r="K33" s="177"/>
-      <c r="L33" s="177"/>
-      <c r="M33" s="177"/>
-      <c r="N33" s="177"/>
-      <c r="O33" s="177"/>
-      <c r="P33" s="177"/>
-      <c r="Q33" s="177"/>
-      <c r="R33" s="177"/>
-      <c r="S33" s="177"/>
-      <c r="T33" s="177"/>
+      <c r="H33" s="175"/>
+      <c r="I33" s="175"/>
+      <c r="J33" s="175"/>
+      <c r="K33" s="175"/>
+      <c r="L33" s="175"/>
+      <c r="M33" s="175"/>
+      <c r="N33" s="175"/>
+      <c r="O33" s="175"/>
+      <c r="P33" s="175"/>
+      <c r="Q33" s="175"/>
+      <c r="R33" s="175"/>
+      <c r="S33" s="175"/>
+      <c r="T33" s="175"/>
       <c r="U33" s="167"/>
-      <c r="V33" s="336"/>
+      <c r="V33" s="205"/>
       <c r="W33" s="14"/>
-      <c r="X33" s="266"/>
-      <c r="Y33" s="266"/>
-      <c r="Z33" s="266"/>
-      <c r="AA33" s="266"/>
-      <c r="AB33" s="266"/>
+      <c r="X33" s="255"/>
+      <c r="Y33" s="255"/>
+      <c r="Z33" s="255"/>
+      <c r="AA33" s="255"/>
+      <c r="AB33" s="255"/>
       <c r="AC33" s="55"/>
       <c r="AD33" s="158"/>
       <c r="AE33" s="55"/>
@@ -6646,15 +6660,15 @@
       <c r="AN33" s="55"/>
       <c r="AO33" s="55"/>
       <c r="AP33" s="87"/>
-      <c r="AQ33" s="329"/>
-      <c r="AR33" s="226"/>
+      <c r="AQ33" s="238"/>
+      <c r="AR33" s="202"/>
       <c r="AS33" s="50"/>
       <c r="AT33" s="50"/>
       <c r="AU33" s="50"/>
       <c r="AV33" s="50"/>
       <c r="AW33" s="50"/>
       <c r="AX33" s="50"/>
-      <c r="AY33" s="287"/>
+      <c r="AY33" s="281"/>
       <c r="AZ33" s="126"/>
       <c r="BA33" s="127"/>
       <c r="BB33" s="128"/>
@@ -6662,22 +6676,22 @@
       <c r="BD33" s="130"/>
       <c r="BE33" s="73"/>
       <c r="BF33" s="50"/>
-      <c r="BG33" s="305"/>
-      <c r="BH33" s="187"/>
-      <c r="BI33" s="187"/>
-      <c r="BJ33" s="187"/>
-      <c r="BK33" s="187"/>
-      <c r="BL33" s="187"/>
-      <c r="BM33" s="187"/>
-      <c r="BN33" s="187"/>
-      <c r="BO33" s="187"/>
-      <c r="BP33" s="303"/>
-      <c r="BQ33" s="187"/>
-      <c r="BR33" s="187"/>
-      <c r="BS33" s="187"/>
-      <c r="BT33" s="322"/>
-      <c r="BU33" s="187"/>
-      <c r="BV33" s="187"/>
+      <c r="BG33" s="253"/>
+      <c r="BH33" s="182"/>
+      <c r="BI33" s="182"/>
+      <c r="BJ33" s="182"/>
+      <c r="BK33" s="182"/>
+      <c r="BL33" s="182"/>
+      <c r="BM33" s="182"/>
+      <c r="BN33" s="182"/>
+      <c r="BO33" s="182"/>
+      <c r="BP33" s="251"/>
+      <c r="BQ33" s="182"/>
+      <c r="BR33" s="182"/>
+      <c r="BS33" s="182"/>
+      <c r="BT33" s="226"/>
+      <c r="BU33" s="182"/>
+      <c r="BV33" s="182"/>
       <c r="CG33" s="18"/>
       <c r="CH33" s="18"/>
       <c r="CI33" s="18"/>
@@ -6702,36 +6716,37 @@
       <c r="DB33" s="18"/>
       <c r="DC33" s="18"/>
     </row>
-    <row r="34" spans="2:107" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="37"/>
-      <c r="C34" s="181"/>
-      <c r="D34" s="181"/>
-      <c r="E34" s="181"/>
-      <c r="F34" s="181"/>
+    <row r="34" spans="1:107" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="50"/>
+      <c r="B34" s="338"/>
+      <c r="C34" s="179"/>
+      <c r="D34" s="179"/>
+      <c r="E34" s="179"/>
+      <c r="F34" s="179"/>
       <c r="G34" s="57"/>
-      <c r="H34" s="177"/>
-      <c r="I34" s="177"/>
-      <c r="J34" s="177"/>
-      <c r="K34" s="177"/>
-      <c r="L34" s="177"/>
-      <c r="M34" s="177"/>
-      <c r="N34" s="177"/>
-      <c r="O34" s="177"/>
-      <c r="P34" s="177"/>
-      <c r="Q34" s="177"/>
-      <c r="R34" s="177"/>
-      <c r="S34" s="177"/>
-      <c r="T34" s="177"/>
+      <c r="H34" s="175"/>
+      <c r="I34" s="175"/>
+      <c r="J34" s="175"/>
+      <c r="K34" s="175"/>
+      <c r="L34" s="175"/>
+      <c r="M34" s="175"/>
+      <c r="N34" s="175"/>
+      <c r="O34" s="175"/>
+      <c r="P34" s="175"/>
+      <c r="Q34" s="175"/>
+      <c r="R34" s="175"/>
+      <c r="S34" s="175"/>
+      <c r="T34" s="175"/>
       <c r="U34" s="167"/>
-      <c r="V34" s="336"/>
+      <c r="V34" s="205"/>
       <c r="W34" s="12"/>
-      <c r="X34" s="327" t="s">
+      <c r="X34" s="236" t="s">
         <v>15</v>
       </c>
-      <c r="Y34" s="184"/>
-      <c r="Z34" s="184"/>
-      <c r="AA34" s="184"/>
-      <c r="AB34" s="185"/>
+      <c r="Y34" s="189"/>
+      <c r="Z34" s="189"/>
+      <c r="AA34" s="189"/>
+      <c r="AB34" s="190"/>
       <c r="AC34" s="56"/>
       <c r="AD34" s="56"/>
       <c r="AE34" s="56"/>
@@ -6746,15 +6761,15 @@
       <c r="AN34" s="56"/>
       <c r="AO34" s="56"/>
       <c r="AP34" s="131"/>
-      <c r="AQ34" s="261"/>
-      <c r="AR34" s="262"/>
+      <c r="AQ34" s="299"/>
+      <c r="AR34" s="300"/>
       <c r="AS34" s="50"/>
       <c r="AT34" s="50"/>
       <c r="AU34" s="50"/>
       <c r="AV34" s="50"/>
       <c r="AW34" s="50"/>
       <c r="AX34" s="50"/>
-      <c r="AY34" s="232"/>
+      <c r="AY34" s="195"/>
       <c r="AZ34" s="132"/>
       <c r="BA34" s="133"/>
       <c r="BB34" s="134"/>
@@ -6762,22 +6777,22 @@
       <c r="BD34" s="136"/>
       <c r="BE34" s="73"/>
       <c r="BF34" s="50"/>
-      <c r="BG34" s="270"/>
-      <c r="BH34" s="187"/>
-      <c r="BI34" s="187"/>
-      <c r="BJ34" s="187"/>
-      <c r="BK34" s="187"/>
-      <c r="BL34" s="187"/>
-      <c r="BM34" s="299"/>
-      <c r="BN34" s="187"/>
-      <c r="BO34" s="187"/>
-      <c r="BP34" s="187"/>
-      <c r="BQ34" s="187"/>
-      <c r="BR34" s="297"/>
-      <c r="BS34" s="333"/>
-      <c r="BT34" s="187"/>
-      <c r="BU34" s="187"/>
-      <c r="BV34" s="187"/>
+      <c r="BG34" s="264"/>
+      <c r="BH34" s="182"/>
+      <c r="BI34" s="182"/>
+      <c r="BJ34" s="182"/>
+      <c r="BK34" s="182"/>
+      <c r="BL34" s="182"/>
+      <c r="BM34" s="246"/>
+      <c r="BN34" s="182"/>
+      <c r="BO34" s="182"/>
+      <c r="BP34" s="182"/>
+      <c r="BQ34" s="182"/>
+      <c r="BR34" s="244"/>
+      <c r="BS34" s="199"/>
+      <c r="BT34" s="182"/>
+      <c r="BU34" s="182"/>
+      <c r="BV34" s="182"/>
       <c r="CG34" s="18"/>
       <c r="CH34" s="18"/>
       <c r="CI34" s="18"/>
@@ -6802,14 +6817,14 @@
       <c r="DB34" s="18"/>
       <c r="DC34" s="18"/>
     </row>
-    <row r="35" spans="2:107" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="192" t="s">
+    <row r="35" spans="1:107" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="314" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="184"/>
-      <c r="D35" s="184"/>
-      <c r="E35" s="184"/>
-      <c r="F35" s="184"/>
+      <c r="C35" s="189"/>
+      <c r="D35" s="189"/>
+      <c r="E35" s="189"/>
+      <c r="F35" s="189"/>
       <c r="G35" s="168"/>
       <c r="H35" s="169"/>
       <c r="I35" s="169"/>
@@ -6825,13 +6840,13 @@
       <c r="S35" s="169"/>
       <c r="T35" s="169"/>
       <c r="U35" s="170"/>
-      <c r="V35" s="337"/>
+      <c r="V35" s="206"/>
       <c r="W35" s="16"/>
-      <c r="X35" s="208"/>
-      <c r="Y35" s="209"/>
-      <c r="Z35" s="209"/>
-      <c r="AA35" s="209"/>
-      <c r="AB35" s="210"/>
+      <c r="X35" s="325"/>
+      <c r="Y35" s="326"/>
+      <c r="Z35" s="326"/>
+      <c r="AA35" s="326"/>
+      <c r="AB35" s="327"/>
       <c r="AC35" s="56"/>
       <c r="AD35" s="56"/>
       <c r="AE35" s="56"/>
@@ -6846,8 +6861,8 @@
       <c r="AN35" s="56"/>
       <c r="AO35" s="56"/>
       <c r="AP35" s="137"/>
-      <c r="AQ35" s="259"/>
-      <c r="AR35" s="232"/>
+      <c r="AQ35" s="200"/>
+      <c r="AR35" s="195"/>
       <c r="AS35" s="69"/>
       <c r="AT35" s="69"/>
       <c r="AU35" s="69"/>
@@ -6855,29 +6870,29 @@
       <c r="AW35" s="69"/>
       <c r="AX35" s="69"/>
       <c r="AY35" s="69"/>
-      <c r="AZ35" s="255"/>
-      <c r="BA35" s="256"/>
-      <c r="BB35" s="256"/>
-      <c r="BC35" s="256"/>
-      <c r="BD35" s="257"/>
+      <c r="AZ35" s="233"/>
+      <c r="BA35" s="234"/>
+      <c r="BB35" s="234"/>
+      <c r="BC35" s="234"/>
+      <c r="BD35" s="235"/>
       <c r="BE35" s="73"/>
       <c r="BF35" s="50"/>
-      <c r="BG35" s="187"/>
-      <c r="BH35" s="187"/>
-      <c r="BI35" s="187"/>
-      <c r="BJ35" s="187"/>
-      <c r="BK35" s="187"/>
-      <c r="BL35" s="187"/>
-      <c r="BM35" s="264"/>
-      <c r="BN35" s="187"/>
-      <c r="BO35" s="187"/>
-      <c r="BP35" s="187"/>
-      <c r="BQ35" s="187"/>
-      <c r="BR35" s="187"/>
-      <c r="BS35" s="264"/>
-      <c r="BT35" s="187"/>
-      <c r="BU35" s="187"/>
-      <c r="BV35" s="187"/>
+      <c r="BG35" s="182"/>
+      <c r="BH35" s="182"/>
+      <c r="BI35" s="182"/>
+      <c r="BJ35" s="182"/>
+      <c r="BK35" s="182"/>
+      <c r="BL35" s="182"/>
+      <c r="BM35" s="213"/>
+      <c r="BN35" s="182"/>
+      <c r="BO35" s="182"/>
+      <c r="BP35" s="182"/>
+      <c r="BQ35" s="182"/>
+      <c r="BR35" s="182"/>
+      <c r="BS35" s="213"/>
+      <c r="BT35" s="182"/>
+      <c r="BU35" s="182"/>
+      <c r="BV35" s="182"/>
       <c r="CG35" s="18"/>
       <c r="CH35" s="18"/>
       <c r="CI35" s="18"/>
@@ -6902,33 +6917,33 @@
       <c r="DB35" s="18"/>
       <c r="DC35" s="18"/>
     </row>
-    <row r="36" spans="2:107" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:107" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="63"/>
-      <c r="G36" s="314" t="str">
+      <c r="G36" s="218" t="str">
         <f>"Estimates Based on Geofence and "&amp;AA7&amp;" Role"</f>
         <v>Estimates Based on Geofence and  Role</v>
       </c>
-      <c r="H36" s="315"/>
-      <c r="I36" s="315"/>
-      <c r="J36" s="316"/>
-      <c r="K36" s="316"/>
-      <c r="L36" s="316"/>
-      <c r="M36" s="316"/>
-      <c r="N36" s="316"/>
-      <c r="O36" s="316"/>
-      <c r="P36" s="316"/>
-      <c r="Q36" s="316"/>
-      <c r="R36" s="316"/>
-      <c r="S36" s="316"/>
-      <c r="T36" s="316"/>
-      <c r="U36" s="316"/>
-      <c r="V36" s="317"/>
+      <c r="H36" s="219"/>
+      <c r="I36" s="219"/>
+      <c r="J36" s="220"/>
+      <c r="K36" s="220"/>
+      <c r="L36" s="220"/>
+      <c r="M36" s="220"/>
+      <c r="N36" s="220"/>
+      <c r="O36" s="220"/>
+      <c r="P36" s="220"/>
+      <c r="Q36" s="220"/>
+      <c r="R36" s="220"/>
+      <c r="S36" s="220"/>
+      <c r="T36" s="220"/>
+      <c r="U36" s="220"/>
+      <c r="V36" s="221"/>
       <c r="W36" s="17"/>
-      <c r="X36" s="211"/>
-      <c r="Y36" s="212"/>
-      <c r="Z36" s="212"/>
-      <c r="AA36" s="212"/>
-      <c r="AB36" s="213"/>
+      <c r="X36" s="328"/>
+      <c r="Y36" s="329"/>
+      <c r="Z36" s="329"/>
+      <c r="AA36" s="329"/>
+      <c r="AB36" s="217"/>
       <c r="AC36" s="138"/>
       <c r="AD36" s="138"/>
       <c r="AE36" s="138"/>
@@ -6943,8 +6958,8 @@
       <c r="AN36" s="138"/>
       <c r="AO36" s="138"/>
       <c r="AP36" s="137"/>
-      <c r="AQ36" s="259"/>
-      <c r="AR36" s="232"/>
+      <c r="AQ36" s="200"/>
+      <c r="AR36" s="195"/>
       <c r="AS36" s="69"/>
       <c r="AT36" s="69"/>
       <c r="AU36" s="69"/>
@@ -6952,11 +6967,11 @@
       <c r="AW36" s="69"/>
       <c r="AX36" s="69"/>
       <c r="AY36" s="69"/>
-      <c r="AZ36" s="255"/>
-      <c r="BA36" s="256"/>
-      <c r="BB36" s="256"/>
-      <c r="BC36" s="256"/>
-      <c r="BD36" s="257"/>
+      <c r="AZ36" s="233"/>
+      <c r="BA36" s="234"/>
+      <c r="BB36" s="234"/>
+      <c r="BC36" s="234"/>
+      <c r="BD36" s="235"/>
       <c r="BE36" s="73"/>
       <c r="BF36" s="50"/>
       <c r="BG36" s="50"/>
@@ -6999,33 +7014,33 @@
       <c r="DB36" s="18"/>
       <c r="DC36" s="18"/>
     </row>
-    <row r="37" spans="2:107" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:107" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="38"/>
-      <c r="C37" s="182"/>
-      <c r="D37" s="182"/>
-      <c r="E37" s="182"/>
-      <c r="F37" s="182"/>
-      <c r="G37" s="318"/>
-      <c r="H37" s="319"/>
-      <c r="I37" s="319"/>
-      <c r="J37" s="320"/>
-      <c r="K37" s="320"/>
-      <c r="L37" s="320"/>
-      <c r="M37" s="320"/>
-      <c r="N37" s="320"/>
-      <c r="O37" s="320"/>
-      <c r="P37" s="320"/>
-      <c r="Q37" s="320"/>
-      <c r="R37" s="320"/>
-      <c r="S37" s="320"/>
-      <c r="T37" s="320"/>
-      <c r="U37" s="320"/>
-      <c r="V37" s="321"/>
-      <c r="X37" s="211"/>
-      <c r="Y37" s="212"/>
-      <c r="Z37" s="212"/>
-      <c r="AA37" s="212"/>
-      <c r="AB37" s="213"/>
+      <c r="C37" s="180"/>
+      <c r="D37" s="180"/>
+      <c r="E37" s="180"/>
+      <c r="F37" s="180"/>
+      <c r="G37" s="222"/>
+      <c r="H37" s="223"/>
+      <c r="I37" s="223"/>
+      <c r="J37" s="224"/>
+      <c r="K37" s="224"/>
+      <c r="L37" s="224"/>
+      <c r="M37" s="224"/>
+      <c r="N37" s="224"/>
+      <c r="O37" s="224"/>
+      <c r="P37" s="224"/>
+      <c r="Q37" s="224"/>
+      <c r="R37" s="224"/>
+      <c r="S37" s="224"/>
+      <c r="T37" s="224"/>
+      <c r="U37" s="224"/>
+      <c r="V37" s="225"/>
+      <c r="X37" s="328"/>
+      <c r="Y37" s="329"/>
+      <c r="Z37" s="329"/>
+      <c r="AA37" s="329"/>
+      <c r="AB37" s="217"/>
       <c r="AD37" s="30"/>
       <c r="AE37" s="30"/>
       <c r="AF37" s="30"/>
@@ -7095,39 +7110,39 @@
       <c r="DB37" s="18"/>
       <c r="DC37" s="18"/>
     </row>
-    <row r="38" spans="2:107" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:107" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B38" s="38"/>
-      <c r="C38" s="182"/>
-      <c r="D38" s="182"/>
-      <c r="E38" s="182"/>
+      <c r="C38" s="180"/>
+      <c r="D38" s="180"/>
+      <c r="E38" s="180"/>
       <c r="F38" s="39"/>
-      <c r="G38" s="222" t="s">
+      <c r="G38" s="336" t="s">
         <v>16</v>
       </c>
-      <c r="H38" s="184"/>
-      <c r="I38" s="184"/>
-      <c r="J38" s="184"/>
-      <c r="K38" s="185"/>
-      <c r="L38" s="248" t="s">
+      <c r="H38" s="189"/>
+      <c r="I38" s="189"/>
+      <c r="J38" s="189"/>
+      <c r="K38" s="190"/>
+      <c r="L38" s="291" t="s">
         <v>17</v>
       </c>
-      <c r="M38" s="184"/>
-      <c r="N38" s="184"/>
-      <c r="O38" s="184"/>
-      <c r="P38" s="184"/>
-      <c r="Q38" s="185"/>
-      <c r="R38" s="331" t="s">
+      <c r="M38" s="189"/>
+      <c r="N38" s="189"/>
+      <c r="O38" s="189"/>
+      <c r="P38" s="189"/>
+      <c r="Q38" s="190"/>
+      <c r="R38" s="188" t="s">
         <v>18</v>
       </c>
-      <c r="S38" s="184"/>
-      <c r="T38" s="184"/>
-      <c r="U38" s="184"/>
-      <c r="V38" s="185"/>
-      <c r="X38" s="211"/>
-      <c r="Y38" s="212"/>
-      <c r="Z38" s="212"/>
-      <c r="AA38" s="212"/>
-      <c r="AB38" s="213"/>
+      <c r="S38" s="189"/>
+      <c r="T38" s="189"/>
+      <c r="U38" s="189"/>
+      <c r="V38" s="190"/>
+      <c r="X38" s="328"/>
+      <c r="Y38" s="329"/>
+      <c r="Z38" s="329"/>
+      <c r="AA38" s="329"/>
+      <c r="AB38" s="217"/>
       <c r="AD38" s="30"/>
       <c r="AE38" s="30"/>
       <c r="AF38" s="30"/>
@@ -7197,38 +7212,38 @@
       <c r="DB38" s="18"/>
       <c r="DC38" s="18"/>
     </row>
-    <row r="39" spans="2:107" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:107" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B39" s="38"/>
-      <c r="C39" s="182"/>
-      <c r="D39" s="182"/>
-      <c r="E39" s="182"/>
+      <c r="C39" s="180"/>
+      <c r="D39" s="180"/>
+      <c r="E39" s="180"/>
       <c r="F39" s="39"/>
-      <c r="G39" s="189"/>
-      <c r="H39" s="190"/>
-      <c r="I39" s="190"/>
-      <c r="J39" s="190"/>
-      <c r="K39" s="191"/>
-      <c r="L39" s="218" t="s">
+      <c r="G39" s="191"/>
+      <c r="H39" s="192"/>
+      <c r="I39" s="192"/>
+      <c r="J39" s="192"/>
+      <c r="K39" s="193"/>
+      <c r="L39" s="227" t="s">
         <v>19</v>
       </c>
-      <c r="M39" s="190"/>
-      <c r="N39" s="191"/>
-      <c r="O39" s="218" t="s">
+      <c r="M39" s="192"/>
+      <c r="N39" s="193"/>
+      <c r="O39" s="227" t="s">
         <v>20</v>
       </c>
-      <c r="P39" s="190"/>
-      <c r="Q39" s="191"/>
-      <c r="R39" s="189"/>
-      <c r="S39" s="190"/>
-      <c r="T39" s="190"/>
-      <c r="U39" s="190"/>
-      <c r="V39" s="191"/>
+      <c r="P39" s="192"/>
+      <c r="Q39" s="193"/>
+      <c r="R39" s="191"/>
+      <c r="S39" s="192"/>
+      <c r="T39" s="192"/>
+      <c r="U39" s="192"/>
+      <c r="V39" s="193"/>
       <c r="W39" s="1"/>
-      <c r="X39" s="211"/>
-      <c r="Y39" s="212"/>
-      <c r="Z39" s="212"/>
-      <c r="AA39" s="212"/>
-      <c r="AB39" s="213"/>
+      <c r="X39" s="328"/>
+      <c r="Y39" s="329"/>
+      <c r="Z39" s="329"/>
+      <c r="AA39" s="329"/>
+      <c r="AB39" s="217"/>
       <c r="AC39" s="51"/>
       <c r="AD39" s="51"/>
       <c r="AE39" s="51"/>
@@ -7299,45 +7314,45 @@
       <c r="DB39" s="18"/>
       <c r="DC39" s="18"/>
     </row>
-    <row r="40" spans="2:107" ht="11.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:107" ht="11.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="38"/>
-      <c r="C40" s="182"/>
-      <c r="D40" s="182"/>
-      <c r="E40" s="182"/>
+      <c r="C40" s="180"/>
+      <c r="D40" s="180"/>
+      <c r="E40" s="180"/>
       <c r="F40" s="39"/>
-      <c r="G40" s="217" t="s">
+      <c r="G40" s="333" t="s">
         <v>21</v>
       </c>
-      <c r="H40" s="184"/>
-      <c r="I40" s="184"/>
-      <c r="J40" s="184"/>
-      <c r="K40" s="185"/>
-      <c r="L40" s="202">
+      <c r="H40" s="189"/>
+      <c r="I40" s="189"/>
+      <c r="J40" s="189"/>
+      <c r="K40" s="190"/>
+      <c r="L40" s="265">
         <f>AA31</f>
         <v>0</v>
       </c>
-      <c r="M40" s="184"/>
-      <c r="N40" s="185"/>
-      <c r="O40" s="202">
+      <c r="M40" s="189"/>
+      <c r="N40" s="190"/>
+      <c r="O40" s="265">
         <f>L40*2</f>
         <v>0</v>
       </c>
-      <c r="P40" s="184"/>
-      <c r="Q40" s="185"/>
-      <c r="R40" s="241">
+      <c r="P40" s="189"/>
+      <c r="Q40" s="190"/>
+      <c r="R40" s="198">
         <f>Y$6</f>
         <v>0</v>
       </c>
-      <c r="S40" s="184"/>
-      <c r="T40" s="184"/>
-      <c r="U40" s="184"/>
-      <c r="V40" s="185"/>
+      <c r="S40" s="189"/>
+      <c r="T40" s="189"/>
+      <c r="U40" s="189"/>
+      <c r="V40" s="190"/>
       <c r="W40" s="1"/>
-      <c r="X40" s="211"/>
-      <c r="Y40" s="212"/>
-      <c r="Z40" s="212"/>
-      <c r="AA40" s="212"/>
-      <c r="AB40" s="213"/>
+      <c r="X40" s="328"/>
+      <c r="Y40" s="329"/>
+      <c r="Z40" s="329"/>
+      <c r="AA40" s="329"/>
+      <c r="AB40" s="217"/>
       <c r="AC40" s="51"/>
       <c r="AD40" s="51"/>
       <c r="AE40" s="51"/>
@@ -7408,34 +7423,34 @@
       <c r="DB40" s="18"/>
       <c r="DC40" s="18"/>
     </row>
-    <row r="41" spans="2:107" ht="11.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:107" ht="11.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B41" s="38"/>
-      <c r="C41" s="182"/>
-      <c r="D41" s="182"/>
-      <c r="E41" s="182"/>
+      <c r="C41" s="180"/>
+      <c r="D41" s="180"/>
+      <c r="E41" s="180"/>
       <c r="F41" s="39"/>
-      <c r="G41" s="190"/>
-      <c r="H41" s="190"/>
-      <c r="I41" s="190"/>
-      <c r="J41" s="190"/>
-      <c r="K41" s="191"/>
-      <c r="L41" s="189"/>
-      <c r="M41" s="190"/>
-      <c r="N41" s="191"/>
-      <c r="O41" s="189"/>
-      <c r="P41" s="190"/>
-      <c r="Q41" s="191"/>
-      <c r="R41" s="189"/>
-      <c r="S41" s="190"/>
-      <c r="T41" s="190"/>
-      <c r="U41" s="190"/>
-      <c r="V41" s="191"/>
+      <c r="G41" s="192"/>
+      <c r="H41" s="192"/>
+      <c r="I41" s="192"/>
+      <c r="J41" s="192"/>
+      <c r="K41" s="193"/>
+      <c r="L41" s="191"/>
+      <c r="M41" s="192"/>
+      <c r="N41" s="193"/>
+      <c r="O41" s="191"/>
+      <c r="P41" s="192"/>
+      <c r="Q41" s="193"/>
+      <c r="R41" s="191"/>
+      <c r="S41" s="192"/>
+      <c r="T41" s="192"/>
+      <c r="U41" s="192"/>
+      <c r="V41" s="193"/>
       <c r="W41" s="1"/>
-      <c r="X41" s="211"/>
-      <c r="Y41" s="212"/>
-      <c r="Z41" s="212"/>
-      <c r="AA41" s="212"/>
-      <c r="AB41" s="213"/>
+      <c r="X41" s="328"/>
+      <c r="Y41" s="329"/>
+      <c r="Z41" s="329"/>
+      <c r="AA41" s="329"/>
+      <c r="AB41" s="217"/>
       <c r="AC41" s="51"/>
       <c r="AD41" s="51"/>
       <c r="AE41" s="51"/>
@@ -7506,45 +7521,45 @@
       <c r="DB41" s="18"/>
       <c r="DC41" s="18"/>
     </row>
-    <row r="42" spans="2:107" ht="11.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:107" ht="11.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="38"/>
-      <c r="C42" s="182"/>
-      <c r="D42" s="182"/>
-      <c r="E42" s="182"/>
+      <c r="C42" s="180"/>
+      <c r="D42" s="180"/>
+      <c r="E42" s="180"/>
       <c r="F42" s="39"/>
-      <c r="G42" s="217" t="s">
+      <c r="G42" s="333" t="s">
         <v>22</v>
       </c>
-      <c r="H42" s="184"/>
-      <c r="I42" s="184"/>
-      <c r="J42" s="184"/>
-      <c r="K42" s="185"/>
-      <c r="L42" s="202">
+      <c r="H42" s="189"/>
+      <c r="I42" s="189"/>
+      <c r="J42" s="189"/>
+      <c r="K42" s="190"/>
+      <c r="L42" s="265">
         <f>L40/2</f>
         <v>0</v>
       </c>
-      <c r="M42" s="184"/>
-      <c r="N42" s="185"/>
-      <c r="O42" s="202">
+      <c r="M42" s="189"/>
+      <c r="N42" s="190"/>
+      <c r="O42" s="265">
         <f>L42*2.333</f>
         <v>0</v>
       </c>
-      <c r="P42" s="184"/>
-      <c r="Q42" s="185"/>
-      <c r="R42" s="241">
+      <c r="P42" s="189"/>
+      <c r="Q42" s="190"/>
+      <c r="R42" s="198">
         <f>Y$7</f>
         <v>0</v>
       </c>
-      <c r="S42" s="184"/>
-      <c r="T42" s="184"/>
-      <c r="U42" s="184"/>
-      <c r="V42" s="185"/>
+      <c r="S42" s="189"/>
+      <c r="T42" s="189"/>
+      <c r="U42" s="189"/>
+      <c r="V42" s="190"/>
       <c r="W42" s="1"/>
-      <c r="X42" s="211"/>
-      <c r="Y42" s="212"/>
-      <c r="Z42" s="212"/>
-      <c r="AA42" s="212"/>
-      <c r="AB42" s="213"/>
+      <c r="X42" s="328"/>
+      <c r="Y42" s="329"/>
+      <c r="Z42" s="329"/>
+      <c r="AA42" s="329"/>
+      <c r="AB42" s="217"/>
       <c r="AC42" s="51"/>
       <c r="AD42" s="51"/>
       <c r="AE42" s="51"/>
@@ -7560,7 +7575,7 @@
       <c r="AO42" s="51"/>
       <c r="AP42" s="52"/>
       <c r="AQ42" s="52"/>
-      <c r="AR42" s="258"/>
+      <c r="AR42" s="297"/>
       <c r="AS42" s="69"/>
       <c r="AT42" s="69"/>
       <c r="AU42" s="69"/>
@@ -7615,34 +7630,34 @@
       <c r="DB42" s="18"/>
       <c r="DC42" s="18"/>
     </row>
-    <row r="43" spans="2:107" ht="11.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:107" ht="11.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B43" s="38"/>
-      <c r="C43" s="182"/>
-      <c r="D43" s="182"/>
-      <c r="E43" s="182"/>
+      <c r="C43" s="180"/>
+      <c r="D43" s="180"/>
+      <c r="E43" s="180"/>
       <c r="F43" s="39"/>
-      <c r="G43" s="190"/>
-      <c r="H43" s="190"/>
-      <c r="I43" s="190"/>
-      <c r="J43" s="190"/>
-      <c r="K43" s="191"/>
-      <c r="L43" s="189"/>
-      <c r="M43" s="190"/>
-      <c r="N43" s="191"/>
-      <c r="O43" s="189"/>
-      <c r="P43" s="190"/>
-      <c r="Q43" s="191"/>
-      <c r="R43" s="189"/>
-      <c r="S43" s="190"/>
-      <c r="T43" s="190"/>
-      <c r="U43" s="190"/>
-      <c r="V43" s="191"/>
+      <c r="G43" s="192"/>
+      <c r="H43" s="192"/>
+      <c r="I43" s="192"/>
+      <c r="J43" s="192"/>
+      <c r="K43" s="193"/>
+      <c r="L43" s="191"/>
+      <c r="M43" s="192"/>
+      <c r="N43" s="193"/>
+      <c r="O43" s="191"/>
+      <c r="P43" s="192"/>
+      <c r="Q43" s="193"/>
+      <c r="R43" s="191"/>
+      <c r="S43" s="192"/>
+      <c r="T43" s="192"/>
+      <c r="U43" s="192"/>
+      <c r="V43" s="193"/>
       <c r="W43" s="1"/>
-      <c r="X43" s="211"/>
-      <c r="Y43" s="212"/>
-      <c r="Z43" s="212"/>
-      <c r="AA43" s="212"/>
-      <c r="AB43" s="213"/>
+      <c r="X43" s="328"/>
+      <c r="Y43" s="329"/>
+      <c r="Z43" s="329"/>
+      <c r="AA43" s="329"/>
+      <c r="AB43" s="217"/>
       <c r="AC43" s="51"/>
       <c r="AD43" s="51"/>
       <c r="AE43" s="51"/>
@@ -7658,7 +7673,7 @@
       <c r="AO43" s="51"/>
       <c r="AP43" s="52"/>
       <c r="AQ43" s="52"/>
-      <c r="AR43" s="232"/>
+      <c r="AR43" s="195"/>
       <c r="AS43" s="69"/>
       <c r="AT43" s="69"/>
       <c r="AU43" s="69"/>
@@ -7713,45 +7728,45 @@
       <c r="DB43" s="18"/>
       <c r="DC43" s="18"/>
     </row>
-    <row r="44" spans="2:107" ht="11.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:107" ht="11.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44" s="38"/>
-      <c r="C44" s="182"/>
-      <c r="D44" s="182"/>
-      <c r="E44" s="182"/>
+      <c r="C44" s="180"/>
+      <c r="D44" s="180"/>
+      <c r="E44" s="180"/>
       <c r="F44" s="39"/>
-      <c r="G44" s="219" t="s">
+      <c r="G44" s="334" t="s">
         <v>23</v>
       </c>
-      <c r="H44" s="184"/>
-      <c r="I44" s="184"/>
-      <c r="J44" s="184"/>
-      <c r="K44" s="185"/>
-      <c r="L44" s="271">
+      <c r="H44" s="189"/>
+      <c r="I44" s="189"/>
+      <c r="J44" s="189"/>
+      <c r="K44" s="190"/>
+      <c r="L44" s="247">
         <f>L42/2</f>
         <v>0</v>
       </c>
-      <c r="M44" s="184"/>
-      <c r="N44" s="185"/>
-      <c r="O44" s="271">
+      <c r="M44" s="189"/>
+      <c r="N44" s="190"/>
+      <c r="O44" s="247">
         <f>L44*2.333</f>
         <v>0</v>
       </c>
-      <c r="P44" s="184"/>
-      <c r="Q44" s="185"/>
-      <c r="R44" s="260">
+      <c r="P44" s="189"/>
+      <c r="Q44" s="190"/>
+      <c r="R44" s="298">
         <f>Y$8</f>
         <v>0</v>
       </c>
-      <c r="S44" s="184"/>
-      <c r="T44" s="184"/>
-      <c r="U44" s="184"/>
-      <c r="V44" s="185"/>
+      <c r="S44" s="189"/>
+      <c r="T44" s="189"/>
+      <c r="U44" s="189"/>
+      <c r="V44" s="190"/>
       <c r="W44" s="1"/>
-      <c r="X44" s="211"/>
-      <c r="Y44" s="212"/>
-      <c r="Z44" s="212"/>
-      <c r="AA44" s="212"/>
-      <c r="AB44" s="213"/>
+      <c r="X44" s="328"/>
+      <c r="Y44" s="329"/>
+      <c r="Z44" s="329"/>
+      <c r="AA44" s="329"/>
+      <c r="AB44" s="217"/>
       <c r="AC44" s="51"/>
       <c r="AD44" s="51"/>
       <c r="AE44" s="51"/>
@@ -7822,34 +7837,34 @@
       <c r="DB44" s="18"/>
       <c r="DC44" s="18"/>
     </row>
-    <row r="45" spans="2:107" ht="11.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:107" ht="11.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B45" s="40"/>
       <c r="C45" s="41"/>
       <c r="D45" s="41"/>
       <c r="E45" s="41"/>
       <c r="F45" s="42"/>
-      <c r="G45" s="220"/>
-      <c r="H45" s="220"/>
-      <c r="I45" s="220"/>
-      <c r="J45" s="221"/>
-      <c r="K45" s="188"/>
-      <c r="L45" s="186"/>
-      <c r="M45" s="221"/>
-      <c r="N45" s="188"/>
-      <c r="O45" s="186"/>
-      <c r="P45" s="221"/>
-      <c r="Q45" s="188"/>
-      <c r="R45" s="186"/>
-      <c r="S45" s="221"/>
-      <c r="T45" s="221"/>
-      <c r="U45" s="221"/>
-      <c r="V45" s="188"/>
+      <c r="G45" s="335"/>
+      <c r="H45" s="335"/>
+      <c r="I45" s="335"/>
+      <c r="J45" s="210"/>
+      <c r="K45" s="211"/>
+      <c r="L45" s="212"/>
+      <c r="M45" s="210"/>
+      <c r="N45" s="211"/>
+      <c r="O45" s="212"/>
+      <c r="P45" s="210"/>
+      <c r="Q45" s="211"/>
+      <c r="R45" s="212"/>
+      <c r="S45" s="210"/>
+      <c r="T45" s="210"/>
+      <c r="U45" s="210"/>
+      <c r="V45" s="211"/>
       <c r="W45" s="1"/>
-      <c r="X45" s="211"/>
-      <c r="Y45" s="212"/>
-      <c r="Z45" s="212"/>
-      <c r="AA45" s="212"/>
-      <c r="AB45" s="213"/>
+      <c r="X45" s="328"/>
+      <c r="Y45" s="329"/>
+      <c r="Z45" s="329"/>
+      <c r="AA45" s="329"/>
+      <c r="AB45" s="217"/>
       <c r="AC45" s="51"/>
       <c r="AD45" s="51"/>
       <c r="AE45" s="51"/>
@@ -7920,36 +7935,36 @@
       <c r="DB45" s="18"/>
       <c r="DC45" s="18"/>
     </row>
-    <row r="46" spans="2:107" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="275" t="s">
+    <row r="46" spans="1:107" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="269" t="s">
         <v>24</v>
       </c>
-      <c r="C46" s="276"/>
-      <c r="D46" s="276"/>
-      <c r="E46" s="276"/>
-      <c r="F46" s="276"/>
-      <c r="G46" s="276"/>
-      <c r="H46" s="276"/>
-      <c r="I46" s="276"/>
-      <c r="J46" s="276"/>
-      <c r="K46" s="276"/>
-      <c r="L46" s="276"/>
-      <c r="M46" s="276"/>
-      <c r="N46" s="276"/>
-      <c r="O46" s="276"/>
-      <c r="P46" s="276"/>
-      <c r="Q46" s="276"/>
-      <c r="R46" s="276"/>
-      <c r="S46" s="276"/>
-      <c r="T46" s="276"/>
-      <c r="U46" s="276"/>
-      <c r="V46" s="277"/>
+      <c r="C46" s="270"/>
+      <c r="D46" s="270"/>
+      <c r="E46" s="270"/>
+      <c r="F46" s="270"/>
+      <c r="G46" s="270"/>
+      <c r="H46" s="270"/>
+      <c r="I46" s="270"/>
+      <c r="J46" s="270"/>
+      <c r="K46" s="270"/>
+      <c r="L46" s="270"/>
+      <c r="M46" s="270"/>
+      <c r="N46" s="270"/>
+      <c r="O46" s="270"/>
+      <c r="P46" s="270"/>
+      <c r="Q46" s="270"/>
+      <c r="R46" s="270"/>
+      <c r="S46" s="270"/>
+      <c r="T46" s="270"/>
+      <c r="U46" s="270"/>
+      <c r="V46" s="271"/>
       <c r="W46" s="1"/>
-      <c r="X46" s="211"/>
-      <c r="Y46" s="212"/>
-      <c r="Z46" s="212"/>
-      <c r="AA46" s="212"/>
-      <c r="AB46" s="213"/>
+      <c r="X46" s="328"/>
+      <c r="Y46" s="329"/>
+      <c r="Z46" s="329"/>
+      <c r="AA46" s="329"/>
+      <c r="AB46" s="217"/>
       <c r="AC46" s="51"/>
       <c r="AD46" s="51"/>
       <c r="AE46" s="51"/>
@@ -7963,9 +7978,9 @@
       <c r="AM46" s="51"/>
       <c r="AN46" s="51"/>
       <c r="AO46" s="51"/>
-      <c r="AP46" s="332"/>
-      <c r="AQ46" s="232"/>
-      <c r="AR46" s="232"/>
+      <c r="AP46" s="194"/>
+      <c r="AQ46" s="195"/>
+      <c r="AR46" s="195"/>
       <c r="AS46" s="69"/>
       <c r="AT46" s="69"/>
       <c r="AU46" s="69"/>
@@ -8020,34 +8035,34 @@
       <c r="DB46" s="18"/>
       <c r="DC46" s="18"/>
     </row>
-    <row r="47" spans="2:107" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B47" s="278"/>
-      <c r="C47" s="279"/>
-      <c r="D47" s="279"/>
-      <c r="E47" s="279"/>
-      <c r="F47" s="280"/>
-      <c r="G47" s="280"/>
-      <c r="H47" s="280"/>
-      <c r="I47" s="280"/>
-      <c r="J47" s="281"/>
-      <c r="K47" s="281"/>
-      <c r="L47" s="281"/>
-      <c r="M47" s="281"/>
-      <c r="N47" s="281"/>
-      <c r="O47" s="281"/>
-      <c r="P47" s="281"/>
-      <c r="Q47" s="281"/>
-      <c r="R47" s="281"/>
-      <c r="S47" s="281"/>
-      <c r="T47" s="281"/>
-      <c r="U47" s="281"/>
-      <c r="V47" s="282"/>
+    <row r="47" spans="1:107" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B47" s="272"/>
+      <c r="C47" s="273"/>
+      <c r="D47" s="273"/>
+      <c r="E47" s="273"/>
+      <c r="F47" s="274"/>
+      <c r="G47" s="274"/>
+      <c r="H47" s="274"/>
+      <c r="I47" s="274"/>
+      <c r="J47" s="275"/>
+      <c r="K47" s="275"/>
+      <c r="L47" s="275"/>
+      <c r="M47" s="275"/>
+      <c r="N47" s="275"/>
+      <c r="O47" s="275"/>
+      <c r="P47" s="275"/>
+      <c r="Q47" s="275"/>
+      <c r="R47" s="275"/>
+      <c r="S47" s="275"/>
+      <c r="T47" s="275"/>
+      <c r="U47" s="275"/>
+      <c r="V47" s="276"/>
       <c r="W47" s="1"/>
-      <c r="X47" s="214"/>
-      <c r="Y47" s="215"/>
-      <c r="Z47" s="215"/>
-      <c r="AA47" s="215"/>
-      <c r="AB47" s="216"/>
+      <c r="X47" s="330"/>
+      <c r="Y47" s="331"/>
+      <c r="Z47" s="331"/>
+      <c r="AA47" s="331"/>
+      <c r="AB47" s="332"/>
       <c r="AC47" s="51"/>
       <c r="AD47" s="51"/>
       <c r="AE47" s="51"/>
@@ -8061,9 +8076,9 @@
       <c r="AM47" s="51"/>
       <c r="AN47" s="51"/>
       <c r="AO47" s="51"/>
-      <c r="AP47" s="232"/>
-      <c r="AQ47" s="232"/>
-      <c r="AR47" s="232"/>
+      <c r="AP47" s="195"/>
+      <c r="AQ47" s="195"/>
+      <c r="AR47" s="195"/>
       <c r="AS47" s="69"/>
       <c r="AT47" s="69"/>
       <c r="AU47" s="69"/>
@@ -8118,28 +8133,28 @@
       <c r="DB47" s="18"/>
       <c r="DC47" s="18"/>
     </row>
-    <row r="48" spans="2:107" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B48" s="283"/>
-      <c r="C48" s="284"/>
-      <c r="D48" s="284"/>
-      <c r="E48" s="284"/>
-      <c r="F48" s="284"/>
-      <c r="G48" s="284"/>
-      <c r="H48" s="284"/>
-      <c r="I48" s="284"/>
-      <c r="J48" s="284"/>
-      <c r="K48" s="284"/>
-      <c r="L48" s="284"/>
-      <c r="M48" s="284"/>
-      <c r="N48" s="284"/>
-      <c r="O48" s="284"/>
-      <c r="P48" s="284"/>
-      <c r="Q48" s="284"/>
-      <c r="R48" s="284"/>
-      <c r="S48" s="284"/>
-      <c r="T48" s="284"/>
-      <c r="U48" s="284"/>
-      <c r="V48" s="285"/>
+    <row r="48" spans="1:107" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B48" s="277"/>
+      <c r="C48" s="278"/>
+      <c r="D48" s="278"/>
+      <c r="E48" s="278"/>
+      <c r="F48" s="278"/>
+      <c r="G48" s="278"/>
+      <c r="H48" s="278"/>
+      <c r="I48" s="278"/>
+      <c r="J48" s="278"/>
+      <c r="K48" s="278"/>
+      <c r="L48" s="278"/>
+      <c r="M48" s="278"/>
+      <c r="N48" s="278"/>
+      <c r="O48" s="278"/>
+      <c r="P48" s="278"/>
+      <c r="Q48" s="278"/>
+      <c r="R48" s="278"/>
+      <c r="S48" s="278"/>
+      <c r="T48" s="278"/>
+      <c r="U48" s="278"/>
+      <c r="V48" s="279"/>
       <c r="W48" s="1"/>
       <c r="X48" s="1"/>
       <c r="Y48" s="1"/>
@@ -8575,10 +8590,10 @@
       <c r="O55" s="30"/>
       <c r="P55" s="30"/>
       <c r="Q55" s="30"/>
-      <c r="R55" s="224"/>
-      <c r="S55" s="221"/>
-      <c r="T55" s="221"/>
-      <c r="U55" s="221"/>
+      <c r="R55" s="241"/>
+      <c r="S55" s="210"/>
+      <c r="T55" s="210"/>
+      <c r="U55" s="210"/>
       <c r="V55" s="30"/>
       <c r="W55" s="30"/>
       <c r="X55" s="30"/>
@@ -8656,10 +8671,10 @@
       <c r="O56" s="30"/>
       <c r="P56" s="30"/>
       <c r="Q56" s="30"/>
-      <c r="R56" s="224"/>
-      <c r="S56" s="221"/>
-      <c r="T56" s="221"/>
-      <c r="U56" s="221"/>
+      <c r="R56" s="241"/>
+      <c r="S56" s="210"/>
+      <c r="T56" s="210"/>
+      <c r="U56" s="210"/>
       <c r="V56" s="30"/>
       <c r="W56" s="30"/>
       <c r="X56" s="30"/>
@@ -8737,10 +8752,10 @@
       <c r="O57" s="30"/>
       <c r="P57" s="30"/>
       <c r="Q57" s="30"/>
-      <c r="R57" s="224"/>
-      <c r="S57" s="221"/>
-      <c r="T57" s="221"/>
-      <c r="U57" s="221"/>
+      <c r="R57" s="241"/>
+      <c r="S57" s="210"/>
+      <c r="T57" s="210"/>
+      <c r="U57" s="210"/>
       <c r="V57" s="30"/>
       <c r="W57" s="30"/>
       <c r="X57" s="30"/>
@@ -8982,29 +8997,29 @@
       <c r="Q60" s="30"/>
       <c r="R60" s="30"/>
       <c r="S60" s="30"/>
-      <c r="T60" s="265"/>
-      <c r="U60" s="221"/>
-      <c r="V60" s="221"/>
-      <c r="W60" s="266"/>
-      <c r="X60" s="266"/>
-      <c r="Y60" s="266"/>
-      <c r="Z60" s="266"/>
-      <c r="AA60" s="266"/>
-      <c r="AB60" s="266"/>
-      <c r="AC60" s="267"/>
-      <c r="AD60" s="266"/>
-      <c r="AE60" s="266"/>
-      <c r="AF60" s="266"/>
-      <c r="AG60" s="266"/>
-      <c r="AH60" s="266"/>
-      <c r="AI60" s="266"/>
-      <c r="AJ60" s="266"/>
-      <c r="AK60" s="266"/>
-      <c r="AL60" s="266"/>
-      <c r="AM60" s="266"/>
-      <c r="AN60" s="266"/>
-      <c r="AO60" s="266"/>
-      <c r="AP60" s="188"/>
+      <c r="T60" s="260"/>
+      <c r="U60" s="210"/>
+      <c r="V60" s="210"/>
+      <c r="W60" s="255"/>
+      <c r="X60" s="255"/>
+      <c r="Y60" s="255"/>
+      <c r="Z60" s="255"/>
+      <c r="AA60" s="255"/>
+      <c r="AB60" s="255"/>
+      <c r="AC60" s="261"/>
+      <c r="AD60" s="255"/>
+      <c r="AE60" s="255"/>
+      <c r="AF60" s="255"/>
+      <c r="AG60" s="255"/>
+      <c r="AH60" s="255"/>
+      <c r="AI60" s="255"/>
+      <c r="AJ60" s="255"/>
+      <c r="AK60" s="255"/>
+      <c r="AL60" s="255"/>
+      <c r="AM60" s="255"/>
+      <c r="AN60" s="255"/>
+      <c r="AO60" s="255"/>
+      <c r="AP60" s="211"/>
       <c r="AQ60" s="18"/>
       <c r="AR60" s="18"/>
       <c r="AS60" s="18"/>
@@ -9058,35 +9073,35 @@
       <c r="K61" s="30"/>
       <c r="L61" s="30"/>
       <c r="M61" s="30"/>
-      <c r="N61" s="310"/>
-      <c r="O61" s="221"/>
-      <c r="P61" s="221"/>
-      <c r="Q61" s="221"/>
-      <c r="R61" s="188"/>
+      <c r="N61" s="209"/>
+      <c r="O61" s="210"/>
+      <c r="P61" s="210"/>
+      <c r="Q61" s="210"/>
+      <c r="R61" s="211"/>
       <c r="S61" s="30"/>
-      <c r="T61" s="186"/>
-      <c r="U61" s="221"/>
-      <c r="V61" s="221"/>
-      <c r="W61" s="266"/>
-      <c r="X61" s="266"/>
-      <c r="Y61" s="266"/>
-      <c r="Z61" s="266"/>
-      <c r="AA61" s="266"/>
-      <c r="AB61" s="266"/>
-      <c r="AC61" s="267"/>
-      <c r="AD61" s="266"/>
-      <c r="AE61" s="266"/>
-      <c r="AF61" s="266"/>
-      <c r="AG61" s="266"/>
-      <c r="AH61" s="266"/>
-      <c r="AI61" s="266"/>
-      <c r="AJ61" s="266"/>
-      <c r="AK61" s="266"/>
-      <c r="AL61" s="266"/>
-      <c r="AM61" s="266"/>
-      <c r="AN61" s="266"/>
-      <c r="AO61" s="266"/>
-      <c r="AP61" s="188"/>
+      <c r="T61" s="212"/>
+      <c r="U61" s="210"/>
+      <c r="V61" s="210"/>
+      <c r="W61" s="255"/>
+      <c r="X61" s="255"/>
+      <c r="Y61" s="255"/>
+      <c r="Z61" s="255"/>
+      <c r="AA61" s="255"/>
+      <c r="AB61" s="255"/>
+      <c r="AC61" s="261"/>
+      <c r="AD61" s="255"/>
+      <c r="AE61" s="255"/>
+      <c r="AF61" s="255"/>
+      <c r="AG61" s="255"/>
+      <c r="AH61" s="255"/>
+      <c r="AI61" s="255"/>
+      <c r="AJ61" s="255"/>
+      <c r="AK61" s="255"/>
+      <c r="AL61" s="255"/>
+      <c r="AM61" s="255"/>
+      <c r="AN61" s="255"/>
+      <c r="AO61" s="255"/>
+      <c r="AP61" s="211"/>
       <c r="AQ61" s="18"/>
       <c r="AR61" s="18"/>
       <c r="AS61" s="18"/>
@@ -9140,35 +9155,35 @@
       <c r="K62" s="30"/>
       <c r="L62" s="30"/>
       <c r="M62" s="30"/>
-      <c r="N62" s="186"/>
-      <c r="O62" s="221"/>
-      <c r="P62" s="221"/>
-      <c r="Q62" s="221"/>
-      <c r="R62" s="188"/>
+      <c r="N62" s="212"/>
+      <c r="O62" s="210"/>
+      <c r="P62" s="210"/>
+      <c r="Q62" s="210"/>
+      <c r="R62" s="211"/>
       <c r="S62" s="30"/>
-      <c r="T62" s="186"/>
-      <c r="U62" s="221"/>
-      <c r="V62" s="221"/>
-      <c r="W62" s="266"/>
-      <c r="X62" s="266"/>
-      <c r="Y62" s="266"/>
-      <c r="Z62" s="266"/>
-      <c r="AA62" s="266"/>
-      <c r="AB62" s="266"/>
-      <c r="AC62" s="267"/>
-      <c r="AD62" s="266"/>
-      <c r="AE62" s="266"/>
-      <c r="AF62" s="266"/>
-      <c r="AG62" s="266"/>
-      <c r="AH62" s="266"/>
-      <c r="AI62" s="266"/>
-      <c r="AJ62" s="266"/>
-      <c r="AK62" s="266"/>
-      <c r="AL62" s="266"/>
-      <c r="AM62" s="266"/>
-      <c r="AN62" s="266"/>
-      <c r="AO62" s="266"/>
-      <c r="AP62" s="188"/>
+      <c r="T62" s="212"/>
+      <c r="U62" s="210"/>
+      <c r="V62" s="210"/>
+      <c r="W62" s="255"/>
+      <c r="X62" s="255"/>
+      <c r="Y62" s="255"/>
+      <c r="Z62" s="255"/>
+      <c r="AA62" s="255"/>
+      <c r="AB62" s="255"/>
+      <c r="AC62" s="261"/>
+      <c r="AD62" s="255"/>
+      <c r="AE62" s="255"/>
+      <c r="AF62" s="255"/>
+      <c r="AG62" s="255"/>
+      <c r="AH62" s="255"/>
+      <c r="AI62" s="255"/>
+      <c r="AJ62" s="255"/>
+      <c r="AK62" s="255"/>
+      <c r="AL62" s="255"/>
+      <c r="AM62" s="255"/>
+      <c r="AN62" s="255"/>
+      <c r="AO62" s="255"/>
+      <c r="AP62" s="211"/>
       <c r="AQ62" s="18"/>
       <c r="AR62" s="18"/>
       <c r="AS62" s="18"/>
@@ -9222,11 +9237,11 @@
       <c r="K63" s="30"/>
       <c r="L63" s="30"/>
       <c r="M63" s="30"/>
-      <c r="N63" s="186"/>
-      <c r="O63" s="221"/>
-      <c r="P63" s="221"/>
-      <c r="Q63" s="221"/>
-      <c r="R63" s="188"/>
+      <c r="N63" s="212"/>
+      <c r="O63" s="210"/>
+      <c r="P63" s="210"/>
+      <c r="Q63" s="210"/>
+      <c r="R63" s="211"/>
       <c r="S63" s="30"/>
       <c r="T63" s="30"/>
       <c r="U63" s="30"/>
@@ -9303,11 +9318,11 @@
       <c r="K64" s="30"/>
       <c r="L64" s="30"/>
       <c r="M64" s="30"/>
-      <c r="N64" s="186"/>
-      <c r="O64" s="221"/>
-      <c r="P64" s="221"/>
-      <c r="Q64" s="221"/>
-      <c r="R64" s="188"/>
+      <c r="N64" s="212"/>
+      <c r="O64" s="210"/>
+      <c r="P64" s="210"/>
+      <c r="Q64" s="210"/>
+      <c r="R64" s="211"/>
       <c r="S64" s="30"/>
       <c r="T64" s="30"/>
       <c r="U64" s="30"/>
@@ -9384,11 +9399,11 @@
       <c r="K65" s="30"/>
       <c r="L65" s="30"/>
       <c r="M65" s="30"/>
-      <c r="N65" s="186"/>
-      <c r="O65" s="221"/>
-      <c r="P65" s="221"/>
-      <c r="Q65" s="221"/>
-      <c r="R65" s="188"/>
+      <c r="N65" s="212"/>
+      <c r="O65" s="210"/>
+      <c r="P65" s="210"/>
+      <c r="Q65" s="210"/>
+      <c r="R65" s="211"/>
       <c r="S65" s="30"/>
       <c r="T65" s="30"/>
       <c r="U65" s="30"/>
@@ -9465,11 +9480,11 @@
       <c r="K66" s="30"/>
       <c r="L66" s="30"/>
       <c r="M66" s="30"/>
-      <c r="N66" s="186"/>
-      <c r="O66" s="221"/>
-      <c r="P66" s="221"/>
-      <c r="Q66" s="221"/>
-      <c r="R66" s="188"/>
+      <c r="N66" s="212"/>
+      <c r="O66" s="210"/>
+      <c r="P66" s="210"/>
+      <c r="Q66" s="210"/>
+      <c r="R66" s="211"/>
       <c r="S66" s="30"/>
       <c r="T66" s="30"/>
       <c r="U66" s="30"/>
@@ -9546,11 +9561,11 @@
       <c r="K67" s="30"/>
       <c r="L67" s="30"/>
       <c r="M67" s="30"/>
-      <c r="N67" s="186"/>
-      <c r="O67" s="221"/>
-      <c r="P67" s="221"/>
-      <c r="Q67" s="221"/>
-      <c r="R67" s="188"/>
+      <c r="N67" s="212"/>
+      <c r="O67" s="210"/>
+      <c r="P67" s="210"/>
+      <c r="Q67" s="210"/>
+      <c r="R67" s="211"/>
       <c r="S67" s="30"/>
       <c r="T67" s="30"/>
       <c r="U67" s="30"/>
@@ -9627,11 +9642,11 @@
       <c r="K68" s="30"/>
       <c r="L68" s="30"/>
       <c r="M68" s="30"/>
-      <c r="N68" s="186"/>
-      <c r="O68" s="221"/>
-      <c r="P68" s="221"/>
-      <c r="Q68" s="221"/>
-      <c r="R68" s="188"/>
+      <c r="N68" s="212"/>
+      <c r="O68" s="210"/>
+      <c r="P68" s="210"/>
+      <c r="Q68" s="210"/>
+      <c r="R68" s="211"/>
       <c r="S68" s="30"/>
       <c r="T68" s="30"/>
       <c r="U68" s="30"/>
@@ -9708,11 +9723,11 @@
       <c r="K69" s="30"/>
       <c r="L69" s="30"/>
       <c r="M69" s="30"/>
-      <c r="N69" s="186"/>
-      <c r="O69" s="221"/>
-      <c r="P69" s="221"/>
-      <c r="Q69" s="221"/>
-      <c r="R69" s="188"/>
+      <c r="N69" s="212"/>
+      <c r="O69" s="210"/>
+      <c r="P69" s="210"/>
+      <c r="Q69" s="210"/>
+      <c r="R69" s="211"/>
       <c r="S69" s="30"/>
       <c r="T69" s="30"/>
       <c r="U69" s="30"/>
@@ -9789,11 +9804,11 @@
       <c r="K70" s="30"/>
       <c r="L70" s="30"/>
       <c r="M70" s="30"/>
-      <c r="N70" s="186"/>
-      <c r="O70" s="221"/>
-      <c r="P70" s="221"/>
-      <c r="Q70" s="221"/>
-      <c r="R70" s="188"/>
+      <c r="N70" s="212"/>
+      <c r="O70" s="210"/>
+      <c r="P70" s="210"/>
+      <c r="Q70" s="210"/>
+      <c r="R70" s="211"/>
       <c r="S70" s="30"/>
       <c r="T70" s="30"/>
       <c r="U70" s="30"/>
@@ -9870,11 +9885,11 @@
       <c r="K71" s="30"/>
       <c r="L71" s="30"/>
       <c r="M71" s="30"/>
-      <c r="N71" s="189"/>
-      <c r="O71" s="190"/>
-      <c r="P71" s="190"/>
-      <c r="Q71" s="190"/>
-      <c r="R71" s="191"/>
+      <c r="N71" s="191"/>
+      <c r="O71" s="192"/>
+      <c r="P71" s="192"/>
+      <c r="Q71" s="192"/>
+      <c r="R71" s="193"/>
       <c r="S71" s="30"/>
       <c r="T71" s="30"/>
       <c r="U71" s="30"/>
@@ -59116,24 +59131,116 @@
     </row>
   </sheetData>
   <mergeCells count="152">
-    <mergeCell ref="BH26:BP26"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="BQ25:BT25"/>
-    <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="R38:V39"/>
-    <mergeCell ref="AP46:AR47"/>
-    <mergeCell ref="BH25:BP25"/>
-    <mergeCell ref="BB16:BB17"/>
-    <mergeCell ref="R40:V41"/>
-    <mergeCell ref="BH18:BP18"/>
-    <mergeCell ref="BS34:BV34"/>
-    <mergeCell ref="AQ36:AR36"/>
-    <mergeCell ref="AA22:AB22"/>
-    <mergeCell ref="AQ30:AR30"/>
-    <mergeCell ref="BQ18:BT18"/>
-    <mergeCell ref="AQ20:AR20"/>
-    <mergeCell ref="V8:V35"/>
-    <mergeCell ref="X9:Z9"/>
+    <mergeCell ref="B5:F7"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B8:F13"/>
+    <mergeCell ref="B14:F18"/>
+    <mergeCell ref="O42:Q43"/>
+    <mergeCell ref="AA29:AB29"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="Y24:Z24"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="X35:AB47"/>
+    <mergeCell ref="Y21:Z21"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="AA24:AB24"/>
+    <mergeCell ref="G40:K41"/>
+    <mergeCell ref="O39:Q39"/>
+    <mergeCell ref="G44:K45"/>
+    <mergeCell ref="G42:K43"/>
+    <mergeCell ref="G38:K39"/>
+    <mergeCell ref="L40:N41"/>
+    <mergeCell ref="X3:AB4"/>
+    <mergeCell ref="R55:U55"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="AQ27:AR27"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AP16:AP18"/>
+    <mergeCell ref="AY30:AY32"/>
+    <mergeCell ref="Y22:Z22"/>
+    <mergeCell ref="AQ28:AR28"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="AA26:AB26"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="Y25:Z25"/>
+    <mergeCell ref="AQ32:AR32"/>
+    <mergeCell ref="Y5:AB5"/>
+    <mergeCell ref="AA25:AB25"/>
+    <mergeCell ref="R56:U56"/>
+    <mergeCell ref="AA28:AB28"/>
+    <mergeCell ref="R42:V43"/>
+    <mergeCell ref="BQ17:BT17"/>
+    <mergeCell ref="BH17:BP17"/>
+    <mergeCell ref="AQ22:AR22"/>
+    <mergeCell ref="AZ13:BD15"/>
+    <mergeCell ref="L38:Q38"/>
+    <mergeCell ref="AA30:AB30"/>
+    <mergeCell ref="BQ19:BT19"/>
+    <mergeCell ref="AQ21:AR21"/>
+    <mergeCell ref="BH19:BP19"/>
+    <mergeCell ref="Y26:Z26"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="BD16:BD17"/>
+    <mergeCell ref="AZ35:BD35"/>
+    <mergeCell ref="AR42:AR43"/>
+    <mergeCell ref="Y18:Z18"/>
+    <mergeCell ref="AQ35:AR35"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="R44:V45"/>
+    <mergeCell ref="AQ34:AR34"/>
+    <mergeCell ref="BH27:BT27"/>
+    <mergeCell ref="BS35:BV35"/>
+    <mergeCell ref="T60:AP62"/>
+    <mergeCell ref="BA16:BA17"/>
+    <mergeCell ref="Y27:Z27"/>
+    <mergeCell ref="BG34:BL35"/>
+    <mergeCell ref="L42:N43"/>
+    <mergeCell ref="O40:Q41"/>
+    <mergeCell ref="L44:N45"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="BQ21:BT21"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="BG28:BV29"/>
+    <mergeCell ref="B46:V48"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="BG30:BV30"/>
+    <mergeCell ref="AY33:AY34"/>
+    <mergeCell ref="AA19:AB19"/>
+    <mergeCell ref="AQ25:AR25"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="Y30:Z30"/>
+    <mergeCell ref="AZ16:AZ17"/>
+    <mergeCell ref="Y20:Z20"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="Y29:Z29"/>
+    <mergeCell ref="Y11:Z11"/>
+    <mergeCell ref="R57:U57"/>
+    <mergeCell ref="Y31:Z31"/>
+    <mergeCell ref="BR34:BR35"/>
+    <mergeCell ref="Y28:Z28"/>
+    <mergeCell ref="AQ29:AR29"/>
+    <mergeCell ref="BM34:BQ34"/>
+    <mergeCell ref="O44:Q45"/>
+    <mergeCell ref="AA31:AB31"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="BQ20:BT20"/>
+    <mergeCell ref="AA21:AB21"/>
+    <mergeCell ref="BH20:BP20"/>
+    <mergeCell ref="BP33:BS33"/>
+    <mergeCell ref="AQ31:AR31"/>
+    <mergeCell ref="BG33:BO33"/>
+    <mergeCell ref="X32:AB33"/>
+    <mergeCell ref="BQ22:BT22"/>
+    <mergeCell ref="AQ15:AR15"/>
+    <mergeCell ref="Y23:Z23"/>
+    <mergeCell ref="BH15:BT16"/>
+    <mergeCell ref="AQ24:AR24"/>
+    <mergeCell ref="BH22:BP22"/>
+    <mergeCell ref="AA23:AB23"/>
+    <mergeCell ref="AQ19:AR19"/>
     <mergeCell ref="N61:R71"/>
     <mergeCell ref="BM35:BQ35"/>
     <mergeCell ref="BH21:BP21"/>
@@ -59158,116 +59265,24 @@
     <mergeCell ref="BG31:BV32"/>
     <mergeCell ref="Y6:Z6"/>
     <mergeCell ref="BQ26:BT26"/>
-    <mergeCell ref="R57:U57"/>
-    <mergeCell ref="Y31:Z31"/>
-    <mergeCell ref="BR34:BR35"/>
-    <mergeCell ref="Y28:Z28"/>
-    <mergeCell ref="AQ29:AR29"/>
-    <mergeCell ref="BM34:BQ34"/>
-    <mergeCell ref="O44:Q45"/>
-    <mergeCell ref="AA31:AB31"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="BQ20:BT20"/>
-    <mergeCell ref="AA21:AB21"/>
-    <mergeCell ref="BH20:BP20"/>
-    <mergeCell ref="BP33:BS33"/>
-    <mergeCell ref="AQ31:AR31"/>
-    <mergeCell ref="BG33:BO33"/>
-    <mergeCell ref="X32:AB33"/>
-    <mergeCell ref="BQ22:BT22"/>
-    <mergeCell ref="AQ15:AR15"/>
-    <mergeCell ref="Y23:Z23"/>
-    <mergeCell ref="BH15:BT16"/>
-    <mergeCell ref="AQ24:AR24"/>
-    <mergeCell ref="BH22:BP22"/>
-    <mergeCell ref="AA23:AB23"/>
-    <mergeCell ref="AQ19:AR19"/>
-    <mergeCell ref="T60:AP62"/>
-    <mergeCell ref="BA16:BA17"/>
-    <mergeCell ref="Y27:Z27"/>
-    <mergeCell ref="BG34:BL35"/>
-    <mergeCell ref="L42:N43"/>
-    <mergeCell ref="O40:Q41"/>
-    <mergeCell ref="L44:N45"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="BQ21:BT21"/>
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="BG28:BV29"/>
-    <mergeCell ref="B46:V48"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="BG30:BV30"/>
-    <mergeCell ref="AY33:AY34"/>
-    <mergeCell ref="AA19:AB19"/>
-    <mergeCell ref="AQ25:AR25"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="Y30:Z30"/>
-    <mergeCell ref="AZ16:AZ17"/>
-    <mergeCell ref="Y20:Z20"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="Y29:Z29"/>
-    <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="R56:U56"/>
-    <mergeCell ref="AA28:AB28"/>
-    <mergeCell ref="R42:V43"/>
-    <mergeCell ref="BQ17:BT17"/>
-    <mergeCell ref="BH17:BP17"/>
-    <mergeCell ref="AQ22:AR22"/>
-    <mergeCell ref="AZ13:BD15"/>
-    <mergeCell ref="L38:Q38"/>
-    <mergeCell ref="AA30:AB30"/>
-    <mergeCell ref="BQ19:BT19"/>
-    <mergeCell ref="AQ21:AR21"/>
-    <mergeCell ref="BH19:BP19"/>
-    <mergeCell ref="Y26:Z26"/>
-    <mergeCell ref="AA14:AB14"/>
-    <mergeCell ref="BD16:BD17"/>
-    <mergeCell ref="AZ35:BD35"/>
-    <mergeCell ref="AR42:AR43"/>
-    <mergeCell ref="Y18:Z18"/>
-    <mergeCell ref="AQ35:AR35"/>
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="R44:V45"/>
-    <mergeCell ref="AQ34:AR34"/>
-    <mergeCell ref="BH27:BT27"/>
-    <mergeCell ref="BS35:BV35"/>
-    <mergeCell ref="X3:AB4"/>
-    <mergeCell ref="R55:U55"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="AQ27:AR27"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AP16:AP18"/>
-    <mergeCell ref="AY30:AY32"/>
-    <mergeCell ref="Y22:Z22"/>
-    <mergeCell ref="AQ28:AR28"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="AA26:AB26"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="Y16:Z16"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="Y25:Z25"/>
-    <mergeCell ref="AQ32:AR32"/>
-    <mergeCell ref="Y5:AB5"/>
-    <mergeCell ref="AA25:AB25"/>
-    <mergeCell ref="B5:F7"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B8:F13"/>
-    <mergeCell ref="B14:F18"/>
-    <mergeCell ref="O42:Q43"/>
-    <mergeCell ref="AA29:AB29"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="Y24:Z24"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="X35:AB47"/>
-    <mergeCell ref="Y21:Z21"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="AA24:AB24"/>
-    <mergeCell ref="G40:K41"/>
-    <mergeCell ref="O39:Q39"/>
-    <mergeCell ref="G44:K45"/>
-    <mergeCell ref="G42:K43"/>
-    <mergeCell ref="G38:K39"/>
-    <mergeCell ref="L40:N41"/>
+    <mergeCell ref="BH26:BP26"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="BQ25:BT25"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="R38:V39"/>
+    <mergeCell ref="AP46:AR47"/>
+    <mergeCell ref="BH25:BP25"/>
+    <mergeCell ref="BB16:BB17"/>
+    <mergeCell ref="R40:V41"/>
+    <mergeCell ref="BH18:BP18"/>
+    <mergeCell ref="BS34:BV34"/>
+    <mergeCell ref="AQ36:AR36"/>
+    <mergeCell ref="AA22:AB22"/>
+    <mergeCell ref="AQ30:AR30"/>
+    <mergeCell ref="BQ18:BT18"/>
+    <mergeCell ref="AQ20:AR20"/>
+    <mergeCell ref="V8:V35"/>
+    <mergeCell ref="X9:Z9"/>
   </mergeCells>
   <conditionalFormatting sqref="X32">
     <cfRule type="cellIs" dxfId="3" priority="21" stopIfTrue="1" operator="greaterThan">

--- a/New-Template-(01-17-24).xlsx
+++ b/New-Template-(01-17-24).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Trae\2023\AI Folder\Data-TJD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2FD4D1A-EE48-4CA9-97B2-F692C9F6B856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB09A9F-26F8-4EF3-8E6E-9A77E3BC2BD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11904" yWindow="4608" windowWidth="16512" windowHeight="20280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="888" yWindow="-108" windowWidth="45300" windowHeight="26136" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="juliabid" sheetId="1" r:id="rId1"/>
@@ -1750,10 +1750,57 @@
     <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="36" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="49" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="50" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="50" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="36" fillId="3" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="21" fillId="9" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -1761,201 +1808,168 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="168" fontId="37" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="36" fillId="3" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="8" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="36" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="37" fillId="8" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="49" fillId="6" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="21" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="37" fillId="8" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="26" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="44" fontId="36" fillId="3" borderId="62" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="40" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="17" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="1" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="21" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="50" fillId="6" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="180" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="21" fillId="3" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="48" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="44" fontId="21" fillId="3" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="25" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="3" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="3" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="44" fontId="36" fillId="3" borderId="62" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="38" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="21" fillId="3" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="53" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="54" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="54" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="21" fillId="8" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="52" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="3" fontId="37" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="9" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
+    <xf numFmtId="168" fontId="37" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="36" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="26" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="44" fontId="11" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="51" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="15" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="1" fontId="17" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="44" fontId="36" fillId="3" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="4" borderId="41" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="43" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="21" fillId="3" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="25" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="21" fillId="3" borderId="47" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="22" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="23" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="36" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="21" fillId="3" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="37" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="24" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="50" fillId="3" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="33" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="26" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1964,7 +1978,7 @@
     <xf numFmtId="3" fontId="22" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="36" fillId="3" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="36" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="44" fontId="21" fillId="3" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1998,6 +2012,10 @@
     <xf numFmtId="44" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="11" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="9" fontId="21" fillId="3" borderId="56" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -2016,153 +2034,135 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="38" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="44" fontId="21" fillId="3" borderId="47" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="22" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="37" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="21" fillId="9" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="11" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="26" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="23" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="3" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="37" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="24" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="50" fillId="3" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="33" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="3" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="53" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="54" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="54" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="52" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="26" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="15" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="36" fillId="3" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="42" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="4" borderId="41" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="3" fontId="43" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="37" fillId="8" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="40" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="49" fillId="6" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="21" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="3" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="21" fillId="3" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="3" fontId="50" fillId="6" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="180" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="7" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="36" fillId="3" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="36" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="37" fillId="8" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="50" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="3" fontId="21" fillId="3" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2906,16 +2906,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>168313</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1905</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>262141</xdr:colOff>
+      <xdr:colOff>270510</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>289560</xdr:rowOff>
+      <xdr:rowOff>293370</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2939,8 +2939,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="168313" y="0"/>
-          <a:ext cx="7852579" cy="1180090"/>
+          <a:off x="169545" y="0"/>
+          <a:ext cx="7842885" cy="1184910"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3564,8 +3564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DC1083"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -3773,13 +3773,13 @@
       <c r="U3" s="174"/>
       <c r="V3" s="27"/>
       <c r="W3" s="5"/>
-      <c r="X3" s="302" t="s">
+      <c r="X3" s="224" t="s">
         <v>0</v>
       </c>
-      <c r="Y3" s="189"/>
-      <c r="Z3" s="189"/>
-      <c r="AA3" s="189"/>
-      <c r="AB3" s="189"/>
+      <c r="Y3" s="185"/>
+      <c r="Z3" s="185"/>
+      <c r="AA3" s="185"/>
+      <c r="AB3" s="185"/>
       <c r="AC3" s="151"/>
       <c r="AD3" s="30"/>
       <c r="AE3" s="30"/>
@@ -3850,11 +3850,11 @@
       <c r="U4" s="61"/>
       <c r="V4" s="62"/>
       <c r="W4" s="5"/>
-      <c r="X4" s="191"/>
-      <c r="Y4" s="192"/>
-      <c r="Z4" s="192"/>
-      <c r="AA4" s="192"/>
-      <c r="AB4" s="192"/>
+      <c r="X4" s="190"/>
+      <c r="Y4" s="191"/>
+      <c r="Z4" s="191"/>
+      <c r="AA4" s="191"/>
+      <c r="AB4" s="191"/>
       <c r="AC4" s="152"/>
       <c r="AD4" s="30"/>
       <c r="AE4" s="30"/>
@@ -3903,42 +3903,42 @@
       <c r="BV4" s="50"/>
     </row>
     <row r="5" spans="2:107" s="18" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="313" t="s">
+      <c r="B5" s="184" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="189"/>
-      <c r="D5" s="189"/>
-      <c r="E5" s="189"/>
-      <c r="F5" s="190"/>
-      <c r="G5" s="232" t="str">
+      <c r="C5" s="185"/>
+      <c r="D5" s="185"/>
+      <c r="E5" s="185"/>
+      <c r="F5" s="186"/>
+      <c r="G5" s="325" t="str">
         <f>Y5</f>
         <v>Test Company</v>
       </c>
-      <c r="H5" s="189"/>
-      <c r="I5" s="189"/>
-      <c r="J5" s="189"/>
-      <c r="K5" s="189"/>
-      <c r="L5" s="189"/>
-      <c r="M5" s="189"/>
-      <c r="N5" s="189"/>
-      <c r="O5" s="189"/>
-      <c r="P5" s="189"/>
-      <c r="Q5" s="189"/>
-      <c r="R5" s="189"/>
-      <c r="S5" s="189"/>
-      <c r="T5" s="189"/>
-      <c r="U5" s="189"/>
-      <c r="V5" s="190"/>
+      <c r="H5" s="185"/>
+      <c r="I5" s="185"/>
+      <c r="J5" s="185"/>
+      <c r="K5" s="185"/>
+      <c r="L5" s="185"/>
+      <c r="M5" s="185"/>
+      <c r="N5" s="185"/>
+      <c r="O5" s="185"/>
+      <c r="P5" s="185"/>
+      <c r="Q5" s="185"/>
+      <c r="R5" s="185"/>
+      <c r="S5" s="185"/>
+      <c r="T5" s="185"/>
+      <c r="U5" s="185"/>
+      <c r="V5" s="186"/>
       <c r="W5" s="5"/>
       <c r="X5" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="Y5" s="310" t="s">
+      <c r="Y5" s="239" t="s">
         <v>2</v>
       </c>
-      <c r="Z5" s="311"/>
-      <c r="AA5" s="311"/>
-      <c r="AB5" s="312"/>
+      <c r="Z5" s="240"/>
+      <c r="AA5" s="240"/>
+      <c r="AB5" s="241"/>
       <c r="AC5" s="159"/>
       <c r="AD5" s="30"/>
       <c r="AE5" s="30"/>
@@ -3987,39 +3987,39 @@
       <c r="BV5" s="50"/>
     </row>
     <row r="6" spans="2:107" s="18" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="212"/>
-      <c r="C6" s="182"/>
-      <c r="D6" s="182"/>
-      <c r="E6" s="182"/>
-      <c r="F6" s="211"/>
-      <c r="G6" s="212"/>
-      <c r="H6" s="182"/>
-      <c r="I6" s="182"/>
-      <c r="J6" s="182"/>
-      <c r="K6" s="182"/>
-      <c r="L6" s="182"/>
-      <c r="M6" s="182"/>
-      <c r="N6" s="182"/>
-      <c r="O6" s="182"/>
-      <c r="P6" s="182"/>
-      <c r="Q6" s="182"/>
-      <c r="R6" s="182"/>
-      <c r="S6" s="182"/>
-      <c r="T6" s="182"/>
-      <c r="U6" s="182"/>
-      <c r="V6" s="211"/>
+      <c r="B6" s="187"/>
+      <c r="C6" s="188"/>
+      <c r="D6" s="188"/>
+      <c r="E6" s="188"/>
+      <c r="F6" s="189"/>
+      <c r="G6" s="187"/>
+      <c r="H6" s="188"/>
+      <c r="I6" s="188"/>
+      <c r="J6" s="188"/>
+      <c r="K6" s="188"/>
+      <c r="L6" s="188"/>
+      <c r="M6" s="188"/>
+      <c r="N6" s="188"/>
+      <c r="O6" s="188"/>
+      <c r="P6" s="188"/>
+      <c r="Q6" s="188"/>
+      <c r="R6" s="188"/>
+      <c r="S6" s="188"/>
+      <c r="T6" s="188"/>
+      <c r="U6" s="188"/>
+      <c r="V6" s="189"/>
       <c r="W6" s="5"/>
       <c r="X6" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="Y6" s="240">
+      <c r="Y6" s="237">
         <v>0</v>
       </c>
-      <c r="Z6" s="184"/>
-      <c r="AA6" s="303" t="s">
+      <c r="Z6" s="207"/>
+      <c r="AA6" s="228" t="s">
         <v>4</v>
       </c>
-      <c r="AB6" s="187"/>
+      <c r="AB6" s="205"/>
       <c r="AC6" s="160"/>
       <c r="AD6" s="30"/>
       <c r="AE6" s="30"/>
@@ -4068,37 +4068,37 @@
       <c r="BV6" s="50"/>
     </row>
     <row r="7" spans="2:107" s="18" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="191"/>
-      <c r="C7" s="192"/>
-      <c r="D7" s="192"/>
-      <c r="E7" s="192"/>
-      <c r="F7" s="193"/>
-      <c r="G7" s="212"/>
-      <c r="H7" s="182"/>
-      <c r="I7" s="182"/>
-      <c r="J7" s="182"/>
-      <c r="K7" s="182"/>
-      <c r="L7" s="182"/>
-      <c r="M7" s="182"/>
-      <c r="N7" s="182"/>
-      <c r="O7" s="182"/>
-      <c r="P7" s="182"/>
-      <c r="Q7" s="182"/>
-      <c r="R7" s="182"/>
-      <c r="S7" s="182"/>
-      <c r="T7" s="182"/>
-      <c r="U7" s="182"/>
-      <c r="V7" s="211"/>
+      <c r="B7" s="190"/>
+      <c r="C7" s="191"/>
+      <c r="D7" s="191"/>
+      <c r="E7" s="191"/>
+      <c r="F7" s="192"/>
+      <c r="G7" s="187"/>
+      <c r="H7" s="188"/>
+      <c r="I7" s="188"/>
+      <c r="J7" s="188"/>
+      <c r="K7" s="188"/>
+      <c r="L7" s="188"/>
+      <c r="M7" s="188"/>
+      <c r="N7" s="188"/>
+      <c r="O7" s="188"/>
+      <c r="P7" s="188"/>
+      <c r="Q7" s="188"/>
+      <c r="R7" s="188"/>
+      <c r="S7" s="188"/>
+      <c r="T7" s="188"/>
+      <c r="U7" s="188"/>
+      <c r="V7" s="189"/>
       <c r="W7" s="5"/>
       <c r="X7" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="Y7" s="240">
+      <c r="Y7" s="237">
         <v>0</v>
       </c>
-      <c r="Z7" s="184"/>
-      <c r="AA7" s="214"/>
-      <c r="AB7" s="215"/>
+      <c r="Z7" s="207"/>
+      <c r="AA7" s="312"/>
+      <c r="AB7" s="313"/>
       <c r="AC7" s="153"/>
       <c r="AD7" s="30"/>
       <c r="AE7" s="30"/>
@@ -4147,14 +4147,14 @@
       <c r="BV7" s="50"/>
     </row>
     <row r="8" spans="2:107" s="18" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="315" t="str">
+      <c r="B8" s="194" t="str">
         <f>"  When we build your campaign, our team of humans collaborates internally to select the best media mix for reaching "&amp;AA7&amp;"s within your geofence. This is not a one size fits all approach either. From news feeds to television, we have a massive deck of tools from which to choose. Once you tell us the campaign level and approve the messaging\landing page, we go to work."</f>
         <v xml:space="preserve">  When we build your campaign, our team of humans collaborates internally to select the best media mix for reaching s within your geofence. This is not a one size fits all approach either. From news feeds to television, we have a massive deck of tools from which to choose. Once you tell us the campaign level and approve the messaging\landing page, we go to work.</v>
       </c>
-      <c r="C8" s="316"/>
-      <c r="D8" s="316"/>
-      <c r="E8" s="316"/>
-      <c r="F8" s="316"/>
+      <c r="C8" s="195"/>
+      <c r="D8" s="195"/>
+      <c r="E8" s="195"/>
+      <c r="F8" s="195"/>
       <c r="G8" s="47" t="s">
         <v>6</v>
       </c>
@@ -4172,19 +4172,19 @@
       <c r="S8" s="46"/>
       <c r="T8" s="46"/>
       <c r="U8" s="166"/>
-      <c r="V8" s="204" t="s">
+      <c r="V8" s="336" t="s">
         <v>7</v>
       </c>
       <c r="W8" s="5"/>
       <c r="X8" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="Y8" s="266">
+      <c r="Y8" s="273">
         <v>0</v>
       </c>
-      <c r="Z8" s="267"/>
-      <c r="AA8" s="216"/>
-      <c r="AB8" s="217"/>
+      <c r="Z8" s="274"/>
+      <c r="AA8" s="314"/>
+      <c r="AB8" s="214"/>
       <c r="AC8" s="153"/>
       <c r="AD8" s="30"/>
       <c r="AE8" s="30"/>
@@ -4233,11 +4233,11 @@
       <c r="BV8" s="50"/>
     </row>
     <row r="9" spans="2:107" s="18" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="317"/>
-      <c r="C9" s="318"/>
-      <c r="D9" s="318"/>
-      <c r="E9" s="318"/>
-      <c r="F9" s="319"/>
+      <c r="B9" s="196"/>
+      <c r="C9" s="197"/>
+      <c r="D9" s="197"/>
+      <c r="E9" s="197"/>
+      <c r="F9" s="198"/>
       <c r="G9" s="57"/>
       <c r="H9" s="175"/>
       <c r="I9" s="175"/>
@@ -4253,17 +4253,17 @@
       <c r="S9" s="175"/>
       <c r="T9" s="175"/>
       <c r="U9" s="167"/>
-      <c r="V9" s="205"/>
+      <c r="V9" s="337"/>
       <c r="W9" s="5"/>
-      <c r="X9" s="207" t="s">
+      <c r="X9" s="339" t="s">
         <v>9</v>
       </c>
-      <c r="Y9" s="189"/>
-      <c r="Z9" s="208"/>
-      <c r="AA9" s="282">
+      <c r="Y9" s="185"/>
+      <c r="Z9" s="236"/>
+      <c r="AA9" s="290">
         <v>1</v>
       </c>
-      <c r="AB9" s="283"/>
+      <c r="AB9" s="291"/>
       <c r="AC9" s="153"/>
       <c r="AD9" s="30"/>
       <c r="AE9" s="30"/>
@@ -4312,11 +4312,11 @@
       <c r="BV9" s="50"/>
     </row>
     <row r="10" spans="2:107" s="18" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="317"/>
-      <c r="C10" s="318"/>
-      <c r="D10" s="318"/>
-      <c r="E10" s="318"/>
-      <c r="F10" s="319"/>
+      <c r="B10" s="196"/>
+      <c r="C10" s="197"/>
+      <c r="D10" s="197"/>
+      <c r="E10" s="197"/>
+      <c r="F10" s="198"/>
       <c r="G10" s="57"/>
       <c r="H10" s="175"/>
       <c r="I10" s="175"/>
@@ -4332,19 +4332,19 @@
       <c r="S10" s="175"/>
       <c r="T10" s="175"/>
       <c r="U10" s="167"/>
-      <c r="V10" s="205"/>
+      <c r="V10" s="337"/>
       <c r="W10" s="5"/>
       <c r="X10" s="150" t="s">
         <v>10</v>
       </c>
-      <c r="Y10" s="308" t="s">
+      <c r="Y10" s="235" t="s">
         <v>11</v>
       </c>
-      <c r="Z10" s="208"/>
-      <c r="AA10" s="280" t="s">
+      <c r="Z10" s="236"/>
+      <c r="AA10" s="287" t="s">
         <v>12</v>
       </c>
-      <c r="AB10" s="190"/>
+      <c r="AB10" s="186"/>
       <c r="AC10" s="154"/>
       <c r="AD10" s="30"/>
       <c r="AE10" s="30"/>
@@ -4393,11 +4393,11 @@
       <c r="BV10" s="50"/>
     </row>
     <row r="11" spans="2:107" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="317"/>
-      <c r="C11" s="320"/>
-      <c r="D11" s="320"/>
-      <c r="E11" s="320"/>
-      <c r="F11" s="319"/>
+      <c r="B11" s="196"/>
+      <c r="C11" s="199"/>
+      <c r="D11" s="199"/>
+      <c r="E11" s="199"/>
+      <c r="F11" s="198"/>
       <c r="G11" s="57"/>
       <c r="H11" s="175"/>
       <c r="I11" s="175"/>
@@ -4413,17 +4413,17 @@
       <c r="S11" s="175"/>
       <c r="T11" s="175"/>
       <c r="U11" s="167"/>
-      <c r="V11" s="205"/>
+      <c r="V11" s="337"/>
       <c r="W11" s="9"/>
       <c r="X11" s="161"/>
-      <c r="Y11" s="183">
+      <c r="Y11" s="206">
         <v>0</v>
       </c>
-      <c r="Z11" s="184"/>
-      <c r="AA11" s="186">
+      <c r="Z11" s="207"/>
+      <c r="AA11" s="204">
         <v>0</v>
       </c>
-      <c r="AB11" s="187"/>
+      <c r="AB11" s="205"/>
       <c r="AC11" s="153"/>
       <c r="AD11" s="65"/>
       <c r="AE11" s="65"/>
@@ -4495,11 +4495,11 @@
       <c r="DC11" s="18"/>
     </row>
     <row r="12" spans="2:107" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="317"/>
-      <c r="C12" s="320"/>
-      <c r="D12" s="320"/>
-      <c r="E12" s="320"/>
-      <c r="F12" s="319"/>
+      <c r="B12" s="196"/>
+      <c r="C12" s="199"/>
+      <c r="D12" s="199"/>
+      <c r="E12" s="199"/>
+      <c r="F12" s="198"/>
       <c r="G12" s="57"/>
       <c r="H12" s="175"/>
       <c r="I12" s="175"/>
@@ -4515,17 +4515,17 @@
       <c r="S12" s="175"/>
       <c r="T12" s="175"/>
       <c r="U12" s="167"/>
-      <c r="V12" s="205"/>
+      <c r="V12" s="337"/>
       <c r="W12" s="9"/>
       <c r="X12" s="162"/>
-      <c r="Y12" s="183">
+      <c r="Y12" s="206">
         <v>0</v>
       </c>
-      <c r="Z12" s="184"/>
-      <c r="AA12" s="186">
+      <c r="Z12" s="207"/>
+      <c r="AA12" s="204">
         <v>0</v>
       </c>
-      <c r="AB12" s="187"/>
+      <c r="AB12" s="205"/>
       <c r="AC12" s="153"/>
       <c r="AD12" s="65"/>
       <c r="AE12" s="65"/>
@@ -4597,11 +4597,11 @@
       <c r="DC12" s="18"/>
     </row>
     <row r="13" spans="2:107" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="317"/>
-      <c r="C13" s="320"/>
-      <c r="D13" s="320"/>
-      <c r="E13" s="320"/>
-      <c r="F13" s="319"/>
+      <c r="B13" s="196"/>
+      <c r="C13" s="199"/>
+      <c r="D13" s="199"/>
+      <c r="E13" s="199"/>
+      <c r="F13" s="198"/>
       <c r="G13" s="57"/>
       <c r="H13" s="175"/>
       <c r="I13" s="175"/>
@@ -4617,17 +4617,17 @@
       <c r="S13" s="175"/>
       <c r="T13" s="175"/>
       <c r="U13" s="167"/>
-      <c r="V13" s="205"/>
+      <c r="V13" s="337"/>
       <c r="W13" s="2"/>
       <c r="X13" s="162"/>
-      <c r="Y13" s="183">
+      <c r="Y13" s="206">
         <v>0</v>
       </c>
-      <c r="Z13" s="184"/>
-      <c r="AA13" s="186">
+      <c r="Z13" s="207"/>
+      <c r="AA13" s="204">
         <v>0</v>
       </c>
-      <c r="AB13" s="187"/>
+      <c r="AB13" s="205"/>
       <c r="AC13" s="153"/>
       <c r="AD13" s="67"/>
       <c r="AE13" s="67"/>
@@ -4641,9 +4641,9 @@
       <c r="AM13" s="67"/>
       <c r="AN13" s="67"/>
       <c r="AO13" s="67"/>
-      <c r="AP13" s="228"/>
-      <c r="AQ13" s="189"/>
-      <c r="AR13" s="190"/>
+      <c r="AP13" s="324"/>
+      <c r="AQ13" s="185"/>
+      <c r="AR13" s="186"/>
       <c r="AS13" s="50"/>
       <c r="AT13" s="50"/>
       <c r="AU13" s="50"/>
@@ -4651,29 +4651,29 @@
       <c r="AW13" s="50"/>
       <c r="AX13" s="68"/>
       <c r="AY13" s="69"/>
-      <c r="AZ13" s="290"/>
-      <c r="BA13" s="189"/>
-      <c r="BB13" s="189"/>
-      <c r="BC13" s="189"/>
-      <c r="BD13" s="190"/>
+      <c r="AZ13" s="245"/>
+      <c r="BA13" s="185"/>
+      <c r="BB13" s="185"/>
+      <c r="BC13" s="185"/>
+      <c r="BD13" s="186"/>
       <c r="BE13" s="70"/>
       <c r="BF13" s="71"/>
-      <c r="BG13" s="237"/>
-      <c r="BH13" s="182"/>
-      <c r="BI13" s="182"/>
-      <c r="BJ13" s="182"/>
-      <c r="BK13" s="182"/>
-      <c r="BL13" s="182"/>
-      <c r="BM13" s="182"/>
-      <c r="BN13" s="182"/>
-      <c r="BO13" s="182"/>
-      <c r="BP13" s="182"/>
-      <c r="BQ13" s="182"/>
-      <c r="BR13" s="182"/>
-      <c r="BS13" s="182"/>
-      <c r="BT13" s="182"/>
-      <c r="BU13" s="182"/>
-      <c r="BV13" s="182"/>
+      <c r="BG13" s="329"/>
+      <c r="BH13" s="188"/>
+      <c r="BI13" s="188"/>
+      <c r="BJ13" s="188"/>
+      <c r="BK13" s="188"/>
+      <c r="BL13" s="188"/>
+      <c r="BM13" s="188"/>
+      <c r="BN13" s="188"/>
+      <c r="BO13" s="188"/>
+      <c r="BP13" s="188"/>
+      <c r="BQ13" s="188"/>
+      <c r="BR13" s="188"/>
+      <c r="BS13" s="188"/>
+      <c r="BT13" s="188"/>
+      <c r="BU13" s="188"/>
+      <c r="BV13" s="188"/>
       <c r="CG13" s="18"/>
       <c r="CH13" s="18"/>
       <c r="CI13" s="18"/>
@@ -4699,14 +4699,14 @@
       <c r="DC13" s="18"/>
     </row>
     <row r="14" spans="2:107" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B14" s="321" t="str">
+      <c r="B14" s="200" t="str">
         <f>"  Our team continuously manages the media and algorithms to drive high-quality leads to your recruiters via our innovative funneling system. After all, you come to us because you need "&amp;AA7&amp;"s, not ads or impressions. TheJobsDriver is not about ads or impressions. We are about one thing, generating potential hires, interested in working for you!"</f>
         <v xml:space="preserve">  Our team continuously manages the media and algorithms to drive high-quality leads to your recruiters via our innovative funneling system. After all, you come to us because you need s, not ads or impressions. TheJobsDriver is not about ads or impressions. We are about one thing, generating potential hires, interested in working for you!</v>
       </c>
-      <c r="C14" s="322"/>
-      <c r="D14" s="322"/>
-      <c r="E14" s="322"/>
-      <c r="F14" s="323"/>
+      <c r="C14" s="201"/>
+      <c r="D14" s="201"/>
+      <c r="E14" s="201"/>
+      <c r="F14" s="202"/>
       <c r="G14" s="57"/>
       <c r="H14" s="175"/>
       <c r="I14" s="175"/>
@@ -4722,17 +4722,17 @@
       <c r="S14" s="175"/>
       <c r="T14" s="175"/>
       <c r="U14" s="167"/>
-      <c r="V14" s="205"/>
+      <c r="V14" s="337"/>
       <c r="W14" s="10"/>
       <c r="X14" s="162"/>
-      <c r="Y14" s="183">
+      <c r="Y14" s="206">
         <v>0</v>
       </c>
-      <c r="Z14" s="184"/>
-      <c r="AA14" s="186">
+      <c r="Z14" s="207"/>
+      <c r="AA14" s="204">
         <v>0</v>
       </c>
-      <c r="AB14" s="187"/>
+      <c r="AB14" s="205"/>
       <c r="AC14" s="153"/>
       <c r="AD14" s="72"/>
       <c r="AE14" s="72"/>
@@ -4746,9 +4746,9 @@
       <c r="AM14" s="72"/>
       <c r="AN14" s="72"/>
       <c r="AO14" s="72"/>
-      <c r="AP14" s="229"/>
-      <c r="AQ14" s="230"/>
-      <c r="AR14" s="231"/>
+      <c r="AP14" s="246"/>
+      <c r="AQ14" s="247"/>
+      <c r="AR14" s="248"/>
       <c r="AS14" s="50"/>
       <c r="AT14" s="50"/>
       <c r="AU14" s="50"/>
@@ -4756,11 +4756,11 @@
       <c r="AW14" s="50"/>
       <c r="AX14" s="50"/>
       <c r="AY14" s="50"/>
-      <c r="AZ14" s="212"/>
-      <c r="BA14" s="195"/>
-      <c r="BB14" s="195"/>
-      <c r="BC14" s="195"/>
-      <c r="BD14" s="211"/>
+      <c r="AZ14" s="187"/>
+      <c r="BA14" s="233"/>
+      <c r="BB14" s="233"/>
+      <c r="BC14" s="233"/>
+      <c r="BD14" s="189"/>
       <c r="BE14" s="73"/>
       <c r="BF14" s="50"/>
       <c r="BG14" s="28"/>
@@ -4804,11 +4804,11 @@
       <c r="DC14" s="18"/>
     </row>
     <row r="15" spans="2:107" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="212"/>
-      <c r="C15" s="322"/>
-      <c r="D15" s="322"/>
-      <c r="E15" s="322"/>
-      <c r="F15" s="323"/>
+      <c r="B15" s="187"/>
+      <c r="C15" s="201"/>
+      <c r="D15" s="201"/>
+      <c r="E15" s="201"/>
+      <c r="F15" s="202"/>
       <c r="G15" s="57"/>
       <c r="H15" s="175"/>
       <c r="I15" s="175"/>
@@ -4824,17 +4824,17 @@
       <c r="S15" s="175"/>
       <c r="T15" s="175"/>
       <c r="U15" s="167"/>
-      <c r="V15" s="205"/>
+      <c r="V15" s="337"/>
       <c r="W15" s="11"/>
       <c r="X15" s="162"/>
-      <c r="Y15" s="183">
+      <c r="Y15" s="206">
         <v>0</v>
       </c>
-      <c r="Z15" s="184"/>
-      <c r="AA15" s="186">
+      <c r="Z15" s="207"/>
+      <c r="AA15" s="204">
         <v>0</v>
       </c>
-      <c r="AB15" s="187"/>
+      <c r="AB15" s="205"/>
       <c r="AC15" s="153"/>
       <c r="AD15" s="74"/>
       <c r="AE15" s="74"/>
@@ -4849,8 +4849,8 @@
       <c r="AN15" s="74"/>
       <c r="AO15" s="74"/>
       <c r="AP15" s="75"/>
-      <c r="AQ15" s="256"/>
-      <c r="AR15" s="202"/>
+      <c r="AQ15" s="308"/>
+      <c r="AR15" s="227"/>
       <c r="AS15" s="76"/>
       <c r="AT15" s="76"/>
       <c r="AU15" s="76"/>
@@ -4858,27 +4858,27 @@
       <c r="AW15" s="76"/>
       <c r="AX15" s="76"/>
       <c r="AY15" s="50"/>
-      <c r="AZ15" s="229"/>
-      <c r="BA15" s="230"/>
-      <c r="BB15" s="230"/>
-      <c r="BC15" s="230"/>
-      <c r="BD15" s="231"/>
+      <c r="AZ15" s="246"/>
+      <c r="BA15" s="247"/>
+      <c r="BB15" s="247"/>
+      <c r="BC15" s="247"/>
+      <c r="BD15" s="248"/>
       <c r="BE15" s="73"/>
       <c r="BF15" s="50"/>
       <c r="BG15" s="28"/>
-      <c r="BH15" s="257"/>
-      <c r="BI15" s="182"/>
-      <c r="BJ15" s="182"/>
-      <c r="BK15" s="182"/>
-      <c r="BL15" s="182"/>
-      <c r="BM15" s="182"/>
-      <c r="BN15" s="182"/>
-      <c r="BO15" s="182"/>
-      <c r="BP15" s="182"/>
-      <c r="BQ15" s="182"/>
-      <c r="BR15" s="182"/>
-      <c r="BS15" s="182"/>
-      <c r="BT15" s="182"/>
+      <c r="BH15" s="309"/>
+      <c r="BI15" s="188"/>
+      <c r="BJ15" s="188"/>
+      <c r="BK15" s="188"/>
+      <c r="BL15" s="188"/>
+      <c r="BM15" s="188"/>
+      <c r="BN15" s="188"/>
+      <c r="BO15" s="188"/>
+      <c r="BP15" s="188"/>
+      <c r="BQ15" s="188"/>
+      <c r="BR15" s="188"/>
+      <c r="BS15" s="188"/>
+      <c r="BT15" s="188"/>
       <c r="BU15" s="30"/>
       <c r="BV15" s="30"/>
       <c r="CG15" s="18"/>
@@ -4906,11 +4906,11 @@
       <c r="DC15" s="18"/>
     </row>
     <row r="16" spans="2:107" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="212"/>
-      <c r="C16" s="322"/>
-      <c r="D16" s="322"/>
-      <c r="E16" s="322"/>
-      <c r="F16" s="323"/>
+      <c r="B16" s="187"/>
+      <c r="C16" s="201"/>
+      <c r="D16" s="201"/>
+      <c r="E16" s="201"/>
+      <c r="F16" s="202"/>
       <c r="G16" s="57"/>
       <c r="H16" s="175"/>
       <c r="I16" s="175"/>
@@ -4926,17 +4926,17 @@
       <c r="S16" s="175"/>
       <c r="T16" s="175"/>
       <c r="U16" s="167"/>
-      <c r="V16" s="205"/>
+      <c r="V16" s="337"/>
       <c r="W16" s="11"/>
       <c r="X16" s="162"/>
-      <c r="Y16" s="183">
+      <c r="Y16" s="206">
         <v>0</v>
       </c>
-      <c r="Z16" s="184"/>
-      <c r="AA16" s="186">
+      <c r="Z16" s="207"/>
+      <c r="AA16" s="204">
         <v>0</v>
       </c>
-      <c r="AB16" s="187"/>
+      <c r="AB16" s="205"/>
       <c r="AC16" s="153"/>
       <c r="AD16" s="74"/>
       <c r="AE16" s="74"/>
@@ -4950,7 +4950,7 @@
       <c r="AM16" s="74"/>
       <c r="AN16" s="74"/>
       <c r="AO16" s="74"/>
-      <c r="AP16" s="304"/>
+      <c r="AP16" s="229"/>
       <c r="AQ16" s="77"/>
       <c r="AR16" s="78"/>
       <c r="AS16" s="79"/>
@@ -4960,27 +4960,27 @@
       <c r="AW16" s="79"/>
       <c r="AX16" s="79"/>
       <c r="AY16" s="50"/>
-      <c r="AZ16" s="286"/>
-      <c r="BA16" s="262"/>
-      <c r="BB16" s="196"/>
-      <c r="BC16" s="196"/>
-      <c r="BD16" s="295"/>
+      <c r="AZ16" s="294"/>
+      <c r="BA16" s="269"/>
+      <c r="BB16" s="326"/>
+      <c r="BC16" s="326"/>
+      <c r="BD16" s="254"/>
       <c r="BE16" s="73"/>
       <c r="BF16" s="50"/>
       <c r="BG16" s="28"/>
-      <c r="BH16" s="182"/>
-      <c r="BI16" s="182"/>
-      <c r="BJ16" s="182"/>
-      <c r="BK16" s="182"/>
-      <c r="BL16" s="182"/>
-      <c r="BM16" s="182"/>
-      <c r="BN16" s="182"/>
-      <c r="BO16" s="182"/>
-      <c r="BP16" s="182"/>
-      <c r="BQ16" s="182"/>
-      <c r="BR16" s="182"/>
-      <c r="BS16" s="182"/>
-      <c r="BT16" s="182"/>
+      <c r="BH16" s="188"/>
+      <c r="BI16" s="188"/>
+      <c r="BJ16" s="188"/>
+      <c r="BK16" s="188"/>
+      <c r="BL16" s="188"/>
+      <c r="BM16" s="188"/>
+      <c r="BN16" s="188"/>
+      <c r="BO16" s="188"/>
+      <c r="BP16" s="188"/>
+      <c r="BQ16" s="188"/>
+      <c r="BR16" s="188"/>
+      <c r="BS16" s="188"/>
+      <c r="BT16" s="188"/>
       <c r="BU16" s="30"/>
       <c r="BV16" s="30"/>
       <c r="CG16" s="18"/>
@@ -5008,11 +5008,11 @@
       <c r="DC16" s="18"/>
     </row>
     <row r="17" spans="1:107" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="212"/>
-      <c r="C17" s="322"/>
-      <c r="D17" s="322"/>
-      <c r="E17" s="322"/>
-      <c r="F17" s="323"/>
+      <c r="B17" s="187"/>
+      <c r="C17" s="201"/>
+      <c r="D17" s="201"/>
+      <c r="E17" s="201"/>
+      <c r="F17" s="202"/>
       <c r="G17" s="57"/>
       <c r="H17" s="175"/>
       <c r="I17" s="175"/>
@@ -5028,17 +5028,17 @@
       <c r="S17" s="175"/>
       <c r="T17" s="175"/>
       <c r="U17" s="167"/>
-      <c r="V17" s="205"/>
+      <c r="V17" s="337"/>
       <c r="W17" s="12"/>
       <c r="X17" s="162"/>
-      <c r="Y17" s="183">
+      <c r="Y17" s="206">
         <v>0</v>
       </c>
-      <c r="Z17" s="184"/>
-      <c r="AA17" s="186">
+      <c r="Z17" s="207"/>
+      <c r="AA17" s="204">
         <v>0</v>
       </c>
-      <c r="AB17" s="187"/>
+      <c r="AB17" s="205"/>
       <c r="AC17" s="153"/>
       <c r="AD17" s="56"/>
       <c r="AE17" s="56"/>
@@ -5052,7 +5052,7 @@
       <c r="AM17" s="56"/>
       <c r="AN17" s="56"/>
       <c r="AO17" s="56"/>
-      <c r="AP17" s="305"/>
+      <c r="AP17" s="230"/>
       <c r="AQ17" s="80"/>
       <c r="AR17" s="78"/>
       <c r="AS17" s="50"/>
@@ -5062,27 +5062,27 @@
       <c r="AW17" s="50"/>
       <c r="AX17" s="50"/>
       <c r="AY17" s="50"/>
-      <c r="AZ17" s="287"/>
-      <c r="BA17" s="263"/>
-      <c r="BB17" s="197"/>
-      <c r="BC17" s="197"/>
-      <c r="BD17" s="296"/>
+      <c r="AZ17" s="295"/>
+      <c r="BA17" s="270"/>
+      <c r="BB17" s="327"/>
+      <c r="BC17" s="327"/>
+      <c r="BD17" s="255"/>
       <c r="BE17" s="73"/>
       <c r="BF17" s="50"/>
       <c r="BG17" s="28"/>
-      <c r="BH17" s="289"/>
-      <c r="BI17" s="182"/>
-      <c r="BJ17" s="182"/>
-      <c r="BK17" s="182"/>
-      <c r="BL17" s="182"/>
-      <c r="BM17" s="182"/>
-      <c r="BN17" s="182"/>
-      <c r="BO17" s="182"/>
-      <c r="BP17" s="182"/>
-      <c r="BQ17" s="288"/>
-      <c r="BR17" s="182"/>
-      <c r="BS17" s="182"/>
-      <c r="BT17" s="182"/>
+      <c r="BH17" s="244"/>
+      <c r="BI17" s="188"/>
+      <c r="BJ17" s="188"/>
+      <c r="BK17" s="188"/>
+      <c r="BL17" s="188"/>
+      <c r="BM17" s="188"/>
+      <c r="BN17" s="188"/>
+      <c r="BO17" s="188"/>
+      <c r="BP17" s="188"/>
+      <c r="BQ17" s="243"/>
+      <c r="BR17" s="188"/>
+      <c r="BS17" s="188"/>
+      <c r="BT17" s="188"/>
       <c r="BU17" s="30"/>
       <c r="BV17" s="30"/>
       <c r="CG17" s="18"/>
@@ -5110,11 +5110,11 @@
       <c r="DC17" s="18"/>
     </row>
     <row r="18" spans="1:107" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="191"/>
-      <c r="C18" s="192"/>
-      <c r="D18" s="192"/>
-      <c r="E18" s="192"/>
-      <c r="F18" s="192"/>
+      <c r="B18" s="190"/>
+      <c r="C18" s="191"/>
+      <c r="D18" s="191"/>
+      <c r="E18" s="191"/>
+      <c r="F18" s="191"/>
       <c r="G18" s="57"/>
       <c r="H18" s="175"/>
       <c r="I18" s="175"/>
@@ -5130,17 +5130,17 @@
       <c r="S18" s="175"/>
       <c r="T18" s="175"/>
       <c r="U18" s="167"/>
-      <c r="V18" s="205"/>
+      <c r="V18" s="337"/>
       <c r="W18" s="13"/>
       <c r="X18" s="162"/>
-      <c r="Y18" s="183">
+      <c r="Y18" s="206">
         <v>0</v>
       </c>
-      <c r="Z18" s="184"/>
-      <c r="AA18" s="186">
+      <c r="Z18" s="207"/>
+      <c r="AA18" s="204">
         <v>0</v>
       </c>
-      <c r="AB18" s="187"/>
+      <c r="AB18" s="205"/>
       <c r="AC18" s="153"/>
       <c r="AD18" s="81"/>
       <c r="AE18" s="81"/>
@@ -5154,7 +5154,7 @@
       <c r="AM18" s="81"/>
       <c r="AN18" s="81"/>
       <c r="AO18" s="81"/>
-      <c r="AP18" s="306"/>
+      <c r="AP18" s="231"/>
       <c r="AQ18" s="80"/>
       <c r="AR18" s="78"/>
       <c r="AS18" s="50"/>
@@ -5172,19 +5172,19 @@
       <c r="BE18" s="73"/>
       <c r="BF18" s="50"/>
       <c r="BG18" s="28"/>
-      <c r="BH18" s="181"/>
-      <c r="BI18" s="182"/>
-      <c r="BJ18" s="182"/>
-      <c r="BK18" s="182"/>
-      <c r="BL18" s="182"/>
-      <c r="BM18" s="182"/>
-      <c r="BN18" s="182"/>
-      <c r="BO18" s="182"/>
-      <c r="BP18" s="182"/>
-      <c r="BQ18" s="185"/>
-      <c r="BR18" s="182"/>
-      <c r="BS18" s="182"/>
-      <c r="BT18" s="182"/>
+      <c r="BH18" s="253"/>
+      <c r="BI18" s="188"/>
+      <c r="BJ18" s="188"/>
+      <c r="BK18" s="188"/>
+      <c r="BL18" s="188"/>
+      <c r="BM18" s="188"/>
+      <c r="BN18" s="188"/>
+      <c r="BO18" s="188"/>
+      <c r="BP18" s="188"/>
+      <c r="BQ18" s="252"/>
+      <c r="BR18" s="188"/>
+      <c r="BS18" s="188"/>
+      <c r="BT18" s="188"/>
       <c r="BU18" s="30"/>
       <c r="BV18" s="30"/>
       <c r="CG18" s="18"/>
@@ -5213,13 +5213,13 @@
     </row>
     <row r="19" spans="1:107" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="50"/>
-      <c r="B19" s="314" t="s">
+      <c r="B19" s="193" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="324"/>
-      <c r="D19" s="324"/>
-      <c r="E19" s="324"/>
-      <c r="F19" s="324"/>
+      <c r="C19" s="208"/>
+      <c r="D19" s="208"/>
+      <c r="E19" s="208"/>
+      <c r="F19" s="208"/>
       <c r="G19" s="57"/>
       <c r="H19" s="175"/>
       <c r="I19" s="175"/>
@@ -5235,17 +5235,17 @@
       <c r="S19" s="175"/>
       <c r="T19" s="175"/>
       <c r="U19" s="167"/>
-      <c r="V19" s="205"/>
+      <c r="V19" s="337"/>
       <c r="W19" s="13"/>
       <c r="X19" s="162"/>
-      <c r="Y19" s="183">
+      <c r="Y19" s="206">
         <v>0</v>
       </c>
-      <c r="Z19" s="184"/>
-      <c r="AA19" s="186">
+      <c r="Z19" s="207"/>
+      <c r="AA19" s="204">
         <v>0</v>
       </c>
-      <c r="AB19" s="187"/>
+      <c r="AB19" s="205"/>
       <c r="AC19" s="153"/>
       <c r="AD19" s="81"/>
       <c r="AE19" s="81"/>
@@ -5260,8 +5260,8 @@
       <c r="AN19" s="81"/>
       <c r="AO19" s="81"/>
       <c r="AP19" s="87"/>
-      <c r="AQ19" s="259"/>
-      <c r="AR19" s="202"/>
+      <c r="AQ19" s="310"/>
+      <c r="AR19" s="227"/>
       <c r="AS19" s="50"/>
       <c r="AT19" s="50"/>
       <c r="AU19" s="50"/>
@@ -5277,19 +5277,19 @@
       <c r="BE19" s="73"/>
       <c r="BF19" s="50"/>
       <c r="BG19" s="28"/>
-      <c r="BH19" s="181"/>
-      <c r="BI19" s="182"/>
-      <c r="BJ19" s="182"/>
-      <c r="BK19" s="182"/>
-      <c r="BL19" s="182"/>
-      <c r="BM19" s="182"/>
-      <c r="BN19" s="182"/>
-      <c r="BO19" s="182"/>
-      <c r="BP19" s="182"/>
-      <c r="BQ19" s="185"/>
-      <c r="BR19" s="182"/>
-      <c r="BS19" s="182"/>
-      <c r="BT19" s="182"/>
+      <c r="BH19" s="253"/>
+      <c r="BI19" s="188"/>
+      <c r="BJ19" s="188"/>
+      <c r="BK19" s="188"/>
+      <c r="BL19" s="188"/>
+      <c r="BM19" s="188"/>
+      <c r="BN19" s="188"/>
+      <c r="BO19" s="188"/>
+      <c r="BP19" s="188"/>
+      <c r="BQ19" s="252"/>
+      <c r="BR19" s="188"/>
+      <c r="BS19" s="188"/>
+      <c r="BT19" s="188"/>
       <c r="BU19" s="30"/>
       <c r="BV19" s="30"/>
       <c r="CG19" s="18"/>
@@ -5318,7 +5318,7 @@
     </row>
     <row r="20" spans="1:107" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="50"/>
-      <c r="B20" s="337"/>
+      <c r="B20" s="181"/>
       <c r="C20" s="176"/>
       <c r="D20" s="176"/>
       <c r="E20" s="176"/>
@@ -5338,17 +5338,17 @@
       <c r="S20" s="175"/>
       <c r="T20" s="175"/>
       <c r="U20" s="167"/>
-      <c r="V20" s="205"/>
+      <c r="V20" s="337"/>
       <c r="W20" s="13"/>
       <c r="X20" s="162"/>
-      <c r="Y20" s="183">
+      <c r="Y20" s="206">
         <v>0</v>
       </c>
-      <c r="Z20" s="184"/>
-      <c r="AA20" s="186">
+      <c r="Z20" s="207"/>
+      <c r="AA20" s="204">
         <v>0</v>
       </c>
-      <c r="AB20" s="187"/>
+      <c r="AB20" s="205"/>
       <c r="AC20" s="153"/>
       <c r="AD20" s="81"/>
       <c r="AE20" s="81"/>
@@ -5363,8 +5363,8 @@
       <c r="AN20" s="81"/>
       <c r="AO20" s="81"/>
       <c r="AP20" s="93"/>
-      <c r="AQ20" s="203"/>
-      <c r="AR20" s="202"/>
+      <c r="AQ20" s="289"/>
+      <c r="AR20" s="227"/>
       <c r="AS20" s="50"/>
       <c r="AT20" s="50"/>
       <c r="AU20" s="50"/>
@@ -5380,19 +5380,19 @@
       <c r="BE20" s="73"/>
       <c r="BF20" s="50"/>
       <c r="BG20" s="28"/>
-      <c r="BH20" s="250"/>
-      <c r="BI20" s="182"/>
-      <c r="BJ20" s="182"/>
-      <c r="BK20" s="182"/>
-      <c r="BL20" s="182"/>
-      <c r="BM20" s="182"/>
-      <c r="BN20" s="182"/>
-      <c r="BO20" s="182"/>
-      <c r="BP20" s="182"/>
-      <c r="BQ20" s="249"/>
-      <c r="BR20" s="182"/>
-      <c r="BS20" s="182"/>
-      <c r="BT20" s="182"/>
+      <c r="BH20" s="303"/>
+      <c r="BI20" s="188"/>
+      <c r="BJ20" s="188"/>
+      <c r="BK20" s="188"/>
+      <c r="BL20" s="188"/>
+      <c r="BM20" s="188"/>
+      <c r="BN20" s="188"/>
+      <c r="BO20" s="188"/>
+      <c r="BP20" s="188"/>
+      <c r="BQ20" s="302"/>
+      <c r="BR20" s="188"/>
+      <c r="BS20" s="188"/>
+      <c r="BT20" s="188"/>
       <c r="BU20" s="30"/>
       <c r="BV20" s="30"/>
       <c r="CG20" s="18"/>
@@ -5421,7 +5421,7 @@
     </row>
     <row r="21" spans="1:107" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="50"/>
-      <c r="B21" s="338"/>
+      <c r="B21" s="182"/>
       <c r="C21" s="177"/>
       <c r="D21" s="177"/>
       <c r="E21" s="177"/>
@@ -5441,17 +5441,17 @@
       <c r="S21" s="175"/>
       <c r="T21" s="175"/>
       <c r="U21" s="167"/>
-      <c r="V21" s="205"/>
+      <c r="V21" s="337"/>
       <c r="W21" s="13"/>
       <c r="X21" s="162"/>
-      <c r="Y21" s="183">
+      <c r="Y21" s="206">
         <v>0</v>
       </c>
-      <c r="Z21" s="184"/>
-      <c r="AA21" s="186">
+      <c r="Z21" s="207"/>
+      <c r="AA21" s="204">
         <v>0</v>
       </c>
-      <c r="AB21" s="187"/>
+      <c r="AB21" s="205"/>
       <c r="AC21" s="153"/>
       <c r="AD21" s="81"/>
       <c r="AE21" s="81"/>
@@ -5466,8 +5466,8 @@
       <c r="AN21" s="81"/>
       <c r="AO21" s="81"/>
       <c r="AP21" s="87"/>
-      <c r="AQ21" s="294"/>
-      <c r="AR21" s="202"/>
+      <c r="AQ21" s="234"/>
+      <c r="AR21" s="227"/>
       <c r="AS21" s="50"/>
       <c r="AT21" s="50"/>
       <c r="AU21" s="50"/>
@@ -5483,19 +5483,19 @@
       <c r="BE21" s="73"/>
       <c r="BF21" s="50"/>
       <c r="BG21" s="28"/>
-      <c r="BH21" s="181"/>
-      <c r="BI21" s="182"/>
-      <c r="BJ21" s="182"/>
-      <c r="BK21" s="182"/>
-      <c r="BL21" s="182"/>
-      <c r="BM21" s="182"/>
-      <c r="BN21" s="182"/>
-      <c r="BO21" s="182"/>
-      <c r="BP21" s="182"/>
-      <c r="BQ21" s="185"/>
-      <c r="BR21" s="182"/>
-      <c r="BS21" s="182"/>
-      <c r="BT21" s="182"/>
+      <c r="BH21" s="253"/>
+      <c r="BI21" s="188"/>
+      <c r="BJ21" s="188"/>
+      <c r="BK21" s="188"/>
+      <c r="BL21" s="188"/>
+      <c r="BM21" s="188"/>
+      <c r="BN21" s="188"/>
+      <c r="BO21" s="188"/>
+      <c r="BP21" s="188"/>
+      <c r="BQ21" s="252"/>
+      <c r="BR21" s="188"/>
+      <c r="BS21" s="188"/>
+      <c r="BT21" s="188"/>
       <c r="BU21" s="30"/>
       <c r="BV21" s="30"/>
       <c r="CG21" s="18"/>
@@ -5524,7 +5524,7 @@
     </row>
     <row r="22" spans="1:107" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="50"/>
-      <c r="B22" s="338"/>
+      <c r="B22" s="182"/>
       <c r="C22" s="177"/>
       <c r="D22" s="177"/>
       <c r="E22" s="177"/>
@@ -5544,17 +5544,17 @@
       <c r="S22" s="175"/>
       <c r="T22" s="175"/>
       <c r="U22" s="167"/>
-      <c r="V22" s="205"/>
+      <c r="V22" s="337"/>
       <c r="W22" s="22"/>
       <c r="X22" s="163"/>
-      <c r="Y22" s="183">
+      <c r="Y22" s="206">
         <v>0</v>
       </c>
-      <c r="Z22" s="184"/>
-      <c r="AA22" s="186">
+      <c r="Z22" s="207"/>
+      <c r="AA22" s="204">
         <v>0</v>
       </c>
-      <c r="AB22" s="187"/>
+      <c r="AB22" s="205"/>
       <c r="AC22" s="153"/>
       <c r="AD22" s="99"/>
       <c r="AE22" s="99"/>
@@ -5569,8 +5569,8 @@
       <c r="AN22" s="99"/>
       <c r="AO22" s="99"/>
       <c r="AP22" s="93"/>
-      <c r="AQ22" s="258"/>
-      <c r="AR22" s="202"/>
+      <c r="AQ22" s="226"/>
+      <c r="AR22" s="227"/>
       <c r="AS22" s="50"/>
       <c r="AT22" s="50"/>
       <c r="AU22" s="50"/>
@@ -5586,19 +5586,19 @@
       <c r="BE22" s="73"/>
       <c r="BF22" s="50"/>
       <c r="BG22" s="28"/>
-      <c r="BH22" s="250"/>
-      <c r="BI22" s="182"/>
-      <c r="BJ22" s="182"/>
-      <c r="BK22" s="182"/>
-      <c r="BL22" s="182"/>
-      <c r="BM22" s="182"/>
-      <c r="BN22" s="182"/>
-      <c r="BO22" s="182"/>
-      <c r="BP22" s="182"/>
-      <c r="BQ22" s="249"/>
-      <c r="BR22" s="182"/>
-      <c r="BS22" s="182"/>
-      <c r="BT22" s="182"/>
+      <c r="BH22" s="303"/>
+      <c r="BI22" s="188"/>
+      <c r="BJ22" s="188"/>
+      <c r="BK22" s="188"/>
+      <c r="BL22" s="188"/>
+      <c r="BM22" s="188"/>
+      <c r="BN22" s="188"/>
+      <c r="BO22" s="188"/>
+      <c r="BP22" s="188"/>
+      <c r="BQ22" s="302"/>
+      <c r="BR22" s="188"/>
+      <c r="BS22" s="188"/>
+      <c r="BT22" s="188"/>
       <c r="BU22" s="30"/>
       <c r="BV22" s="30"/>
       <c r="CG22" s="18"/>
@@ -5627,7 +5627,7 @@
     </row>
     <row r="23" spans="1:107" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="45"/>
-      <c r="B23" s="338"/>
+      <c r="B23" s="182"/>
       <c r="F23"/>
       <c r="G23" s="57"/>
       <c r="H23" s="175"/>
@@ -5644,17 +5644,17 @@
       <c r="S23" s="175"/>
       <c r="T23" s="175"/>
       <c r="U23" s="167"/>
-      <c r="V23" s="205"/>
+      <c r="V23" s="337"/>
       <c r="W23" s="45"/>
       <c r="X23" s="163"/>
-      <c r="Y23" s="183">
+      <c r="Y23" s="206">
         <v>0</v>
       </c>
-      <c r="Z23" s="184"/>
-      <c r="AA23" s="186">
+      <c r="Z23" s="207"/>
+      <c r="AA23" s="204">
         <v>0</v>
       </c>
-      <c r="AB23" s="187"/>
+      <c r="AB23" s="205"/>
       <c r="AC23" s="153"/>
       <c r="AD23" s="45"/>
       <c r="AE23" s="45"/>
@@ -5704,7 +5704,7 @@
     </row>
     <row r="24" spans="1:107" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="50"/>
-      <c r="B24" s="338"/>
+      <c r="B24" s="182"/>
       <c r="C24" s="177"/>
       <c r="D24" s="177"/>
       <c r="E24" s="177"/>
@@ -5724,17 +5724,17 @@
       <c r="S24" s="175"/>
       <c r="T24" s="175"/>
       <c r="U24" s="167"/>
-      <c r="V24" s="205"/>
+      <c r="V24" s="337"/>
       <c r="W24" s="26"/>
       <c r="X24" s="163"/>
-      <c r="Y24" s="183">
+      <c r="Y24" s="206">
         <v>0</v>
       </c>
-      <c r="Z24" s="184"/>
-      <c r="AA24" s="186">
+      <c r="Z24" s="207"/>
+      <c r="AA24" s="204">
         <v>0</v>
       </c>
-      <c r="AB24" s="187"/>
+      <c r="AB24" s="205"/>
       <c r="AC24" s="153"/>
       <c r="AD24" s="99"/>
       <c r="AE24" s="99"/>
@@ -5749,8 +5749,8 @@
       <c r="AN24" s="99"/>
       <c r="AO24" s="99"/>
       <c r="AP24" s="93"/>
-      <c r="AQ24" s="258"/>
-      <c r="AR24" s="202"/>
+      <c r="AQ24" s="226"/>
+      <c r="AR24" s="227"/>
       <c r="AS24" s="50"/>
       <c r="AT24" s="50"/>
       <c r="AU24" s="50"/>
@@ -5766,19 +5766,19 @@
       <c r="BE24" s="73"/>
       <c r="BF24" s="50"/>
       <c r="BG24" s="28"/>
-      <c r="BH24" s="181"/>
-      <c r="BI24" s="182"/>
-      <c r="BJ24" s="182"/>
-      <c r="BK24" s="182"/>
-      <c r="BL24" s="182"/>
-      <c r="BM24" s="182"/>
-      <c r="BN24" s="182"/>
-      <c r="BO24" s="182"/>
-      <c r="BP24" s="182"/>
-      <c r="BQ24" s="185"/>
-      <c r="BR24" s="182"/>
-      <c r="BS24" s="182"/>
-      <c r="BT24" s="182"/>
+      <c r="BH24" s="253"/>
+      <c r="BI24" s="188"/>
+      <c r="BJ24" s="188"/>
+      <c r="BK24" s="188"/>
+      <c r="BL24" s="188"/>
+      <c r="BM24" s="188"/>
+      <c r="BN24" s="188"/>
+      <c r="BO24" s="188"/>
+      <c r="BP24" s="188"/>
+      <c r="BQ24" s="252"/>
+      <c r="BR24" s="188"/>
+      <c r="BS24" s="188"/>
+      <c r="BT24" s="188"/>
       <c r="BU24" s="30"/>
       <c r="BV24" s="30"/>
       <c r="CG24" s="18"/>
@@ -5807,7 +5807,7 @@
     </row>
     <row r="25" spans="1:107" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="50"/>
-      <c r="B25" s="338"/>
+      <c r="B25" s="182"/>
       <c r="G25" s="57"/>
       <c r="H25" s="175"/>
       <c r="I25" s="175"/>
@@ -5823,17 +5823,17 @@
       <c r="S25" s="175"/>
       <c r="T25" s="175"/>
       <c r="U25" s="167"/>
-      <c r="V25" s="205"/>
+      <c r="V25" s="337"/>
       <c r="W25" s="26"/>
       <c r="X25" s="164"/>
-      <c r="Y25" s="183">
+      <c r="Y25" s="206">
         <v>0</v>
       </c>
-      <c r="Z25" s="184"/>
-      <c r="AA25" s="186">
+      <c r="Z25" s="207"/>
+      <c r="AA25" s="204">
         <v>0</v>
       </c>
-      <c r="AB25" s="187"/>
+      <c r="AB25" s="205"/>
       <c r="AC25" s="153"/>
       <c r="AD25" s="99"/>
       <c r="AE25" s="99"/>
@@ -5848,8 +5848,8 @@
       <c r="AN25" s="99"/>
       <c r="AO25" s="99"/>
       <c r="AP25" s="93"/>
-      <c r="AQ25" s="203"/>
-      <c r="AR25" s="202"/>
+      <c r="AQ25" s="289"/>
+      <c r="AR25" s="227"/>
       <c r="AS25" s="50"/>
       <c r="AT25" s="50"/>
       <c r="AU25" s="50"/>
@@ -5865,19 +5865,19 @@
       <c r="BE25" s="73"/>
       <c r="BF25" s="50"/>
       <c r="BG25" s="28"/>
-      <c r="BH25" s="181"/>
-      <c r="BI25" s="182"/>
-      <c r="BJ25" s="182"/>
-      <c r="BK25" s="182"/>
-      <c r="BL25" s="182"/>
-      <c r="BM25" s="182"/>
-      <c r="BN25" s="182"/>
-      <c r="BO25" s="182"/>
-      <c r="BP25" s="182"/>
-      <c r="BQ25" s="185"/>
-      <c r="BR25" s="182"/>
-      <c r="BS25" s="182"/>
-      <c r="BT25" s="182"/>
+      <c r="BH25" s="253"/>
+      <c r="BI25" s="188"/>
+      <c r="BJ25" s="188"/>
+      <c r="BK25" s="188"/>
+      <c r="BL25" s="188"/>
+      <c r="BM25" s="188"/>
+      <c r="BN25" s="188"/>
+      <c r="BO25" s="188"/>
+      <c r="BP25" s="188"/>
+      <c r="BQ25" s="252"/>
+      <c r="BR25" s="188"/>
+      <c r="BS25" s="188"/>
+      <c r="BT25" s="188"/>
       <c r="BU25" s="30"/>
       <c r="BV25" s="30"/>
       <c r="CG25" s="18"/>
@@ -5906,7 +5906,7 @@
     </row>
     <row r="26" spans="1:107" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="50"/>
-      <c r="B26" s="338"/>
+      <c r="B26" s="182"/>
       <c r="C26" s="178"/>
       <c r="D26" s="178"/>
       <c r="E26" s="178"/>
@@ -5926,17 +5926,17 @@
       <c r="S26" s="175"/>
       <c r="T26" s="175"/>
       <c r="U26" s="167"/>
-      <c r="V26" s="205"/>
+      <c r="V26" s="337"/>
       <c r="W26" s="23"/>
       <c r="X26" s="164"/>
-      <c r="Y26" s="183">
+      <c r="Y26" s="206">
         <v>0</v>
       </c>
-      <c r="Z26" s="184"/>
-      <c r="AA26" s="186">
+      <c r="Z26" s="207"/>
+      <c r="AA26" s="204">
         <v>0</v>
       </c>
-      <c r="AB26" s="187"/>
+      <c r="AB26" s="205"/>
       <c r="AC26" s="153"/>
       <c r="AD26" s="102"/>
       <c r="AE26" s="102"/>
@@ -5951,8 +5951,8 @@
       <c r="AN26" s="102"/>
       <c r="AO26" s="102"/>
       <c r="AP26" s="93"/>
-      <c r="AQ26" s="203"/>
-      <c r="AR26" s="202"/>
+      <c r="AQ26" s="289"/>
+      <c r="AR26" s="227"/>
       <c r="AS26" s="50"/>
       <c r="AT26" s="50"/>
       <c r="AU26" s="50"/>
@@ -5968,19 +5968,19 @@
       <c r="BE26" s="73"/>
       <c r="BF26" s="50"/>
       <c r="BG26" s="28"/>
-      <c r="BH26" s="181"/>
-      <c r="BI26" s="182"/>
-      <c r="BJ26" s="182"/>
-      <c r="BK26" s="182"/>
-      <c r="BL26" s="182"/>
-      <c r="BM26" s="182"/>
-      <c r="BN26" s="182"/>
-      <c r="BO26" s="182"/>
-      <c r="BP26" s="182"/>
-      <c r="BQ26" s="185"/>
-      <c r="BR26" s="182"/>
-      <c r="BS26" s="182"/>
-      <c r="BT26" s="182"/>
+      <c r="BH26" s="253"/>
+      <c r="BI26" s="188"/>
+      <c r="BJ26" s="188"/>
+      <c r="BK26" s="188"/>
+      <c r="BL26" s="188"/>
+      <c r="BM26" s="188"/>
+      <c r="BN26" s="188"/>
+      <c r="BO26" s="188"/>
+      <c r="BP26" s="188"/>
+      <c r="BQ26" s="252"/>
+      <c r="BR26" s="188"/>
+      <c r="BS26" s="188"/>
+      <c r="BT26" s="188"/>
       <c r="BU26" s="30"/>
       <c r="BV26" s="30"/>
       <c r="CG26" s="18"/>
@@ -6009,7 +6009,7 @@
     </row>
     <row r="27" spans="1:107" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="50"/>
-      <c r="B27" s="338"/>
+      <c r="B27" s="182"/>
       <c r="G27" s="57"/>
       <c r="H27" s="175"/>
       <c r="I27" s="175"/>
@@ -6025,17 +6025,17 @@
       <c r="S27" s="175"/>
       <c r="T27" s="175"/>
       <c r="U27" s="167"/>
-      <c r="V27" s="205"/>
+      <c r="V27" s="337"/>
       <c r="W27" s="23"/>
       <c r="X27" s="164"/>
-      <c r="Y27" s="183">
+      <c r="Y27" s="206">
         <v>0</v>
       </c>
-      <c r="Z27" s="184"/>
-      <c r="AA27" s="186">
+      <c r="Z27" s="207"/>
+      <c r="AA27" s="204">
         <v>0</v>
       </c>
-      <c r="AB27" s="187"/>
+      <c r="AB27" s="205"/>
       <c r="AC27" s="153"/>
       <c r="AD27" s="102"/>
       <c r="AE27" s="102"/>
@@ -6050,8 +6050,8 @@
       <c r="AN27" s="102"/>
       <c r="AO27" s="102"/>
       <c r="AP27" s="93"/>
-      <c r="AQ27" s="258"/>
-      <c r="AR27" s="202"/>
+      <c r="AQ27" s="226"/>
+      <c r="AR27" s="227"/>
       <c r="AS27" s="50"/>
       <c r="AT27" s="50"/>
       <c r="AU27" s="50"/>
@@ -6067,19 +6067,19 @@
       <c r="BE27" s="73"/>
       <c r="BF27" s="50"/>
       <c r="BG27" s="28"/>
-      <c r="BH27" s="301"/>
-      <c r="BI27" s="182"/>
-      <c r="BJ27" s="182"/>
-      <c r="BK27" s="182"/>
-      <c r="BL27" s="182"/>
-      <c r="BM27" s="182"/>
-      <c r="BN27" s="182"/>
-      <c r="BO27" s="182"/>
-      <c r="BP27" s="182"/>
-      <c r="BQ27" s="182"/>
-      <c r="BR27" s="182"/>
-      <c r="BS27" s="182"/>
-      <c r="BT27" s="182"/>
+      <c r="BH27" s="264"/>
+      <c r="BI27" s="188"/>
+      <c r="BJ27" s="188"/>
+      <c r="BK27" s="188"/>
+      <c r="BL27" s="188"/>
+      <c r="BM27" s="188"/>
+      <c r="BN27" s="188"/>
+      <c r="BO27" s="188"/>
+      <c r="BP27" s="188"/>
+      <c r="BQ27" s="188"/>
+      <c r="BR27" s="188"/>
+      <c r="BS27" s="188"/>
+      <c r="BT27" s="188"/>
       <c r="BU27" s="30"/>
       <c r="BV27" s="30"/>
       <c r="CG27" s="18"/>
@@ -6108,7 +6108,7 @@
     </row>
     <row r="28" spans="1:107" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="50"/>
-      <c r="B28" s="339"/>
+      <c r="B28" s="183"/>
       <c r="F28"/>
       <c r="G28" s="57"/>
       <c r="H28" s="175"/>
@@ -6125,17 +6125,17 @@
       <c r="S28" s="175"/>
       <c r="T28" s="175"/>
       <c r="U28" s="167"/>
-      <c r="V28" s="205"/>
+      <c r="V28" s="337"/>
       <c r="W28" s="16"/>
       <c r="X28" s="164"/>
-      <c r="Y28" s="183">
+      <c r="Y28" s="206">
         <v>0</v>
       </c>
-      <c r="Z28" s="184"/>
-      <c r="AA28" s="186">
+      <c r="Z28" s="207"/>
+      <c r="AA28" s="204">
         <v>0</v>
       </c>
-      <c r="AB28" s="187"/>
+      <c r="AB28" s="205"/>
       <c r="AC28" s="153"/>
       <c r="AD28" s="103"/>
       <c r="AE28" s="103"/>
@@ -6150,8 +6150,8 @@
       <c r="AN28" s="103"/>
       <c r="AO28" s="103"/>
       <c r="AP28" s="87"/>
-      <c r="AQ28" s="294"/>
-      <c r="AR28" s="202"/>
+      <c r="AQ28" s="234"/>
+      <c r="AR28" s="227"/>
       <c r="AS28" s="50"/>
       <c r="AT28" s="50"/>
       <c r="AU28" s="50"/>
@@ -6166,22 +6166,22 @@
       <c r="BD28" s="106"/>
       <c r="BE28" s="73"/>
       <c r="BF28" s="50"/>
-      <c r="BG28" s="268"/>
-      <c r="BH28" s="182"/>
-      <c r="BI28" s="182"/>
-      <c r="BJ28" s="182"/>
-      <c r="BK28" s="182"/>
-      <c r="BL28" s="182"/>
-      <c r="BM28" s="182"/>
-      <c r="BN28" s="182"/>
-      <c r="BO28" s="182"/>
-      <c r="BP28" s="182"/>
-      <c r="BQ28" s="182"/>
-      <c r="BR28" s="182"/>
-      <c r="BS28" s="182"/>
-      <c r="BT28" s="182"/>
-      <c r="BU28" s="182"/>
-      <c r="BV28" s="182"/>
+      <c r="BG28" s="275"/>
+      <c r="BH28" s="188"/>
+      <c r="BI28" s="188"/>
+      <c r="BJ28" s="188"/>
+      <c r="BK28" s="188"/>
+      <c r="BL28" s="188"/>
+      <c r="BM28" s="188"/>
+      <c r="BN28" s="188"/>
+      <c r="BO28" s="188"/>
+      <c r="BP28" s="188"/>
+      <c r="BQ28" s="188"/>
+      <c r="BR28" s="188"/>
+      <c r="BS28" s="188"/>
+      <c r="BT28" s="188"/>
+      <c r="BU28" s="188"/>
+      <c r="BV28" s="188"/>
       <c r="CG28" s="18"/>
       <c r="CH28" s="18"/>
       <c r="CI28" s="18"/>
@@ -6208,7 +6208,7 @@
     </row>
     <row r="29" spans="1:107" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="50"/>
-      <c r="B29" s="338"/>
+      <c r="B29" s="182"/>
       <c r="C29" s="177"/>
       <c r="D29" s="177"/>
       <c r="E29" s="177"/>
@@ -6228,17 +6228,17 @@
       <c r="S29" s="175"/>
       <c r="T29" s="175"/>
       <c r="U29" s="167"/>
-      <c r="V29" s="205"/>
+      <c r="V29" s="337"/>
       <c r="W29" s="24"/>
       <c r="X29" s="164"/>
-      <c r="Y29" s="183">
+      <c r="Y29" s="206">
         <v>0</v>
       </c>
-      <c r="Z29" s="184"/>
-      <c r="AA29" s="186">
+      <c r="Z29" s="207"/>
+      <c r="AA29" s="204">
         <v>0</v>
       </c>
-      <c r="AB29" s="187"/>
+      <c r="AB29" s="205"/>
       <c r="AC29" s="153"/>
       <c r="AD29" s="107"/>
       <c r="AE29" s="107"/>
@@ -6253,8 +6253,8 @@
       <c r="AN29" s="107"/>
       <c r="AO29" s="107"/>
       <c r="AP29" s="87"/>
-      <c r="AQ29" s="245"/>
-      <c r="AR29" s="202"/>
+      <c r="AQ29" s="299"/>
+      <c r="AR29" s="227"/>
       <c r="AS29" s="50"/>
       <c r="AT29" s="50"/>
       <c r="AU29" s="50"/>
@@ -6269,22 +6269,22 @@
       <c r="BD29" s="113"/>
       <c r="BE29" s="73"/>
       <c r="BF29" s="50"/>
-      <c r="BG29" s="182"/>
-      <c r="BH29" s="182"/>
-      <c r="BI29" s="182"/>
-      <c r="BJ29" s="182"/>
-      <c r="BK29" s="182"/>
-      <c r="BL29" s="182"/>
-      <c r="BM29" s="182"/>
-      <c r="BN29" s="182"/>
-      <c r="BO29" s="182"/>
-      <c r="BP29" s="182"/>
-      <c r="BQ29" s="182"/>
-      <c r="BR29" s="182"/>
-      <c r="BS29" s="182"/>
-      <c r="BT29" s="182"/>
-      <c r="BU29" s="182"/>
-      <c r="BV29" s="182"/>
+      <c r="BG29" s="188"/>
+      <c r="BH29" s="188"/>
+      <c r="BI29" s="188"/>
+      <c r="BJ29" s="188"/>
+      <c r="BK29" s="188"/>
+      <c r="BL29" s="188"/>
+      <c r="BM29" s="188"/>
+      <c r="BN29" s="188"/>
+      <c r="BO29" s="188"/>
+      <c r="BP29" s="188"/>
+      <c r="BQ29" s="188"/>
+      <c r="BR29" s="188"/>
+      <c r="BS29" s="188"/>
+      <c r="BT29" s="188"/>
+      <c r="BU29" s="188"/>
+      <c r="BV29" s="188"/>
       <c r="CG29" s="18"/>
       <c r="CH29" s="18"/>
       <c r="CI29" s="18"/>
@@ -6311,7 +6311,7 @@
     </row>
     <row r="30" spans="1:107" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="50"/>
-      <c r="B30" s="338"/>
+      <c r="B30" s="182"/>
       <c r="C30" s="177"/>
       <c r="D30" s="177"/>
       <c r="E30" s="177"/>
@@ -6331,17 +6331,17 @@
       <c r="S30" s="175"/>
       <c r="T30" s="175"/>
       <c r="U30" s="167"/>
-      <c r="V30" s="205"/>
+      <c r="V30" s="337"/>
       <c r="W30" s="25"/>
       <c r="X30" s="165"/>
-      <c r="Y30" s="284">
+      <c r="Y30" s="292">
         <v>0</v>
       </c>
-      <c r="Z30" s="285"/>
-      <c r="AA30" s="292">
+      <c r="Z30" s="293"/>
+      <c r="AA30" s="250">
         <v>0</v>
       </c>
-      <c r="AB30" s="293"/>
+      <c r="AB30" s="251"/>
       <c r="AC30" s="155"/>
       <c r="AD30" s="114"/>
       <c r="AE30" s="114"/>
@@ -6356,15 +6356,15 @@
       <c r="AN30" s="114"/>
       <c r="AO30" s="114"/>
       <c r="AP30" s="87"/>
-      <c r="AQ30" s="201"/>
-      <c r="AR30" s="202"/>
+      <c r="AQ30" s="335"/>
+      <c r="AR30" s="227"/>
       <c r="AS30" s="50"/>
       <c r="AT30" s="50"/>
       <c r="AU30" s="50"/>
       <c r="AV30" s="50"/>
       <c r="AW30" s="50"/>
       <c r="AX30" s="50"/>
-      <c r="AY30" s="307"/>
+      <c r="AY30" s="232"/>
       <c r="AZ30" s="109"/>
       <c r="BA30" s="110"/>
       <c r="BB30" s="111"/>
@@ -6372,22 +6372,22 @@
       <c r="BD30" s="113"/>
       <c r="BE30" s="73"/>
       <c r="BF30" s="50"/>
-      <c r="BG30" s="268"/>
-      <c r="BH30" s="182"/>
-      <c r="BI30" s="182"/>
-      <c r="BJ30" s="182"/>
-      <c r="BK30" s="182"/>
-      <c r="BL30" s="182"/>
-      <c r="BM30" s="182"/>
-      <c r="BN30" s="182"/>
-      <c r="BO30" s="182"/>
-      <c r="BP30" s="182"/>
-      <c r="BQ30" s="182"/>
-      <c r="BR30" s="182"/>
-      <c r="BS30" s="182"/>
-      <c r="BT30" s="182"/>
-      <c r="BU30" s="182"/>
-      <c r="BV30" s="182"/>
+      <c r="BG30" s="275"/>
+      <c r="BH30" s="188"/>
+      <c r="BI30" s="188"/>
+      <c r="BJ30" s="188"/>
+      <c r="BK30" s="188"/>
+      <c r="BL30" s="188"/>
+      <c r="BM30" s="188"/>
+      <c r="BN30" s="188"/>
+      <c r="BO30" s="188"/>
+      <c r="BP30" s="188"/>
+      <c r="BQ30" s="188"/>
+      <c r="BR30" s="188"/>
+      <c r="BS30" s="188"/>
+      <c r="BT30" s="188"/>
+      <c r="BU30" s="188"/>
+      <c r="BV30" s="188"/>
       <c r="CG30" s="18"/>
       <c r="CH30" s="18"/>
       <c r="CI30" s="18"/>
@@ -6414,7 +6414,7 @@
     </row>
     <row r="31" spans="1:107" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="50"/>
-      <c r="B31" s="338"/>
+      <c r="B31" s="182"/>
       <c r="C31" s="177"/>
       <c r="D31" s="177"/>
       <c r="E31" s="177"/>
@@ -6434,21 +6434,21 @@
       <c r="S31" s="175"/>
       <c r="T31" s="175"/>
       <c r="U31" s="167"/>
-      <c r="V31" s="205"/>
+      <c r="V31" s="337"/>
       <c r="W31" s="14"/>
       <c r="X31" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="Y31" s="242">
+      <c r="Y31" s="296">
         <f>SUM(Y11:Z30)</f>
         <v>0</v>
       </c>
-      <c r="Z31" s="243"/>
-      <c r="AA31" s="248">
+      <c r="Z31" s="297"/>
+      <c r="AA31" s="301">
         <f>SUM(AA11:AB30)*AA9</f>
         <v>0</v>
       </c>
-      <c r="AB31" s="243"/>
+      <c r="AB31" s="297"/>
       <c r="AC31" s="156"/>
       <c r="AD31" s="55"/>
       <c r="AE31" s="55"/>
@@ -6463,15 +6463,15 @@
       <c r="AN31" s="55"/>
       <c r="AO31" s="55"/>
       <c r="AP31" s="87"/>
-      <c r="AQ31" s="252"/>
-      <c r="AR31" s="184"/>
+      <c r="AQ31" s="305"/>
+      <c r="AR31" s="207"/>
       <c r="AS31" s="50"/>
       <c r="AT31" s="50"/>
       <c r="AU31" s="50"/>
       <c r="AV31" s="50"/>
       <c r="AW31" s="50"/>
       <c r="AX31" s="50"/>
-      <c r="AY31" s="195"/>
+      <c r="AY31" s="233"/>
       <c r="AZ31" s="115"/>
       <c r="BA31" s="116"/>
       <c r="BB31" s="117"/>
@@ -6479,22 +6479,22 @@
       <c r="BD31" s="119"/>
       <c r="BE31" s="73"/>
       <c r="BF31" s="50"/>
-      <c r="BG31" s="239"/>
-      <c r="BH31" s="182"/>
-      <c r="BI31" s="182"/>
-      <c r="BJ31" s="182"/>
-      <c r="BK31" s="182"/>
-      <c r="BL31" s="182"/>
-      <c r="BM31" s="182"/>
-      <c r="BN31" s="182"/>
-      <c r="BO31" s="182"/>
-      <c r="BP31" s="182"/>
-      <c r="BQ31" s="182"/>
-      <c r="BR31" s="182"/>
-      <c r="BS31" s="182"/>
-      <c r="BT31" s="182"/>
-      <c r="BU31" s="182"/>
-      <c r="BV31" s="182"/>
+      <c r="BG31" s="331"/>
+      <c r="BH31" s="188"/>
+      <c r="BI31" s="188"/>
+      <c r="BJ31" s="188"/>
+      <c r="BK31" s="188"/>
+      <c r="BL31" s="188"/>
+      <c r="BM31" s="188"/>
+      <c r="BN31" s="188"/>
+      <c r="BO31" s="188"/>
+      <c r="BP31" s="188"/>
+      <c r="BQ31" s="188"/>
+      <c r="BR31" s="188"/>
+      <c r="BS31" s="188"/>
+      <c r="BT31" s="188"/>
+      <c r="BU31" s="188"/>
+      <c r="BV31" s="188"/>
       <c r="CG31" s="18"/>
       <c r="CH31" s="18"/>
       <c r="CI31" s="18"/>
@@ -6521,7 +6521,7 @@
     </row>
     <row r="32" spans="1:107" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="50"/>
-      <c r="B32" s="338"/>
+      <c r="B32" s="182"/>
       <c r="G32" s="57"/>
       <c r="H32" s="175"/>
       <c r="I32" s="175"/>
@@ -6537,16 +6537,16 @@
       <c r="S32" s="175"/>
       <c r="T32" s="175"/>
       <c r="U32" s="167"/>
-      <c r="V32" s="205"/>
+      <c r="V32" s="337"/>
       <c r="W32" s="15"/>
-      <c r="X32" s="254" t="e">
+      <c r="X32" s="307" t="e">
         <f>Y31/Y6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y32" s="189"/>
-      <c r="Z32" s="189"/>
-      <c r="AA32" s="189"/>
-      <c r="AB32" s="189"/>
+      <c r="Y32" s="185"/>
+      <c r="Z32" s="185"/>
+      <c r="AA32" s="185"/>
+      <c r="AB32" s="185"/>
       <c r="AC32" s="157"/>
       <c r="AD32" s="120"/>
       <c r="AE32" s="120"/>
@@ -6561,15 +6561,15 @@
       <c r="AN32" s="120"/>
       <c r="AO32" s="120"/>
       <c r="AP32" s="87"/>
-      <c r="AQ32" s="309"/>
-      <c r="AR32" s="202"/>
+      <c r="AQ32" s="238"/>
+      <c r="AR32" s="227"/>
       <c r="AS32" s="50"/>
       <c r="AT32" s="50"/>
       <c r="AU32" s="50"/>
       <c r="AV32" s="50"/>
       <c r="AW32" s="50"/>
       <c r="AX32" s="50"/>
-      <c r="AY32" s="195"/>
+      <c r="AY32" s="233"/>
       <c r="AZ32" s="121"/>
       <c r="BA32" s="122"/>
       <c r="BB32" s="123"/>
@@ -6577,22 +6577,22 @@
       <c r="BD32" s="125"/>
       <c r="BE32" s="73"/>
       <c r="BF32" s="50"/>
-      <c r="BG32" s="182"/>
-      <c r="BH32" s="182"/>
-      <c r="BI32" s="182"/>
-      <c r="BJ32" s="182"/>
-      <c r="BK32" s="182"/>
-      <c r="BL32" s="182"/>
-      <c r="BM32" s="182"/>
-      <c r="BN32" s="182"/>
-      <c r="BO32" s="182"/>
-      <c r="BP32" s="182"/>
-      <c r="BQ32" s="182"/>
-      <c r="BR32" s="182"/>
-      <c r="BS32" s="182"/>
-      <c r="BT32" s="182"/>
-      <c r="BU32" s="182"/>
-      <c r="BV32" s="182"/>
+      <c r="BG32" s="188"/>
+      <c r="BH32" s="188"/>
+      <c r="BI32" s="188"/>
+      <c r="BJ32" s="188"/>
+      <c r="BK32" s="188"/>
+      <c r="BL32" s="188"/>
+      <c r="BM32" s="188"/>
+      <c r="BN32" s="188"/>
+      <c r="BO32" s="188"/>
+      <c r="BP32" s="188"/>
+      <c r="BQ32" s="188"/>
+      <c r="BR32" s="188"/>
+      <c r="BS32" s="188"/>
+      <c r="BT32" s="188"/>
+      <c r="BU32" s="188"/>
+      <c r="BV32" s="188"/>
       <c r="CG32" s="18"/>
       <c r="CH32" s="18"/>
       <c r="CI32" s="18"/>
@@ -6619,7 +6619,7 @@
     </row>
     <row r="33" spans="1:107" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="50"/>
-      <c r="B33" s="338"/>
+      <c r="B33" s="182"/>
       <c r="C33" s="177"/>
       <c r="D33" s="177"/>
       <c r="E33" s="177"/>
@@ -6639,13 +6639,13 @@
       <c r="S33" s="175"/>
       <c r="T33" s="175"/>
       <c r="U33" s="167"/>
-      <c r="V33" s="205"/>
+      <c r="V33" s="337"/>
       <c r="W33" s="14"/>
-      <c r="X33" s="255"/>
-      <c r="Y33" s="255"/>
-      <c r="Z33" s="255"/>
-      <c r="AA33" s="255"/>
-      <c r="AB33" s="255"/>
+      <c r="X33" s="267"/>
+      <c r="Y33" s="267"/>
+      <c r="Z33" s="267"/>
+      <c r="AA33" s="267"/>
+      <c r="AB33" s="267"/>
       <c r="AC33" s="55"/>
       <c r="AD33" s="158"/>
       <c r="AE33" s="55"/>
@@ -6660,15 +6660,15 @@
       <c r="AN33" s="55"/>
       <c r="AO33" s="55"/>
       <c r="AP33" s="87"/>
-      <c r="AQ33" s="238"/>
-      <c r="AR33" s="202"/>
+      <c r="AQ33" s="330"/>
+      <c r="AR33" s="227"/>
       <c r="AS33" s="50"/>
       <c r="AT33" s="50"/>
       <c r="AU33" s="50"/>
       <c r="AV33" s="50"/>
       <c r="AW33" s="50"/>
       <c r="AX33" s="50"/>
-      <c r="AY33" s="281"/>
+      <c r="AY33" s="288"/>
       <c r="AZ33" s="126"/>
       <c r="BA33" s="127"/>
       <c r="BB33" s="128"/>
@@ -6676,22 +6676,22 @@
       <c r="BD33" s="130"/>
       <c r="BE33" s="73"/>
       <c r="BF33" s="50"/>
-      <c r="BG33" s="253"/>
-      <c r="BH33" s="182"/>
-      <c r="BI33" s="182"/>
-      <c r="BJ33" s="182"/>
-      <c r="BK33" s="182"/>
-      <c r="BL33" s="182"/>
-      <c r="BM33" s="182"/>
-      <c r="BN33" s="182"/>
-      <c r="BO33" s="182"/>
-      <c r="BP33" s="251"/>
-      <c r="BQ33" s="182"/>
-      <c r="BR33" s="182"/>
-      <c r="BS33" s="182"/>
-      <c r="BT33" s="226"/>
-      <c r="BU33" s="182"/>
-      <c r="BV33" s="182"/>
+      <c r="BG33" s="306"/>
+      <c r="BH33" s="188"/>
+      <c r="BI33" s="188"/>
+      <c r="BJ33" s="188"/>
+      <c r="BK33" s="188"/>
+      <c r="BL33" s="188"/>
+      <c r="BM33" s="188"/>
+      <c r="BN33" s="188"/>
+      <c r="BO33" s="188"/>
+      <c r="BP33" s="304"/>
+      <c r="BQ33" s="188"/>
+      <c r="BR33" s="188"/>
+      <c r="BS33" s="188"/>
+      <c r="BT33" s="323"/>
+      <c r="BU33" s="188"/>
+      <c r="BV33" s="188"/>
       <c r="CG33" s="18"/>
       <c r="CH33" s="18"/>
       <c r="CI33" s="18"/>
@@ -6718,7 +6718,7 @@
     </row>
     <row r="34" spans="1:107" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="50"/>
-      <c r="B34" s="338"/>
+      <c r="B34" s="182"/>
       <c r="C34" s="179"/>
       <c r="D34" s="179"/>
       <c r="E34" s="179"/>
@@ -6738,15 +6738,15 @@
       <c r="S34" s="175"/>
       <c r="T34" s="175"/>
       <c r="U34" s="167"/>
-      <c r="V34" s="205"/>
+      <c r="V34" s="337"/>
       <c r="W34" s="12"/>
-      <c r="X34" s="236" t="s">
+      <c r="X34" s="328" t="s">
         <v>15</v>
       </c>
-      <c r="Y34" s="189"/>
-      <c r="Z34" s="189"/>
-      <c r="AA34" s="189"/>
-      <c r="AB34" s="190"/>
+      <c r="Y34" s="185"/>
+      <c r="Z34" s="185"/>
+      <c r="AA34" s="185"/>
+      <c r="AB34" s="186"/>
       <c r="AC34" s="56"/>
       <c r="AD34" s="56"/>
       <c r="AE34" s="56"/>
@@ -6761,15 +6761,15 @@
       <c r="AN34" s="56"/>
       <c r="AO34" s="56"/>
       <c r="AP34" s="131"/>
-      <c r="AQ34" s="299"/>
-      <c r="AR34" s="300"/>
+      <c r="AQ34" s="262"/>
+      <c r="AR34" s="263"/>
       <c r="AS34" s="50"/>
       <c r="AT34" s="50"/>
       <c r="AU34" s="50"/>
       <c r="AV34" s="50"/>
       <c r="AW34" s="50"/>
       <c r="AX34" s="50"/>
-      <c r="AY34" s="195"/>
+      <c r="AY34" s="233"/>
       <c r="AZ34" s="132"/>
       <c r="BA34" s="133"/>
       <c r="BB34" s="134"/>
@@ -6777,22 +6777,22 @@
       <c r="BD34" s="136"/>
       <c r="BE34" s="73"/>
       <c r="BF34" s="50"/>
-      <c r="BG34" s="264"/>
-      <c r="BH34" s="182"/>
-      <c r="BI34" s="182"/>
-      <c r="BJ34" s="182"/>
-      <c r="BK34" s="182"/>
-      <c r="BL34" s="182"/>
-      <c r="BM34" s="246"/>
-      <c r="BN34" s="182"/>
-      <c r="BO34" s="182"/>
-      <c r="BP34" s="182"/>
-      <c r="BQ34" s="182"/>
-      <c r="BR34" s="244"/>
-      <c r="BS34" s="199"/>
-      <c r="BT34" s="182"/>
-      <c r="BU34" s="182"/>
-      <c r="BV34" s="182"/>
+      <c r="BG34" s="271"/>
+      <c r="BH34" s="188"/>
+      <c r="BI34" s="188"/>
+      <c r="BJ34" s="188"/>
+      <c r="BK34" s="188"/>
+      <c r="BL34" s="188"/>
+      <c r="BM34" s="300"/>
+      <c r="BN34" s="188"/>
+      <c r="BO34" s="188"/>
+      <c r="BP34" s="188"/>
+      <c r="BQ34" s="188"/>
+      <c r="BR34" s="298"/>
+      <c r="BS34" s="334"/>
+      <c r="BT34" s="188"/>
+      <c r="BU34" s="188"/>
+      <c r="BV34" s="188"/>
       <c r="CG34" s="18"/>
       <c r="CH34" s="18"/>
       <c r="CI34" s="18"/>
@@ -6818,13 +6818,13 @@
       <c r="DC34" s="18"/>
     </row>
     <row r="35" spans="1:107" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="314" t="s">
+      <c r="B35" s="193" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="189"/>
-      <c r="D35" s="189"/>
-      <c r="E35" s="189"/>
-      <c r="F35" s="189"/>
+      <c r="C35" s="185"/>
+      <c r="D35" s="185"/>
+      <c r="E35" s="185"/>
+      <c r="F35" s="185"/>
       <c r="G35" s="168"/>
       <c r="H35" s="169"/>
       <c r="I35" s="169"/>
@@ -6840,13 +6840,13 @@
       <c r="S35" s="169"/>
       <c r="T35" s="169"/>
       <c r="U35" s="170"/>
-      <c r="V35" s="206"/>
+      <c r="V35" s="338"/>
       <c r="W35" s="16"/>
-      <c r="X35" s="325"/>
-      <c r="Y35" s="326"/>
-      <c r="Z35" s="326"/>
-      <c r="AA35" s="326"/>
-      <c r="AB35" s="327"/>
+      <c r="X35" s="209"/>
+      <c r="Y35" s="210"/>
+      <c r="Z35" s="210"/>
+      <c r="AA35" s="210"/>
+      <c r="AB35" s="211"/>
       <c r="AC35" s="56"/>
       <c r="AD35" s="56"/>
       <c r="AE35" s="56"/>
@@ -6861,8 +6861,8 @@
       <c r="AN35" s="56"/>
       <c r="AO35" s="56"/>
       <c r="AP35" s="137"/>
-      <c r="AQ35" s="200"/>
-      <c r="AR35" s="195"/>
+      <c r="AQ35" s="260"/>
+      <c r="AR35" s="233"/>
       <c r="AS35" s="69"/>
       <c r="AT35" s="69"/>
       <c r="AU35" s="69"/>
@@ -6870,29 +6870,29 @@
       <c r="AW35" s="69"/>
       <c r="AX35" s="69"/>
       <c r="AY35" s="69"/>
-      <c r="AZ35" s="233"/>
-      <c r="BA35" s="234"/>
-      <c r="BB35" s="234"/>
-      <c r="BC35" s="234"/>
-      <c r="BD35" s="235"/>
+      <c r="AZ35" s="256"/>
+      <c r="BA35" s="257"/>
+      <c r="BB35" s="257"/>
+      <c r="BC35" s="257"/>
+      <c r="BD35" s="258"/>
       <c r="BE35" s="73"/>
       <c r="BF35" s="50"/>
-      <c r="BG35" s="182"/>
-      <c r="BH35" s="182"/>
-      <c r="BI35" s="182"/>
-      <c r="BJ35" s="182"/>
-      <c r="BK35" s="182"/>
-      <c r="BL35" s="182"/>
-      <c r="BM35" s="213"/>
-      <c r="BN35" s="182"/>
-      <c r="BO35" s="182"/>
-      <c r="BP35" s="182"/>
-      <c r="BQ35" s="182"/>
-      <c r="BR35" s="182"/>
-      <c r="BS35" s="213"/>
-      <c r="BT35" s="182"/>
-      <c r="BU35" s="182"/>
-      <c r="BV35" s="182"/>
+      <c r="BG35" s="188"/>
+      <c r="BH35" s="188"/>
+      <c r="BI35" s="188"/>
+      <c r="BJ35" s="188"/>
+      <c r="BK35" s="188"/>
+      <c r="BL35" s="188"/>
+      <c r="BM35" s="265"/>
+      <c r="BN35" s="188"/>
+      <c r="BO35" s="188"/>
+      <c r="BP35" s="188"/>
+      <c r="BQ35" s="188"/>
+      <c r="BR35" s="188"/>
+      <c r="BS35" s="265"/>
+      <c r="BT35" s="188"/>
+      <c r="BU35" s="188"/>
+      <c r="BV35" s="188"/>
       <c r="CG35" s="18"/>
       <c r="CH35" s="18"/>
       <c r="CI35" s="18"/>
@@ -6919,31 +6919,31 @@
     </row>
     <row r="36" spans="1:107" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="63"/>
-      <c r="G36" s="218" t="str">
+      <c r="G36" s="315" t="str">
         <f>"Estimates Based on Geofence and "&amp;AA7&amp;" Role"</f>
         <v>Estimates Based on Geofence and  Role</v>
       </c>
-      <c r="H36" s="219"/>
-      <c r="I36" s="219"/>
-      <c r="J36" s="220"/>
-      <c r="K36" s="220"/>
-      <c r="L36" s="220"/>
-      <c r="M36" s="220"/>
-      <c r="N36" s="220"/>
-      <c r="O36" s="220"/>
-      <c r="P36" s="220"/>
-      <c r="Q36" s="220"/>
-      <c r="R36" s="220"/>
-      <c r="S36" s="220"/>
-      <c r="T36" s="220"/>
-      <c r="U36" s="220"/>
-      <c r="V36" s="221"/>
+      <c r="H36" s="316"/>
+      <c r="I36" s="316"/>
+      <c r="J36" s="317"/>
+      <c r="K36" s="317"/>
+      <c r="L36" s="317"/>
+      <c r="M36" s="317"/>
+      <c r="N36" s="317"/>
+      <c r="O36" s="317"/>
+      <c r="P36" s="317"/>
+      <c r="Q36" s="317"/>
+      <c r="R36" s="317"/>
+      <c r="S36" s="317"/>
+      <c r="T36" s="317"/>
+      <c r="U36" s="317"/>
+      <c r="V36" s="318"/>
       <c r="W36" s="17"/>
-      <c r="X36" s="328"/>
-      <c r="Y36" s="329"/>
-      <c r="Z36" s="329"/>
-      <c r="AA36" s="329"/>
-      <c r="AB36" s="217"/>
+      <c r="X36" s="212"/>
+      <c r="Y36" s="213"/>
+      <c r="Z36" s="213"/>
+      <c r="AA36" s="213"/>
+      <c r="AB36" s="214"/>
       <c r="AC36" s="138"/>
       <c r="AD36" s="138"/>
       <c r="AE36" s="138"/>
@@ -6958,8 +6958,8 @@
       <c r="AN36" s="138"/>
       <c r="AO36" s="138"/>
       <c r="AP36" s="137"/>
-      <c r="AQ36" s="200"/>
-      <c r="AR36" s="195"/>
+      <c r="AQ36" s="260"/>
+      <c r="AR36" s="233"/>
       <c r="AS36" s="69"/>
       <c r="AT36" s="69"/>
       <c r="AU36" s="69"/>
@@ -6967,11 +6967,11 @@
       <c r="AW36" s="69"/>
       <c r="AX36" s="69"/>
       <c r="AY36" s="69"/>
-      <c r="AZ36" s="233"/>
-      <c r="BA36" s="234"/>
-      <c r="BB36" s="234"/>
-      <c r="BC36" s="234"/>
-      <c r="BD36" s="235"/>
+      <c r="AZ36" s="256"/>
+      <c r="BA36" s="257"/>
+      <c r="BB36" s="257"/>
+      <c r="BC36" s="257"/>
+      <c r="BD36" s="258"/>
       <c r="BE36" s="73"/>
       <c r="BF36" s="50"/>
       <c r="BG36" s="50"/>
@@ -7020,27 +7020,27 @@
       <c r="D37" s="180"/>
       <c r="E37" s="180"/>
       <c r="F37" s="180"/>
-      <c r="G37" s="222"/>
-      <c r="H37" s="223"/>
-      <c r="I37" s="223"/>
-      <c r="J37" s="224"/>
-      <c r="K37" s="224"/>
-      <c r="L37" s="224"/>
-      <c r="M37" s="224"/>
-      <c r="N37" s="224"/>
-      <c r="O37" s="224"/>
-      <c r="P37" s="224"/>
-      <c r="Q37" s="224"/>
-      <c r="R37" s="224"/>
-      <c r="S37" s="224"/>
-      <c r="T37" s="224"/>
-      <c r="U37" s="224"/>
-      <c r="V37" s="225"/>
-      <c r="X37" s="328"/>
-      <c r="Y37" s="329"/>
-      <c r="Z37" s="329"/>
-      <c r="AA37" s="329"/>
-      <c r="AB37" s="217"/>
+      <c r="G37" s="319"/>
+      <c r="H37" s="320"/>
+      <c r="I37" s="320"/>
+      <c r="J37" s="321"/>
+      <c r="K37" s="321"/>
+      <c r="L37" s="321"/>
+      <c r="M37" s="321"/>
+      <c r="N37" s="321"/>
+      <c r="O37" s="321"/>
+      <c r="P37" s="321"/>
+      <c r="Q37" s="321"/>
+      <c r="R37" s="321"/>
+      <c r="S37" s="321"/>
+      <c r="T37" s="321"/>
+      <c r="U37" s="321"/>
+      <c r="V37" s="322"/>
+      <c r="X37" s="212"/>
+      <c r="Y37" s="213"/>
+      <c r="Z37" s="213"/>
+      <c r="AA37" s="213"/>
+      <c r="AB37" s="214"/>
       <c r="AD37" s="30"/>
       <c r="AE37" s="30"/>
       <c r="AF37" s="30"/>
@@ -7116,33 +7116,33 @@
       <c r="D38" s="180"/>
       <c r="E38" s="180"/>
       <c r="F38" s="39"/>
-      <c r="G38" s="336" t="s">
+      <c r="G38" s="223" t="s">
         <v>16</v>
       </c>
-      <c r="H38" s="189"/>
-      <c r="I38" s="189"/>
-      <c r="J38" s="189"/>
-      <c r="K38" s="190"/>
-      <c r="L38" s="291" t="s">
+      <c r="H38" s="185"/>
+      <c r="I38" s="185"/>
+      <c r="J38" s="185"/>
+      <c r="K38" s="186"/>
+      <c r="L38" s="249" t="s">
         <v>17</v>
       </c>
-      <c r="M38" s="189"/>
-      <c r="N38" s="189"/>
-      <c r="O38" s="189"/>
-      <c r="P38" s="189"/>
-      <c r="Q38" s="190"/>
-      <c r="R38" s="188" t="s">
+      <c r="M38" s="185"/>
+      <c r="N38" s="185"/>
+      <c r="O38" s="185"/>
+      <c r="P38" s="185"/>
+      <c r="Q38" s="186"/>
+      <c r="R38" s="332" t="s">
         <v>18</v>
       </c>
-      <c r="S38" s="189"/>
-      <c r="T38" s="189"/>
-      <c r="U38" s="189"/>
-      <c r="V38" s="190"/>
-      <c r="X38" s="328"/>
-      <c r="Y38" s="329"/>
-      <c r="Z38" s="329"/>
-      <c r="AA38" s="329"/>
-      <c r="AB38" s="217"/>
+      <c r="S38" s="185"/>
+      <c r="T38" s="185"/>
+      <c r="U38" s="185"/>
+      <c r="V38" s="186"/>
+      <c r="X38" s="212"/>
+      <c r="Y38" s="213"/>
+      <c r="Z38" s="213"/>
+      <c r="AA38" s="213"/>
+      <c r="AB38" s="214"/>
       <c r="AD38" s="30"/>
       <c r="AE38" s="30"/>
       <c r="AF38" s="30"/>
@@ -7218,32 +7218,32 @@
       <c r="D39" s="180"/>
       <c r="E39" s="180"/>
       <c r="F39" s="39"/>
-      <c r="G39" s="191"/>
-      <c r="H39" s="192"/>
-      <c r="I39" s="192"/>
-      <c r="J39" s="192"/>
-      <c r="K39" s="193"/>
-      <c r="L39" s="227" t="s">
+      <c r="G39" s="190"/>
+      <c r="H39" s="191"/>
+      <c r="I39" s="191"/>
+      <c r="J39" s="191"/>
+      <c r="K39" s="192"/>
+      <c r="L39" s="219" t="s">
         <v>19</v>
       </c>
-      <c r="M39" s="192"/>
-      <c r="N39" s="193"/>
-      <c r="O39" s="227" t="s">
+      <c r="M39" s="191"/>
+      <c r="N39" s="192"/>
+      <c r="O39" s="219" t="s">
         <v>20</v>
       </c>
-      <c r="P39" s="192"/>
-      <c r="Q39" s="193"/>
-      <c r="R39" s="191"/>
-      <c r="S39" s="192"/>
-      <c r="T39" s="192"/>
-      <c r="U39" s="192"/>
-      <c r="V39" s="193"/>
+      <c r="P39" s="191"/>
+      <c r="Q39" s="192"/>
+      <c r="R39" s="190"/>
+      <c r="S39" s="191"/>
+      <c r="T39" s="191"/>
+      <c r="U39" s="191"/>
+      <c r="V39" s="192"/>
       <c r="W39" s="1"/>
-      <c r="X39" s="328"/>
-      <c r="Y39" s="329"/>
-      <c r="Z39" s="329"/>
-      <c r="AA39" s="329"/>
-      <c r="AB39" s="217"/>
+      <c r="X39" s="212"/>
+      <c r="Y39" s="213"/>
+      <c r="Z39" s="213"/>
+      <c r="AA39" s="213"/>
+      <c r="AB39" s="214"/>
       <c r="AC39" s="51"/>
       <c r="AD39" s="51"/>
       <c r="AE39" s="51"/>
@@ -7320,39 +7320,39 @@
       <c r="D40" s="180"/>
       <c r="E40" s="180"/>
       <c r="F40" s="39"/>
-      <c r="G40" s="333" t="s">
+      <c r="G40" s="218" t="s">
         <v>21</v>
       </c>
-      <c r="H40" s="189"/>
-      <c r="I40" s="189"/>
-      <c r="J40" s="189"/>
-      <c r="K40" s="190"/>
-      <c r="L40" s="265">
+      <c r="H40" s="185"/>
+      <c r="I40" s="185"/>
+      <c r="J40" s="185"/>
+      <c r="K40" s="186"/>
+      <c r="L40" s="203">
         <f>AA31</f>
         <v>0</v>
       </c>
-      <c r="M40" s="189"/>
-      <c r="N40" s="190"/>
-      <c r="O40" s="265">
+      <c r="M40" s="185"/>
+      <c r="N40" s="186"/>
+      <c r="O40" s="203">
         <f>L40*2</f>
         <v>0</v>
       </c>
-      <c r="P40" s="189"/>
-      <c r="Q40" s="190"/>
-      <c r="R40" s="198">
+      <c r="P40" s="185"/>
+      <c r="Q40" s="186"/>
+      <c r="R40" s="242">
         <f>Y$6</f>
         <v>0</v>
       </c>
-      <c r="S40" s="189"/>
-      <c r="T40" s="189"/>
-      <c r="U40" s="189"/>
-      <c r="V40" s="190"/>
+      <c r="S40" s="185"/>
+      <c r="T40" s="185"/>
+      <c r="U40" s="185"/>
+      <c r="V40" s="186"/>
       <c r="W40" s="1"/>
-      <c r="X40" s="328"/>
-      <c r="Y40" s="329"/>
-      <c r="Z40" s="329"/>
-      <c r="AA40" s="329"/>
-      <c r="AB40" s="217"/>
+      <c r="X40" s="212"/>
+      <c r="Y40" s="213"/>
+      <c r="Z40" s="213"/>
+      <c r="AA40" s="213"/>
+      <c r="AB40" s="214"/>
       <c r="AC40" s="51"/>
       <c r="AD40" s="51"/>
       <c r="AE40" s="51"/>
@@ -7429,28 +7429,28 @@
       <c r="D41" s="180"/>
       <c r="E41" s="180"/>
       <c r="F41" s="39"/>
-      <c r="G41" s="192"/>
-      <c r="H41" s="192"/>
-      <c r="I41" s="192"/>
-      <c r="J41" s="192"/>
-      <c r="K41" s="193"/>
-      <c r="L41" s="191"/>
-      <c r="M41" s="192"/>
-      <c r="N41" s="193"/>
-      <c r="O41" s="191"/>
-      <c r="P41" s="192"/>
-      <c r="Q41" s="193"/>
-      <c r="R41" s="191"/>
-      <c r="S41" s="192"/>
-      <c r="T41" s="192"/>
-      <c r="U41" s="192"/>
-      <c r="V41" s="193"/>
+      <c r="G41" s="191"/>
+      <c r="H41" s="191"/>
+      <c r="I41" s="191"/>
+      <c r="J41" s="191"/>
+      <c r="K41" s="192"/>
+      <c r="L41" s="190"/>
+      <c r="M41" s="191"/>
+      <c r="N41" s="192"/>
+      <c r="O41" s="190"/>
+      <c r="P41" s="191"/>
+      <c r="Q41" s="192"/>
+      <c r="R41" s="190"/>
+      <c r="S41" s="191"/>
+      <c r="T41" s="191"/>
+      <c r="U41" s="191"/>
+      <c r="V41" s="192"/>
       <c r="W41" s="1"/>
-      <c r="X41" s="328"/>
-      <c r="Y41" s="329"/>
-      <c r="Z41" s="329"/>
-      <c r="AA41" s="329"/>
-      <c r="AB41" s="217"/>
+      <c r="X41" s="212"/>
+      <c r="Y41" s="213"/>
+      <c r="Z41" s="213"/>
+      <c r="AA41" s="213"/>
+      <c r="AB41" s="214"/>
       <c r="AC41" s="51"/>
       <c r="AD41" s="51"/>
       <c r="AE41" s="51"/>
@@ -7527,39 +7527,39 @@
       <c r="D42" s="180"/>
       <c r="E42" s="180"/>
       <c r="F42" s="39"/>
-      <c r="G42" s="333" t="s">
+      <c r="G42" s="218" t="s">
         <v>22</v>
       </c>
-      <c r="H42" s="189"/>
-      <c r="I42" s="189"/>
-      <c r="J42" s="189"/>
-      <c r="K42" s="190"/>
-      <c r="L42" s="265">
+      <c r="H42" s="185"/>
+      <c r="I42" s="185"/>
+      <c r="J42" s="185"/>
+      <c r="K42" s="186"/>
+      <c r="L42" s="203">
         <f>L40/2</f>
         <v>0</v>
       </c>
-      <c r="M42" s="189"/>
-      <c r="N42" s="190"/>
-      <c r="O42" s="265">
+      <c r="M42" s="185"/>
+      <c r="N42" s="186"/>
+      <c r="O42" s="203">
         <f>L42*2.333</f>
         <v>0</v>
       </c>
-      <c r="P42" s="189"/>
-      <c r="Q42" s="190"/>
-      <c r="R42" s="198">
+      <c r="P42" s="185"/>
+      <c r="Q42" s="186"/>
+      <c r="R42" s="242">
         <f>Y$7</f>
         <v>0</v>
       </c>
-      <c r="S42" s="189"/>
-      <c r="T42" s="189"/>
-      <c r="U42" s="189"/>
-      <c r="V42" s="190"/>
+      <c r="S42" s="185"/>
+      <c r="T42" s="185"/>
+      <c r="U42" s="185"/>
+      <c r="V42" s="186"/>
       <c r="W42" s="1"/>
-      <c r="X42" s="328"/>
-      <c r="Y42" s="329"/>
-      <c r="Z42" s="329"/>
-      <c r="AA42" s="329"/>
-      <c r="AB42" s="217"/>
+      <c r="X42" s="212"/>
+      <c r="Y42" s="213"/>
+      <c r="Z42" s="213"/>
+      <c r="AA42" s="213"/>
+      <c r="AB42" s="214"/>
       <c r="AC42" s="51"/>
       <c r="AD42" s="51"/>
       <c r="AE42" s="51"/>
@@ -7575,7 +7575,7 @@
       <c r="AO42" s="51"/>
       <c r="AP42" s="52"/>
       <c r="AQ42" s="52"/>
-      <c r="AR42" s="297"/>
+      <c r="AR42" s="259"/>
       <c r="AS42" s="69"/>
       <c r="AT42" s="69"/>
       <c r="AU42" s="69"/>
@@ -7636,28 +7636,28 @@
       <c r="D43" s="180"/>
       <c r="E43" s="180"/>
       <c r="F43" s="39"/>
-      <c r="G43" s="192"/>
-      <c r="H43" s="192"/>
-      <c r="I43" s="192"/>
-      <c r="J43" s="192"/>
-      <c r="K43" s="193"/>
-      <c r="L43" s="191"/>
-      <c r="M43" s="192"/>
-      <c r="N43" s="193"/>
-      <c r="O43" s="191"/>
-      <c r="P43" s="192"/>
-      <c r="Q43" s="193"/>
-      <c r="R43" s="191"/>
-      <c r="S43" s="192"/>
-      <c r="T43" s="192"/>
-      <c r="U43" s="192"/>
-      <c r="V43" s="193"/>
+      <c r="G43" s="191"/>
+      <c r="H43" s="191"/>
+      <c r="I43" s="191"/>
+      <c r="J43" s="191"/>
+      <c r="K43" s="192"/>
+      <c r="L43" s="190"/>
+      <c r="M43" s="191"/>
+      <c r="N43" s="192"/>
+      <c r="O43" s="190"/>
+      <c r="P43" s="191"/>
+      <c r="Q43" s="192"/>
+      <c r="R43" s="190"/>
+      <c r="S43" s="191"/>
+      <c r="T43" s="191"/>
+      <c r="U43" s="191"/>
+      <c r="V43" s="192"/>
       <c r="W43" s="1"/>
-      <c r="X43" s="328"/>
-      <c r="Y43" s="329"/>
-      <c r="Z43" s="329"/>
-      <c r="AA43" s="329"/>
-      <c r="AB43" s="217"/>
+      <c r="X43" s="212"/>
+      <c r="Y43" s="213"/>
+      <c r="Z43" s="213"/>
+      <c r="AA43" s="213"/>
+      <c r="AB43" s="214"/>
       <c r="AC43" s="51"/>
       <c r="AD43" s="51"/>
       <c r="AE43" s="51"/>
@@ -7673,7 +7673,7 @@
       <c r="AO43" s="51"/>
       <c r="AP43" s="52"/>
       <c r="AQ43" s="52"/>
-      <c r="AR43" s="195"/>
+      <c r="AR43" s="233"/>
       <c r="AS43" s="69"/>
       <c r="AT43" s="69"/>
       <c r="AU43" s="69"/>
@@ -7734,39 +7734,39 @@
       <c r="D44" s="180"/>
       <c r="E44" s="180"/>
       <c r="F44" s="39"/>
-      <c r="G44" s="334" t="s">
+      <c r="G44" s="220" t="s">
         <v>23</v>
       </c>
-      <c r="H44" s="189"/>
-      <c r="I44" s="189"/>
-      <c r="J44" s="189"/>
-      <c r="K44" s="190"/>
-      <c r="L44" s="247">
+      <c r="H44" s="185"/>
+      <c r="I44" s="185"/>
+      <c r="J44" s="185"/>
+      <c r="K44" s="186"/>
+      <c r="L44" s="272">
         <f>L42/2</f>
         <v>0</v>
       </c>
-      <c r="M44" s="189"/>
-      <c r="N44" s="190"/>
-      <c r="O44" s="247">
+      <c r="M44" s="185"/>
+      <c r="N44" s="186"/>
+      <c r="O44" s="272">
         <f>L44*2.333</f>
         <v>0</v>
       </c>
-      <c r="P44" s="189"/>
-      <c r="Q44" s="190"/>
-      <c r="R44" s="298">
+      <c r="P44" s="185"/>
+      <c r="Q44" s="186"/>
+      <c r="R44" s="261">
         <f>Y$8</f>
         <v>0</v>
       </c>
-      <c r="S44" s="189"/>
-      <c r="T44" s="189"/>
-      <c r="U44" s="189"/>
-      <c r="V44" s="190"/>
+      <c r="S44" s="185"/>
+      <c r="T44" s="185"/>
+      <c r="U44" s="185"/>
+      <c r="V44" s="186"/>
       <c r="W44" s="1"/>
-      <c r="X44" s="328"/>
-      <c r="Y44" s="329"/>
-      <c r="Z44" s="329"/>
-      <c r="AA44" s="329"/>
-      <c r="AB44" s="217"/>
+      <c r="X44" s="212"/>
+      <c r="Y44" s="213"/>
+      <c r="Z44" s="213"/>
+      <c r="AA44" s="213"/>
+      <c r="AB44" s="214"/>
       <c r="AC44" s="51"/>
       <c r="AD44" s="51"/>
       <c r="AE44" s="51"/>
@@ -7843,28 +7843,28 @@
       <c r="D45" s="41"/>
       <c r="E45" s="41"/>
       <c r="F45" s="42"/>
-      <c r="G45" s="335"/>
-      <c r="H45" s="335"/>
-      <c r="I45" s="335"/>
-      <c r="J45" s="210"/>
-      <c r="K45" s="211"/>
-      <c r="L45" s="212"/>
-      <c r="M45" s="210"/>
-      <c r="N45" s="211"/>
-      <c r="O45" s="212"/>
-      <c r="P45" s="210"/>
-      <c r="Q45" s="211"/>
-      <c r="R45" s="212"/>
-      <c r="S45" s="210"/>
-      <c r="T45" s="210"/>
-      <c r="U45" s="210"/>
-      <c r="V45" s="211"/>
+      <c r="G45" s="221"/>
+      <c r="H45" s="221"/>
+      <c r="I45" s="221"/>
+      <c r="J45" s="222"/>
+      <c r="K45" s="189"/>
+      <c r="L45" s="187"/>
+      <c r="M45" s="222"/>
+      <c r="N45" s="189"/>
+      <c r="O45" s="187"/>
+      <c r="P45" s="222"/>
+      <c r="Q45" s="189"/>
+      <c r="R45" s="187"/>
+      <c r="S45" s="222"/>
+      <c r="T45" s="222"/>
+      <c r="U45" s="222"/>
+      <c r="V45" s="189"/>
       <c r="W45" s="1"/>
-      <c r="X45" s="328"/>
-      <c r="Y45" s="329"/>
-      <c r="Z45" s="329"/>
-      <c r="AA45" s="329"/>
-      <c r="AB45" s="217"/>
+      <c r="X45" s="212"/>
+      <c r="Y45" s="213"/>
+      <c r="Z45" s="213"/>
+      <c r="AA45" s="213"/>
+      <c r="AB45" s="214"/>
       <c r="AC45" s="51"/>
       <c r="AD45" s="51"/>
       <c r="AE45" s="51"/>
@@ -7936,35 +7936,35 @@
       <c r="DC45" s="18"/>
     </row>
     <row r="46" spans="1:107" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="269" t="s">
+      <c r="B46" s="276" t="s">
         <v>24</v>
       </c>
-      <c r="C46" s="270"/>
-      <c r="D46" s="270"/>
-      <c r="E46" s="270"/>
-      <c r="F46" s="270"/>
-      <c r="G46" s="270"/>
-      <c r="H46" s="270"/>
-      <c r="I46" s="270"/>
-      <c r="J46" s="270"/>
-      <c r="K46" s="270"/>
-      <c r="L46" s="270"/>
-      <c r="M46" s="270"/>
-      <c r="N46" s="270"/>
-      <c r="O46" s="270"/>
-      <c r="P46" s="270"/>
-      <c r="Q46" s="270"/>
-      <c r="R46" s="270"/>
-      <c r="S46" s="270"/>
-      <c r="T46" s="270"/>
-      <c r="U46" s="270"/>
-      <c r="V46" s="271"/>
+      <c r="C46" s="277"/>
+      <c r="D46" s="277"/>
+      <c r="E46" s="277"/>
+      <c r="F46" s="277"/>
+      <c r="G46" s="277"/>
+      <c r="H46" s="277"/>
+      <c r="I46" s="277"/>
+      <c r="J46" s="277"/>
+      <c r="K46" s="277"/>
+      <c r="L46" s="277"/>
+      <c r="M46" s="277"/>
+      <c r="N46" s="277"/>
+      <c r="O46" s="277"/>
+      <c r="P46" s="277"/>
+      <c r="Q46" s="277"/>
+      <c r="R46" s="277"/>
+      <c r="S46" s="277"/>
+      <c r="T46" s="277"/>
+      <c r="U46" s="277"/>
+      <c r="V46" s="278"/>
       <c r="W46" s="1"/>
-      <c r="X46" s="328"/>
-      <c r="Y46" s="329"/>
-      <c r="Z46" s="329"/>
-      <c r="AA46" s="329"/>
-      <c r="AB46" s="217"/>
+      <c r="X46" s="212"/>
+      <c r="Y46" s="213"/>
+      <c r="Z46" s="213"/>
+      <c r="AA46" s="213"/>
+      <c r="AB46" s="214"/>
       <c r="AC46" s="51"/>
       <c r="AD46" s="51"/>
       <c r="AE46" s="51"/>
@@ -7978,9 +7978,9 @@
       <c r="AM46" s="51"/>
       <c r="AN46" s="51"/>
       <c r="AO46" s="51"/>
-      <c r="AP46" s="194"/>
-      <c r="AQ46" s="195"/>
-      <c r="AR46" s="195"/>
+      <c r="AP46" s="333"/>
+      <c r="AQ46" s="233"/>
+      <c r="AR46" s="233"/>
       <c r="AS46" s="69"/>
       <c r="AT46" s="69"/>
       <c r="AU46" s="69"/>
@@ -8036,33 +8036,33 @@
       <c r="DC46" s="18"/>
     </row>
     <row r="47" spans="1:107" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B47" s="272"/>
-      <c r="C47" s="273"/>
-      <c r="D47" s="273"/>
-      <c r="E47" s="273"/>
-      <c r="F47" s="274"/>
-      <c r="G47" s="274"/>
-      <c r="H47" s="274"/>
-      <c r="I47" s="274"/>
-      <c r="J47" s="275"/>
-      <c r="K47" s="275"/>
-      <c r="L47" s="275"/>
-      <c r="M47" s="275"/>
-      <c r="N47" s="275"/>
-      <c r="O47" s="275"/>
-      <c r="P47" s="275"/>
-      <c r="Q47" s="275"/>
-      <c r="R47" s="275"/>
-      <c r="S47" s="275"/>
-      <c r="T47" s="275"/>
-      <c r="U47" s="275"/>
-      <c r="V47" s="276"/>
+      <c r="B47" s="279"/>
+      <c r="C47" s="280"/>
+      <c r="D47" s="280"/>
+      <c r="E47" s="280"/>
+      <c r="F47" s="281"/>
+      <c r="G47" s="281"/>
+      <c r="H47" s="281"/>
+      <c r="I47" s="281"/>
+      <c r="J47" s="282"/>
+      <c r="K47" s="282"/>
+      <c r="L47" s="282"/>
+      <c r="M47" s="282"/>
+      <c r="N47" s="282"/>
+      <c r="O47" s="282"/>
+      <c r="P47" s="282"/>
+      <c r="Q47" s="282"/>
+      <c r="R47" s="282"/>
+      <c r="S47" s="282"/>
+      <c r="T47" s="282"/>
+      <c r="U47" s="282"/>
+      <c r="V47" s="283"/>
       <c r="W47" s="1"/>
-      <c r="X47" s="330"/>
-      <c r="Y47" s="331"/>
-      <c r="Z47" s="331"/>
-      <c r="AA47" s="331"/>
-      <c r="AB47" s="332"/>
+      <c r="X47" s="215"/>
+      <c r="Y47" s="216"/>
+      <c r="Z47" s="216"/>
+      <c r="AA47" s="216"/>
+      <c r="AB47" s="217"/>
       <c r="AC47" s="51"/>
       <c r="AD47" s="51"/>
       <c r="AE47" s="51"/>
@@ -8076,9 +8076,9 @@
       <c r="AM47" s="51"/>
       <c r="AN47" s="51"/>
       <c r="AO47" s="51"/>
-      <c r="AP47" s="195"/>
-      <c r="AQ47" s="195"/>
-      <c r="AR47" s="195"/>
+      <c r="AP47" s="233"/>
+      <c r="AQ47" s="233"/>
+      <c r="AR47" s="233"/>
       <c r="AS47" s="69"/>
       <c r="AT47" s="69"/>
       <c r="AU47" s="69"/>
@@ -8134,27 +8134,27 @@
       <c r="DC47" s="18"/>
     </row>
     <row r="48" spans="1:107" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B48" s="277"/>
-      <c r="C48" s="278"/>
-      <c r="D48" s="278"/>
-      <c r="E48" s="278"/>
-      <c r="F48" s="278"/>
-      <c r="G48" s="278"/>
-      <c r="H48" s="278"/>
-      <c r="I48" s="278"/>
-      <c r="J48" s="278"/>
-      <c r="K48" s="278"/>
-      <c r="L48" s="278"/>
-      <c r="M48" s="278"/>
-      <c r="N48" s="278"/>
-      <c r="O48" s="278"/>
-      <c r="P48" s="278"/>
-      <c r="Q48" s="278"/>
-      <c r="R48" s="278"/>
-      <c r="S48" s="278"/>
-      <c r="T48" s="278"/>
-      <c r="U48" s="278"/>
-      <c r="V48" s="279"/>
+      <c r="B48" s="284"/>
+      <c r="C48" s="285"/>
+      <c r="D48" s="285"/>
+      <c r="E48" s="285"/>
+      <c r="F48" s="285"/>
+      <c r="G48" s="285"/>
+      <c r="H48" s="285"/>
+      <c r="I48" s="285"/>
+      <c r="J48" s="285"/>
+      <c r="K48" s="285"/>
+      <c r="L48" s="285"/>
+      <c r="M48" s="285"/>
+      <c r="N48" s="285"/>
+      <c r="O48" s="285"/>
+      <c r="P48" s="285"/>
+      <c r="Q48" s="285"/>
+      <c r="R48" s="285"/>
+      <c r="S48" s="285"/>
+      <c r="T48" s="285"/>
+      <c r="U48" s="285"/>
+      <c r="V48" s="286"/>
       <c r="W48" s="1"/>
       <c r="X48" s="1"/>
       <c r="Y48" s="1"/>
@@ -8590,10 +8590,10 @@
       <c r="O55" s="30"/>
       <c r="P55" s="30"/>
       <c r="Q55" s="30"/>
-      <c r="R55" s="241"/>
-      <c r="S55" s="210"/>
-      <c r="T55" s="210"/>
-      <c r="U55" s="210"/>
+      <c r="R55" s="225"/>
+      <c r="S55" s="222"/>
+      <c r="T55" s="222"/>
+      <c r="U55" s="222"/>
       <c r="V55" s="30"/>
       <c r="W55" s="30"/>
       <c r="X55" s="30"/>
@@ -8671,10 +8671,10 @@
       <c r="O56" s="30"/>
       <c r="P56" s="30"/>
       <c r="Q56" s="30"/>
-      <c r="R56" s="241"/>
-      <c r="S56" s="210"/>
-      <c r="T56" s="210"/>
-      <c r="U56" s="210"/>
+      <c r="R56" s="225"/>
+      <c r="S56" s="222"/>
+      <c r="T56" s="222"/>
+      <c r="U56" s="222"/>
       <c r="V56" s="30"/>
       <c r="W56" s="30"/>
       <c r="X56" s="30"/>
@@ -8752,10 +8752,10 @@
       <c r="O57" s="30"/>
       <c r="P57" s="30"/>
       <c r="Q57" s="30"/>
-      <c r="R57" s="241"/>
-      <c r="S57" s="210"/>
-      <c r="T57" s="210"/>
-      <c r="U57" s="210"/>
+      <c r="R57" s="225"/>
+      <c r="S57" s="222"/>
+      <c r="T57" s="222"/>
+      <c r="U57" s="222"/>
       <c r="V57" s="30"/>
       <c r="W57" s="30"/>
       <c r="X57" s="30"/>
@@ -8997,29 +8997,29 @@
       <c r="Q60" s="30"/>
       <c r="R60" s="30"/>
       <c r="S60" s="30"/>
-      <c r="T60" s="260"/>
-      <c r="U60" s="210"/>
-      <c r="V60" s="210"/>
-      <c r="W60" s="255"/>
-      <c r="X60" s="255"/>
-      <c r="Y60" s="255"/>
-      <c r="Z60" s="255"/>
-      <c r="AA60" s="255"/>
-      <c r="AB60" s="255"/>
-      <c r="AC60" s="261"/>
-      <c r="AD60" s="255"/>
-      <c r="AE60" s="255"/>
-      <c r="AF60" s="255"/>
-      <c r="AG60" s="255"/>
-      <c r="AH60" s="255"/>
-      <c r="AI60" s="255"/>
-      <c r="AJ60" s="255"/>
-      <c r="AK60" s="255"/>
-      <c r="AL60" s="255"/>
-      <c r="AM60" s="255"/>
-      <c r="AN60" s="255"/>
-      <c r="AO60" s="255"/>
-      <c r="AP60" s="211"/>
+      <c r="T60" s="266"/>
+      <c r="U60" s="222"/>
+      <c r="V60" s="222"/>
+      <c r="W60" s="267"/>
+      <c r="X60" s="267"/>
+      <c r="Y60" s="267"/>
+      <c r="Z60" s="267"/>
+      <c r="AA60" s="267"/>
+      <c r="AB60" s="267"/>
+      <c r="AC60" s="268"/>
+      <c r="AD60" s="267"/>
+      <c r="AE60" s="267"/>
+      <c r="AF60" s="267"/>
+      <c r="AG60" s="267"/>
+      <c r="AH60" s="267"/>
+      <c r="AI60" s="267"/>
+      <c r="AJ60" s="267"/>
+      <c r="AK60" s="267"/>
+      <c r="AL60" s="267"/>
+      <c r="AM60" s="267"/>
+      <c r="AN60" s="267"/>
+      <c r="AO60" s="267"/>
+      <c r="AP60" s="189"/>
       <c r="AQ60" s="18"/>
       <c r="AR60" s="18"/>
       <c r="AS60" s="18"/>
@@ -9073,35 +9073,35 @@
       <c r="K61" s="30"/>
       <c r="L61" s="30"/>
       <c r="M61" s="30"/>
-      <c r="N61" s="209"/>
-      <c r="O61" s="210"/>
-      <c r="P61" s="210"/>
-      <c r="Q61" s="210"/>
-      <c r="R61" s="211"/>
+      <c r="N61" s="311"/>
+      <c r="O61" s="222"/>
+      <c r="P61" s="222"/>
+      <c r="Q61" s="222"/>
+      <c r="R61" s="189"/>
       <c r="S61" s="30"/>
-      <c r="T61" s="212"/>
-      <c r="U61" s="210"/>
-      <c r="V61" s="210"/>
-      <c r="W61" s="255"/>
-      <c r="X61" s="255"/>
-      <c r="Y61" s="255"/>
-      <c r="Z61" s="255"/>
-      <c r="AA61" s="255"/>
-      <c r="AB61" s="255"/>
-      <c r="AC61" s="261"/>
-      <c r="AD61" s="255"/>
-      <c r="AE61" s="255"/>
-      <c r="AF61" s="255"/>
-      <c r="AG61" s="255"/>
-      <c r="AH61" s="255"/>
-      <c r="AI61" s="255"/>
-      <c r="AJ61" s="255"/>
-      <c r="AK61" s="255"/>
-      <c r="AL61" s="255"/>
-      <c r="AM61" s="255"/>
-      <c r="AN61" s="255"/>
-      <c r="AO61" s="255"/>
-      <c r="AP61" s="211"/>
+      <c r="T61" s="187"/>
+      <c r="U61" s="222"/>
+      <c r="V61" s="222"/>
+      <c r="W61" s="267"/>
+      <c r="X61" s="267"/>
+      <c r="Y61" s="267"/>
+      <c r="Z61" s="267"/>
+      <c r="AA61" s="267"/>
+      <c r="AB61" s="267"/>
+      <c r="AC61" s="268"/>
+      <c r="AD61" s="267"/>
+      <c r="AE61" s="267"/>
+      <c r="AF61" s="267"/>
+      <c r="AG61" s="267"/>
+      <c r="AH61" s="267"/>
+      <c r="AI61" s="267"/>
+      <c r="AJ61" s="267"/>
+      <c r="AK61" s="267"/>
+      <c r="AL61" s="267"/>
+      <c r="AM61" s="267"/>
+      <c r="AN61" s="267"/>
+      <c r="AO61" s="267"/>
+      <c r="AP61" s="189"/>
       <c r="AQ61" s="18"/>
       <c r="AR61" s="18"/>
       <c r="AS61" s="18"/>
@@ -9155,35 +9155,35 @@
       <c r="K62" s="30"/>
       <c r="L62" s="30"/>
       <c r="M62" s="30"/>
-      <c r="N62" s="212"/>
-      <c r="O62" s="210"/>
-      <c r="P62" s="210"/>
-      <c r="Q62" s="210"/>
-      <c r="R62" s="211"/>
+      <c r="N62" s="187"/>
+      <c r="O62" s="222"/>
+      <c r="P62" s="222"/>
+      <c r="Q62" s="222"/>
+      <c r="R62" s="189"/>
       <c r="S62" s="30"/>
-      <c r="T62" s="212"/>
-      <c r="U62" s="210"/>
-      <c r="V62" s="210"/>
-      <c r="W62" s="255"/>
-      <c r="X62" s="255"/>
-      <c r="Y62" s="255"/>
-      <c r="Z62" s="255"/>
-      <c r="AA62" s="255"/>
-      <c r="AB62" s="255"/>
-      <c r="AC62" s="261"/>
-      <c r="AD62" s="255"/>
-      <c r="AE62" s="255"/>
-      <c r="AF62" s="255"/>
-      <c r="AG62" s="255"/>
-      <c r="AH62" s="255"/>
-      <c r="AI62" s="255"/>
-      <c r="AJ62" s="255"/>
-      <c r="AK62" s="255"/>
-      <c r="AL62" s="255"/>
-      <c r="AM62" s="255"/>
-      <c r="AN62" s="255"/>
-      <c r="AO62" s="255"/>
-      <c r="AP62" s="211"/>
+      <c r="T62" s="187"/>
+      <c r="U62" s="222"/>
+      <c r="V62" s="222"/>
+      <c r="W62" s="267"/>
+      <c r="X62" s="267"/>
+      <c r="Y62" s="267"/>
+      <c r="Z62" s="267"/>
+      <c r="AA62" s="267"/>
+      <c r="AB62" s="267"/>
+      <c r="AC62" s="268"/>
+      <c r="AD62" s="267"/>
+      <c r="AE62" s="267"/>
+      <c r="AF62" s="267"/>
+      <c r="AG62" s="267"/>
+      <c r="AH62" s="267"/>
+      <c r="AI62" s="267"/>
+      <c r="AJ62" s="267"/>
+      <c r="AK62" s="267"/>
+      <c r="AL62" s="267"/>
+      <c r="AM62" s="267"/>
+      <c r="AN62" s="267"/>
+      <c r="AO62" s="267"/>
+      <c r="AP62" s="189"/>
       <c r="AQ62" s="18"/>
       <c r="AR62" s="18"/>
       <c r="AS62" s="18"/>
@@ -9237,11 +9237,11 @@
       <c r="K63" s="30"/>
       <c r="L63" s="30"/>
       <c r="M63" s="30"/>
-      <c r="N63" s="212"/>
-      <c r="O63" s="210"/>
-      <c r="P63" s="210"/>
-      <c r="Q63" s="210"/>
-      <c r="R63" s="211"/>
+      <c r="N63" s="187"/>
+      <c r="O63" s="222"/>
+      <c r="P63" s="222"/>
+      <c r="Q63" s="222"/>
+      <c r="R63" s="189"/>
       <c r="S63" s="30"/>
       <c r="T63" s="30"/>
       <c r="U63" s="30"/>
@@ -9318,11 +9318,11 @@
       <c r="K64" s="30"/>
       <c r="L64" s="30"/>
       <c r="M64" s="30"/>
-      <c r="N64" s="212"/>
-      <c r="O64" s="210"/>
-      <c r="P64" s="210"/>
-      <c r="Q64" s="210"/>
-      <c r="R64" s="211"/>
+      <c r="N64" s="187"/>
+      <c r="O64" s="222"/>
+      <c r="P64" s="222"/>
+      <c r="Q64" s="222"/>
+      <c r="R64" s="189"/>
       <c r="S64" s="30"/>
       <c r="T64" s="30"/>
       <c r="U64" s="30"/>
@@ -9399,11 +9399,11 @@
       <c r="K65" s="30"/>
       <c r="L65" s="30"/>
       <c r="M65" s="30"/>
-      <c r="N65" s="212"/>
-      <c r="O65" s="210"/>
-      <c r="P65" s="210"/>
-      <c r="Q65" s="210"/>
-      <c r="R65" s="211"/>
+      <c r="N65" s="187"/>
+      <c r="O65" s="222"/>
+      <c r="P65" s="222"/>
+      <c r="Q65" s="222"/>
+      <c r="R65" s="189"/>
       <c r="S65" s="30"/>
       <c r="T65" s="30"/>
       <c r="U65" s="30"/>
@@ -9480,11 +9480,11 @@
       <c r="K66" s="30"/>
       <c r="L66" s="30"/>
       <c r="M66" s="30"/>
-      <c r="N66" s="212"/>
-      <c r="O66" s="210"/>
-      <c r="P66" s="210"/>
-      <c r="Q66" s="210"/>
-      <c r="R66" s="211"/>
+      <c r="N66" s="187"/>
+      <c r="O66" s="222"/>
+      <c r="P66" s="222"/>
+      <c r="Q66" s="222"/>
+      <c r="R66" s="189"/>
       <c r="S66" s="30"/>
       <c r="T66" s="30"/>
       <c r="U66" s="30"/>
@@ -9561,11 +9561,11 @@
       <c r="K67" s="30"/>
       <c r="L67" s="30"/>
       <c r="M67" s="30"/>
-      <c r="N67" s="212"/>
-      <c r="O67" s="210"/>
-      <c r="P67" s="210"/>
-      <c r="Q67" s="210"/>
-      <c r="R67" s="211"/>
+      <c r="N67" s="187"/>
+      <c r="O67" s="222"/>
+      <c r="P67" s="222"/>
+      <c r="Q67" s="222"/>
+      <c r="R67" s="189"/>
       <c r="S67" s="30"/>
       <c r="T67" s="30"/>
       <c r="U67" s="30"/>
@@ -9642,11 +9642,11 @@
       <c r="K68" s="30"/>
       <c r="L68" s="30"/>
       <c r="M68" s="30"/>
-      <c r="N68" s="212"/>
-      <c r="O68" s="210"/>
-      <c r="P68" s="210"/>
-      <c r="Q68" s="210"/>
-      <c r="R68" s="211"/>
+      <c r="N68" s="187"/>
+      <c r="O68" s="222"/>
+      <c r="P68" s="222"/>
+      <c r="Q68" s="222"/>
+      <c r="R68" s="189"/>
       <c r="S68" s="30"/>
       <c r="T68" s="30"/>
       <c r="U68" s="30"/>
@@ -9723,11 +9723,11 @@
       <c r="K69" s="30"/>
       <c r="L69" s="30"/>
       <c r="M69" s="30"/>
-      <c r="N69" s="212"/>
-      <c r="O69" s="210"/>
-      <c r="P69" s="210"/>
-      <c r="Q69" s="210"/>
-      <c r="R69" s="211"/>
+      <c r="N69" s="187"/>
+      <c r="O69" s="222"/>
+      <c r="P69" s="222"/>
+      <c r="Q69" s="222"/>
+      <c r="R69" s="189"/>
       <c r="S69" s="30"/>
       <c r="T69" s="30"/>
       <c r="U69" s="30"/>
@@ -9804,11 +9804,11 @@
       <c r="K70" s="30"/>
       <c r="L70" s="30"/>
       <c r="M70" s="30"/>
-      <c r="N70" s="212"/>
-      <c r="O70" s="210"/>
-      <c r="P70" s="210"/>
-      <c r="Q70" s="210"/>
-      <c r="R70" s="211"/>
+      <c r="N70" s="187"/>
+      <c r="O70" s="222"/>
+      <c r="P70" s="222"/>
+      <c r="Q70" s="222"/>
+      <c r="R70" s="189"/>
       <c r="S70" s="30"/>
       <c r="T70" s="30"/>
       <c r="U70" s="30"/>
@@ -9885,11 +9885,11 @@
       <c r="K71" s="30"/>
       <c r="L71" s="30"/>
       <c r="M71" s="30"/>
-      <c r="N71" s="191"/>
-      <c r="O71" s="192"/>
-      <c r="P71" s="192"/>
-      <c r="Q71" s="192"/>
-      <c r="R71" s="193"/>
+      <c r="N71" s="190"/>
+      <c r="O71" s="191"/>
+      <c r="P71" s="191"/>
+      <c r="Q71" s="191"/>
+      <c r="R71" s="192"/>
       <c r="S71" s="30"/>
       <c r="T71" s="30"/>
       <c r="U71" s="30"/>
@@ -59131,44 +59131,96 @@
     </row>
   </sheetData>
   <mergeCells count="152">
-    <mergeCell ref="B5:F7"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B8:F13"/>
-    <mergeCell ref="B14:F18"/>
-    <mergeCell ref="O42:Q43"/>
-    <mergeCell ref="AA29:AB29"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="Y24:Z24"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="X35:AB47"/>
-    <mergeCell ref="Y21:Z21"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="AA24:AB24"/>
-    <mergeCell ref="G40:K41"/>
-    <mergeCell ref="O39:Q39"/>
-    <mergeCell ref="G44:K45"/>
-    <mergeCell ref="G42:K43"/>
-    <mergeCell ref="G38:K39"/>
-    <mergeCell ref="L40:N41"/>
-    <mergeCell ref="X3:AB4"/>
-    <mergeCell ref="R55:U55"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="AQ27:AR27"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AP16:AP18"/>
-    <mergeCell ref="AY30:AY32"/>
-    <mergeCell ref="Y22:Z22"/>
-    <mergeCell ref="AQ28:AR28"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="AA26:AB26"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="Y16:Z16"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="Y25:Z25"/>
-    <mergeCell ref="AQ32:AR32"/>
-    <mergeCell ref="Y5:AB5"/>
-    <mergeCell ref="AA25:AB25"/>
+    <mergeCell ref="BH26:BP26"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="BQ25:BT25"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="R38:V39"/>
+    <mergeCell ref="AP46:AR47"/>
+    <mergeCell ref="BH25:BP25"/>
+    <mergeCell ref="BB16:BB17"/>
+    <mergeCell ref="R40:V41"/>
+    <mergeCell ref="BH18:BP18"/>
+    <mergeCell ref="BS34:BV34"/>
+    <mergeCell ref="AQ36:AR36"/>
+    <mergeCell ref="AA22:AB22"/>
+    <mergeCell ref="AQ30:AR30"/>
+    <mergeCell ref="BQ18:BT18"/>
+    <mergeCell ref="AQ20:AR20"/>
+    <mergeCell ref="V8:V35"/>
+    <mergeCell ref="X9:Z9"/>
+    <mergeCell ref="N61:R71"/>
+    <mergeCell ref="BM35:BQ35"/>
+    <mergeCell ref="BH21:BP21"/>
+    <mergeCell ref="AQ26:AR26"/>
+    <mergeCell ref="AA7:AB8"/>
+    <mergeCell ref="G36:V37"/>
+    <mergeCell ref="BT33:BV33"/>
+    <mergeCell ref="L39:N39"/>
+    <mergeCell ref="AA27:AB27"/>
+    <mergeCell ref="AP13:AR14"/>
+    <mergeCell ref="G5:V7"/>
+    <mergeCell ref="AZ36:BD36"/>
+    <mergeCell ref="BC16:BC17"/>
+    <mergeCell ref="X34:AB34"/>
+    <mergeCell ref="BG13:BV13"/>
+    <mergeCell ref="Y19:Z19"/>
+    <mergeCell ref="AQ33:AR33"/>
+    <mergeCell ref="Y17:Z17"/>
+    <mergeCell ref="BQ24:BT24"/>
+    <mergeCell ref="AA20:AB20"/>
+    <mergeCell ref="BH24:BP24"/>
+    <mergeCell ref="BG31:BV32"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="BQ26:BT26"/>
+    <mergeCell ref="R57:U57"/>
+    <mergeCell ref="Y31:Z31"/>
+    <mergeCell ref="BR34:BR35"/>
+    <mergeCell ref="Y28:Z28"/>
+    <mergeCell ref="AQ29:AR29"/>
+    <mergeCell ref="BM34:BQ34"/>
+    <mergeCell ref="O44:Q45"/>
+    <mergeCell ref="AA31:AB31"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="BQ20:BT20"/>
+    <mergeCell ref="AA21:AB21"/>
+    <mergeCell ref="BH20:BP20"/>
+    <mergeCell ref="BP33:BS33"/>
+    <mergeCell ref="AQ31:AR31"/>
+    <mergeCell ref="BG33:BO33"/>
+    <mergeCell ref="X32:AB33"/>
+    <mergeCell ref="BQ22:BT22"/>
+    <mergeCell ref="AQ15:AR15"/>
+    <mergeCell ref="Y23:Z23"/>
+    <mergeCell ref="BH15:BT16"/>
+    <mergeCell ref="AQ24:AR24"/>
+    <mergeCell ref="BH22:BP22"/>
+    <mergeCell ref="AA23:AB23"/>
+    <mergeCell ref="AQ19:AR19"/>
+    <mergeCell ref="T60:AP62"/>
+    <mergeCell ref="BA16:BA17"/>
+    <mergeCell ref="Y27:Z27"/>
+    <mergeCell ref="BG34:BL35"/>
+    <mergeCell ref="L42:N43"/>
+    <mergeCell ref="O40:Q41"/>
+    <mergeCell ref="L44:N45"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="BQ21:BT21"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="BG28:BV29"/>
+    <mergeCell ref="B46:V48"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="BG30:BV30"/>
+    <mergeCell ref="AY33:AY34"/>
+    <mergeCell ref="AA19:AB19"/>
+    <mergeCell ref="AQ25:AR25"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="Y30:Z30"/>
+    <mergeCell ref="AZ16:AZ17"/>
+    <mergeCell ref="Y20:Z20"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="Y29:Z29"/>
+    <mergeCell ref="Y11:Z11"/>
     <mergeCell ref="R56:U56"/>
     <mergeCell ref="AA28:AB28"/>
     <mergeCell ref="R42:V43"/>
@@ -59193,96 +59245,44 @@
     <mergeCell ref="AQ34:AR34"/>
     <mergeCell ref="BH27:BT27"/>
     <mergeCell ref="BS35:BV35"/>
-    <mergeCell ref="T60:AP62"/>
-    <mergeCell ref="BA16:BA17"/>
-    <mergeCell ref="Y27:Z27"/>
-    <mergeCell ref="BG34:BL35"/>
-    <mergeCell ref="L42:N43"/>
-    <mergeCell ref="O40:Q41"/>
-    <mergeCell ref="L44:N45"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="BQ21:BT21"/>
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="BG28:BV29"/>
-    <mergeCell ref="B46:V48"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="BG30:BV30"/>
-    <mergeCell ref="AY33:AY34"/>
-    <mergeCell ref="AA19:AB19"/>
-    <mergeCell ref="AQ25:AR25"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="Y30:Z30"/>
-    <mergeCell ref="AZ16:AZ17"/>
-    <mergeCell ref="Y20:Z20"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="Y29:Z29"/>
-    <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="R57:U57"/>
-    <mergeCell ref="Y31:Z31"/>
-    <mergeCell ref="BR34:BR35"/>
-    <mergeCell ref="Y28:Z28"/>
-    <mergeCell ref="AQ29:AR29"/>
-    <mergeCell ref="BM34:BQ34"/>
-    <mergeCell ref="O44:Q45"/>
-    <mergeCell ref="AA31:AB31"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="BQ20:BT20"/>
-    <mergeCell ref="AA21:AB21"/>
-    <mergeCell ref="BH20:BP20"/>
-    <mergeCell ref="BP33:BS33"/>
-    <mergeCell ref="AQ31:AR31"/>
-    <mergeCell ref="BG33:BO33"/>
-    <mergeCell ref="X32:AB33"/>
-    <mergeCell ref="BQ22:BT22"/>
-    <mergeCell ref="AQ15:AR15"/>
-    <mergeCell ref="Y23:Z23"/>
-    <mergeCell ref="BH15:BT16"/>
-    <mergeCell ref="AQ24:AR24"/>
-    <mergeCell ref="BH22:BP22"/>
-    <mergeCell ref="AA23:AB23"/>
-    <mergeCell ref="AQ19:AR19"/>
-    <mergeCell ref="N61:R71"/>
-    <mergeCell ref="BM35:BQ35"/>
-    <mergeCell ref="BH21:BP21"/>
-    <mergeCell ref="AQ26:AR26"/>
-    <mergeCell ref="AA7:AB8"/>
-    <mergeCell ref="G36:V37"/>
-    <mergeCell ref="BT33:BV33"/>
-    <mergeCell ref="L39:N39"/>
-    <mergeCell ref="AA27:AB27"/>
-    <mergeCell ref="AP13:AR14"/>
-    <mergeCell ref="G5:V7"/>
-    <mergeCell ref="AZ36:BD36"/>
-    <mergeCell ref="BC16:BC17"/>
-    <mergeCell ref="X34:AB34"/>
-    <mergeCell ref="BG13:BV13"/>
-    <mergeCell ref="Y19:Z19"/>
-    <mergeCell ref="AQ33:AR33"/>
-    <mergeCell ref="Y17:Z17"/>
-    <mergeCell ref="BQ24:BT24"/>
-    <mergeCell ref="AA20:AB20"/>
-    <mergeCell ref="BH24:BP24"/>
-    <mergeCell ref="BG31:BV32"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="BQ26:BT26"/>
-    <mergeCell ref="BH26:BP26"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="BQ25:BT25"/>
-    <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="R38:V39"/>
-    <mergeCell ref="AP46:AR47"/>
-    <mergeCell ref="BH25:BP25"/>
-    <mergeCell ref="BB16:BB17"/>
-    <mergeCell ref="R40:V41"/>
-    <mergeCell ref="BH18:BP18"/>
-    <mergeCell ref="BS34:BV34"/>
-    <mergeCell ref="AQ36:AR36"/>
-    <mergeCell ref="AA22:AB22"/>
-    <mergeCell ref="AQ30:AR30"/>
-    <mergeCell ref="BQ18:BT18"/>
-    <mergeCell ref="AQ20:AR20"/>
-    <mergeCell ref="V8:V35"/>
-    <mergeCell ref="X9:Z9"/>
+    <mergeCell ref="X3:AB4"/>
+    <mergeCell ref="R55:U55"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="AQ27:AR27"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AP16:AP18"/>
+    <mergeCell ref="AY30:AY32"/>
+    <mergeCell ref="Y22:Z22"/>
+    <mergeCell ref="AQ28:AR28"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="AA26:AB26"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="Y25:Z25"/>
+    <mergeCell ref="AQ32:AR32"/>
+    <mergeCell ref="Y5:AB5"/>
+    <mergeCell ref="AA25:AB25"/>
+    <mergeCell ref="B5:F7"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B8:F13"/>
+    <mergeCell ref="B14:F18"/>
+    <mergeCell ref="O42:Q43"/>
+    <mergeCell ref="AA29:AB29"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="Y24:Z24"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="X35:AB47"/>
+    <mergeCell ref="Y21:Z21"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="AA24:AB24"/>
+    <mergeCell ref="G40:K41"/>
+    <mergeCell ref="O39:Q39"/>
+    <mergeCell ref="G44:K45"/>
+    <mergeCell ref="G42:K43"/>
+    <mergeCell ref="G38:K39"/>
+    <mergeCell ref="L40:N41"/>
   </mergeCells>
   <conditionalFormatting sqref="X32">
     <cfRule type="cellIs" dxfId="3" priority="21" stopIfTrue="1" operator="greaterThan">

--- a/New-Template-(01-17-24).xlsx
+++ b/New-Template-(01-17-24).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Trae\2023\AI Folder\Data-TJD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Freelancing\Silo Lead Prediction\Map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB09A9F-26F8-4EF3-8E6E-9A77E3BC2BD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538A9EBD-B93C-430F-B28D-1541C24EB75E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="888" yWindow="-108" windowWidth="45300" windowHeight="26136" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="juliabid" sheetId="1" r:id="rId1"/>
@@ -129,13 +129,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="0.0000"/>
-    <numFmt numFmtId="168" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="0.0000"/>
+    <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
   <fonts count="58" x14ac:knownFonts="1">
     <font>
@@ -1334,8 +1334,8 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="340">
@@ -1518,7 +1518,7 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -1537,11 +1537,11 @@
     <xf numFmtId="37" fontId="27" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="27" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="27" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="27" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="27" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="27" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="27" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1553,23 +1553,23 @@
     <xf numFmtId="37" fontId="27" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="27" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="27" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="27" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="27" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="27" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="27" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="27" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="164" fontId="27" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="44" fontId="27" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="27" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="27" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="27" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1578,16 +1578,16 @@
     <xf numFmtId="1" fontId="27" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="27" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="27" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="28" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="29" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="30" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="28" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="29" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="30" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1605,7 +1605,7 @@
     <xf numFmtId="0" fontId="30" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="28" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="28" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1618,12 +1618,12 @@
     <xf numFmtId="0" fontId="31" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="32" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="32" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="31" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="32" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="32" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1643,7 +1643,7 @@
     <xf numFmtId="0" fontId="31" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="44" fontId="32" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="32" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1652,8 +1652,8 @@
     </xf>
     <xf numFmtId="3" fontId="15" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="15" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="15" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="15" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="15" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="15" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="15" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="15" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1757,219 +1757,212 @@
     <xf numFmtId="0" fontId="50" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="7" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="3" fontId="36" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="50" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="36" fillId="3" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="21" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
-    <xf numFmtId="44" fontId="21" fillId="9" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="21" fillId="9" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="170" fontId="37" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="37" fillId="8" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="26" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="164" fontId="36" fillId="3" borderId="62" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="3" fontId="40" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="36" fillId="3" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="21" fillId="8" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="36" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="17" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="37" fillId="8" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="49" fillId="6" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="3" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="21" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="11" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="50" fillId="6" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="180" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="3" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="25" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
-    <xf numFmtId="44" fontId="21" fillId="3" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="3" fontId="21" fillId="3" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="21" fillId="3" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="3" fontId="53" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="44" fontId="36" fillId="3" borderId="62" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="38" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="54" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="54" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="8" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="37" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
+    <xf numFmtId="3" fontId="52" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="21" fillId="9" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
-    <xf numFmtId="168" fontId="37" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="36" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="26" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="15" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="17" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="42" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="36" fillId="3" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="4" borderId="41" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="3" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="3" fontId="43" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="3" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="25" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="21" fillId="3" borderId="47" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="22" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="23" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="36" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="3" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="37" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="24" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="50" fillId="3" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="33" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="26" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1978,10 +1971,10 @@
     <xf numFmtId="3" fontId="22" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="36" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="36" fillId="3" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="44" fontId="21" fillId="3" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="21" fillId="3" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -2009,12 +2002,8 @@
     <xf numFmtId="0" fontId="48" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="9" fontId="21" fillId="3" borderId="56" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -2023,7 +2012,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="44" fontId="21" fillId="9" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="21" fillId="9" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2034,135 +2023,146 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
-    <xf numFmtId="44" fontId="21" fillId="3" borderId="47" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="3" fontId="38" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="22" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="11" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="37" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="9" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="23" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="26" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="21" fillId="3" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="36" fillId="3" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="168" fontId="37" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="24" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="14" fillId="4" borderId="41" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="50" fillId="3" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="49" fillId="6" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="33" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="48" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="3" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="21" fillId="3" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="53" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="54" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="54" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="52" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="26" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="21" fillId="3" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="43" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="36" fillId="3" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="36" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="37" fillId="8" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="40" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="50" fillId="6" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="180" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="21" fillId="3" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3564,8 +3564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DC1083"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="AA31" sqref="AA31:AB31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -3773,13 +3773,13 @@
       <c r="U3" s="174"/>
       <c r="V3" s="27"/>
       <c r="W3" s="5"/>
-      <c r="X3" s="224" t="s">
+      <c r="X3" s="305" t="s">
         <v>0</v>
       </c>
-      <c r="Y3" s="185"/>
-      <c r="Z3" s="185"/>
-      <c r="AA3" s="185"/>
-      <c r="AB3" s="185"/>
+      <c r="Y3" s="192"/>
+      <c r="Z3" s="192"/>
+      <c r="AA3" s="192"/>
+      <c r="AB3" s="192"/>
       <c r="AC3" s="151"/>
       <c r="AD3" s="30"/>
       <c r="AE3" s="30"/>
@@ -3850,11 +3850,11 @@
       <c r="U4" s="61"/>
       <c r="V4" s="62"/>
       <c r="W4" s="5"/>
-      <c r="X4" s="190"/>
-      <c r="Y4" s="191"/>
-      <c r="Z4" s="191"/>
-      <c r="AA4" s="191"/>
-      <c r="AB4" s="191"/>
+      <c r="X4" s="194"/>
+      <c r="Y4" s="195"/>
+      <c r="Z4" s="195"/>
+      <c r="AA4" s="195"/>
+      <c r="AB4" s="195"/>
       <c r="AC4" s="152"/>
       <c r="AD4" s="30"/>
       <c r="AE4" s="30"/>
@@ -3903,42 +3903,42 @@
       <c r="BV4" s="50"/>
     </row>
     <row r="5" spans="2:107" s="18" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="184" t="s">
+      <c r="B5" s="316" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="185"/>
-      <c r="D5" s="185"/>
-      <c r="E5" s="185"/>
-      <c r="F5" s="186"/>
-      <c r="G5" s="325" t="str">
+      <c r="C5" s="192"/>
+      <c r="D5" s="192"/>
+      <c r="E5" s="192"/>
+      <c r="F5" s="193"/>
+      <c r="G5" s="235" t="str">
         <f>Y5</f>
         <v>Test Company</v>
       </c>
-      <c r="H5" s="185"/>
-      <c r="I5" s="185"/>
-      <c r="J5" s="185"/>
-      <c r="K5" s="185"/>
-      <c r="L5" s="185"/>
-      <c r="M5" s="185"/>
-      <c r="N5" s="185"/>
-      <c r="O5" s="185"/>
-      <c r="P5" s="185"/>
-      <c r="Q5" s="185"/>
-      <c r="R5" s="185"/>
-      <c r="S5" s="185"/>
-      <c r="T5" s="185"/>
-      <c r="U5" s="185"/>
-      <c r="V5" s="186"/>
+      <c r="H5" s="192"/>
+      <c r="I5" s="192"/>
+      <c r="J5" s="192"/>
+      <c r="K5" s="192"/>
+      <c r="L5" s="192"/>
+      <c r="M5" s="192"/>
+      <c r="N5" s="192"/>
+      <c r="O5" s="192"/>
+      <c r="P5" s="192"/>
+      <c r="Q5" s="192"/>
+      <c r="R5" s="192"/>
+      <c r="S5" s="192"/>
+      <c r="T5" s="192"/>
+      <c r="U5" s="192"/>
+      <c r="V5" s="193"/>
       <c r="W5" s="5"/>
       <c r="X5" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="Y5" s="239" t="s">
+      <c r="Y5" s="313" t="s">
         <v>2</v>
       </c>
-      <c r="Z5" s="240"/>
-      <c r="AA5" s="240"/>
-      <c r="AB5" s="241"/>
+      <c r="Z5" s="314"/>
+      <c r="AA5" s="314"/>
+      <c r="AB5" s="315"/>
       <c r="AC5" s="159"/>
       <c r="AD5" s="30"/>
       <c r="AE5" s="30"/>
@@ -3987,39 +3987,39 @@
       <c r="BV5" s="50"/>
     </row>
     <row r="6" spans="2:107" s="18" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="187"/>
-      <c r="C6" s="188"/>
-      <c r="D6" s="188"/>
-      <c r="E6" s="188"/>
-      <c r="F6" s="189"/>
-      <c r="G6" s="187"/>
-      <c r="H6" s="188"/>
-      <c r="I6" s="188"/>
-      <c r="J6" s="188"/>
-      <c r="K6" s="188"/>
-      <c r="L6" s="188"/>
-      <c r="M6" s="188"/>
-      <c r="N6" s="188"/>
-      <c r="O6" s="188"/>
-      <c r="P6" s="188"/>
-      <c r="Q6" s="188"/>
-      <c r="R6" s="188"/>
-      <c r="S6" s="188"/>
-      <c r="T6" s="188"/>
-      <c r="U6" s="188"/>
-      <c r="V6" s="189"/>
+      <c r="B6" s="215"/>
+      <c r="C6" s="185"/>
+      <c r="D6" s="185"/>
+      <c r="E6" s="185"/>
+      <c r="F6" s="214"/>
+      <c r="G6" s="215"/>
+      <c r="H6" s="185"/>
+      <c r="I6" s="185"/>
+      <c r="J6" s="185"/>
+      <c r="K6" s="185"/>
+      <c r="L6" s="185"/>
+      <c r="M6" s="185"/>
+      <c r="N6" s="185"/>
+      <c r="O6" s="185"/>
+      <c r="P6" s="185"/>
+      <c r="Q6" s="185"/>
+      <c r="R6" s="185"/>
+      <c r="S6" s="185"/>
+      <c r="T6" s="185"/>
+      <c r="U6" s="185"/>
+      <c r="V6" s="214"/>
       <c r="W6" s="5"/>
       <c r="X6" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="Y6" s="237">
+      <c r="Y6" s="243">
         <v>0</v>
       </c>
-      <c r="Z6" s="207"/>
-      <c r="AA6" s="228" t="s">
+      <c r="Z6" s="187"/>
+      <c r="AA6" s="306" t="s">
         <v>4</v>
       </c>
-      <c r="AB6" s="205"/>
+      <c r="AB6" s="190"/>
       <c r="AC6" s="160"/>
       <c r="AD6" s="30"/>
       <c r="AE6" s="30"/>
@@ -4068,37 +4068,37 @@
       <c r="BV6" s="50"/>
     </row>
     <row r="7" spans="2:107" s="18" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="190"/>
-      <c r="C7" s="191"/>
-      <c r="D7" s="191"/>
-      <c r="E7" s="191"/>
-      <c r="F7" s="192"/>
-      <c r="G7" s="187"/>
-      <c r="H7" s="188"/>
-      <c r="I7" s="188"/>
-      <c r="J7" s="188"/>
-      <c r="K7" s="188"/>
-      <c r="L7" s="188"/>
-      <c r="M7" s="188"/>
-      <c r="N7" s="188"/>
-      <c r="O7" s="188"/>
-      <c r="P7" s="188"/>
-      <c r="Q7" s="188"/>
-      <c r="R7" s="188"/>
-      <c r="S7" s="188"/>
-      <c r="T7" s="188"/>
-      <c r="U7" s="188"/>
-      <c r="V7" s="189"/>
+      <c r="B7" s="194"/>
+      <c r="C7" s="195"/>
+      <c r="D7" s="195"/>
+      <c r="E7" s="195"/>
+      <c r="F7" s="196"/>
+      <c r="G7" s="215"/>
+      <c r="H7" s="185"/>
+      <c r="I7" s="185"/>
+      <c r="J7" s="185"/>
+      <c r="K7" s="185"/>
+      <c r="L7" s="185"/>
+      <c r="M7" s="185"/>
+      <c r="N7" s="185"/>
+      <c r="O7" s="185"/>
+      <c r="P7" s="185"/>
+      <c r="Q7" s="185"/>
+      <c r="R7" s="185"/>
+      <c r="S7" s="185"/>
+      <c r="T7" s="185"/>
+      <c r="U7" s="185"/>
+      <c r="V7" s="214"/>
       <c r="W7" s="5"/>
       <c r="X7" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="Y7" s="237">
+      <c r="Y7" s="243">
         <v>0</v>
       </c>
-      <c r="Z7" s="207"/>
-      <c r="AA7" s="312"/>
-      <c r="AB7" s="313"/>
+      <c r="Z7" s="187"/>
+      <c r="AA7" s="217"/>
+      <c r="AB7" s="218"/>
       <c r="AC7" s="153"/>
       <c r="AD7" s="30"/>
       <c r="AE7" s="30"/>
@@ -4147,14 +4147,14 @@
       <c r="BV7" s="50"/>
     </row>
     <row r="8" spans="2:107" s="18" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="194" t="str">
+      <c r="B8" s="318" t="str">
         <f>"  When we build your campaign, our team of humans collaborates internally to select the best media mix for reaching "&amp;AA7&amp;"s within your geofence. This is not a one size fits all approach either. From news feeds to television, we have a massive deck of tools from which to choose. Once you tell us the campaign level and approve the messaging\landing page, we go to work."</f>
         <v xml:space="preserve">  When we build your campaign, our team of humans collaborates internally to select the best media mix for reaching s within your geofence. This is not a one size fits all approach either. From news feeds to television, we have a massive deck of tools from which to choose. Once you tell us the campaign level and approve the messaging\landing page, we go to work.</v>
       </c>
-      <c r="C8" s="195"/>
-      <c r="D8" s="195"/>
-      <c r="E8" s="195"/>
-      <c r="F8" s="195"/>
+      <c r="C8" s="319"/>
+      <c r="D8" s="319"/>
+      <c r="E8" s="319"/>
+      <c r="F8" s="319"/>
       <c r="G8" s="47" t="s">
         <v>6</v>
       </c>
@@ -4172,19 +4172,19 @@
       <c r="S8" s="46"/>
       <c r="T8" s="46"/>
       <c r="U8" s="166"/>
-      <c r="V8" s="336" t="s">
+      <c r="V8" s="207" t="s">
         <v>7</v>
       </c>
       <c r="W8" s="5"/>
       <c r="X8" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="Y8" s="273">
+      <c r="Y8" s="269">
         <v>0</v>
       </c>
-      <c r="Z8" s="274"/>
-      <c r="AA8" s="314"/>
-      <c r="AB8" s="214"/>
+      <c r="Z8" s="270"/>
+      <c r="AA8" s="219"/>
+      <c r="AB8" s="220"/>
       <c r="AC8" s="153"/>
       <c r="AD8" s="30"/>
       <c r="AE8" s="30"/>
@@ -4233,11 +4233,11 @@
       <c r="BV8" s="50"/>
     </row>
     <row r="9" spans="2:107" s="18" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="196"/>
-      <c r="C9" s="197"/>
-      <c r="D9" s="197"/>
-      <c r="E9" s="197"/>
-      <c r="F9" s="198"/>
+      <c r="B9" s="320"/>
+      <c r="C9" s="321"/>
+      <c r="D9" s="321"/>
+      <c r="E9" s="321"/>
+      <c r="F9" s="322"/>
       <c r="G9" s="57"/>
       <c r="H9" s="175"/>
       <c r="I9" s="175"/>
@@ -4253,17 +4253,17 @@
       <c r="S9" s="175"/>
       <c r="T9" s="175"/>
       <c r="U9" s="167"/>
-      <c r="V9" s="337"/>
+      <c r="V9" s="208"/>
       <c r="W9" s="5"/>
-      <c r="X9" s="339" t="s">
+      <c r="X9" s="210" t="s">
         <v>9</v>
       </c>
-      <c r="Y9" s="185"/>
-      <c r="Z9" s="236"/>
-      <c r="AA9" s="290">
+      <c r="Y9" s="192"/>
+      <c r="Z9" s="211"/>
+      <c r="AA9" s="285">
         <v>1</v>
       </c>
-      <c r="AB9" s="291"/>
+      <c r="AB9" s="286"/>
       <c r="AC9" s="153"/>
       <c r="AD9" s="30"/>
       <c r="AE9" s="30"/>
@@ -4312,11 +4312,11 @@
       <c r="BV9" s="50"/>
     </row>
     <row r="10" spans="2:107" s="18" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="196"/>
-      <c r="C10" s="197"/>
-      <c r="D10" s="197"/>
-      <c r="E10" s="197"/>
-      <c r="F10" s="198"/>
+      <c r="B10" s="320"/>
+      <c r="C10" s="321"/>
+      <c r="D10" s="321"/>
+      <c r="E10" s="321"/>
+      <c r="F10" s="322"/>
       <c r="G10" s="57"/>
       <c r="H10" s="175"/>
       <c r="I10" s="175"/>
@@ -4332,19 +4332,19 @@
       <c r="S10" s="175"/>
       <c r="T10" s="175"/>
       <c r="U10" s="167"/>
-      <c r="V10" s="337"/>
+      <c r="V10" s="208"/>
       <c r="W10" s="5"/>
       <c r="X10" s="150" t="s">
         <v>10</v>
       </c>
-      <c r="Y10" s="235" t="s">
+      <c r="Y10" s="311" t="s">
         <v>11</v>
       </c>
-      <c r="Z10" s="236"/>
-      <c r="AA10" s="287" t="s">
+      <c r="Z10" s="211"/>
+      <c r="AA10" s="283" t="s">
         <v>12</v>
       </c>
-      <c r="AB10" s="186"/>
+      <c r="AB10" s="193"/>
       <c r="AC10" s="154"/>
       <c r="AD10" s="30"/>
       <c r="AE10" s="30"/>
@@ -4393,11 +4393,11 @@
       <c r="BV10" s="50"/>
     </row>
     <row r="11" spans="2:107" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="196"/>
-      <c r="C11" s="199"/>
-      <c r="D11" s="199"/>
-      <c r="E11" s="199"/>
-      <c r="F11" s="198"/>
+      <c r="B11" s="320"/>
+      <c r="C11" s="323"/>
+      <c r="D11" s="323"/>
+      <c r="E11" s="323"/>
+      <c r="F11" s="322"/>
       <c r="G11" s="57"/>
       <c r="H11" s="175"/>
       <c r="I11" s="175"/>
@@ -4413,17 +4413,17 @@
       <c r="S11" s="175"/>
       <c r="T11" s="175"/>
       <c r="U11" s="167"/>
-      <c r="V11" s="337"/>
+      <c r="V11" s="208"/>
       <c r="W11" s="9"/>
       <c r="X11" s="161"/>
-      <c r="Y11" s="206">
+      <c r="Y11" s="186">
         <v>0</v>
       </c>
-      <c r="Z11" s="207"/>
-      <c r="AA11" s="204">
+      <c r="Z11" s="187"/>
+      <c r="AA11" s="189">
         <v>0</v>
       </c>
-      <c r="AB11" s="205"/>
+      <c r="AB11" s="190"/>
       <c r="AC11" s="153"/>
       <c r="AD11" s="65"/>
       <c r="AE11" s="65"/>
@@ -4495,11 +4495,11 @@
       <c r="DC11" s="18"/>
     </row>
     <row r="12" spans="2:107" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="196"/>
-      <c r="C12" s="199"/>
-      <c r="D12" s="199"/>
-      <c r="E12" s="199"/>
-      <c r="F12" s="198"/>
+      <c r="B12" s="320"/>
+      <c r="C12" s="323"/>
+      <c r="D12" s="323"/>
+      <c r="E12" s="323"/>
+      <c r="F12" s="322"/>
       <c r="G12" s="57"/>
       <c r="H12" s="175"/>
       <c r="I12" s="175"/>
@@ -4515,17 +4515,17 @@
       <c r="S12" s="175"/>
       <c r="T12" s="175"/>
       <c r="U12" s="167"/>
-      <c r="V12" s="337"/>
+      <c r="V12" s="208"/>
       <c r="W12" s="9"/>
       <c r="X12" s="162"/>
-      <c r="Y12" s="206">
+      <c r="Y12" s="186">
         <v>0</v>
       </c>
-      <c r="Z12" s="207"/>
-      <c r="AA12" s="204">
+      <c r="Z12" s="187"/>
+      <c r="AA12" s="189">
         <v>0</v>
       </c>
-      <c r="AB12" s="205"/>
+      <c r="AB12" s="190"/>
       <c r="AC12" s="153"/>
       <c r="AD12" s="65"/>
       <c r="AE12" s="65"/>
@@ -4597,11 +4597,11 @@
       <c r="DC12" s="18"/>
     </row>
     <row r="13" spans="2:107" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="196"/>
-      <c r="C13" s="199"/>
-      <c r="D13" s="199"/>
-      <c r="E13" s="199"/>
-      <c r="F13" s="198"/>
+      <c r="B13" s="320"/>
+      <c r="C13" s="323"/>
+      <c r="D13" s="323"/>
+      <c r="E13" s="323"/>
+      <c r="F13" s="322"/>
       <c r="G13" s="57"/>
       <c r="H13" s="175"/>
       <c r="I13" s="175"/>
@@ -4617,17 +4617,17 @@
       <c r="S13" s="175"/>
       <c r="T13" s="175"/>
       <c r="U13" s="167"/>
-      <c r="V13" s="337"/>
+      <c r="V13" s="208"/>
       <c r="W13" s="2"/>
       <c r="X13" s="162"/>
-      <c r="Y13" s="206">
+      <c r="Y13" s="186">
         <v>0</v>
       </c>
-      <c r="Z13" s="207"/>
-      <c r="AA13" s="204">
+      <c r="Z13" s="187"/>
+      <c r="AA13" s="189">
         <v>0</v>
       </c>
-      <c r="AB13" s="205"/>
+      <c r="AB13" s="190"/>
       <c r="AC13" s="153"/>
       <c r="AD13" s="67"/>
       <c r="AE13" s="67"/>
@@ -4641,9 +4641,9 @@
       <c r="AM13" s="67"/>
       <c r="AN13" s="67"/>
       <c r="AO13" s="67"/>
-      <c r="AP13" s="324"/>
-      <c r="AQ13" s="185"/>
-      <c r="AR13" s="186"/>
+      <c r="AP13" s="231"/>
+      <c r="AQ13" s="192"/>
+      <c r="AR13" s="193"/>
       <c r="AS13" s="50"/>
       <c r="AT13" s="50"/>
       <c r="AU13" s="50"/>
@@ -4651,29 +4651,29 @@
       <c r="AW13" s="50"/>
       <c r="AX13" s="68"/>
       <c r="AY13" s="69"/>
-      <c r="AZ13" s="245"/>
-      <c r="BA13" s="185"/>
-      <c r="BB13" s="185"/>
-      <c r="BC13" s="185"/>
-      <c r="BD13" s="186"/>
+      <c r="AZ13" s="293"/>
+      <c r="BA13" s="192"/>
+      <c r="BB13" s="192"/>
+      <c r="BC13" s="192"/>
+      <c r="BD13" s="193"/>
       <c r="BE13" s="70"/>
       <c r="BF13" s="71"/>
-      <c r="BG13" s="329"/>
-      <c r="BH13" s="188"/>
-      <c r="BI13" s="188"/>
-      <c r="BJ13" s="188"/>
-      <c r="BK13" s="188"/>
-      <c r="BL13" s="188"/>
-      <c r="BM13" s="188"/>
-      <c r="BN13" s="188"/>
-      <c r="BO13" s="188"/>
-      <c r="BP13" s="188"/>
-      <c r="BQ13" s="188"/>
-      <c r="BR13" s="188"/>
-      <c r="BS13" s="188"/>
-      <c r="BT13" s="188"/>
-      <c r="BU13" s="188"/>
-      <c r="BV13" s="188"/>
+      <c r="BG13" s="240"/>
+      <c r="BH13" s="185"/>
+      <c r="BI13" s="185"/>
+      <c r="BJ13" s="185"/>
+      <c r="BK13" s="185"/>
+      <c r="BL13" s="185"/>
+      <c r="BM13" s="185"/>
+      <c r="BN13" s="185"/>
+      <c r="BO13" s="185"/>
+      <c r="BP13" s="185"/>
+      <c r="BQ13" s="185"/>
+      <c r="BR13" s="185"/>
+      <c r="BS13" s="185"/>
+      <c r="BT13" s="185"/>
+      <c r="BU13" s="185"/>
+      <c r="BV13" s="185"/>
       <c r="CG13" s="18"/>
       <c r="CH13" s="18"/>
       <c r="CI13" s="18"/>
@@ -4699,14 +4699,14 @@
       <c r="DC13" s="18"/>
     </row>
     <row r="14" spans="2:107" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B14" s="200" t="str">
+      <c r="B14" s="324" t="str">
         <f>"  Our team continuously manages the media and algorithms to drive high-quality leads to your recruiters via our innovative funneling system. After all, you come to us because you need "&amp;AA7&amp;"s, not ads or impressions. TheJobsDriver is not about ads or impressions. We are about one thing, generating potential hires, interested in working for you!"</f>
         <v xml:space="preserve">  Our team continuously manages the media and algorithms to drive high-quality leads to your recruiters via our innovative funneling system. After all, you come to us because you need s, not ads or impressions. TheJobsDriver is not about ads or impressions. We are about one thing, generating potential hires, interested in working for you!</v>
       </c>
-      <c r="C14" s="201"/>
-      <c r="D14" s="201"/>
-      <c r="E14" s="201"/>
-      <c r="F14" s="202"/>
+      <c r="C14" s="325"/>
+      <c r="D14" s="325"/>
+      <c r="E14" s="325"/>
+      <c r="F14" s="326"/>
       <c r="G14" s="57"/>
       <c r="H14" s="175"/>
       <c r="I14" s="175"/>
@@ -4722,17 +4722,17 @@
       <c r="S14" s="175"/>
       <c r="T14" s="175"/>
       <c r="U14" s="167"/>
-      <c r="V14" s="337"/>
+      <c r="V14" s="208"/>
       <c r="W14" s="10"/>
       <c r="X14" s="162"/>
-      <c r="Y14" s="206">
+      <c r="Y14" s="186">
         <v>0</v>
       </c>
-      <c r="Z14" s="207"/>
-      <c r="AA14" s="204">
+      <c r="Z14" s="187"/>
+      <c r="AA14" s="189">
         <v>0</v>
       </c>
-      <c r="AB14" s="205"/>
+      <c r="AB14" s="190"/>
       <c r="AC14" s="153"/>
       <c r="AD14" s="72"/>
       <c r="AE14" s="72"/>
@@ -4746,9 +4746,9 @@
       <c r="AM14" s="72"/>
       <c r="AN14" s="72"/>
       <c r="AO14" s="72"/>
-      <c r="AP14" s="246"/>
-      <c r="AQ14" s="247"/>
-      <c r="AR14" s="248"/>
+      <c r="AP14" s="232"/>
+      <c r="AQ14" s="233"/>
+      <c r="AR14" s="234"/>
       <c r="AS14" s="50"/>
       <c r="AT14" s="50"/>
       <c r="AU14" s="50"/>
@@ -4756,11 +4756,11 @@
       <c r="AW14" s="50"/>
       <c r="AX14" s="50"/>
       <c r="AY14" s="50"/>
-      <c r="AZ14" s="187"/>
-      <c r="BA14" s="233"/>
-      <c r="BB14" s="233"/>
-      <c r="BC14" s="233"/>
-      <c r="BD14" s="189"/>
+      <c r="AZ14" s="215"/>
+      <c r="BA14" s="198"/>
+      <c r="BB14" s="198"/>
+      <c r="BC14" s="198"/>
+      <c r="BD14" s="214"/>
       <c r="BE14" s="73"/>
       <c r="BF14" s="50"/>
       <c r="BG14" s="28"/>
@@ -4804,11 +4804,11 @@
       <c r="DC14" s="18"/>
     </row>
     <row r="15" spans="2:107" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="187"/>
-      <c r="C15" s="201"/>
-      <c r="D15" s="201"/>
-      <c r="E15" s="201"/>
-      <c r="F15" s="202"/>
+      <c r="B15" s="215"/>
+      <c r="C15" s="325"/>
+      <c r="D15" s="325"/>
+      <c r="E15" s="325"/>
+      <c r="F15" s="326"/>
       <c r="G15" s="57"/>
       <c r="H15" s="175"/>
       <c r="I15" s="175"/>
@@ -4824,17 +4824,17 @@
       <c r="S15" s="175"/>
       <c r="T15" s="175"/>
       <c r="U15" s="167"/>
-      <c r="V15" s="337"/>
+      <c r="V15" s="208"/>
       <c r="W15" s="11"/>
       <c r="X15" s="162"/>
-      <c r="Y15" s="206">
+      <c r="Y15" s="186">
         <v>0</v>
       </c>
-      <c r="Z15" s="207"/>
-      <c r="AA15" s="204">
+      <c r="Z15" s="187"/>
+      <c r="AA15" s="189">
         <v>0</v>
       </c>
-      <c r="AB15" s="205"/>
+      <c r="AB15" s="190"/>
       <c r="AC15" s="153"/>
       <c r="AD15" s="74"/>
       <c r="AE15" s="74"/>
@@ -4849,8 +4849,8 @@
       <c r="AN15" s="74"/>
       <c r="AO15" s="74"/>
       <c r="AP15" s="75"/>
-      <c r="AQ15" s="308"/>
-      <c r="AR15" s="227"/>
+      <c r="AQ15" s="259"/>
+      <c r="AR15" s="205"/>
       <c r="AS15" s="76"/>
       <c r="AT15" s="76"/>
       <c r="AU15" s="76"/>
@@ -4858,27 +4858,27 @@
       <c r="AW15" s="76"/>
       <c r="AX15" s="76"/>
       <c r="AY15" s="50"/>
-      <c r="AZ15" s="246"/>
-      <c r="BA15" s="247"/>
-      <c r="BB15" s="247"/>
-      <c r="BC15" s="247"/>
-      <c r="BD15" s="248"/>
+      <c r="AZ15" s="232"/>
+      <c r="BA15" s="233"/>
+      <c r="BB15" s="233"/>
+      <c r="BC15" s="233"/>
+      <c r="BD15" s="234"/>
       <c r="BE15" s="73"/>
       <c r="BF15" s="50"/>
       <c r="BG15" s="28"/>
-      <c r="BH15" s="309"/>
-      <c r="BI15" s="188"/>
-      <c r="BJ15" s="188"/>
-      <c r="BK15" s="188"/>
-      <c r="BL15" s="188"/>
-      <c r="BM15" s="188"/>
-      <c r="BN15" s="188"/>
-      <c r="BO15" s="188"/>
-      <c r="BP15" s="188"/>
-      <c r="BQ15" s="188"/>
-      <c r="BR15" s="188"/>
-      <c r="BS15" s="188"/>
-      <c r="BT15" s="188"/>
+      <c r="BH15" s="260"/>
+      <c r="BI15" s="185"/>
+      <c r="BJ15" s="185"/>
+      <c r="BK15" s="185"/>
+      <c r="BL15" s="185"/>
+      <c r="BM15" s="185"/>
+      <c r="BN15" s="185"/>
+      <c r="BO15" s="185"/>
+      <c r="BP15" s="185"/>
+      <c r="BQ15" s="185"/>
+      <c r="BR15" s="185"/>
+      <c r="BS15" s="185"/>
+      <c r="BT15" s="185"/>
       <c r="BU15" s="30"/>
       <c r="BV15" s="30"/>
       <c r="CG15" s="18"/>
@@ -4906,11 +4906,11 @@
       <c r="DC15" s="18"/>
     </row>
     <row r="16" spans="2:107" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="187"/>
-      <c r="C16" s="201"/>
-      <c r="D16" s="201"/>
-      <c r="E16" s="201"/>
-      <c r="F16" s="202"/>
+      <c r="B16" s="215"/>
+      <c r="C16" s="325"/>
+      <c r="D16" s="325"/>
+      <c r="E16" s="325"/>
+      <c r="F16" s="326"/>
       <c r="G16" s="57"/>
       <c r="H16" s="175"/>
       <c r="I16" s="175"/>
@@ -4926,17 +4926,17 @@
       <c r="S16" s="175"/>
       <c r="T16" s="175"/>
       <c r="U16" s="167"/>
-      <c r="V16" s="337"/>
+      <c r="V16" s="208"/>
       <c r="W16" s="11"/>
       <c r="X16" s="162"/>
-      <c r="Y16" s="206">
+      <c r="Y16" s="186">
         <v>0</v>
       </c>
-      <c r="Z16" s="207"/>
-      <c r="AA16" s="204">
+      <c r="Z16" s="187"/>
+      <c r="AA16" s="189">
         <v>0</v>
       </c>
-      <c r="AB16" s="205"/>
+      <c r="AB16" s="190"/>
       <c r="AC16" s="153"/>
       <c r="AD16" s="74"/>
       <c r="AE16" s="74"/>
@@ -4950,7 +4950,7 @@
       <c r="AM16" s="74"/>
       <c r="AN16" s="74"/>
       <c r="AO16" s="74"/>
-      <c r="AP16" s="229"/>
+      <c r="AP16" s="307"/>
       <c r="AQ16" s="77"/>
       <c r="AR16" s="78"/>
       <c r="AS16" s="79"/>
@@ -4960,27 +4960,27 @@
       <c r="AW16" s="79"/>
       <c r="AX16" s="79"/>
       <c r="AY16" s="50"/>
-      <c r="AZ16" s="294"/>
-      <c r="BA16" s="269"/>
-      <c r="BB16" s="326"/>
-      <c r="BC16" s="326"/>
-      <c r="BD16" s="254"/>
+      <c r="AZ16" s="289"/>
+      <c r="BA16" s="265"/>
+      <c r="BB16" s="199"/>
+      <c r="BC16" s="199"/>
+      <c r="BD16" s="298"/>
       <c r="BE16" s="73"/>
       <c r="BF16" s="50"/>
       <c r="BG16" s="28"/>
-      <c r="BH16" s="188"/>
-      <c r="BI16" s="188"/>
-      <c r="BJ16" s="188"/>
-      <c r="BK16" s="188"/>
-      <c r="BL16" s="188"/>
-      <c r="BM16" s="188"/>
-      <c r="BN16" s="188"/>
-      <c r="BO16" s="188"/>
-      <c r="BP16" s="188"/>
-      <c r="BQ16" s="188"/>
-      <c r="BR16" s="188"/>
-      <c r="BS16" s="188"/>
-      <c r="BT16" s="188"/>
+      <c r="BH16" s="185"/>
+      <c r="BI16" s="185"/>
+      <c r="BJ16" s="185"/>
+      <c r="BK16" s="185"/>
+      <c r="BL16" s="185"/>
+      <c r="BM16" s="185"/>
+      <c r="BN16" s="185"/>
+      <c r="BO16" s="185"/>
+      <c r="BP16" s="185"/>
+      <c r="BQ16" s="185"/>
+      <c r="BR16" s="185"/>
+      <c r="BS16" s="185"/>
+      <c r="BT16" s="185"/>
       <c r="BU16" s="30"/>
       <c r="BV16" s="30"/>
       <c r="CG16" s="18"/>
@@ -5008,11 +5008,11 @@
       <c r="DC16" s="18"/>
     </row>
     <row r="17" spans="1:107" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="187"/>
-      <c r="C17" s="201"/>
-      <c r="D17" s="201"/>
-      <c r="E17" s="201"/>
-      <c r="F17" s="202"/>
+      <c r="B17" s="215"/>
+      <c r="C17" s="325"/>
+      <c r="D17" s="325"/>
+      <c r="E17" s="325"/>
+      <c r="F17" s="326"/>
       <c r="G17" s="57"/>
       <c r="H17" s="175"/>
       <c r="I17" s="175"/>
@@ -5028,17 +5028,17 @@
       <c r="S17" s="175"/>
       <c r="T17" s="175"/>
       <c r="U17" s="167"/>
-      <c r="V17" s="337"/>
+      <c r="V17" s="208"/>
       <c r="W17" s="12"/>
       <c r="X17" s="162"/>
-      <c r="Y17" s="206">
+      <c r="Y17" s="186">
         <v>0</v>
       </c>
-      <c r="Z17" s="207"/>
-      <c r="AA17" s="204">
+      <c r="Z17" s="187"/>
+      <c r="AA17" s="189">
         <v>0</v>
       </c>
-      <c r="AB17" s="205"/>
+      <c r="AB17" s="190"/>
       <c r="AC17" s="153"/>
       <c r="AD17" s="56"/>
       <c r="AE17" s="56"/>
@@ -5052,7 +5052,7 @@
       <c r="AM17" s="56"/>
       <c r="AN17" s="56"/>
       <c r="AO17" s="56"/>
-      <c r="AP17" s="230"/>
+      <c r="AP17" s="308"/>
       <c r="AQ17" s="80"/>
       <c r="AR17" s="78"/>
       <c r="AS17" s="50"/>
@@ -5062,27 +5062,27 @@
       <c r="AW17" s="50"/>
       <c r="AX17" s="50"/>
       <c r="AY17" s="50"/>
-      <c r="AZ17" s="295"/>
-      <c r="BA17" s="270"/>
-      <c r="BB17" s="327"/>
-      <c r="BC17" s="327"/>
-      <c r="BD17" s="255"/>
+      <c r="AZ17" s="290"/>
+      <c r="BA17" s="266"/>
+      <c r="BB17" s="200"/>
+      <c r="BC17" s="200"/>
+      <c r="BD17" s="299"/>
       <c r="BE17" s="73"/>
       <c r="BF17" s="50"/>
       <c r="BG17" s="28"/>
-      <c r="BH17" s="244"/>
-      <c r="BI17" s="188"/>
-      <c r="BJ17" s="188"/>
-      <c r="BK17" s="188"/>
-      <c r="BL17" s="188"/>
-      <c r="BM17" s="188"/>
-      <c r="BN17" s="188"/>
-      <c r="BO17" s="188"/>
-      <c r="BP17" s="188"/>
-      <c r="BQ17" s="243"/>
-      <c r="BR17" s="188"/>
-      <c r="BS17" s="188"/>
-      <c r="BT17" s="188"/>
+      <c r="BH17" s="292"/>
+      <c r="BI17" s="185"/>
+      <c r="BJ17" s="185"/>
+      <c r="BK17" s="185"/>
+      <c r="BL17" s="185"/>
+      <c r="BM17" s="185"/>
+      <c r="BN17" s="185"/>
+      <c r="BO17" s="185"/>
+      <c r="BP17" s="185"/>
+      <c r="BQ17" s="291"/>
+      <c r="BR17" s="185"/>
+      <c r="BS17" s="185"/>
+      <c r="BT17" s="185"/>
       <c r="BU17" s="30"/>
       <c r="BV17" s="30"/>
       <c r="CG17" s="18"/>
@@ -5110,11 +5110,11 @@
       <c r="DC17" s="18"/>
     </row>
     <row r="18" spans="1:107" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="190"/>
-      <c r="C18" s="191"/>
-      <c r="D18" s="191"/>
-      <c r="E18" s="191"/>
-      <c r="F18" s="191"/>
+      <c r="B18" s="194"/>
+      <c r="C18" s="195"/>
+      <c r="D18" s="195"/>
+      <c r="E18" s="195"/>
+      <c r="F18" s="195"/>
       <c r="G18" s="57"/>
       <c r="H18" s="175"/>
       <c r="I18" s="175"/>
@@ -5130,17 +5130,17 @@
       <c r="S18" s="175"/>
       <c r="T18" s="175"/>
       <c r="U18" s="167"/>
-      <c r="V18" s="337"/>
+      <c r="V18" s="208"/>
       <c r="W18" s="13"/>
       <c r="X18" s="162"/>
-      <c r="Y18" s="206">
+      <c r="Y18" s="186">
         <v>0</v>
       </c>
-      <c r="Z18" s="207"/>
-      <c r="AA18" s="204">
+      <c r="Z18" s="187"/>
+      <c r="AA18" s="189">
         <v>0</v>
       </c>
-      <c r="AB18" s="205"/>
+      <c r="AB18" s="190"/>
       <c r="AC18" s="153"/>
       <c r="AD18" s="81"/>
       <c r="AE18" s="81"/>
@@ -5154,7 +5154,7 @@
       <c r="AM18" s="81"/>
       <c r="AN18" s="81"/>
       <c r="AO18" s="81"/>
-      <c r="AP18" s="231"/>
+      <c r="AP18" s="309"/>
       <c r="AQ18" s="80"/>
       <c r="AR18" s="78"/>
       <c r="AS18" s="50"/>
@@ -5172,19 +5172,19 @@
       <c r="BE18" s="73"/>
       <c r="BF18" s="50"/>
       <c r="BG18" s="28"/>
-      <c r="BH18" s="253"/>
-      <c r="BI18" s="188"/>
-      <c r="BJ18" s="188"/>
-      <c r="BK18" s="188"/>
-      <c r="BL18" s="188"/>
-      <c r="BM18" s="188"/>
-      <c r="BN18" s="188"/>
-      <c r="BO18" s="188"/>
-      <c r="BP18" s="188"/>
-      <c r="BQ18" s="252"/>
-      <c r="BR18" s="188"/>
-      <c r="BS18" s="188"/>
-      <c r="BT18" s="188"/>
+      <c r="BH18" s="184"/>
+      <c r="BI18" s="185"/>
+      <c r="BJ18" s="185"/>
+      <c r="BK18" s="185"/>
+      <c r="BL18" s="185"/>
+      <c r="BM18" s="185"/>
+      <c r="BN18" s="185"/>
+      <c r="BO18" s="185"/>
+      <c r="BP18" s="185"/>
+      <c r="BQ18" s="188"/>
+      <c r="BR18" s="185"/>
+      <c r="BS18" s="185"/>
+      <c r="BT18" s="185"/>
       <c r="BU18" s="30"/>
       <c r="BV18" s="30"/>
       <c r="CG18" s="18"/>
@@ -5213,13 +5213,13 @@
     </row>
     <row r="19" spans="1:107" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="50"/>
-      <c r="B19" s="193" t="s">
+      <c r="B19" s="317" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="208"/>
-      <c r="D19" s="208"/>
-      <c r="E19" s="208"/>
-      <c r="F19" s="208"/>
+      <c r="C19" s="327"/>
+      <c r="D19" s="327"/>
+      <c r="E19" s="327"/>
+      <c r="F19" s="327"/>
       <c r="G19" s="57"/>
       <c r="H19" s="175"/>
       <c r="I19" s="175"/>
@@ -5235,17 +5235,17 @@
       <c r="S19" s="175"/>
       <c r="T19" s="175"/>
       <c r="U19" s="167"/>
-      <c r="V19" s="337"/>
+      <c r="V19" s="208"/>
       <c r="W19" s="13"/>
       <c r="X19" s="162"/>
-      <c r="Y19" s="206">
+      <c r="Y19" s="186">
         <v>0</v>
       </c>
-      <c r="Z19" s="207"/>
-      <c r="AA19" s="204">
+      <c r="Z19" s="187"/>
+      <c r="AA19" s="189">
         <v>0</v>
       </c>
-      <c r="AB19" s="205"/>
+      <c r="AB19" s="190"/>
       <c r="AC19" s="153"/>
       <c r="AD19" s="81"/>
       <c r="AE19" s="81"/>
@@ -5260,8 +5260,8 @@
       <c r="AN19" s="81"/>
       <c r="AO19" s="81"/>
       <c r="AP19" s="87"/>
-      <c r="AQ19" s="310"/>
-      <c r="AR19" s="227"/>
+      <c r="AQ19" s="262"/>
+      <c r="AR19" s="205"/>
       <c r="AS19" s="50"/>
       <c r="AT19" s="50"/>
       <c r="AU19" s="50"/>
@@ -5277,19 +5277,19 @@
       <c r="BE19" s="73"/>
       <c r="BF19" s="50"/>
       <c r="BG19" s="28"/>
-      <c r="BH19" s="253"/>
-      <c r="BI19" s="188"/>
-      <c r="BJ19" s="188"/>
-      <c r="BK19" s="188"/>
-      <c r="BL19" s="188"/>
-      <c r="BM19" s="188"/>
-      <c r="BN19" s="188"/>
-      <c r="BO19" s="188"/>
-      <c r="BP19" s="188"/>
-      <c r="BQ19" s="252"/>
-      <c r="BR19" s="188"/>
-      <c r="BS19" s="188"/>
-      <c r="BT19" s="188"/>
+      <c r="BH19" s="184"/>
+      <c r="BI19" s="185"/>
+      <c r="BJ19" s="185"/>
+      <c r="BK19" s="185"/>
+      <c r="BL19" s="185"/>
+      <c r="BM19" s="185"/>
+      <c r="BN19" s="185"/>
+      <c r="BO19" s="185"/>
+      <c r="BP19" s="185"/>
+      <c r="BQ19" s="188"/>
+      <c r="BR19" s="185"/>
+      <c r="BS19" s="185"/>
+      <c r="BT19" s="185"/>
       <c r="BU19" s="30"/>
       <c r="BV19" s="30"/>
       <c r="CG19" s="18"/>
@@ -5338,17 +5338,17 @@
       <c r="S20" s="175"/>
       <c r="T20" s="175"/>
       <c r="U20" s="167"/>
-      <c r="V20" s="337"/>
+      <c r="V20" s="208"/>
       <c r="W20" s="13"/>
       <c r="X20" s="162"/>
-      <c r="Y20" s="206">
+      <c r="Y20" s="186">
         <v>0</v>
       </c>
-      <c r="Z20" s="207"/>
-      <c r="AA20" s="204">
+      <c r="Z20" s="187"/>
+      <c r="AA20" s="189">
         <v>0</v>
       </c>
-      <c r="AB20" s="205"/>
+      <c r="AB20" s="190"/>
       <c r="AC20" s="153"/>
       <c r="AD20" s="81"/>
       <c r="AE20" s="81"/>
@@ -5363,8 +5363,8 @@
       <c r="AN20" s="81"/>
       <c r="AO20" s="81"/>
       <c r="AP20" s="93"/>
-      <c r="AQ20" s="289"/>
-      <c r="AR20" s="227"/>
+      <c r="AQ20" s="206"/>
+      <c r="AR20" s="205"/>
       <c r="AS20" s="50"/>
       <c r="AT20" s="50"/>
       <c r="AU20" s="50"/>
@@ -5380,19 +5380,19 @@
       <c r="BE20" s="73"/>
       <c r="BF20" s="50"/>
       <c r="BG20" s="28"/>
-      <c r="BH20" s="303"/>
-      <c r="BI20" s="188"/>
-      <c r="BJ20" s="188"/>
-      <c r="BK20" s="188"/>
-      <c r="BL20" s="188"/>
-      <c r="BM20" s="188"/>
-      <c r="BN20" s="188"/>
-      <c r="BO20" s="188"/>
-      <c r="BP20" s="188"/>
-      <c r="BQ20" s="302"/>
-      <c r="BR20" s="188"/>
-      <c r="BS20" s="188"/>
-      <c r="BT20" s="188"/>
+      <c r="BH20" s="253"/>
+      <c r="BI20" s="185"/>
+      <c r="BJ20" s="185"/>
+      <c r="BK20" s="185"/>
+      <c r="BL20" s="185"/>
+      <c r="BM20" s="185"/>
+      <c r="BN20" s="185"/>
+      <c r="BO20" s="185"/>
+      <c r="BP20" s="185"/>
+      <c r="BQ20" s="252"/>
+      <c r="BR20" s="185"/>
+      <c r="BS20" s="185"/>
+      <c r="BT20" s="185"/>
       <c r="BU20" s="30"/>
       <c r="BV20" s="30"/>
       <c r="CG20" s="18"/>
@@ -5441,17 +5441,17 @@
       <c r="S21" s="175"/>
       <c r="T21" s="175"/>
       <c r="U21" s="167"/>
-      <c r="V21" s="337"/>
+      <c r="V21" s="208"/>
       <c r="W21" s="13"/>
       <c r="X21" s="162"/>
-      <c r="Y21" s="206">
+      <c r="Y21" s="186">
         <v>0</v>
       </c>
-      <c r="Z21" s="207"/>
-      <c r="AA21" s="204">
+      <c r="Z21" s="187"/>
+      <c r="AA21" s="189">
         <v>0</v>
       </c>
-      <c r="AB21" s="205"/>
+      <c r="AB21" s="190"/>
       <c r="AC21" s="153"/>
       <c r="AD21" s="81"/>
       <c r="AE21" s="81"/>
@@ -5466,8 +5466,8 @@
       <c r="AN21" s="81"/>
       <c r="AO21" s="81"/>
       <c r="AP21" s="87"/>
-      <c r="AQ21" s="234"/>
-      <c r="AR21" s="227"/>
+      <c r="AQ21" s="297"/>
+      <c r="AR21" s="205"/>
       <c r="AS21" s="50"/>
       <c r="AT21" s="50"/>
       <c r="AU21" s="50"/>
@@ -5483,19 +5483,19 @@
       <c r="BE21" s="73"/>
       <c r="BF21" s="50"/>
       <c r="BG21" s="28"/>
-      <c r="BH21" s="253"/>
-      <c r="BI21" s="188"/>
-      <c r="BJ21" s="188"/>
-      <c r="BK21" s="188"/>
-      <c r="BL21" s="188"/>
-      <c r="BM21" s="188"/>
-      <c r="BN21" s="188"/>
-      <c r="BO21" s="188"/>
-      <c r="BP21" s="188"/>
-      <c r="BQ21" s="252"/>
-      <c r="BR21" s="188"/>
-      <c r="BS21" s="188"/>
-      <c r="BT21" s="188"/>
+      <c r="BH21" s="184"/>
+      <c r="BI21" s="185"/>
+      <c r="BJ21" s="185"/>
+      <c r="BK21" s="185"/>
+      <c r="BL21" s="185"/>
+      <c r="BM21" s="185"/>
+      <c r="BN21" s="185"/>
+      <c r="BO21" s="185"/>
+      <c r="BP21" s="185"/>
+      <c r="BQ21" s="188"/>
+      <c r="BR21" s="185"/>
+      <c r="BS21" s="185"/>
+      <c r="BT21" s="185"/>
       <c r="BU21" s="30"/>
       <c r="BV21" s="30"/>
       <c r="CG21" s="18"/>
@@ -5544,17 +5544,17 @@
       <c r="S22" s="175"/>
       <c r="T22" s="175"/>
       <c r="U22" s="167"/>
-      <c r="V22" s="337"/>
+      <c r="V22" s="208"/>
       <c r="W22" s="22"/>
       <c r="X22" s="163"/>
-      <c r="Y22" s="206">
+      <c r="Y22" s="186">
         <v>0</v>
       </c>
-      <c r="Z22" s="207"/>
-      <c r="AA22" s="204">
+      <c r="Z22" s="187"/>
+      <c r="AA22" s="189">
         <v>0</v>
       </c>
-      <c r="AB22" s="205"/>
+      <c r="AB22" s="190"/>
       <c r="AC22" s="153"/>
       <c r="AD22" s="99"/>
       <c r="AE22" s="99"/>
@@ -5569,8 +5569,8 @@
       <c r="AN22" s="99"/>
       <c r="AO22" s="99"/>
       <c r="AP22" s="93"/>
-      <c r="AQ22" s="226"/>
-      <c r="AR22" s="227"/>
+      <c r="AQ22" s="261"/>
+      <c r="AR22" s="205"/>
       <c r="AS22" s="50"/>
       <c r="AT22" s="50"/>
       <c r="AU22" s="50"/>
@@ -5586,19 +5586,19 @@
       <c r="BE22" s="73"/>
       <c r="BF22" s="50"/>
       <c r="BG22" s="28"/>
-      <c r="BH22" s="303"/>
-      <c r="BI22" s="188"/>
-      <c r="BJ22" s="188"/>
-      <c r="BK22" s="188"/>
-      <c r="BL22" s="188"/>
-      <c r="BM22" s="188"/>
-      <c r="BN22" s="188"/>
-      <c r="BO22" s="188"/>
-      <c r="BP22" s="188"/>
-      <c r="BQ22" s="302"/>
-      <c r="BR22" s="188"/>
-      <c r="BS22" s="188"/>
-      <c r="BT22" s="188"/>
+      <c r="BH22" s="253"/>
+      <c r="BI22" s="185"/>
+      <c r="BJ22" s="185"/>
+      <c r="BK22" s="185"/>
+      <c r="BL22" s="185"/>
+      <c r="BM22" s="185"/>
+      <c r="BN22" s="185"/>
+      <c r="BO22" s="185"/>
+      <c r="BP22" s="185"/>
+      <c r="BQ22" s="252"/>
+      <c r="BR22" s="185"/>
+      <c r="BS22" s="185"/>
+      <c r="BT22" s="185"/>
       <c r="BU22" s="30"/>
       <c r="BV22" s="30"/>
       <c r="CG22" s="18"/>
@@ -5644,17 +5644,17 @@
       <c r="S23" s="175"/>
       <c r="T23" s="175"/>
       <c r="U23" s="167"/>
-      <c r="V23" s="337"/>
+      <c r="V23" s="208"/>
       <c r="W23" s="45"/>
       <c r="X23" s="163"/>
-      <c r="Y23" s="206">
+      <c r="Y23" s="186">
         <v>0</v>
       </c>
-      <c r="Z23" s="207"/>
-      <c r="AA23" s="204">
+      <c r="Z23" s="187"/>
+      <c r="AA23" s="189">
         <v>0</v>
       </c>
-      <c r="AB23" s="205"/>
+      <c r="AB23" s="190"/>
       <c r="AC23" s="153"/>
       <c r="AD23" s="45"/>
       <c r="AE23" s="45"/>
@@ -5724,17 +5724,17 @@
       <c r="S24" s="175"/>
       <c r="T24" s="175"/>
       <c r="U24" s="167"/>
-      <c r="V24" s="337"/>
+      <c r="V24" s="208"/>
       <c r="W24" s="26"/>
       <c r="X24" s="163"/>
-      <c r="Y24" s="206">
+      <c r="Y24" s="186">
         <v>0</v>
       </c>
-      <c r="Z24" s="207"/>
-      <c r="AA24" s="204">
+      <c r="Z24" s="187"/>
+      <c r="AA24" s="189">
         <v>0</v>
       </c>
-      <c r="AB24" s="205"/>
+      <c r="AB24" s="190"/>
       <c r="AC24" s="153"/>
       <c r="AD24" s="99"/>
       <c r="AE24" s="99"/>
@@ -5749,8 +5749,8 @@
       <c r="AN24" s="99"/>
       <c r="AO24" s="99"/>
       <c r="AP24" s="93"/>
-      <c r="AQ24" s="226"/>
-      <c r="AR24" s="227"/>
+      <c r="AQ24" s="261"/>
+      <c r="AR24" s="205"/>
       <c r="AS24" s="50"/>
       <c r="AT24" s="50"/>
       <c r="AU24" s="50"/>
@@ -5766,19 +5766,19 @@
       <c r="BE24" s="73"/>
       <c r="BF24" s="50"/>
       <c r="BG24" s="28"/>
-      <c r="BH24" s="253"/>
-      <c r="BI24" s="188"/>
-      <c r="BJ24" s="188"/>
-      <c r="BK24" s="188"/>
-      <c r="BL24" s="188"/>
-      <c r="BM24" s="188"/>
-      <c r="BN24" s="188"/>
-      <c r="BO24" s="188"/>
-      <c r="BP24" s="188"/>
-      <c r="BQ24" s="252"/>
-      <c r="BR24" s="188"/>
-      <c r="BS24" s="188"/>
-      <c r="BT24" s="188"/>
+      <c r="BH24" s="184"/>
+      <c r="BI24" s="185"/>
+      <c r="BJ24" s="185"/>
+      <c r="BK24" s="185"/>
+      <c r="BL24" s="185"/>
+      <c r="BM24" s="185"/>
+      <c r="BN24" s="185"/>
+      <c r="BO24" s="185"/>
+      <c r="BP24" s="185"/>
+      <c r="BQ24" s="188"/>
+      <c r="BR24" s="185"/>
+      <c r="BS24" s="185"/>
+      <c r="BT24" s="185"/>
       <c r="BU24" s="30"/>
       <c r="BV24" s="30"/>
       <c r="CG24" s="18"/>
@@ -5823,17 +5823,17 @@
       <c r="S25" s="175"/>
       <c r="T25" s="175"/>
       <c r="U25" s="167"/>
-      <c r="V25" s="337"/>
+      <c r="V25" s="208"/>
       <c r="W25" s="26"/>
       <c r="X25" s="164"/>
-      <c r="Y25" s="206">
+      <c r="Y25" s="186">
         <v>0</v>
       </c>
-      <c r="Z25" s="207"/>
-      <c r="AA25" s="204">
+      <c r="Z25" s="187"/>
+      <c r="AA25" s="189">
         <v>0</v>
       </c>
-      <c r="AB25" s="205"/>
+      <c r="AB25" s="190"/>
       <c r="AC25" s="153"/>
       <c r="AD25" s="99"/>
       <c r="AE25" s="99"/>
@@ -5848,8 +5848,8 @@
       <c r="AN25" s="99"/>
       <c r="AO25" s="99"/>
       <c r="AP25" s="93"/>
-      <c r="AQ25" s="289"/>
-      <c r="AR25" s="227"/>
+      <c r="AQ25" s="206"/>
+      <c r="AR25" s="205"/>
       <c r="AS25" s="50"/>
       <c r="AT25" s="50"/>
       <c r="AU25" s="50"/>
@@ -5865,19 +5865,19 @@
       <c r="BE25" s="73"/>
       <c r="BF25" s="50"/>
       <c r="BG25" s="28"/>
-      <c r="BH25" s="253"/>
-      <c r="BI25" s="188"/>
-      <c r="BJ25" s="188"/>
-      <c r="BK25" s="188"/>
-      <c r="BL25" s="188"/>
-      <c r="BM25" s="188"/>
-      <c r="BN25" s="188"/>
-      <c r="BO25" s="188"/>
-      <c r="BP25" s="188"/>
-      <c r="BQ25" s="252"/>
-      <c r="BR25" s="188"/>
-      <c r="BS25" s="188"/>
-      <c r="BT25" s="188"/>
+      <c r="BH25" s="184"/>
+      <c r="BI25" s="185"/>
+      <c r="BJ25" s="185"/>
+      <c r="BK25" s="185"/>
+      <c r="BL25" s="185"/>
+      <c r="BM25" s="185"/>
+      <c r="BN25" s="185"/>
+      <c r="BO25" s="185"/>
+      <c r="BP25" s="185"/>
+      <c r="BQ25" s="188"/>
+      <c r="BR25" s="185"/>
+      <c r="BS25" s="185"/>
+      <c r="BT25" s="185"/>
       <c r="BU25" s="30"/>
       <c r="BV25" s="30"/>
       <c r="CG25" s="18"/>
@@ -5926,17 +5926,17 @@
       <c r="S26" s="175"/>
       <c r="T26" s="175"/>
       <c r="U26" s="167"/>
-      <c r="V26" s="337"/>
+      <c r="V26" s="208"/>
       <c r="W26" s="23"/>
       <c r="X26" s="164"/>
-      <c r="Y26" s="206">
+      <c r="Y26" s="186">
         <v>0</v>
       </c>
-      <c r="Z26" s="207"/>
-      <c r="AA26" s="204">
+      <c r="Z26" s="187"/>
+      <c r="AA26" s="189">
         <v>0</v>
       </c>
-      <c r="AB26" s="205"/>
+      <c r="AB26" s="190"/>
       <c r="AC26" s="153"/>
       <c r="AD26" s="102"/>
       <c r="AE26" s="102"/>
@@ -5951,8 +5951,8 @@
       <c r="AN26" s="102"/>
       <c r="AO26" s="102"/>
       <c r="AP26" s="93"/>
-      <c r="AQ26" s="289"/>
-      <c r="AR26" s="227"/>
+      <c r="AQ26" s="206"/>
+      <c r="AR26" s="205"/>
       <c r="AS26" s="50"/>
       <c r="AT26" s="50"/>
       <c r="AU26" s="50"/>
@@ -5968,19 +5968,19 @@
       <c r="BE26" s="73"/>
       <c r="BF26" s="50"/>
       <c r="BG26" s="28"/>
-      <c r="BH26" s="253"/>
-      <c r="BI26" s="188"/>
-      <c r="BJ26" s="188"/>
-      <c r="BK26" s="188"/>
-      <c r="BL26" s="188"/>
-      <c r="BM26" s="188"/>
-      <c r="BN26" s="188"/>
-      <c r="BO26" s="188"/>
-      <c r="BP26" s="188"/>
-      <c r="BQ26" s="252"/>
-      <c r="BR26" s="188"/>
-      <c r="BS26" s="188"/>
-      <c r="BT26" s="188"/>
+      <c r="BH26" s="184"/>
+      <c r="BI26" s="185"/>
+      <c r="BJ26" s="185"/>
+      <c r="BK26" s="185"/>
+      <c r="BL26" s="185"/>
+      <c r="BM26" s="185"/>
+      <c r="BN26" s="185"/>
+      <c r="BO26" s="185"/>
+      <c r="BP26" s="185"/>
+      <c r="BQ26" s="188"/>
+      <c r="BR26" s="185"/>
+      <c r="BS26" s="185"/>
+      <c r="BT26" s="185"/>
       <c r="BU26" s="30"/>
       <c r="BV26" s="30"/>
       <c r="CG26" s="18"/>
@@ -6025,17 +6025,17 @@
       <c r="S27" s="175"/>
       <c r="T27" s="175"/>
       <c r="U27" s="167"/>
-      <c r="V27" s="337"/>
+      <c r="V27" s="208"/>
       <c r="W27" s="23"/>
       <c r="X27" s="164"/>
-      <c r="Y27" s="206">
+      <c r="Y27" s="186">
         <v>0</v>
       </c>
-      <c r="Z27" s="207"/>
-      <c r="AA27" s="204">
+      <c r="Z27" s="187"/>
+      <c r="AA27" s="189">
         <v>0</v>
       </c>
-      <c r="AB27" s="205"/>
+      <c r="AB27" s="190"/>
       <c r="AC27" s="153"/>
       <c r="AD27" s="102"/>
       <c r="AE27" s="102"/>
@@ -6050,8 +6050,8 @@
       <c r="AN27" s="102"/>
       <c r="AO27" s="102"/>
       <c r="AP27" s="93"/>
-      <c r="AQ27" s="226"/>
-      <c r="AR27" s="227"/>
+      <c r="AQ27" s="261"/>
+      <c r="AR27" s="205"/>
       <c r="AS27" s="50"/>
       <c r="AT27" s="50"/>
       <c r="AU27" s="50"/>
@@ -6067,19 +6067,19 @@
       <c r="BE27" s="73"/>
       <c r="BF27" s="50"/>
       <c r="BG27" s="28"/>
-      <c r="BH27" s="264"/>
-      <c r="BI27" s="188"/>
-      <c r="BJ27" s="188"/>
-      <c r="BK27" s="188"/>
-      <c r="BL27" s="188"/>
-      <c r="BM27" s="188"/>
-      <c r="BN27" s="188"/>
-      <c r="BO27" s="188"/>
-      <c r="BP27" s="188"/>
-      <c r="BQ27" s="188"/>
-      <c r="BR27" s="188"/>
-      <c r="BS27" s="188"/>
-      <c r="BT27" s="188"/>
+      <c r="BH27" s="304"/>
+      <c r="BI27" s="185"/>
+      <c r="BJ27" s="185"/>
+      <c r="BK27" s="185"/>
+      <c r="BL27" s="185"/>
+      <c r="BM27" s="185"/>
+      <c r="BN27" s="185"/>
+      <c r="BO27" s="185"/>
+      <c r="BP27" s="185"/>
+      <c r="BQ27" s="185"/>
+      <c r="BR27" s="185"/>
+      <c r="BS27" s="185"/>
+      <c r="BT27" s="185"/>
       <c r="BU27" s="30"/>
       <c r="BV27" s="30"/>
       <c r="CG27" s="18"/>
@@ -6125,17 +6125,17 @@
       <c r="S28" s="175"/>
       <c r="T28" s="175"/>
       <c r="U28" s="167"/>
-      <c r="V28" s="337"/>
+      <c r="V28" s="208"/>
       <c r="W28" s="16"/>
       <c r="X28" s="164"/>
-      <c r="Y28" s="206">
+      <c r="Y28" s="186">
         <v>0</v>
       </c>
-      <c r="Z28" s="207"/>
-      <c r="AA28" s="204">
+      <c r="Z28" s="187"/>
+      <c r="AA28" s="189">
         <v>0</v>
       </c>
-      <c r="AB28" s="205"/>
+      <c r="AB28" s="190"/>
       <c r="AC28" s="153"/>
       <c r="AD28" s="103"/>
       <c r="AE28" s="103"/>
@@ -6150,8 +6150,8 @@
       <c r="AN28" s="103"/>
       <c r="AO28" s="103"/>
       <c r="AP28" s="87"/>
-      <c r="AQ28" s="234"/>
-      <c r="AR28" s="227"/>
+      <c r="AQ28" s="297"/>
+      <c r="AR28" s="205"/>
       <c r="AS28" s="50"/>
       <c r="AT28" s="50"/>
       <c r="AU28" s="50"/>
@@ -6166,22 +6166,22 @@
       <c r="BD28" s="106"/>
       <c r="BE28" s="73"/>
       <c r="BF28" s="50"/>
-      <c r="BG28" s="275"/>
-      <c r="BH28" s="188"/>
-      <c r="BI28" s="188"/>
-      <c r="BJ28" s="188"/>
-      <c r="BK28" s="188"/>
-      <c r="BL28" s="188"/>
-      <c r="BM28" s="188"/>
-      <c r="BN28" s="188"/>
-      <c r="BO28" s="188"/>
-      <c r="BP28" s="188"/>
-      <c r="BQ28" s="188"/>
-      <c r="BR28" s="188"/>
-      <c r="BS28" s="188"/>
-      <c r="BT28" s="188"/>
-      <c r="BU28" s="188"/>
-      <c r="BV28" s="188"/>
+      <c r="BG28" s="271"/>
+      <c r="BH28" s="185"/>
+      <c r="BI28" s="185"/>
+      <c r="BJ28" s="185"/>
+      <c r="BK28" s="185"/>
+      <c r="BL28" s="185"/>
+      <c r="BM28" s="185"/>
+      <c r="BN28" s="185"/>
+      <c r="BO28" s="185"/>
+      <c r="BP28" s="185"/>
+      <c r="BQ28" s="185"/>
+      <c r="BR28" s="185"/>
+      <c r="BS28" s="185"/>
+      <c r="BT28" s="185"/>
+      <c r="BU28" s="185"/>
+      <c r="BV28" s="185"/>
       <c r="CG28" s="18"/>
       <c r="CH28" s="18"/>
       <c r="CI28" s="18"/>
@@ -6228,17 +6228,17 @@
       <c r="S29" s="175"/>
       <c r="T29" s="175"/>
       <c r="U29" s="167"/>
-      <c r="V29" s="337"/>
+      <c r="V29" s="208"/>
       <c r="W29" s="24"/>
       <c r="X29" s="164"/>
-      <c r="Y29" s="206">
+      <c r="Y29" s="186">
         <v>0</v>
       </c>
-      <c r="Z29" s="207"/>
-      <c r="AA29" s="204">
+      <c r="Z29" s="187"/>
+      <c r="AA29" s="189">
         <v>0</v>
       </c>
-      <c r="AB29" s="205"/>
+      <c r="AB29" s="190"/>
       <c r="AC29" s="153"/>
       <c r="AD29" s="107"/>
       <c r="AE29" s="107"/>
@@ -6253,8 +6253,8 @@
       <c r="AN29" s="107"/>
       <c r="AO29" s="107"/>
       <c r="AP29" s="87"/>
-      <c r="AQ29" s="299"/>
-      <c r="AR29" s="227"/>
+      <c r="AQ29" s="248"/>
+      <c r="AR29" s="205"/>
       <c r="AS29" s="50"/>
       <c r="AT29" s="50"/>
       <c r="AU29" s="50"/>
@@ -6269,22 +6269,22 @@
       <c r="BD29" s="113"/>
       <c r="BE29" s="73"/>
       <c r="BF29" s="50"/>
-      <c r="BG29" s="188"/>
-      <c r="BH29" s="188"/>
-      <c r="BI29" s="188"/>
-      <c r="BJ29" s="188"/>
-      <c r="BK29" s="188"/>
-      <c r="BL29" s="188"/>
-      <c r="BM29" s="188"/>
-      <c r="BN29" s="188"/>
-      <c r="BO29" s="188"/>
-      <c r="BP29" s="188"/>
-      <c r="BQ29" s="188"/>
-      <c r="BR29" s="188"/>
-      <c r="BS29" s="188"/>
-      <c r="BT29" s="188"/>
-      <c r="BU29" s="188"/>
-      <c r="BV29" s="188"/>
+      <c r="BG29" s="185"/>
+      <c r="BH29" s="185"/>
+      <c r="BI29" s="185"/>
+      <c r="BJ29" s="185"/>
+      <c r="BK29" s="185"/>
+      <c r="BL29" s="185"/>
+      <c r="BM29" s="185"/>
+      <c r="BN29" s="185"/>
+      <c r="BO29" s="185"/>
+      <c r="BP29" s="185"/>
+      <c r="BQ29" s="185"/>
+      <c r="BR29" s="185"/>
+      <c r="BS29" s="185"/>
+      <c r="BT29" s="185"/>
+      <c r="BU29" s="185"/>
+      <c r="BV29" s="185"/>
       <c r="CG29" s="18"/>
       <c r="CH29" s="18"/>
       <c r="CI29" s="18"/>
@@ -6331,17 +6331,17 @@
       <c r="S30" s="175"/>
       <c r="T30" s="175"/>
       <c r="U30" s="167"/>
-      <c r="V30" s="337"/>
+      <c r="V30" s="208"/>
       <c r="W30" s="25"/>
       <c r="X30" s="165"/>
-      <c r="Y30" s="292">
+      <c r="Y30" s="287">
         <v>0</v>
       </c>
-      <c r="Z30" s="293"/>
-      <c r="AA30" s="250">
+      <c r="Z30" s="288"/>
+      <c r="AA30" s="295">
         <v>0</v>
       </c>
-      <c r="AB30" s="251"/>
+      <c r="AB30" s="296"/>
       <c r="AC30" s="155"/>
       <c r="AD30" s="114"/>
       <c r="AE30" s="114"/>
@@ -6356,15 +6356,15 @@
       <c r="AN30" s="114"/>
       <c r="AO30" s="114"/>
       <c r="AP30" s="87"/>
-      <c r="AQ30" s="335"/>
-      <c r="AR30" s="227"/>
+      <c r="AQ30" s="204"/>
+      <c r="AR30" s="205"/>
       <c r="AS30" s="50"/>
       <c r="AT30" s="50"/>
       <c r="AU30" s="50"/>
       <c r="AV30" s="50"/>
       <c r="AW30" s="50"/>
       <c r="AX30" s="50"/>
-      <c r="AY30" s="232"/>
+      <c r="AY30" s="310"/>
       <c r="AZ30" s="109"/>
       <c r="BA30" s="110"/>
       <c r="BB30" s="111"/>
@@ -6372,22 +6372,22 @@
       <c r="BD30" s="113"/>
       <c r="BE30" s="73"/>
       <c r="BF30" s="50"/>
-      <c r="BG30" s="275"/>
-      <c r="BH30" s="188"/>
-      <c r="BI30" s="188"/>
-      <c r="BJ30" s="188"/>
-      <c r="BK30" s="188"/>
-      <c r="BL30" s="188"/>
-      <c r="BM30" s="188"/>
-      <c r="BN30" s="188"/>
-      <c r="BO30" s="188"/>
-      <c r="BP30" s="188"/>
-      <c r="BQ30" s="188"/>
-      <c r="BR30" s="188"/>
-      <c r="BS30" s="188"/>
-      <c r="BT30" s="188"/>
-      <c r="BU30" s="188"/>
-      <c r="BV30" s="188"/>
+      <c r="BG30" s="271"/>
+      <c r="BH30" s="185"/>
+      <c r="BI30" s="185"/>
+      <c r="BJ30" s="185"/>
+      <c r="BK30" s="185"/>
+      <c r="BL30" s="185"/>
+      <c r="BM30" s="185"/>
+      <c r="BN30" s="185"/>
+      <c r="BO30" s="185"/>
+      <c r="BP30" s="185"/>
+      <c r="BQ30" s="185"/>
+      <c r="BR30" s="185"/>
+      <c r="BS30" s="185"/>
+      <c r="BT30" s="185"/>
+      <c r="BU30" s="185"/>
+      <c r="BV30" s="185"/>
       <c r="CG30" s="18"/>
       <c r="CH30" s="18"/>
       <c r="CI30" s="18"/>
@@ -6434,21 +6434,21 @@
       <c r="S31" s="175"/>
       <c r="T31" s="175"/>
       <c r="U31" s="167"/>
-      <c r="V31" s="337"/>
+      <c r="V31" s="208"/>
       <c r="W31" s="14"/>
       <c r="X31" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="Y31" s="296">
+      <c r="Y31" s="245">
         <f>SUM(Y11:Z30)</f>
         <v>0</v>
       </c>
-      <c r="Z31" s="297"/>
-      <c r="AA31" s="301">
-        <f>SUM(AA11:AB30)*AA9</f>
+      <c r="Z31" s="246"/>
+      <c r="AA31" s="251">
+        <f>INT(SUM(AA11:AB30)*AA9)</f>
         <v>0</v>
       </c>
-      <c r="AB31" s="297"/>
+      <c r="AB31" s="246"/>
       <c r="AC31" s="156"/>
       <c r="AD31" s="55"/>
       <c r="AE31" s="55"/>
@@ -6463,15 +6463,15 @@
       <c r="AN31" s="55"/>
       <c r="AO31" s="55"/>
       <c r="AP31" s="87"/>
-      <c r="AQ31" s="305"/>
-      <c r="AR31" s="207"/>
+      <c r="AQ31" s="255"/>
+      <c r="AR31" s="187"/>
       <c r="AS31" s="50"/>
       <c r="AT31" s="50"/>
       <c r="AU31" s="50"/>
       <c r="AV31" s="50"/>
       <c r="AW31" s="50"/>
       <c r="AX31" s="50"/>
-      <c r="AY31" s="233"/>
+      <c r="AY31" s="198"/>
       <c r="AZ31" s="115"/>
       <c r="BA31" s="116"/>
       <c r="BB31" s="117"/>
@@ -6479,22 +6479,22 @@
       <c r="BD31" s="119"/>
       <c r="BE31" s="73"/>
       <c r="BF31" s="50"/>
-      <c r="BG31" s="331"/>
-      <c r="BH31" s="188"/>
-      <c r="BI31" s="188"/>
-      <c r="BJ31" s="188"/>
-      <c r="BK31" s="188"/>
-      <c r="BL31" s="188"/>
-      <c r="BM31" s="188"/>
-      <c r="BN31" s="188"/>
-      <c r="BO31" s="188"/>
-      <c r="BP31" s="188"/>
-      <c r="BQ31" s="188"/>
-      <c r="BR31" s="188"/>
-      <c r="BS31" s="188"/>
-      <c r="BT31" s="188"/>
-      <c r="BU31" s="188"/>
-      <c r="BV31" s="188"/>
+      <c r="BG31" s="242"/>
+      <c r="BH31" s="185"/>
+      <c r="BI31" s="185"/>
+      <c r="BJ31" s="185"/>
+      <c r="BK31" s="185"/>
+      <c r="BL31" s="185"/>
+      <c r="BM31" s="185"/>
+      <c r="BN31" s="185"/>
+      <c r="BO31" s="185"/>
+      <c r="BP31" s="185"/>
+      <c r="BQ31" s="185"/>
+      <c r="BR31" s="185"/>
+      <c r="BS31" s="185"/>
+      <c r="BT31" s="185"/>
+      <c r="BU31" s="185"/>
+      <c r="BV31" s="185"/>
       <c r="CG31" s="18"/>
       <c r="CH31" s="18"/>
       <c r="CI31" s="18"/>
@@ -6537,16 +6537,16 @@
       <c r="S32" s="175"/>
       <c r="T32" s="175"/>
       <c r="U32" s="167"/>
-      <c r="V32" s="337"/>
+      <c r="V32" s="208"/>
       <c r="W32" s="15"/>
-      <c r="X32" s="307" t="e">
+      <c r="X32" s="257" t="e">
         <f>Y31/Y6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y32" s="185"/>
-      <c r="Z32" s="185"/>
-      <c r="AA32" s="185"/>
-      <c r="AB32" s="185"/>
+      <c r="Y32" s="192"/>
+      <c r="Z32" s="192"/>
+      <c r="AA32" s="192"/>
+      <c r="AB32" s="192"/>
       <c r="AC32" s="157"/>
       <c r="AD32" s="120"/>
       <c r="AE32" s="120"/>
@@ -6561,15 +6561,15 @@
       <c r="AN32" s="120"/>
       <c r="AO32" s="120"/>
       <c r="AP32" s="87"/>
-      <c r="AQ32" s="238"/>
-      <c r="AR32" s="227"/>
+      <c r="AQ32" s="312"/>
+      <c r="AR32" s="205"/>
       <c r="AS32" s="50"/>
       <c r="AT32" s="50"/>
       <c r="AU32" s="50"/>
       <c r="AV32" s="50"/>
       <c r="AW32" s="50"/>
       <c r="AX32" s="50"/>
-      <c r="AY32" s="233"/>
+      <c r="AY32" s="198"/>
       <c r="AZ32" s="121"/>
       <c r="BA32" s="122"/>
       <c r="BB32" s="123"/>
@@ -6577,22 +6577,22 @@
       <c r="BD32" s="125"/>
       <c r="BE32" s="73"/>
       <c r="BF32" s="50"/>
-      <c r="BG32" s="188"/>
-      <c r="BH32" s="188"/>
-      <c r="BI32" s="188"/>
-      <c r="BJ32" s="188"/>
-      <c r="BK32" s="188"/>
-      <c r="BL32" s="188"/>
-      <c r="BM32" s="188"/>
-      <c r="BN32" s="188"/>
-      <c r="BO32" s="188"/>
-      <c r="BP32" s="188"/>
-      <c r="BQ32" s="188"/>
-      <c r="BR32" s="188"/>
-      <c r="BS32" s="188"/>
-      <c r="BT32" s="188"/>
-      <c r="BU32" s="188"/>
-      <c r="BV32" s="188"/>
+      <c r="BG32" s="185"/>
+      <c r="BH32" s="185"/>
+      <c r="BI32" s="185"/>
+      <c r="BJ32" s="185"/>
+      <c r="BK32" s="185"/>
+      <c r="BL32" s="185"/>
+      <c r="BM32" s="185"/>
+      <c r="BN32" s="185"/>
+      <c r="BO32" s="185"/>
+      <c r="BP32" s="185"/>
+      <c r="BQ32" s="185"/>
+      <c r="BR32" s="185"/>
+      <c r="BS32" s="185"/>
+      <c r="BT32" s="185"/>
+      <c r="BU32" s="185"/>
+      <c r="BV32" s="185"/>
       <c r="CG32" s="18"/>
       <c r="CH32" s="18"/>
       <c r="CI32" s="18"/>
@@ -6639,13 +6639,13 @@
       <c r="S33" s="175"/>
       <c r="T33" s="175"/>
       <c r="U33" s="167"/>
-      <c r="V33" s="337"/>
+      <c r="V33" s="208"/>
       <c r="W33" s="14"/>
-      <c r="X33" s="267"/>
-      <c r="Y33" s="267"/>
-      <c r="Z33" s="267"/>
-      <c r="AA33" s="267"/>
-      <c r="AB33" s="267"/>
+      <c r="X33" s="258"/>
+      <c r="Y33" s="258"/>
+      <c r="Z33" s="258"/>
+      <c r="AA33" s="258"/>
+      <c r="AB33" s="258"/>
       <c r="AC33" s="55"/>
       <c r="AD33" s="158"/>
       <c r="AE33" s="55"/>
@@ -6660,15 +6660,15 @@
       <c r="AN33" s="55"/>
       <c r="AO33" s="55"/>
       <c r="AP33" s="87"/>
-      <c r="AQ33" s="330"/>
-      <c r="AR33" s="227"/>
+      <c r="AQ33" s="241"/>
+      <c r="AR33" s="205"/>
       <c r="AS33" s="50"/>
       <c r="AT33" s="50"/>
       <c r="AU33" s="50"/>
       <c r="AV33" s="50"/>
       <c r="AW33" s="50"/>
       <c r="AX33" s="50"/>
-      <c r="AY33" s="288"/>
+      <c r="AY33" s="284"/>
       <c r="AZ33" s="126"/>
       <c r="BA33" s="127"/>
       <c r="BB33" s="128"/>
@@ -6676,22 +6676,22 @@
       <c r="BD33" s="130"/>
       <c r="BE33" s="73"/>
       <c r="BF33" s="50"/>
-      <c r="BG33" s="306"/>
-      <c r="BH33" s="188"/>
-      <c r="BI33" s="188"/>
-      <c r="BJ33" s="188"/>
-      <c r="BK33" s="188"/>
-      <c r="BL33" s="188"/>
-      <c r="BM33" s="188"/>
-      <c r="BN33" s="188"/>
-      <c r="BO33" s="188"/>
-      <c r="BP33" s="304"/>
-      <c r="BQ33" s="188"/>
-      <c r="BR33" s="188"/>
-      <c r="BS33" s="188"/>
-      <c r="BT33" s="323"/>
-      <c r="BU33" s="188"/>
-      <c r="BV33" s="188"/>
+      <c r="BG33" s="256"/>
+      <c r="BH33" s="185"/>
+      <c r="BI33" s="185"/>
+      <c r="BJ33" s="185"/>
+      <c r="BK33" s="185"/>
+      <c r="BL33" s="185"/>
+      <c r="BM33" s="185"/>
+      <c r="BN33" s="185"/>
+      <c r="BO33" s="185"/>
+      <c r="BP33" s="254"/>
+      <c r="BQ33" s="185"/>
+      <c r="BR33" s="185"/>
+      <c r="BS33" s="185"/>
+      <c r="BT33" s="229"/>
+      <c r="BU33" s="185"/>
+      <c r="BV33" s="185"/>
       <c r="CG33" s="18"/>
       <c r="CH33" s="18"/>
       <c r="CI33" s="18"/>
@@ -6738,15 +6738,15 @@
       <c r="S34" s="175"/>
       <c r="T34" s="175"/>
       <c r="U34" s="167"/>
-      <c r="V34" s="337"/>
+      <c r="V34" s="208"/>
       <c r="W34" s="12"/>
-      <c r="X34" s="328" t="s">
+      <c r="X34" s="239" t="s">
         <v>15</v>
       </c>
-      <c r="Y34" s="185"/>
-      <c r="Z34" s="185"/>
-      <c r="AA34" s="185"/>
-      <c r="AB34" s="186"/>
+      <c r="Y34" s="192"/>
+      <c r="Z34" s="192"/>
+      <c r="AA34" s="192"/>
+      <c r="AB34" s="193"/>
       <c r="AC34" s="56"/>
       <c r="AD34" s="56"/>
       <c r="AE34" s="56"/>
@@ -6761,15 +6761,15 @@
       <c r="AN34" s="56"/>
       <c r="AO34" s="56"/>
       <c r="AP34" s="131"/>
-      <c r="AQ34" s="262"/>
-      <c r="AR34" s="263"/>
+      <c r="AQ34" s="302"/>
+      <c r="AR34" s="303"/>
       <c r="AS34" s="50"/>
       <c r="AT34" s="50"/>
       <c r="AU34" s="50"/>
       <c r="AV34" s="50"/>
       <c r="AW34" s="50"/>
       <c r="AX34" s="50"/>
-      <c r="AY34" s="233"/>
+      <c r="AY34" s="198"/>
       <c r="AZ34" s="132"/>
       <c r="BA34" s="133"/>
       <c r="BB34" s="134"/>
@@ -6777,22 +6777,22 @@
       <c r="BD34" s="136"/>
       <c r="BE34" s="73"/>
       <c r="BF34" s="50"/>
-      <c r="BG34" s="271"/>
-      <c r="BH34" s="188"/>
-      <c r="BI34" s="188"/>
-      <c r="BJ34" s="188"/>
-      <c r="BK34" s="188"/>
-      <c r="BL34" s="188"/>
-      <c r="BM34" s="300"/>
-      <c r="BN34" s="188"/>
-      <c r="BO34" s="188"/>
-      <c r="BP34" s="188"/>
-      <c r="BQ34" s="188"/>
-      <c r="BR34" s="298"/>
-      <c r="BS34" s="334"/>
-      <c r="BT34" s="188"/>
-      <c r="BU34" s="188"/>
-      <c r="BV34" s="188"/>
+      <c r="BG34" s="267"/>
+      <c r="BH34" s="185"/>
+      <c r="BI34" s="185"/>
+      <c r="BJ34" s="185"/>
+      <c r="BK34" s="185"/>
+      <c r="BL34" s="185"/>
+      <c r="BM34" s="249"/>
+      <c r="BN34" s="185"/>
+      <c r="BO34" s="185"/>
+      <c r="BP34" s="185"/>
+      <c r="BQ34" s="185"/>
+      <c r="BR34" s="247"/>
+      <c r="BS34" s="202"/>
+      <c r="BT34" s="185"/>
+      <c r="BU34" s="185"/>
+      <c r="BV34" s="185"/>
       <c r="CG34" s="18"/>
       <c r="CH34" s="18"/>
       <c r="CI34" s="18"/>
@@ -6818,13 +6818,13 @@
       <c r="DC34" s="18"/>
     </row>
     <row r="35" spans="1:107" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="193" t="s">
+      <c r="B35" s="317" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="185"/>
-      <c r="D35" s="185"/>
-      <c r="E35" s="185"/>
-      <c r="F35" s="185"/>
+      <c r="C35" s="192"/>
+      <c r="D35" s="192"/>
+      <c r="E35" s="192"/>
+      <c r="F35" s="192"/>
       <c r="G35" s="168"/>
       <c r="H35" s="169"/>
       <c r="I35" s="169"/>
@@ -6840,13 +6840,13 @@
       <c r="S35" s="169"/>
       <c r="T35" s="169"/>
       <c r="U35" s="170"/>
-      <c r="V35" s="338"/>
+      <c r="V35" s="209"/>
       <c r="W35" s="16"/>
-      <c r="X35" s="209"/>
-      <c r="Y35" s="210"/>
-      <c r="Z35" s="210"/>
-      <c r="AA35" s="210"/>
-      <c r="AB35" s="211"/>
+      <c r="X35" s="328"/>
+      <c r="Y35" s="329"/>
+      <c r="Z35" s="329"/>
+      <c r="AA35" s="329"/>
+      <c r="AB35" s="330"/>
       <c r="AC35" s="56"/>
       <c r="AD35" s="56"/>
       <c r="AE35" s="56"/>
@@ -6861,8 +6861,8 @@
       <c r="AN35" s="56"/>
       <c r="AO35" s="56"/>
       <c r="AP35" s="137"/>
-      <c r="AQ35" s="260"/>
-      <c r="AR35" s="233"/>
+      <c r="AQ35" s="203"/>
+      <c r="AR35" s="198"/>
       <c r="AS35" s="69"/>
       <c r="AT35" s="69"/>
       <c r="AU35" s="69"/>
@@ -6870,29 +6870,29 @@
       <c r="AW35" s="69"/>
       <c r="AX35" s="69"/>
       <c r="AY35" s="69"/>
-      <c r="AZ35" s="256"/>
-      <c r="BA35" s="257"/>
-      <c r="BB35" s="257"/>
-      <c r="BC35" s="257"/>
-      <c r="BD35" s="258"/>
+      <c r="AZ35" s="236"/>
+      <c r="BA35" s="237"/>
+      <c r="BB35" s="237"/>
+      <c r="BC35" s="237"/>
+      <c r="BD35" s="238"/>
       <c r="BE35" s="73"/>
       <c r="BF35" s="50"/>
-      <c r="BG35" s="188"/>
-      <c r="BH35" s="188"/>
-      <c r="BI35" s="188"/>
-      <c r="BJ35" s="188"/>
-      <c r="BK35" s="188"/>
-      <c r="BL35" s="188"/>
-      <c r="BM35" s="265"/>
-      <c r="BN35" s="188"/>
-      <c r="BO35" s="188"/>
-      <c r="BP35" s="188"/>
-      <c r="BQ35" s="188"/>
-      <c r="BR35" s="188"/>
-      <c r="BS35" s="265"/>
-      <c r="BT35" s="188"/>
-      <c r="BU35" s="188"/>
-      <c r="BV35" s="188"/>
+      <c r="BG35" s="185"/>
+      <c r="BH35" s="185"/>
+      <c r="BI35" s="185"/>
+      <c r="BJ35" s="185"/>
+      <c r="BK35" s="185"/>
+      <c r="BL35" s="185"/>
+      <c r="BM35" s="216"/>
+      <c r="BN35" s="185"/>
+      <c r="BO35" s="185"/>
+      <c r="BP35" s="185"/>
+      <c r="BQ35" s="185"/>
+      <c r="BR35" s="185"/>
+      <c r="BS35" s="216"/>
+      <c r="BT35" s="185"/>
+      <c r="BU35" s="185"/>
+      <c r="BV35" s="185"/>
       <c r="CG35" s="18"/>
       <c r="CH35" s="18"/>
       <c r="CI35" s="18"/>
@@ -6919,31 +6919,31 @@
     </row>
     <row r="36" spans="1:107" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="63"/>
-      <c r="G36" s="315" t="str">
+      <c r="G36" s="221" t="str">
         <f>"Estimates Based on Geofence and "&amp;AA7&amp;" Role"</f>
         <v>Estimates Based on Geofence and  Role</v>
       </c>
-      <c r="H36" s="316"/>
-      <c r="I36" s="316"/>
-      <c r="J36" s="317"/>
-      <c r="K36" s="317"/>
-      <c r="L36" s="317"/>
-      <c r="M36" s="317"/>
-      <c r="N36" s="317"/>
-      <c r="O36" s="317"/>
-      <c r="P36" s="317"/>
-      <c r="Q36" s="317"/>
-      <c r="R36" s="317"/>
-      <c r="S36" s="317"/>
-      <c r="T36" s="317"/>
-      <c r="U36" s="317"/>
-      <c r="V36" s="318"/>
+      <c r="H36" s="222"/>
+      <c r="I36" s="222"/>
+      <c r="J36" s="223"/>
+      <c r="K36" s="223"/>
+      <c r="L36" s="223"/>
+      <c r="M36" s="223"/>
+      <c r="N36" s="223"/>
+      <c r="O36" s="223"/>
+      <c r="P36" s="223"/>
+      <c r="Q36" s="223"/>
+      <c r="R36" s="223"/>
+      <c r="S36" s="223"/>
+      <c r="T36" s="223"/>
+      <c r="U36" s="223"/>
+      <c r="V36" s="224"/>
       <c r="W36" s="17"/>
-      <c r="X36" s="212"/>
-      <c r="Y36" s="213"/>
-      <c r="Z36" s="213"/>
-      <c r="AA36" s="213"/>
-      <c r="AB36" s="214"/>
+      <c r="X36" s="331"/>
+      <c r="Y36" s="332"/>
+      <c r="Z36" s="332"/>
+      <c r="AA36" s="332"/>
+      <c r="AB36" s="220"/>
       <c r="AC36" s="138"/>
       <c r="AD36" s="138"/>
       <c r="AE36" s="138"/>
@@ -6958,8 +6958,8 @@
       <c r="AN36" s="138"/>
       <c r="AO36" s="138"/>
       <c r="AP36" s="137"/>
-      <c r="AQ36" s="260"/>
-      <c r="AR36" s="233"/>
+      <c r="AQ36" s="203"/>
+      <c r="AR36" s="198"/>
       <c r="AS36" s="69"/>
       <c r="AT36" s="69"/>
       <c r="AU36" s="69"/>
@@ -6967,11 +6967,11 @@
       <c r="AW36" s="69"/>
       <c r="AX36" s="69"/>
       <c r="AY36" s="69"/>
-      <c r="AZ36" s="256"/>
-      <c r="BA36" s="257"/>
-      <c r="BB36" s="257"/>
-      <c r="BC36" s="257"/>
-      <c r="BD36" s="258"/>
+      <c r="AZ36" s="236"/>
+      <c r="BA36" s="237"/>
+      <c r="BB36" s="237"/>
+      <c r="BC36" s="237"/>
+      <c r="BD36" s="238"/>
       <c r="BE36" s="73"/>
       <c r="BF36" s="50"/>
       <c r="BG36" s="50"/>
@@ -7020,27 +7020,27 @@
       <c r="D37" s="180"/>
       <c r="E37" s="180"/>
       <c r="F37" s="180"/>
-      <c r="G37" s="319"/>
-      <c r="H37" s="320"/>
-      <c r="I37" s="320"/>
-      <c r="J37" s="321"/>
-      <c r="K37" s="321"/>
-      <c r="L37" s="321"/>
-      <c r="M37" s="321"/>
-      <c r="N37" s="321"/>
-      <c r="O37" s="321"/>
-      <c r="P37" s="321"/>
-      <c r="Q37" s="321"/>
-      <c r="R37" s="321"/>
-      <c r="S37" s="321"/>
-      <c r="T37" s="321"/>
-      <c r="U37" s="321"/>
-      <c r="V37" s="322"/>
-      <c r="X37" s="212"/>
-      <c r="Y37" s="213"/>
-      <c r="Z37" s="213"/>
-      <c r="AA37" s="213"/>
-      <c r="AB37" s="214"/>
+      <c r="G37" s="225"/>
+      <c r="H37" s="226"/>
+      <c r="I37" s="226"/>
+      <c r="J37" s="227"/>
+      <c r="K37" s="227"/>
+      <c r="L37" s="227"/>
+      <c r="M37" s="227"/>
+      <c r="N37" s="227"/>
+      <c r="O37" s="227"/>
+      <c r="P37" s="227"/>
+      <c r="Q37" s="227"/>
+      <c r="R37" s="227"/>
+      <c r="S37" s="227"/>
+      <c r="T37" s="227"/>
+      <c r="U37" s="227"/>
+      <c r="V37" s="228"/>
+      <c r="X37" s="331"/>
+      <c r="Y37" s="332"/>
+      <c r="Z37" s="332"/>
+      <c r="AA37" s="332"/>
+      <c r="AB37" s="220"/>
       <c r="AD37" s="30"/>
       <c r="AE37" s="30"/>
       <c r="AF37" s="30"/>
@@ -7116,33 +7116,33 @@
       <c r="D38" s="180"/>
       <c r="E38" s="180"/>
       <c r="F38" s="39"/>
-      <c r="G38" s="223" t="s">
+      <c r="G38" s="339" t="s">
         <v>16</v>
       </c>
-      <c r="H38" s="185"/>
-      <c r="I38" s="185"/>
-      <c r="J38" s="185"/>
-      <c r="K38" s="186"/>
-      <c r="L38" s="249" t="s">
+      <c r="H38" s="192"/>
+      <c r="I38" s="192"/>
+      <c r="J38" s="192"/>
+      <c r="K38" s="193"/>
+      <c r="L38" s="294" t="s">
         <v>17</v>
       </c>
-      <c r="M38" s="185"/>
-      <c r="N38" s="185"/>
-      <c r="O38" s="185"/>
-      <c r="P38" s="185"/>
-      <c r="Q38" s="186"/>
-      <c r="R38" s="332" t="s">
+      <c r="M38" s="192"/>
+      <c r="N38" s="192"/>
+      <c r="O38" s="192"/>
+      <c r="P38" s="192"/>
+      <c r="Q38" s="193"/>
+      <c r="R38" s="191" t="s">
         <v>18</v>
       </c>
-      <c r="S38" s="185"/>
-      <c r="T38" s="185"/>
-      <c r="U38" s="185"/>
-      <c r="V38" s="186"/>
-      <c r="X38" s="212"/>
-      <c r="Y38" s="213"/>
-      <c r="Z38" s="213"/>
-      <c r="AA38" s="213"/>
-      <c r="AB38" s="214"/>
+      <c r="S38" s="192"/>
+      <c r="T38" s="192"/>
+      <c r="U38" s="192"/>
+      <c r="V38" s="193"/>
+      <c r="X38" s="331"/>
+      <c r="Y38" s="332"/>
+      <c r="Z38" s="332"/>
+      <c r="AA38" s="332"/>
+      <c r="AB38" s="220"/>
       <c r="AD38" s="30"/>
       <c r="AE38" s="30"/>
       <c r="AF38" s="30"/>
@@ -7218,32 +7218,32 @@
       <c r="D39" s="180"/>
       <c r="E39" s="180"/>
       <c r="F39" s="39"/>
-      <c r="G39" s="190"/>
-      <c r="H39" s="191"/>
-      <c r="I39" s="191"/>
-      <c r="J39" s="191"/>
-      <c r="K39" s="192"/>
-      <c r="L39" s="219" t="s">
+      <c r="G39" s="194"/>
+      <c r="H39" s="195"/>
+      <c r="I39" s="195"/>
+      <c r="J39" s="195"/>
+      <c r="K39" s="196"/>
+      <c r="L39" s="230" t="s">
         <v>19</v>
       </c>
-      <c r="M39" s="191"/>
-      <c r="N39" s="192"/>
-      <c r="O39" s="219" t="s">
+      <c r="M39" s="195"/>
+      <c r="N39" s="196"/>
+      <c r="O39" s="230" t="s">
         <v>20</v>
       </c>
-      <c r="P39" s="191"/>
-      <c r="Q39" s="192"/>
-      <c r="R39" s="190"/>
-      <c r="S39" s="191"/>
-      <c r="T39" s="191"/>
-      <c r="U39" s="191"/>
-      <c r="V39" s="192"/>
+      <c r="P39" s="195"/>
+      <c r="Q39" s="196"/>
+      <c r="R39" s="194"/>
+      <c r="S39" s="195"/>
+      <c r="T39" s="195"/>
+      <c r="U39" s="195"/>
+      <c r="V39" s="196"/>
       <c r="W39" s="1"/>
-      <c r="X39" s="212"/>
-      <c r="Y39" s="213"/>
-      <c r="Z39" s="213"/>
-      <c r="AA39" s="213"/>
-      <c r="AB39" s="214"/>
+      <c r="X39" s="331"/>
+      <c r="Y39" s="332"/>
+      <c r="Z39" s="332"/>
+      <c r="AA39" s="332"/>
+      <c r="AB39" s="220"/>
       <c r="AC39" s="51"/>
       <c r="AD39" s="51"/>
       <c r="AE39" s="51"/>
@@ -7320,39 +7320,39 @@
       <c r="D40" s="180"/>
       <c r="E40" s="180"/>
       <c r="F40" s="39"/>
-      <c r="G40" s="218" t="s">
+      <c r="G40" s="336" t="s">
         <v>21</v>
       </c>
-      <c r="H40" s="185"/>
-      <c r="I40" s="185"/>
-      <c r="J40" s="185"/>
-      <c r="K40" s="186"/>
-      <c r="L40" s="203">
+      <c r="H40" s="192"/>
+      <c r="I40" s="192"/>
+      <c r="J40" s="192"/>
+      <c r="K40" s="193"/>
+      <c r="L40" s="268">
         <f>AA31</f>
         <v>0</v>
       </c>
-      <c r="M40" s="185"/>
-      <c r="N40" s="186"/>
-      <c r="O40" s="203">
+      <c r="M40" s="192"/>
+      <c r="N40" s="193"/>
+      <c r="O40" s="268">
         <f>L40*2</f>
         <v>0</v>
       </c>
-      <c r="P40" s="185"/>
-      <c r="Q40" s="186"/>
-      <c r="R40" s="242">
+      <c r="P40" s="192"/>
+      <c r="Q40" s="193"/>
+      <c r="R40" s="201">
         <f>Y$6</f>
         <v>0</v>
       </c>
-      <c r="S40" s="185"/>
-      <c r="T40" s="185"/>
-      <c r="U40" s="185"/>
-      <c r="V40" s="186"/>
+      <c r="S40" s="192"/>
+      <c r="T40" s="192"/>
+      <c r="U40" s="192"/>
+      <c r="V40" s="193"/>
       <c r="W40" s="1"/>
-      <c r="X40" s="212"/>
-      <c r="Y40" s="213"/>
-      <c r="Z40" s="213"/>
-      <c r="AA40" s="213"/>
-      <c r="AB40" s="214"/>
+      <c r="X40" s="331"/>
+      <c r="Y40" s="332"/>
+      <c r="Z40" s="332"/>
+      <c r="AA40" s="332"/>
+      <c r="AB40" s="220"/>
       <c r="AC40" s="51"/>
       <c r="AD40" s="51"/>
       <c r="AE40" s="51"/>
@@ -7429,28 +7429,28 @@
       <c r="D41" s="180"/>
       <c r="E41" s="180"/>
       <c r="F41" s="39"/>
-      <c r="G41" s="191"/>
-      <c r="H41" s="191"/>
-      <c r="I41" s="191"/>
-      <c r="J41" s="191"/>
-      <c r="K41" s="192"/>
-      <c r="L41" s="190"/>
-      <c r="M41" s="191"/>
-      <c r="N41" s="192"/>
-      <c r="O41" s="190"/>
-      <c r="P41" s="191"/>
-      <c r="Q41" s="192"/>
-      <c r="R41" s="190"/>
-      <c r="S41" s="191"/>
-      <c r="T41" s="191"/>
-      <c r="U41" s="191"/>
-      <c r="V41" s="192"/>
+      <c r="G41" s="195"/>
+      <c r="H41" s="195"/>
+      <c r="I41" s="195"/>
+      <c r="J41" s="195"/>
+      <c r="K41" s="196"/>
+      <c r="L41" s="194"/>
+      <c r="M41" s="195"/>
+      <c r="N41" s="196"/>
+      <c r="O41" s="194"/>
+      <c r="P41" s="195"/>
+      <c r="Q41" s="196"/>
+      <c r="R41" s="194"/>
+      <c r="S41" s="195"/>
+      <c r="T41" s="195"/>
+      <c r="U41" s="195"/>
+      <c r="V41" s="196"/>
       <c r="W41" s="1"/>
-      <c r="X41" s="212"/>
-      <c r="Y41" s="213"/>
-      <c r="Z41" s="213"/>
-      <c r="AA41" s="213"/>
-      <c r="AB41" s="214"/>
+      <c r="X41" s="331"/>
+      <c r="Y41" s="332"/>
+      <c r="Z41" s="332"/>
+      <c r="AA41" s="332"/>
+      <c r="AB41" s="220"/>
       <c r="AC41" s="51"/>
       <c r="AD41" s="51"/>
       <c r="AE41" s="51"/>
@@ -7527,39 +7527,39 @@
       <c r="D42" s="180"/>
       <c r="E42" s="180"/>
       <c r="F42" s="39"/>
-      <c r="G42" s="218" t="s">
+      <c r="G42" s="336" t="s">
         <v>22</v>
       </c>
-      <c r="H42" s="185"/>
-      <c r="I42" s="185"/>
-      <c r="J42" s="185"/>
-      <c r="K42" s="186"/>
-      <c r="L42" s="203">
+      <c r="H42" s="192"/>
+      <c r="I42" s="192"/>
+      <c r="J42" s="192"/>
+      <c r="K42" s="193"/>
+      <c r="L42" s="268">
         <f>L40/2</f>
         <v>0</v>
       </c>
-      <c r="M42" s="185"/>
-      <c r="N42" s="186"/>
-      <c r="O42" s="203">
+      <c r="M42" s="192"/>
+      <c r="N42" s="193"/>
+      <c r="O42" s="268">
         <f>L42*2.333</f>
         <v>0</v>
       </c>
-      <c r="P42" s="185"/>
-      <c r="Q42" s="186"/>
-      <c r="R42" s="242">
+      <c r="P42" s="192"/>
+      <c r="Q42" s="193"/>
+      <c r="R42" s="201">
         <f>Y$7</f>
         <v>0</v>
       </c>
-      <c r="S42" s="185"/>
-      <c r="T42" s="185"/>
-      <c r="U42" s="185"/>
-      <c r="V42" s="186"/>
+      <c r="S42" s="192"/>
+      <c r="T42" s="192"/>
+      <c r="U42" s="192"/>
+      <c r="V42" s="193"/>
       <c r="W42" s="1"/>
-      <c r="X42" s="212"/>
-      <c r="Y42" s="213"/>
-      <c r="Z42" s="213"/>
-      <c r="AA42" s="213"/>
-      <c r="AB42" s="214"/>
+      <c r="X42" s="331"/>
+      <c r="Y42" s="332"/>
+      <c r="Z42" s="332"/>
+      <c r="AA42" s="332"/>
+      <c r="AB42" s="220"/>
       <c r="AC42" s="51"/>
       <c r="AD42" s="51"/>
       <c r="AE42" s="51"/>
@@ -7575,7 +7575,7 @@
       <c r="AO42" s="51"/>
       <c r="AP42" s="52"/>
       <c r="AQ42" s="52"/>
-      <c r="AR42" s="259"/>
+      <c r="AR42" s="300"/>
       <c r="AS42" s="69"/>
       <c r="AT42" s="69"/>
       <c r="AU42" s="69"/>
@@ -7636,28 +7636,28 @@
       <c r="D43" s="180"/>
       <c r="E43" s="180"/>
       <c r="F43" s="39"/>
-      <c r="G43" s="191"/>
-      <c r="H43" s="191"/>
-      <c r="I43" s="191"/>
-      <c r="J43" s="191"/>
-      <c r="K43" s="192"/>
-      <c r="L43" s="190"/>
-      <c r="M43" s="191"/>
-      <c r="N43" s="192"/>
-      <c r="O43" s="190"/>
-      <c r="P43" s="191"/>
-      <c r="Q43" s="192"/>
-      <c r="R43" s="190"/>
-      <c r="S43" s="191"/>
-      <c r="T43" s="191"/>
-      <c r="U43" s="191"/>
-      <c r="V43" s="192"/>
+      <c r="G43" s="195"/>
+      <c r="H43" s="195"/>
+      <c r="I43" s="195"/>
+      <c r="J43" s="195"/>
+      <c r="K43" s="196"/>
+      <c r="L43" s="194"/>
+      <c r="M43" s="195"/>
+      <c r="N43" s="196"/>
+      <c r="O43" s="194"/>
+      <c r="P43" s="195"/>
+      <c r="Q43" s="196"/>
+      <c r="R43" s="194"/>
+      <c r="S43" s="195"/>
+      <c r="T43" s="195"/>
+      <c r="U43" s="195"/>
+      <c r="V43" s="196"/>
       <c r="W43" s="1"/>
-      <c r="X43" s="212"/>
-      <c r="Y43" s="213"/>
-      <c r="Z43" s="213"/>
-      <c r="AA43" s="213"/>
-      <c r="AB43" s="214"/>
+      <c r="X43" s="331"/>
+      <c r="Y43" s="332"/>
+      <c r="Z43" s="332"/>
+      <c r="AA43" s="332"/>
+      <c r="AB43" s="220"/>
       <c r="AC43" s="51"/>
       <c r="AD43" s="51"/>
       <c r="AE43" s="51"/>
@@ -7673,7 +7673,7 @@
       <c r="AO43" s="51"/>
       <c r="AP43" s="52"/>
       <c r="AQ43" s="52"/>
-      <c r="AR43" s="233"/>
+      <c r="AR43" s="198"/>
       <c r="AS43" s="69"/>
       <c r="AT43" s="69"/>
       <c r="AU43" s="69"/>
@@ -7734,39 +7734,39 @@
       <c r="D44" s="180"/>
       <c r="E44" s="180"/>
       <c r="F44" s="39"/>
-      <c r="G44" s="220" t="s">
+      <c r="G44" s="337" t="s">
         <v>23</v>
       </c>
-      <c r="H44" s="185"/>
-      <c r="I44" s="185"/>
-      <c r="J44" s="185"/>
-      <c r="K44" s="186"/>
-      <c r="L44" s="272">
+      <c r="H44" s="192"/>
+      <c r="I44" s="192"/>
+      <c r="J44" s="192"/>
+      <c r="K44" s="193"/>
+      <c r="L44" s="250">
         <f>L42/2</f>
         <v>0</v>
       </c>
-      <c r="M44" s="185"/>
-      <c r="N44" s="186"/>
-      <c r="O44" s="272">
+      <c r="M44" s="192"/>
+      <c r="N44" s="193"/>
+      <c r="O44" s="250">
         <f>L44*2.333</f>
         <v>0</v>
       </c>
-      <c r="P44" s="185"/>
-      <c r="Q44" s="186"/>
-      <c r="R44" s="261">
+      <c r="P44" s="192"/>
+      <c r="Q44" s="193"/>
+      <c r="R44" s="301">
         <f>Y$8</f>
         <v>0</v>
       </c>
-      <c r="S44" s="185"/>
-      <c r="T44" s="185"/>
-      <c r="U44" s="185"/>
-      <c r="V44" s="186"/>
+      <c r="S44" s="192"/>
+      <c r="T44" s="192"/>
+      <c r="U44" s="192"/>
+      <c r="V44" s="193"/>
       <c r="W44" s="1"/>
-      <c r="X44" s="212"/>
-      <c r="Y44" s="213"/>
-      <c r="Z44" s="213"/>
-      <c r="AA44" s="213"/>
-      <c r="AB44" s="214"/>
+      <c r="X44" s="331"/>
+      <c r="Y44" s="332"/>
+      <c r="Z44" s="332"/>
+      <c r="AA44" s="332"/>
+      <c r="AB44" s="220"/>
       <c r="AC44" s="51"/>
       <c r="AD44" s="51"/>
       <c r="AE44" s="51"/>
@@ -7843,28 +7843,28 @@
       <c r="D45" s="41"/>
       <c r="E45" s="41"/>
       <c r="F45" s="42"/>
-      <c r="G45" s="221"/>
-      <c r="H45" s="221"/>
-      <c r="I45" s="221"/>
-      <c r="J45" s="222"/>
-      <c r="K45" s="189"/>
-      <c r="L45" s="187"/>
-      <c r="M45" s="222"/>
-      <c r="N45" s="189"/>
-      <c r="O45" s="187"/>
-      <c r="P45" s="222"/>
-      <c r="Q45" s="189"/>
-      <c r="R45" s="187"/>
-      <c r="S45" s="222"/>
-      <c r="T45" s="222"/>
-      <c r="U45" s="222"/>
-      <c r="V45" s="189"/>
+      <c r="G45" s="338"/>
+      <c r="H45" s="338"/>
+      <c r="I45" s="338"/>
+      <c r="J45" s="213"/>
+      <c r="K45" s="214"/>
+      <c r="L45" s="215"/>
+      <c r="M45" s="213"/>
+      <c r="N45" s="214"/>
+      <c r="O45" s="215"/>
+      <c r="P45" s="213"/>
+      <c r="Q45" s="214"/>
+      <c r="R45" s="215"/>
+      <c r="S45" s="213"/>
+      <c r="T45" s="213"/>
+      <c r="U45" s="213"/>
+      <c r="V45" s="214"/>
       <c r="W45" s="1"/>
-      <c r="X45" s="212"/>
-      <c r="Y45" s="213"/>
-      <c r="Z45" s="213"/>
-      <c r="AA45" s="213"/>
-      <c r="AB45" s="214"/>
+      <c r="X45" s="331"/>
+      <c r="Y45" s="332"/>
+      <c r="Z45" s="332"/>
+      <c r="AA45" s="332"/>
+      <c r="AB45" s="220"/>
       <c r="AC45" s="51"/>
       <c r="AD45" s="51"/>
       <c r="AE45" s="51"/>
@@ -7936,35 +7936,35 @@
       <c r="DC45" s="18"/>
     </row>
     <row r="46" spans="1:107" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="276" t="s">
+      <c r="B46" s="272" t="s">
         <v>24</v>
       </c>
-      <c r="C46" s="277"/>
-      <c r="D46" s="277"/>
-      <c r="E46" s="277"/>
-      <c r="F46" s="277"/>
-      <c r="G46" s="277"/>
-      <c r="H46" s="277"/>
-      <c r="I46" s="277"/>
-      <c r="J46" s="277"/>
-      <c r="K46" s="277"/>
-      <c r="L46" s="277"/>
-      <c r="M46" s="277"/>
-      <c r="N46" s="277"/>
-      <c r="O46" s="277"/>
-      <c r="P46" s="277"/>
-      <c r="Q46" s="277"/>
-      <c r="R46" s="277"/>
-      <c r="S46" s="277"/>
-      <c r="T46" s="277"/>
-      <c r="U46" s="277"/>
-      <c r="V46" s="278"/>
+      <c r="C46" s="273"/>
+      <c r="D46" s="273"/>
+      <c r="E46" s="273"/>
+      <c r="F46" s="273"/>
+      <c r="G46" s="273"/>
+      <c r="H46" s="273"/>
+      <c r="I46" s="273"/>
+      <c r="J46" s="273"/>
+      <c r="K46" s="273"/>
+      <c r="L46" s="273"/>
+      <c r="M46" s="273"/>
+      <c r="N46" s="273"/>
+      <c r="O46" s="273"/>
+      <c r="P46" s="273"/>
+      <c r="Q46" s="273"/>
+      <c r="R46" s="273"/>
+      <c r="S46" s="273"/>
+      <c r="T46" s="273"/>
+      <c r="U46" s="273"/>
+      <c r="V46" s="274"/>
       <c r="W46" s="1"/>
-      <c r="X46" s="212"/>
-      <c r="Y46" s="213"/>
-      <c r="Z46" s="213"/>
-      <c r="AA46" s="213"/>
-      <c r="AB46" s="214"/>
+      <c r="X46" s="331"/>
+      <c r="Y46" s="332"/>
+      <c r="Z46" s="332"/>
+      <c r="AA46" s="332"/>
+      <c r="AB46" s="220"/>
       <c r="AC46" s="51"/>
       <c r="AD46" s="51"/>
       <c r="AE46" s="51"/>
@@ -7978,9 +7978,9 @@
       <c r="AM46" s="51"/>
       <c r="AN46" s="51"/>
       <c r="AO46" s="51"/>
-      <c r="AP46" s="333"/>
-      <c r="AQ46" s="233"/>
-      <c r="AR46" s="233"/>
+      <c r="AP46" s="197"/>
+      <c r="AQ46" s="198"/>
+      <c r="AR46" s="198"/>
       <c r="AS46" s="69"/>
       <c r="AT46" s="69"/>
       <c r="AU46" s="69"/>
@@ -8036,33 +8036,33 @@
       <c r="DC46" s="18"/>
     </row>
     <row r="47" spans="1:107" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B47" s="279"/>
-      <c r="C47" s="280"/>
-      <c r="D47" s="280"/>
-      <c r="E47" s="280"/>
-      <c r="F47" s="281"/>
-      <c r="G47" s="281"/>
-      <c r="H47" s="281"/>
-      <c r="I47" s="281"/>
-      <c r="J47" s="282"/>
-      <c r="K47" s="282"/>
-      <c r="L47" s="282"/>
-      <c r="M47" s="282"/>
-      <c r="N47" s="282"/>
-      <c r="O47" s="282"/>
-      <c r="P47" s="282"/>
-      <c r="Q47" s="282"/>
-      <c r="R47" s="282"/>
-      <c r="S47" s="282"/>
-      <c r="T47" s="282"/>
-      <c r="U47" s="282"/>
-      <c r="V47" s="283"/>
+      <c r="B47" s="275"/>
+      <c r="C47" s="276"/>
+      <c r="D47" s="276"/>
+      <c r="E47" s="276"/>
+      <c r="F47" s="277"/>
+      <c r="G47" s="277"/>
+      <c r="H47" s="277"/>
+      <c r="I47" s="277"/>
+      <c r="J47" s="278"/>
+      <c r="K47" s="278"/>
+      <c r="L47" s="278"/>
+      <c r="M47" s="278"/>
+      <c r="N47" s="278"/>
+      <c r="O47" s="278"/>
+      <c r="P47" s="278"/>
+      <c r="Q47" s="278"/>
+      <c r="R47" s="278"/>
+      <c r="S47" s="278"/>
+      <c r="T47" s="278"/>
+      <c r="U47" s="278"/>
+      <c r="V47" s="279"/>
       <c r="W47" s="1"/>
-      <c r="X47" s="215"/>
-      <c r="Y47" s="216"/>
-      <c r="Z47" s="216"/>
-      <c r="AA47" s="216"/>
-      <c r="AB47" s="217"/>
+      <c r="X47" s="333"/>
+      <c r="Y47" s="334"/>
+      <c r="Z47" s="334"/>
+      <c r="AA47" s="334"/>
+      <c r="AB47" s="335"/>
       <c r="AC47" s="51"/>
       <c r="AD47" s="51"/>
       <c r="AE47" s="51"/>
@@ -8076,9 +8076,9 @@
       <c r="AM47" s="51"/>
       <c r="AN47" s="51"/>
       <c r="AO47" s="51"/>
-      <c r="AP47" s="233"/>
-      <c r="AQ47" s="233"/>
-      <c r="AR47" s="233"/>
+      <c r="AP47" s="198"/>
+      <c r="AQ47" s="198"/>
+      <c r="AR47" s="198"/>
       <c r="AS47" s="69"/>
       <c r="AT47" s="69"/>
       <c r="AU47" s="69"/>
@@ -8134,27 +8134,27 @@
       <c r="DC47" s="18"/>
     </row>
     <row r="48" spans="1:107" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B48" s="284"/>
-      <c r="C48" s="285"/>
-      <c r="D48" s="285"/>
-      <c r="E48" s="285"/>
-      <c r="F48" s="285"/>
-      <c r="G48" s="285"/>
-      <c r="H48" s="285"/>
-      <c r="I48" s="285"/>
-      <c r="J48" s="285"/>
-      <c r="K48" s="285"/>
-      <c r="L48" s="285"/>
-      <c r="M48" s="285"/>
-      <c r="N48" s="285"/>
-      <c r="O48" s="285"/>
-      <c r="P48" s="285"/>
-      <c r="Q48" s="285"/>
-      <c r="R48" s="285"/>
-      <c r="S48" s="285"/>
-      <c r="T48" s="285"/>
-      <c r="U48" s="285"/>
-      <c r="V48" s="286"/>
+      <c r="B48" s="280"/>
+      <c r="C48" s="281"/>
+      <c r="D48" s="281"/>
+      <c r="E48" s="281"/>
+      <c r="F48" s="281"/>
+      <c r="G48" s="281"/>
+      <c r="H48" s="281"/>
+      <c r="I48" s="281"/>
+      <c r="J48" s="281"/>
+      <c r="K48" s="281"/>
+      <c r="L48" s="281"/>
+      <c r="M48" s="281"/>
+      <c r="N48" s="281"/>
+      <c r="O48" s="281"/>
+      <c r="P48" s="281"/>
+      <c r="Q48" s="281"/>
+      <c r="R48" s="281"/>
+      <c r="S48" s="281"/>
+      <c r="T48" s="281"/>
+      <c r="U48" s="281"/>
+      <c r="V48" s="282"/>
       <c r="W48" s="1"/>
       <c r="X48" s="1"/>
       <c r="Y48" s="1"/>
@@ -8590,10 +8590,10 @@
       <c r="O55" s="30"/>
       <c r="P55" s="30"/>
       <c r="Q55" s="30"/>
-      <c r="R55" s="225"/>
-      <c r="S55" s="222"/>
-      <c r="T55" s="222"/>
-      <c r="U55" s="222"/>
+      <c r="R55" s="244"/>
+      <c r="S55" s="213"/>
+      <c r="T55" s="213"/>
+      <c r="U55" s="213"/>
       <c r="V55" s="30"/>
       <c r="W55" s="30"/>
       <c r="X55" s="30"/>
@@ -8671,10 +8671,10 @@
       <c r="O56" s="30"/>
       <c r="P56" s="30"/>
       <c r="Q56" s="30"/>
-      <c r="R56" s="225"/>
-      <c r="S56" s="222"/>
-      <c r="T56" s="222"/>
-      <c r="U56" s="222"/>
+      <c r="R56" s="244"/>
+      <c r="S56" s="213"/>
+      <c r="T56" s="213"/>
+      <c r="U56" s="213"/>
       <c r="V56" s="30"/>
       <c r="W56" s="30"/>
       <c r="X56" s="30"/>
@@ -8752,10 +8752,10 @@
       <c r="O57" s="30"/>
       <c r="P57" s="30"/>
       <c r="Q57" s="30"/>
-      <c r="R57" s="225"/>
-      <c r="S57" s="222"/>
-      <c r="T57" s="222"/>
-      <c r="U57" s="222"/>
+      <c r="R57" s="244"/>
+      <c r="S57" s="213"/>
+      <c r="T57" s="213"/>
+      <c r="U57" s="213"/>
       <c r="V57" s="30"/>
       <c r="W57" s="30"/>
       <c r="X57" s="30"/>
@@ -8997,29 +8997,29 @@
       <c r="Q60" s="30"/>
       <c r="R60" s="30"/>
       <c r="S60" s="30"/>
-      <c r="T60" s="266"/>
-      <c r="U60" s="222"/>
-      <c r="V60" s="222"/>
-      <c r="W60" s="267"/>
-      <c r="X60" s="267"/>
-      <c r="Y60" s="267"/>
-      <c r="Z60" s="267"/>
-      <c r="AA60" s="267"/>
-      <c r="AB60" s="267"/>
-      <c r="AC60" s="268"/>
-      <c r="AD60" s="267"/>
-      <c r="AE60" s="267"/>
-      <c r="AF60" s="267"/>
-      <c r="AG60" s="267"/>
-      <c r="AH60" s="267"/>
-      <c r="AI60" s="267"/>
-      <c r="AJ60" s="267"/>
-      <c r="AK60" s="267"/>
-      <c r="AL60" s="267"/>
-      <c r="AM60" s="267"/>
-      <c r="AN60" s="267"/>
-      <c r="AO60" s="267"/>
-      <c r="AP60" s="189"/>
+      <c r="T60" s="263"/>
+      <c r="U60" s="213"/>
+      <c r="V60" s="213"/>
+      <c r="W60" s="258"/>
+      <c r="X60" s="258"/>
+      <c r="Y60" s="258"/>
+      <c r="Z60" s="258"/>
+      <c r="AA60" s="258"/>
+      <c r="AB60" s="258"/>
+      <c r="AC60" s="264"/>
+      <c r="AD60" s="258"/>
+      <c r="AE60" s="258"/>
+      <c r="AF60" s="258"/>
+      <c r="AG60" s="258"/>
+      <c r="AH60" s="258"/>
+      <c r="AI60" s="258"/>
+      <c r="AJ60" s="258"/>
+      <c r="AK60" s="258"/>
+      <c r="AL60" s="258"/>
+      <c r="AM60" s="258"/>
+      <c r="AN60" s="258"/>
+      <c r="AO60" s="258"/>
+      <c r="AP60" s="214"/>
       <c r="AQ60" s="18"/>
       <c r="AR60" s="18"/>
       <c r="AS60" s="18"/>
@@ -9073,35 +9073,35 @@
       <c r="K61" s="30"/>
       <c r="L61" s="30"/>
       <c r="M61" s="30"/>
-      <c r="N61" s="311"/>
-      <c r="O61" s="222"/>
-      <c r="P61" s="222"/>
-      <c r="Q61" s="222"/>
-      <c r="R61" s="189"/>
+      <c r="N61" s="212"/>
+      <c r="O61" s="213"/>
+      <c r="P61" s="213"/>
+      <c r="Q61" s="213"/>
+      <c r="R61" s="214"/>
       <c r="S61" s="30"/>
-      <c r="T61" s="187"/>
-      <c r="U61" s="222"/>
-      <c r="V61" s="222"/>
-      <c r="W61" s="267"/>
-      <c r="X61" s="267"/>
-      <c r="Y61" s="267"/>
-      <c r="Z61" s="267"/>
-      <c r="AA61" s="267"/>
-      <c r="AB61" s="267"/>
-      <c r="AC61" s="268"/>
-      <c r="AD61" s="267"/>
-      <c r="AE61" s="267"/>
-      <c r="AF61" s="267"/>
-      <c r="AG61" s="267"/>
-      <c r="AH61" s="267"/>
-      <c r="AI61" s="267"/>
-      <c r="AJ61" s="267"/>
-      <c r="AK61" s="267"/>
-      <c r="AL61" s="267"/>
-      <c r="AM61" s="267"/>
-      <c r="AN61" s="267"/>
-      <c r="AO61" s="267"/>
-      <c r="AP61" s="189"/>
+      <c r="T61" s="215"/>
+      <c r="U61" s="213"/>
+      <c r="V61" s="213"/>
+      <c r="W61" s="258"/>
+      <c r="X61" s="258"/>
+      <c r="Y61" s="258"/>
+      <c r="Z61" s="258"/>
+      <c r="AA61" s="258"/>
+      <c r="AB61" s="258"/>
+      <c r="AC61" s="264"/>
+      <c r="AD61" s="258"/>
+      <c r="AE61" s="258"/>
+      <c r="AF61" s="258"/>
+      <c r="AG61" s="258"/>
+      <c r="AH61" s="258"/>
+      <c r="AI61" s="258"/>
+      <c r="AJ61" s="258"/>
+      <c r="AK61" s="258"/>
+      <c r="AL61" s="258"/>
+      <c r="AM61" s="258"/>
+      <c r="AN61" s="258"/>
+      <c r="AO61" s="258"/>
+      <c r="AP61" s="214"/>
       <c r="AQ61" s="18"/>
       <c r="AR61" s="18"/>
       <c r="AS61" s="18"/>
@@ -9155,35 +9155,35 @@
       <c r="K62" s="30"/>
       <c r="L62" s="30"/>
       <c r="M62" s="30"/>
-      <c r="N62" s="187"/>
-      <c r="O62" s="222"/>
-      <c r="P62" s="222"/>
-      <c r="Q62" s="222"/>
-      <c r="R62" s="189"/>
+      <c r="N62" s="215"/>
+      <c r="O62" s="213"/>
+      <c r="P62" s="213"/>
+      <c r="Q62" s="213"/>
+      <c r="R62" s="214"/>
       <c r="S62" s="30"/>
-      <c r="T62" s="187"/>
-      <c r="U62" s="222"/>
-      <c r="V62" s="222"/>
-      <c r="W62" s="267"/>
-      <c r="X62" s="267"/>
-      <c r="Y62" s="267"/>
-      <c r="Z62" s="267"/>
-      <c r="AA62" s="267"/>
-      <c r="AB62" s="267"/>
-      <c r="AC62" s="268"/>
-      <c r="AD62" s="267"/>
-      <c r="AE62" s="267"/>
-      <c r="AF62" s="267"/>
-      <c r="AG62" s="267"/>
-      <c r="AH62" s="267"/>
-      <c r="AI62" s="267"/>
-      <c r="AJ62" s="267"/>
-      <c r="AK62" s="267"/>
-      <c r="AL62" s="267"/>
-      <c r="AM62" s="267"/>
-      <c r="AN62" s="267"/>
-      <c r="AO62" s="267"/>
-      <c r="AP62" s="189"/>
+      <c r="T62" s="215"/>
+      <c r="U62" s="213"/>
+      <c r="V62" s="213"/>
+      <c r="W62" s="258"/>
+      <c r="X62" s="258"/>
+      <c r="Y62" s="258"/>
+      <c r="Z62" s="258"/>
+      <c r="AA62" s="258"/>
+      <c r="AB62" s="258"/>
+      <c r="AC62" s="264"/>
+      <c r="AD62" s="258"/>
+      <c r="AE62" s="258"/>
+      <c r="AF62" s="258"/>
+      <c r="AG62" s="258"/>
+      <c r="AH62" s="258"/>
+      <c r="AI62" s="258"/>
+      <c r="AJ62" s="258"/>
+      <c r="AK62" s="258"/>
+      <c r="AL62" s="258"/>
+      <c r="AM62" s="258"/>
+      <c r="AN62" s="258"/>
+      <c r="AO62" s="258"/>
+      <c r="AP62" s="214"/>
       <c r="AQ62" s="18"/>
       <c r="AR62" s="18"/>
       <c r="AS62" s="18"/>
@@ -9237,11 +9237,11 @@
       <c r="K63" s="30"/>
       <c r="L63" s="30"/>
       <c r="M63" s="30"/>
-      <c r="N63" s="187"/>
-      <c r="O63" s="222"/>
-      <c r="P63" s="222"/>
-      <c r="Q63" s="222"/>
-      <c r="R63" s="189"/>
+      <c r="N63" s="215"/>
+      <c r="O63" s="213"/>
+      <c r="P63" s="213"/>
+      <c r="Q63" s="213"/>
+      <c r="R63" s="214"/>
       <c r="S63" s="30"/>
       <c r="T63" s="30"/>
       <c r="U63" s="30"/>
@@ -9318,11 +9318,11 @@
       <c r="K64" s="30"/>
       <c r="L64" s="30"/>
       <c r="M64" s="30"/>
-      <c r="N64" s="187"/>
-      <c r="O64" s="222"/>
-      <c r="P64" s="222"/>
-      <c r="Q64" s="222"/>
-      <c r="R64" s="189"/>
+      <c r="N64" s="215"/>
+      <c r="O64" s="213"/>
+      <c r="P64" s="213"/>
+      <c r="Q64" s="213"/>
+      <c r="R64" s="214"/>
       <c r="S64" s="30"/>
       <c r="T64" s="30"/>
       <c r="U64" s="30"/>
@@ -9399,11 +9399,11 @@
       <c r="K65" s="30"/>
       <c r="L65" s="30"/>
       <c r="M65" s="30"/>
-      <c r="N65" s="187"/>
-      <c r="O65" s="222"/>
-      <c r="P65" s="222"/>
-      <c r="Q65" s="222"/>
-      <c r="R65" s="189"/>
+      <c r="N65" s="215"/>
+      <c r="O65" s="213"/>
+      <c r="P65" s="213"/>
+      <c r="Q65" s="213"/>
+      <c r="R65" s="214"/>
       <c r="S65" s="30"/>
       <c r="T65" s="30"/>
       <c r="U65" s="30"/>
@@ -9480,11 +9480,11 @@
       <c r="K66" s="30"/>
       <c r="L66" s="30"/>
       <c r="M66" s="30"/>
-      <c r="N66" s="187"/>
-      <c r="O66" s="222"/>
-      <c r="P66" s="222"/>
-      <c r="Q66" s="222"/>
-      <c r="R66" s="189"/>
+      <c r="N66" s="215"/>
+      <c r="O66" s="213"/>
+      <c r="P66" s="213"/>
+      <c r="Q66" s="213"/>
+      <c r="R66" s="214"/>
       <c r="S66" s="30"/>
       <c r="T66" s="30"/>
       <c r="U66" s="30"/>
@@ -9561,11 +9561,11 @@
       <c r="K67" s="30"/>
       <c r="L67" s="30"/>
       <c r="M67" s="30"/>
-      <c r="N67" s="187"/>
-      <c r="O67" s="222"/>
-      <c r="P67" s="222"/>
-      <c r="Q67" s="222"/>
-      <c r="R67" s="189"/>
+      <c r="N67" s="215"/>
+      <c r="O67" s="213"/>
+      <c r="P67" s="213"/>
+      <c r="Q67" s="213"/>
+      <c r="R67" s="214"/>
       <c r="S67" s="30"/>
       <c r="T67" s="30"/>
       <c r="U67" s="30"/>
@@ -9642,11 +9642,11 @@
       <c r="K68" s="30"/>
       <c r="L68" s="30"/>
       <c r="M68" s="30"/>
-      <c r="N68" s="187"/>
-      <c r="O68" s="222"/>
-      <c r="P68" s="222"/>
-      <c r="Q68" s="222"/>
-      <c r="R68" s="189"/>
+      <c r="N68" s="215"/>
+      <c r="O68" s="213"/>
+      <c r="P68" s="213"/>
+      <c r="Q68" s="213"/>
+      <c r="R68" s="214"/>
       <c r="S68" s="30"/>
       <c r="T68" s="30"/>
       <c r="U68" s="30"/>
@@ -9723,11 +9723,11 @@
       <c r="K69" s="30"/>
       <c r="L69" s="30"/>
       <c r="M69" s="30"/>
-      <c r="N69" s="187"/>
-      <c r="O69" s="222"/>
-      <c r="P69" s="222"/>
-      <c r="Q69" s="222"/>
-      <c r="R69" s="189"/>
+      <c r="N69" s="215"/>
+      <c r="O69" s="213"/>
+      <c r="P69" s="213"/>
+      <c r="Q69" s="213"/>
+      <c r="R69" s="214"/>
       <c r="S69" s="30"/>
       <c r="T69" s="30"/>
       <c r="U69" s="30"/>
@@ -9804,11 +9804,11 @@
       <c r="K70" s="30"/>
       <c r="L70" s="30"/>
       <c r="M70" s="30"/>
-      <c r="N70" s="187"/>
-      <c r="O70" s="222"/>
-      <c r="P70" s="222"/>
-      <c r="Q70" s="222"/>
-      <c r="R70" s="189"/>
+      <c r="N70" s="215"/>
+      <c r="O70" s="213"/>
+      <c r="P70" s="213"/>
+      <c r="Q70" s="213"/>
+      <c r="R70" s="214"/>
       <c r="S70" s="30"/>
       <c r="T70" s="30"/>
       <c r="U70" s="30"/>
@@ -9885,11 +9885,11 @@
       <c r="K71" s="30"/>
       <c r="L71" s="30"/>
       <c r="M71" s="30"/>
-      <c r="N71" s="190"/>
-      <c r="O71" s="191"/>
-      <c r="P71" s="191"/>
-      <c r="Q71" s="191"/>
-      <c r="R71" s="192"/>
+      <c r="N71" s="194"/>
+      <c r="O71" s="195"/>
+      <c r="P71" s="195"/>
+      <c r="Q71" s="195"/>
+      <c r="R71" s="196"/>
       <c r="S71" s="30"/>
       <c r="T71" s="30"/>
       <c r="U71" s="30"/>
@@ -59131,24 +59131,116 @@
     </row>
   </sheetData>
   <mergeCells count="152">
-    <mergeCell ref="BH26:BP26"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="BQ25:BT25"/>
-    <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="R38:V39"/>
-    <mergeCell ref="AP46:AR47"/>
-    <mergeCell ref="BH25:BP25"/>
-    <mergeCell ref="BB16:BB17"/>
-    <mergeCell ref="R40:V41"/>
-    <mergeCell ref="BH18:BP18"/>
-    <mergeCell ref="BS34:BV34"/>
-    <mergeCell ref="AQ36:AR36"/>
-    <mergeCell ref="AA22:AB22"/>
-    <mergeCell ref="AQ30:AR30"/>
-    <mergeCell ref="BQ18:BT18"/>
-    <mergeCell ref="AQ20:AR20"/>
-    <mergeCell ref="V8:V35"/>
-    <mergeCell ref="X9:Z9"/>
+    <mergeCell ref="B5:F7"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B8:F13"/>
+    <mergeCell ref="B14:F18"/>
+    <mergeCell ref="O42:Q43"/>
+    <mergeCell ref="AA29:AB29"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="Y24:Z24"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="X35:AB47"/>
+    <mergeCell ref="Y21:Z21"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="AA24:AB24"/>
+    <mergeCell ref="G40:K41"/>
+    <mergeCell ref="O39:Q39"/>
+    <mergeCell ref="G44:K45"/>
+    <mergeCell ref="G42:K43"/>
+    <mergeCell ref="G38:K39"/>
+    <mergeCell ref="L40:N41"/>
+    <mergeCell ref="X3:AB4"/>
+    <mergeCell ref="R55:U55"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="AQ27:AR27"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AP16:AP18"/>
+    <mergeCell ref="AY30:AY32"/>
+    <mergeCell ref="Y22:Z22"/>
+    <mergeCell ref="AQ28:AR28"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="AA26:AB26"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="Y25:Z25"/>
+    <mergeCell ref="AQ32:AR32"/>
+    <mergeCell ref="Y5:AB5"/>
+    <mergeCell ref="AA25:AB25"/>
+    <mergeCell ref="R56:U56"/>
+    <mergeCell ref="AA28:AB28"/>
+    <mergeCell ref="R42:V43"/>
+    <mergeCell ref="BQ17:BT17"/>
+    <mergeCell ref="BH17:BP17"/>
+    <mergeCell ref="AQ22:AR22"/>
+    <mergeCell ref="AZ13:BD15"/>
+    <mergeCell ref="L38:Q38"/>
+    <mergeCell ref="AA30:AB30"/>
+    <mergeCell ref="BQ19:BT19"/>
+    <mergeCell ref="AQ21:AR21"/>
+    <mergeCell ref="BH19:BP19"/>
+    <mergeCell ref="Y26:Z26"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="BD16:BD17"/>
+    <mergeCell ref="AZ35:BD35"/>
+    <mergeCell ref="AR42:AR43"/>
+    <mergeCell ref="Y18:Z18"/>
+    <mergeCell ref="AQ35:AR35"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="R44:V45"/>
+    <mergeCell ref="AQ34:AR34"/>
+    <mergeCell ref="BH27:BT27"/>
+    <mergeCell ref="BS35:BV35"/>
+    <mergeCell ref="T60:AP62"/>
+    <mergeCell ref="BA16:BA17"/>
+    <mergeCell ref="Y27:Z27"/>
+    <mergeCell ref="BG34:BL35"/>
+    <mergeCell ref="L42:N43"/>
+    <mergeCell ref="O40:Q41"/>
+    <mergeCell ref="L44:N45"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="BQ21:BT21"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="BG28:BV29"/>
+    <mergeCell ref="B46:V48"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="BG30:BV30"/>
+    <mergeCell ref="AY33:AY34"/>
+    <mergeCell ref="AA19:AB19"/>
+    <mergeCell ref="AQ25:AR25"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="Y30:Z30"/>
+    <mergeCell ref="AZ16:AZ17"/>
+    <mergeCell ref="Y20:Z20"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="Y29:Z29"/>
+    <mergeCell ref="Y11:Z11"/>
+    <mergeCell ref="R57:U57"/>
+    <mergeCell ref="Y31:Z31"/>
+    <mergeCell ref="BR34:BR35"/>
+    <mergeCell ref="Y28:Z28"/>
+    <mergeCell ref="AQ29:AR29"/>
+    <mergeCell ref="BM34:BQ34"/>
+    <mergeCell ref="O44:Q45"/>
+    <mergeCell ref="AA31:AB31"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="BQ20:BT20"/>
+    <mergeCell ref="AA21:AB21"/>
+    <mergeCell ref="BH20:BP20"/>
+    <mergeCell ref="BP33:BS33"/>
+    <mergeCell ref="AQ31:AR31"/>
+    <mergeCell ref="BG33:BO33"/>
+    <mergeCell ref="X32:AB33"/>
+    <mergeCell ref="BQ22:BT22"/>
+    <mergeCell ref="AQ15:AR15"/>
+    <mergeCell ref="Y23:Z23"/>
+    <mergeCell ref="BH15:BT16"/>
+    <mergeCell ref="AQ24:AR24"/>
+    <mergeCell ref="BH22:BP22"/>
+    <mergeCell ref="AA23:AB23"/>
+    <mergeCell ref="AQ19:AR19"/>
     <mergeCell ref="N61:R71"/>
     <mergeCell ref="BM35:BQ35"/>
     <mergeCell ref="BH21:BP21"/>
@@ -59173,116 +59265,24 @@
     <mergeCell ref="BG31:BV32"/>
     <mergeCell ref="Y6:Z6"/>
     <mergeCell ref="BQ26:BT26"/>
-    <mergeCell ref="R57:U57"/>
-    <mergeCell ref="Y31:Z31"/>
-    <mergeCell ref="BR34:BR35"/>
-    <mergeCell ref="Y28:Z28"/>
-    <mergeCell ref="AQ29:AR29"/>
-    <mergeCell ref="BM34:BQ34"/>
-    <mergeCell ref="O44:Q45"/>
-    <mergeCell ref="AA31:AB31"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="BQ20:BT20"/>
-    <mergeCell ref="AA21:AB21"/>
-    <mergeCell ref="BH20:BP20"/>
-    <mergeCell ref="BP33:BS33"/>
-    <mergeCell ref="AQ31:AR31"/>
-    <mergeCell ref="BG33:BO33"/>
-    <mergeCell ref="X32:AB33"/>
-    <mergeCell ref="BQ22:BT22"/>
-    <mergeCell ref="AQ15:AR15"/>
-    <mergeCell ref="Y23:Z23"/>
-    <mergeCell ref="BH15:BT16"/>
-    <mergeCell ref="AQ24:AR24"/>
-    <mergeCell ref="BH22:BP22"/>
-    <mergeCell ref="AA23:AB23"/>
-    <mergeCell ref="AQ19:AR19"/>
-    <mergeCell ref="T60:AP62"/>
-    <mergeCell ref="BA16:BA17"/>
-    <mergeCell ref="Y27:Z27"/>
-    <mergeCell ref="BG34:BL35"/>
-    <mergeCell ref="L42:N43"/>
-    <mergeCell ref="O40:Q41"/>
-    <mergeCell ref="L44:N45"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="BQ21:BT21"/>
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="BG28:BV29"/>
-    <mergeCell ref="B46:V48"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="BG30:BV30"/>
-    <mergeCell ref="AY33:AY34"/>
-    <mergeCell ref="AA19:AB19"/>
-    <mergeCell ref="AQ25:AR25"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="Y30:Z30"/>
-    <mergeCell ref="AZ16:AZ17"/>
-    <mergeCell ref="Y20:Z20"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="Y29:Z29"/>
-    <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="R56:U56"/>
-    <mergeCell ref="AA28:AB28"/>
-    <mergeCell ref="R42:V43"/>
-    <mergeCell ref="BQ17:BT17"/>
-    <mergeCell ref="BH17:BP17"/>
-    <mergeCell ref="AQ22:AR22"/>
-    <mergeCell ref="AZ13:BD15"/>
-    <mergeCell ref="L38:Q38"/>
-    <mergeCell ref="AA30:AB30"/>
-    <mergeCell ref="BQ19:BT19"/>
-    <mergeCell ref="AQ21:AR21"/>
-    <mergeCell ref="BH19:BP19"/>
-    <mergeCell ref="Y26:Z26"/>
-    <mergeCell ref="AA14:AB14"/>
-    <mergeCell ref="BD16:BD17"/>
-    <mergeCell ref="AZ35:BD35"/>
-    <mergeCell ref="AR42:AR43"/>
-    <mergeCell ref="Y18:Z18"/>
-    <mergeCell ref="AQ35:AR35"/>
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="R44:V45"/>
-    <mergeCell ref="AQ34:AR34"/>
-    <mergeCell ref="BH27:BT27"/>
-    <mergeCell ref="BS35:BV35"/>
-    <mergeCell ref="X3:AB4"/>
-    <mergeCell ref="R55:U55"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="AQ27:AR27"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AP16:AP18"/>
-    <mergeCell ref="AY30:AY32"/>
-    <mergeCell ref="Y22:Z22"/>
-    <mergeCell ref="AQ28:AR28"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="AA26:AB26"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="Y16:Z16"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="Y25:Z25"/>
-    <mergeCell ref="AQ32:AR32"/>
-    <mergeCell ref="Y5:AB5"/>
-    <mergeCell ref="AA25:AB25"/>
-    <mergeCell ref="B5:F7"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B8:F13"/>
-    <mergeCell ref="B14:F18"/>
-    <mergeCell ref="O42:Q43"/>
-    <mergeCell ref="AA29:AB29"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="Y24:Z24"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="X35:AB47"/>
-    <mergeCell ref="Y21:Z21"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="AA24:AB24"/>
-    <mergeCell ref="G40:K41"/>
-    <mergeCell ref="O39:Q39"/>
-    <mergeCell ref="G44:K45"/>
-    <mergeCell ref="G42:K43"/>
-    <mergeCell ref="G38:K39"/>
-    <mergeCell ref="L40:N41"/>
+    <mergeCell ref="BH26:BP26"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="BQ25:BT25"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="R38:V39"/>
+    <mergeCell ref="AP46:AR47"/>
+    <mergeCell ref="BH25:BP25"/>
+    <mergeCell ref="BB16:BB17"/>
+    <mergeCell ref="R40:V41"/>
+    <mergeCell ref="BH18:BP18"/>
+    <mergeCell ref="BS34:BV34"/>
+    <mergeCell ref="AQ36:AR36"/>
+    <mergeCell ref="AA22:AB22"/>
+    <mergeCell ref="AQ30:AR30"/>
+    <mergeCell ref="BQ18:BT18"/>
+    <mergeCell ref="AQ20:AR20"/>
+    <mergeCell ref="V8:V35"/>
+    <mergeCell ref="X9:Z9"/>
   </mergeCells>
   <conditionalFormatting sqref="X32">
     <cfRule type="cellIs" dxfId="3" priority="21" stopIfTrue="1" operator="greaterThan">
